--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/slmatchups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2263" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E03764-19CF-4255-BF22-4B98D572368C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E684ACE7-C85F-421A-ACA6-7242DCCCFD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17880" yWindow="0" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1050"/>
+  <dimension ref="A1:D1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1037" workbookViewId="0">
-      <selection activeCell="C1047" sqref="C1047"/>
+    <sheetView tabSelected="1" topLeftCell="A1046" workbookViewId="0">
+      <selection activeCell="A1071" sqref="A1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15075,6 +15075,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>6</v>
+      </c>
+      <c r="B1051">
+        <v>0</v>
+      </c>
+      <c r="C1051">
+        <v>7</v>
+      </c>
+      <c r="D1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>4</v>
+      </c>
+      <c r="B1052">
+        <v>2</v>
+      </c>
+      <c r="C1052">
+        <v>3</v>
+      </c>
+      <c r="D1052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>6</v>
+      </c>
+      <c r="B1053">
+        <v>0</v>
+      </c>
+      <c r="C1053">
+        <v>4</v>
+      </c>
+      <c r="D1053">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>2</v>
+      </c>
+      <c r="B1054">
+        <v>2</v>
+      </c>
+      <c r="C1054">
+        <v>5</v>
+      </c>
+      <c r="D1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>5</v>
+      </c>
+      <c r="B1055">
+        <v>2</v>
+      </c>
+      <c r="C1055">
+        <v>3</v>
+      </c>
+      <c r="D1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>3</v>
+      </c>
+      <c r="B1056">
+        <v>0</v>
+      </c>
+      <c r="C1056">
+        <v>3</v>
+      </c>
+      <c r="D1056">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>4</v>
+      </c>
+      <c r="B1057">
+        <v>0</v>
+      </c>
+      <c r="C1057">
+        <v>5</v>
+      </c>
+      <c r="D1057">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>4</v>
+      </c>
+      <c r="B1058">
+        <v>3</v>
+      </c>
+      <c r="C1058">
+        <v>3</v>
+      </c>
+      <c r="D1058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>5</v>
+      </c>
+      <c r="B1059">
+        <v>0</v>
+      </c>
+      <c r="C1059">
+        <v>6</v>
+      </c>
+      <c r="D1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>3</v>
+      </c>
+      <c r="B1060">
+        <v>2</v>
+      </c>
+      <c r="C1060">
+        <v>6</v>
+      </c>
+      <c r="D1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>2</v>
+      </c>
+      <c r="B1061">
+        <v>2</v>
+      </c>
+      <c r="C1061">
+        <v>3</v>
+      </c>
+      <c r="D1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>5</v>
+      </c>
+      <c r="B1062">
+        <v>1</v>
+      </c>
+      <c r="C1062">
+        <v>5</v>
+      </c>
+      <c r="D1062">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>2</v>
+      </c>
+      <c r="B1063">
+        <v>3</v>
+      </c>
+      <c r="C1063">
+        <v>2</v>
+      </c>
+      <c r="D1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>6</v>
+      </c>
+      <c r="B1064">
+        <v>2</v>
+      </c>
+      <c r="C1064">
+        <v>7</v>
+      </c>
+      <c r="D1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>7</v>
+      </c>
+      <c r="B1065">
+        <v>3</v>
+      </c>
+      <c r="C1065">
+        <v>5</v>
+      </c>
+      <c r="D1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>5</v>
+      </c>
+      <c r="B1066">
+        <v>0</v>
+      </c>
+      <c r="C1066">
+        <v>6</v>
+      </c>
+      <c r="D1066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>3</v>
+      </c>
+      <c r="B1067">
+        <v>3</v>
+      </c>
+      <c r="C1067">
+        <v>2</v>
+      </c>
+      <c r="D1067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>5</v>
+      </c>
+      <c r="B1068">
+        <v>0</v>
+      </c>
+      <c r="C1068">
+        <v>6</v>
+      </c>
+      <c r="D1068">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>5</v>
+      </c>
+      <c r="B1069">
+        <v>2</v>
+      </c>
+      <c r="C1069">
+        <v>4</v>
+      </c>
+      <c r="D1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>3</v>
+      </c>
+      <c r="B1070">
+        <v>3</v>
+      </c>
+      <c r="C1070">
+        <v>3</v>
+      </c>
+      <c r="D1070">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E684ACE7-C85F-421A-ACA6-7242DCCCFD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70C07D-170A-4834-9E59-A97E814178FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="0" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19905" yWindow="885" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1070"/>
+  <dimension ref="A1:D1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1046" workbookViewId="0">
-      <selection activeCell="A1071" sqref="A1071"/>
+    <sheetView tabSelected="1" topLeftCell="A1073" workbookViewId="0">
+      <selection activeCell="A1091" sqref="A1091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15355,6 +15355,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>7</v>
+      </c>
+      <c r="B1071">
+        <v>2</v>
+      </c>
+      <c r="C1071">
+        <v>6</v>
+      </c>
+      <c r="D1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>4</v>
+      </c>
+      <c r="B1072">
+        <v>2</v>
+      </c>
+      <c r="C1072">
+        <v>5</v>
+      </c>
+      <c r="D1072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>3</v>
+      </c>
+      <c r="B1073">
+        <v>0</v>
+      </c>
+      <c r="C1073">
+        <v>3</v>
+      </c>
+      <c r="D1073">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>5</v>
+      </c>
+      <c r="B1074">
+        <v>1</v>
+      </c>
+      <c r="C1074">
+        <v>5</v>
+      </c>
+      <c r="D1074">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>3</v>
+      </c>
+      <c r="B1075">
+        <v>0</v>
+      </c>
+      <c r="C1075">
+        <v>3</v>
+      </c>
+      <c r="D1075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>2</v>
+      </c>
+      <c r="B1076">
+        <v>3</v>
+      </c>
+      <c r="C1076">
+        <v>5</v>
+      </c>
+      <c r="D1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>5</v>
+      </c>
+      <c r="B1077">
+        <v>2</v>
+      </c>
+      <c r="C1077">
+        <v>5</v>
+      </c>
+      <c r="D1077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>2</v>
+      </c>
+      <c r="B1078">
+        <v>1</v>
+      </c>
+      <c r="C1078">
+        <v>3</v>
+      </c>
+      <c r="D1078">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>7</v>
+      </c>
+      <c r="B1079">
+        <v>2</v>
+      </c>
+      <c r="C1079">
+        <v>6</v>
+      </c>
+      <c r="D1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>6</v>
+      </c>
+      <c r="B1080">
+        <v>0</v>
+      </c>
+      <c r="C1080">
+        <v>3</v>
+      </c>
+      <c r="D1080">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>4</v>
+      </c>
+      <c r="B1081">
+        <v>0</v>
+      </c>
+      <c r="C1081">
+        <v>3</v>
+      </c>
+      <c r="D1081">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>5</v>
+      </c>
+      <c r="B1082">
+        <v>0</v>
+      </c>
+      <c r="C1082">
+        <v>4</v>
+      </c>
+      <c r="D1082">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>6</v>
+      </c>
+      <c r="B1083">
+        <v>0</v>
+      </c>
+      <c r="C1083">
+        <v>4</v>
+      </c>
+      <c r="D1083">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>5</v>
+      </c>
+      <c r="B1084">
+        <v>2</v>
+      </c>
+      <c r="C1084">
+        <v>6</v>
+      </c>
+      <c r="D1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>2</v>
+      </c>
+      <c r="B1085">
+        <v>1</v>
+      </c>
+      <c r="C1085">
+        <v>5</v>
+      </c>
+      <c r="D1085">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>6</v>
+      </c>
+      <c r="B1086">
+        <v>2</v>
+      </c>
+      <c r="C1086">
+        <v>7</v>
+      </c>
+      <c r="D1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>2</v>
+      </c>
+      <c r="B1087">
+        <v>1</v>
+      </c>
+      <c r="C1087">
+        <v>3</v>
+      </c>
+      <c r="D1087">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>6</v>
+      </c>
+      <c r="B1088">
+        <v>2</v>
+      </c>
+      <c r="C1088">
+        <v>5</v>
+      </c>
+      <c r="D1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>4</v>
+      </c>
+      <c r="B1089">
+        <v>2</v>
+      </c>
+      <c r="C1089">
+        <v>4</v>
+      </c>
+      <c r="D1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>3</v>
+      </c>
+      <c r="B1090">
+        <v>3</v>
+      </c>
+      <c r="C1090">
+        <v>3</v>
+      </c>
+      <c r="D1090">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70C07D-170A-4834-9E59-A97E814178FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9729B7-1B3B-4483-AE5E-8DE64A9932FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19905" yWindow="885" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19140" yWindow="0" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1090"/>
+  <dimension ref="A1:D1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1073" workbookViewId="0">
-      <selection activeCell="A1091" sqref="A1091"/>
+    <sheetView tabSelected="1" topLeftCell="A1088" workbookViewId="0">
+      <selection activeCell="G1108" sqref="G1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15635,6 +15635,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>6</v>
+      </c>
+      <c r="B1091">
+        <v>1</v>
+      </c>
+      <c r="C1091">
+        <v>7</v>
+      </c>
+      <c r="D1091">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>3</v>
+      </c>
+      <c r="B1092">
+        <v>3</v>
+      </c>
+      <c r="C1092">
+        <v>3</v>
+      </c>
+      <c r="D1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>4</v>
+      </c>
+      <c r="B1093">
+        <v>3</v>
+      </c>
+      <c r="C1093">
+        <v>3</v>
+      </c>
+      <c r="D1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>4</v>
+      </c>
+      <c r="B1094">
+        <v>3</v>
+      </c>
+      <c r="C1094">
+        <v>4</v>
+      </c>
+      <c r="D1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>5</v>
+      </c>
+      <c r="B1095">
+        <v>2</v>
+      </c>
+      <c r="C1095">
+        <v>5</v>
+      </c>
+      <c r="D1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>6</v>
+      </c>
+      <c r="B1096">
+        <v>1</v>
+      </c>
+      <c r="C1096">
+        <v>6</v>
+      </c>
+      <c r="D1096">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>2</v>
+      </c>
+      <c r="B1097">
+        <v>2</v>
+      </c>
+      <c r="C1097">
+        <v>2</v>
+      </c>
+      <c r="D1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>6</v>
+      </c>
+      <c r="B1098">
+        <v>2</v>
+      </c>
+      <c r="C1098">
+        <v>6</v>
+      </c>
+      <c r="D1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>4</v>
+      </c>
+      <c r="B1099">
+        <v>2</v>
+      </c>
+      <c r="C1099">
+        <v>5</v>
+      </c>
+      <c r="D1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>3</v>
+      </c>
+      <c r="B1100">
+        <v>3</v>
+      </c>
+      <c r="C1100">
+        <v>4</v>
+      </c>
+      <c r="D1100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>5</v>
+      </c>
+      <c r="B1101">
+        <v>0</v>
+      </c>
+      <c r="C1101">
+        <v>5</v>
+      </c>
+      <c r="D1101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>5</v>
+      </c>
+      <c r="B1102">
+        <v>2</v>
+      </c>
+      <c r="C1102">
+        <v>7</v>
+      </c>
+      <c r="D1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>4</v>
+      </c>
+      <c r="B1103">
+        <v>3</v>
+      </c>
+      <c r="C1103">
+        <v>3</v>
+      </c>
+      <c r="D1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>5</v>
+      </c>
+      <c r="B1104">
+        <v>2</v>
+      </c>
+      <c r="C1104">
+        <v>5</v>
+      </c>
+      <c r="D1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>2</v>
+      </c>
+      <c r="B1105">
+        <v>2</v>
+      </c>
+      <c r="C1105">
+        <v>3</v>
+      </c>
+      <c r="D1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>7</v>
+      </c>
+      <c r="B1106">
+        <v>1</v>
+      </c>
+      <c r="C1106">
+        <v>6</v>
+      </c>
+      <c r="D1106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>3</v>
+      </c>
+      <c r="B1107">
+        <v>2</v>
+      </c>
+      <c r="C1107">
+        <v>3</v>
+      </c>
+      <c r="D1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>5</v>
+      </c>
+      <c r="B1108">
+        <v>3</v>
+      </c>
+      <c r="C1108">
+        <v>4</v>
+      </c>
+      <c r="D1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>2</v>
+      </c>
+      <c r="B1109">
+        <v>2</v>
+      </c>
+      <c r="C1109">
+        <v>3</v>
+      </c>
+      <c r="D1109">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9729B7-1B3B-4483-AE5E-8DE64A9932FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AF8A9-0E8B-463C-8801-F1400816E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="0" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="2625" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1109"/>
+  <dimension ref="A1:D1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1088" workbookViewId="0">
-      <selection activeCell="G1108" sqref="G1108"/>
+    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
+      <selection activeCell="J1124" sqref="J1124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15901,6 +15901,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>4</v>
+      </c>
+      <c r="B1110">
+        <v>2</v>
+      </c>
+      <c r="C1110">
+        <v>6</v>
+      </c>
+      <c r="D1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>5</v>
+      </c>
+      <c r="B1111">
+        <v>0</v>
+      </c>
+      <c r="C1111">
+        <v>4</v>
+      </c>
+      <c r="D1111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>4</v>
+      </c>
+      <c r="B1112">
+        <v>0</v>
+      </c>
+      <c r="C1112">
+        <v>6</v>
+      </c>
+      <c r="D1112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>3</v>
+      </c>
+      <c r="B1113">
+        <v>3</v>
+      </c>
+      <c r="C1113">
+        <v>2</v>
+      </c>
+      <c r="D1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>3</v>
+      </c>
+      <c r="B1114">
+        <v>2</v>
+      </c>
+      <c r="C1114">
+        <v>3</v>
+      </c>
+      <c r="D1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>6</v>
+      </c>
+      <c r="B1115">
+        <v>2</v>
+      </c>
+      <c r="C1115">
+        <v>5</v>
+      </c>
+      <c r="D1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>4</v>
+      </c>
+      <c r="B1116">
+        <v>2</v>
+      </c>
+      <c r="C1116">
+        <v>3</v>
+      </c>
+      <c r="D1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>6</v>
+      </c>
+      <c r="B1117">
+        <v>0</v>
+      </c>
+      <c r="C1117">
+        <v>5</v>
+      </c>
+      <c r="D1117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>4</v>
+      </c>
+      <c r="B1118">
+        <v>1</v>
+      </c>
+      <c r="C1118">
+        <v>4</v>
+      </c>
+      <c r="D1118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>3</v>
+      </c>
+      <c r="B1119">
+        <v>2</v>
+      </c>
+      <c r="C1119">
+        <v>3</v>
+      </c>
+      <c r="D1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>7</v>
+      </c>
+      <c r="B1120">
+        <v>2</v>
+      </c>
+      <c r="C1120">
+        <v>7</v>
+      </c>
+      <c r="D1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>4</v>
+      </c>
+      <c r="B1121">
+        <v>2</v>
+      </c>
+      <c r="C1121">
+        <v>5</v>
+      </c>
+      <c r="D1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>5</v>
+      </c>
+      <c r="B1122">
+        <v>2</v>
+      </c>
+      <c r="C1122">
+        <v>5</v>
+      </c>
+      <c r="D1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>3</v>
+      </c>
+      <c r="B1123">
+        <v>3</v>
+      </c>
+      <c r="C1123">
+        <v>2</v>
+      </c>
+      <c r="D1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>4</v>
+      </c>
+      <c r="B1124">
+        <v>2</v>
+      </c>
+      <c r="C1124">
+        <v>2</v>
+      </c>
+      <c r="D1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>3</v>
+      </c>
+      <c r="B1125">
+        <v>0</v>
+      </c>
+      <c r="C1125">
+        <v>3</v>
+      </c>
+      <c r="D1125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>5</v>
+      </c>
+      <c r="B1126">
+        <v>0</v>
+      </c>
+      <c r="C1126">
+        <v>5</v>
+      </c>
+      <c r="D1126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>5</v>
+      </c>
+      <c r="B1127">
+        <v>1</v>
+      </c>
+      <c r="C1127">
+        <v>6</v>
+      </c>
+      <c r="D1127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>6</v>
+      </c>
+      <c r="B1128">
+        <v>3</v>
+      </c>
+      <c r="C1128">
+        <v>4</v>
+      </c>
+      <c r="D1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>4</v>
+      </c>
+      <c r="B1129">
+        <v>2</v>
+      </c>
+      <c r="C1129">
+        <v>4</v>
+      </c>
+      <c r="D1129">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AF8A9-0E8B-463C-8801-F1400816E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04926E6F-9AF5-4953-B66B-ACBFEE3D205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2625" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="3390" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1129"/>
+  <dimension ref="A1:D1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
-      <selection activeCell="J1124" sqref="J1124"/>
+    <sheetView tabSelected="1" topLeftCell="A1127" workbookViewId="0">
+      <selection activeCell="A1150" sqref="A1150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16181,6 +16181,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>5</v>
+      </c>
+      <c r="B1130">
+        <v>1</v>
+      </c>
+      <c r="C1130">
+        <v>4</v>
+      </c>
+      <c r="D1130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>3</v>
+      </c>
+      <c r="B1131">
+        <v>1</v>
+      </c>
+      <c r="C1131">
+        <v>3</v>
+      </c>
+      <c r="D1131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>5</v>
+      </c>
+      <c r="B1132">
+        <v>0</v>
+      </c>
+      <c r="C1132">
+        <v>5</v>
+      </c>
+      <c r="D1132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>6</v>
+      </c>
+      <c r="B1133">
+        <v>3</v>
+      </c>
+      <c r="C1133">
+        <v>3</v>
+      </c>
+      <c r="D1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>3</v>
+      </c>
+      <c r="B1134">
+        <v>2</v>
+      </c>
+      <c r="C1134">
+        <v>2</v>
+      </c>
+      <c r="D1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>3</v>
+      </c>
+      <c r="B1135">
+        <v>2</v>
+      </c>
+      <c r="C1135">
+        <v>2</v>
+      </c>
+      <c r="D1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>6</v>
+      </c>
+      <c r="B1136">
+        <v>0</v>
+      </c>
+      <c r="C1136">
+        <v>6</v>
+      </c>
+      <c r="D1136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>3</v>
+      </c>
+      <c r="B1137">
+        <v>3</v>
+      </c>
+      <c r="C1137">
+        <v>3</v>
+      </c>
+      <c r="D1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>6</v>
+      </c>
+      <c r="B1138">
+        <v>2</v>
+      </c>
+      <c r="C1138">
+        <v>6</v>
+      </c>
+      <c r="D1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>3</v>
+      </c>
+      <c r="B1139">
+        <v>1</v>
+      </c>
+      <c r="C1139">
+        <v>3</v>
+      </c>
+      <c r="D1139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>4</v>
+      </c>
+      <c r="B1140">
+        <v>2</v>
+      </c>
+      <c r="C1140">
+        <v>3</v>
+      </c>
+      <c r="D1140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>3</v>
+      </c>
+      <c r="B1141">
+        <v>3</v>
+      </c>
+      <c r="C1141">
+        <v>3</v>
+      </c>
+      <c r="D1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>4</v>
+      </c>
+      <c r="B1142">
+        <v>3</v>
+      </c>
+      <c r="C1142">
+        <v>4</v>
+      </c>
+      <c r="D1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>6</v>
+      </c>
+      <c r="B1143">
+        <v>2</v>
+      </c>
+      <c r="C1143">
+        <v>5</v>
+      </c>
+      <c r="D1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>5</v>
+      </c>
+      <c r="B1144">
+        <v>2</v>
+      </c>
+      <c r="C1144">
+        <v>6</v>
+      </c>
+      <c r="D1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>5</v>
+      </c>
+      <c r="B1145">
+        <v>2</v>
+      </c>
+      <c r="C1145">
+        <v>5</v>
+      </c>
+      <c r="D1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>4</v>
+      </c>
+      <c r="B1146">
+        <v>0</v>
+      </c>
+      <c r="C1146">
+        <v>4</v>
+      </c>
+      <c r="D1146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>2</v>
+      </c>
+      <c r="B1147">
+        <v>3</v>
+      </c>
+      <c r="C1147">
+        <v>3</v>
+      </c>
+      <c r="D1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>6</v>
+      </c>
+      <c r="B1148">
+        <v>3</v>
+      </c>
+      <c r="C1148">
+        <v>5</v>
+      </c>
+      <c r="D1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>4</v>
+      </c>
+      <c r="B1149">
+        <v>0</v>
+      </c>
+      <c r="C1149">
+        <v>5</v>
+      </c>
+      <c r="D1149">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88237A53-07F4-41A6-9BDD-4DC3C6005DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A837E431-42D9-414D-B974-27904913079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="-3195" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1155" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1130"/>
+  <dimension ref="A1:D1150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1112" workbookViewId="0">
-      <selection activeCell="A1131" sqref="A1131"/>
+    <sheetView tabSelected="1" topLeftCell="A1127" workbookViewId="0">
+      <selection activeCell="H1136" sqref="H1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16195,6 +16195,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>5</v>
+      </c>
+      <c r="B1131">
+        <v>2</v>
+      </c>
+      <c r="C1131">
+        <v>3</v>
+      </c>
+      <c r="D1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>3</v>
+      </c>
+      <c r="B1132">
+        <v>1</v>
+      </c>
+      <c r="C1132">
+        <v>3</v>
+      </c>
+      <c r="D1132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>5</v>
+      </c>
+      <c r="B1133">
+        <v>0</v>
+      </c>
+      <c r="C1133">
+        <v>5</v>
+      </c>
+      <c r="D1133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>4</v>
+      </c>
+      <c r="B1134">
+        <v>1</v>
+      </c>
+      <c r="C1134">
+        <v>4</v>
+      </c>
+      <c r="D1134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>6</v>
+      </c>
+      <c r="B1135">
+        <v>1</v>
+      </c>
+      <c r="C1135">
+        <v>6</v>
+      </c>
+      <c r="D1135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>4</v>
+      </c>
+      <c r="B1136">
+        <v>2</v>
+      </c>
+      <c r="C1136">
+        <v>4</v>
+      </c>
+      <c r="D1136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>3</v>
+      </c>
+      <c r="B1137">
+        <v>0</v>
+      </c>
+      <c r="C1137">
+        <v>3</v>
+      </c>
+      <c r="D1137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>5</v>
+      </c>
+      <c r="B1138">
+        <v>2</v>
+      </c>
+      <c r="C1138">
+        <v>4</v>
+      </c>
+      <c r="D1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>6</v>
+      </c>
+      <c r="B1139">
+        <v>2</v>
+      </c>
+      <c r="C1139">
+        <v>6</v>
+      </c>
+      <c r="D1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>3</v>
+      </c>
+      <c r="B1140">
+        <v>1</v>
+      </c>
+      <c r="C1140">
+        <v>6</v>
+      </c>
+      <c r="D1140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>7</v>
+      </c>
+      <c r="B1141">
+        <v>2</v>
+      </c>
+      <c r="C1141">
+        <v>5</v>
+      </c>
+      <c r="D1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>3</v>
+      </c>
+      <c r="B1142">
+        <v>1</v>
+      </c>
+      <c r="C1142">
+        <v>4</v>
+      </c>
+      <c r="D1142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>2</v>
+      </c>
+      <c r="B1143">
+        <v>0</v>
+      </c>
+      <c r="C1143">
+        <v>2</v>
+      </c>
+      <c r="D1143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>3</v>
+      </c>
+      <c r="B1144">
+        <v>2</v>
+      </c>
+      <c r="C1144">
+        <v>5</v>
+      </c>
+      <c r="D1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>7</v>
+      </c>
+      <c r="B1145">
+        <v>3</v>
+      </c>
+      <c r="C1145">
+        <v>5</v>
+      </c>
+      <c r="D1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>6</v>
+      </c>
+      <c r="B1146">
+        <v>0</v>
+      </c>
+      <c r="C1146">
+        <v>5</v>
+      </c>
+      <c r="D1146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>3</v>
+      </c>
+      <c r="B1147">
+        <v>0</v>
+      </c>
+      <c r="C1147">
+        <v>3</v>
+      </c>
+      <c r="D1147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>2</v>
+      </c>
+      <c r="B1148">
+        <v>2</v>
+      </c>
+      <c r="C1148">
+        <v>2</v>
+      </c>
+      <c r="D1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>6</v>
+      </c>
+      <c r="B1149">
+        <v>3</v>
+      </c>
+      <c r="C1149">
+        <v>7</v>
+      </c>
+      <c r="D1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>4</v>
+      </c>
+      <c r="B1150">
+        <v>0</v>
+      </c>
+      <c r="C1150">
+        <v>2</v>
+      </c>
+      <c r="D1150">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A837E431-42D9-414D-B974-27904913079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F49AB-00BC-48F2-9806-A81F3CB86866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1155" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1150"/>
+  <dimension ref="A1:D1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1127" workbookViewId="0">
-      <selection activeCell="H1136" sqref="H1136"/>
+    <sheetView tabSelected="1" topLeftCell="A1151" workbookViewId="0">
+      <selection activeCell="A1171" sqref="A1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16475,6 +16475,286 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>5</v>
+      </c>
+      <c r="B1151">
+        <v>0</v>
+      </c>
+      <c r="C1151">
+        <v>4</v>
+      </c>
+      <c r="D1151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>3</v>
+      </c>
+      <c r="B1152">
+        <v>2</v>
+      </c>
+      <c r="C1152">
+        <v>3</v>
+      </c>
+      <c r="D1152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>4</v>
+      </c>
+      <c r="B1153">
+        <v>1</v>
+      </c>
+      <c r="C1153">
+        <v>4</v>
+      </c>
+      <c r="D1153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>3</v>
+      </c>
+      <c r="B1154">
+        <v>0</v>
+      </c>
+      <c r="C1154">
+        <v>3</v>
+      </c>
+      <c r="D1154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>5</v>
+      </c>
+      <c r="B1155">
+        <v>0</v>
+      </c>
+      <c r="C1155">
+        <v>7</v>
+      </c>
+      <c r="D1155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>5</v>
+      </c>
+      <c r="B1156">
+        <v>0</v>
+      </c>
+      <c r="C1156">
+        <v>6</v>
+      </c>
+      <c r="D1156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>3</v>
+      </c>
+      <c r="B1157">
+        <v>3</v>
+      </c>
+      <c r="C1157">
+        <v>3</v>
+      </c>
+      <c r="D1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158">
+        <v>4</v>
+      </c>
+      <c r="B1158">
+        <v>0</v>
+      </c>
+      <c r="C1158">
+        <v>3</v>
+      </c>
+      <c r="D1158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159">
+        <v>4</v>
+      </c>
+      <c r="B1159">
+        <v>2</v>
+      </c>
+      <c r="C1159">
+        <v>5</v>
+      </c>
+      <c r="D1159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160">
+        <v>6</v>
+      </c>
+      <c r="B1160">
+        <v>2</v>
+      </c>
+      <c r="C1160">
+        <v>4</v>
+      </c>
+      <c r="D1160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161">
+        <v>4</v>
+      </c>
+      <c r="B1161">
+        <v>1</v>
+      </c>
+      <c r="C1161">
+        <v>3</v>
+      </c>
+      <c r="D1161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162">
+        <v>4</v>
+      </c>
+      <c r="B1162">
+        <v>3</v>
+      </c>
+      <c r="C1162">
+        <v>4</v>
+      </c>
+      <c r="D1162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163">
+        <v>6</v>
+      </c>
+      <c r="B1163">
+        <v>2</v>
+      </c>
+      <c r="C1163">
+        <v>5</v>
+      </c>
+      <c r="D1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164">
+        <v>6</v>
+      </c>
+      <c r="B1164">
+        <v>2</v>
+      </c>
+      <c r="C1164">
+        <v>5</v>
+      </c>
+      <c r="D1164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165">
+        <v>3</v>
+      </c>
+      <c r="B1165">
+        <v>3</v>
+      </c>
+      <c r="C1165">
+        <v>5</v>
+      </c>
+      <c r="D1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166">
+        <v>3</v>
+      </c>
+      <c r="B1166">
+        <v>1</v>
+      </c>
+      <c r="C1166">
+        <v>6</v>
+      </c>
+      <c r="D1166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167">
+        <v>5</v>
+      </c>
+      <c r="B1167">
+        <v>0</v>
+      </c>
+      <c r="C1167">
+        <v>4</v>
+      </c>
+      <c r="D1167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168">
+        <v>2</v>
+      </c>
+      <c r="B1168">
+        <v>0</v>
+      </c>
+      <c r="C1168">
+        <v>3</v>
+      </c>
+      <c r="D1168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169">
+        <v>7</v>
+      </c>
+      <c r="B1169">
+        <v>2</v>
+      </c>
+      <c r="C1169">
+        <v>6</v>
+      </c>
+      <c r="D1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170">
+        <v>6</v>
+      </c>
+      <c r="B1170">
+        <v>1</v>
+      </c>
+      <c r="C1170">
+        <v>3</v>
+      </c>
+      <c r="D1170">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F49AB-00BC-48F2-9806-A81F3CB86866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C03317-B393-434B-BB84-BDB6EB7B367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20865" yWindow="1425" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1170"/>
+  <dimension ref="A1:D1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1151" workbookViewId="0">
-      <selection activeCell="A1171" sqref="A1171"/>
+    <sheetView tabSelected="1" topLeftCell="A1193" workbookViewId="0">
+      <selection activeCell="E1204" sqref="E1204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16755,6 +16755,650 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171">
+        <v>4</v>
+      </c>
+      <c r="B1171">
+        <v>3</v>
+      </c>
+      <c r="C1171">
+        <v>4</v>
+      </c>
+      <c r="D1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172">
+        <v>2</v>
+      </c>
+      <c r="B1172">
+        <v>0</v>
+      </c>
+      <c r="C1172">
+        <v>4</v>
+      </c>
+      <c r="D1172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173">
+        <v>3</v>
+      </c>
+      <c r="B1173">
+        <v>0</v>
+      </c>
+      <c r="C1173">
+        <v>6</v>
+      </c>
+      <c r="D1173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174">
+        <v>7</v>
+      </c>
+      <c r="B1174">
+        <v>3</v>
+      </c>
+      <c r="C1174">
+        <v>4</v>
+      </c>
+      <c r="D1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175">
+        <v>3</v>
+      </c>
+      <c r="B1175">
+        <v>1</v>
+      </c>
+      <c r="C1175">
+        <v>4</v>
+      </c>
+      <c r="D1175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176">
+        <v>3</v>
+      </c>
+      <c r="B1176">
+        <v>0</v>
+      </c>
+      <c r="C1176">
+        <v>2</v>
+      </c>
+      <c r="D1176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177">
+        <v>5</v>
+      </c>
+      <c r="B1177">
+        <v>0</v>
+      </c>
+      <c r="C1177">
+        <v>2</v>
+      </c>
+      <c r="D1177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178">
+        <v>3</v>
+      </c>
+      <c r="B1178">
+        <v>1</v>
+      </c>
+      <c r="C1178">
+        <v>3</v>
+      </c>
+      <c r="D1178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179">
+        <v>6</v>
+      </c>
+      <c r="B1179">
+        <v>0</v>
+      </c>
+      <c r="C1179">
+        <v>5</v>
+      </c>
+      <c r="D1179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180">
+        <v>4</v>
+      </c>
+      <c r="B1180">
+        <v>0</v>
+      </c>
+      <c r="C1180">
+        <v>3</v>
+      </c>
+      <c r="D1180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181">
+        <v>3</v>
+      </c>
+      <c r="B1181">
+        <v>3</v>
+      </c>
+      <c r="C1181">
+        <v>2</v>
+      </c>
+      <c r="D1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182">
+        <v>4</v>
+      </c>
+      <c r="B1182">
+        <v>1</v>
+      </c>
+      <c r="C1182">
+        <v>6</v>
+      </c>
+      <c r="D1182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183">
+        <v>6</v>
+      </c>
+      <c r="B1183">
+        <v>2</v>
+      </c>
+      <c r="C1183">
+        <v>6</v>
+      </c>
+      <c r="D1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184">
+        <v>5</v>
+      </c>
+      <c r="B1184">
+        <v>1</v>
+      </c>
+      <c r="C1184">
+        <v>4</v>
+      </c>
+      <c r="D1184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185">
+        <v>4</v>
+      </c>
+      <c r="B1185">
+        <v>2</v>
+      </c>
+      <c r="C1185">
+        <v>3</v>
+      </c>
+      <c r="D1185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186">
+        <v>3</v>
+      </c>
+      <c r="B1186">
+        <v>3</v>
+      </c>
+      <c r="C1186">
+        <v>3</v>
+      </c>
+      <c r="D1186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187">
+        <v>5</v>
+      </c>
+      <c r="B1187">
+        <v>0</v>
+      </c>
+      <c r="C1187">
+        <v>6</v>
+      </c>
+      <c r="D1187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188">
+        <v>6</v>
+      </c>
+      <c r="B1188">
+        <v>2</v>
+      </c>
+      <c r="C1188">
+        <v>6</v>
+      </c>
+      <c r="D1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189">
+        <v>4</v>
+      </c>
+      <c r="B1189">
+        <v>0</v>
+      </c>
+      <c r="C1189">
+        <v>3</v>
+      </c>
+      <c r="D1189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190">
+        <v>5</v>
+      </c>
+      <c r="B1190">
+        <v>3</v>
+      </c>
+      <c r="C1190">
+        <v>5</v>
+      </c>
+      <c r="D1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191">
+        <v>5</v>
+      </c>
+      <c r="B1191">
+        <v>0</v>
+      </c>
+      <c r="C1191">
+        <v>5</v>
+      </c>
+      <c r="D1191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>2</v>
+      </c>
+      <c r="B1192">
+        <v>1</v>
+      </c>
+      <c r="C1192">
+        <v>6</v>
+      </c>
+      <c r="D1192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>4</v>
+      </c>
+      <c r="B1193">
+        <v>2</v>
+      </c>
+      <c r="C1193">
+        <v>4</v>
+      </c>
+      <c r="D1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>2</v>
+      </c>
+      <c r="B1194">
+        <v>0</v>
+      </c>
+      <c r="C1194">
+        <v>4</v>
+      </c>
+      <c r="D1194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>3</v>
+      </c>
+      <c r="B1195">
+        <v>0</v>
+      </c>
+      <c r="C1195">
+        <v>3</v>
+      </c>
+      <c r="D1195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>3</v>
+      </c>
+      <c r="B1196">
+        <v>1</v>
+      </c>
+      <c r="C1196">
+        <v>4</v>
+      </c>
+      <c r="D1196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>7</v>
+      </c>
+      <c r="B1197">
+        <v>0</v>
+      </c>
+      <c r="C1197">
+        <v>7</v>
+      </c>
+      <c r="D1197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>5</v>
+      </c>
+      <c r="B1198">
+        <v>2</v>
+      </c>
+      <c r="C1198">
+        <v>5</v>
+      </c>
+      <c r="D1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>6</v>
+      </c>
+      <c r="B1199">
+        <v>0</v>
+      </c>
+      <c r="C1199">
+        <v>6</v>
+      </c>
+      <c r="D1199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>3</v>
+      </c>
+      <c r="B1200">
+        <v>3</v>
+      </c>
+      <c r="C1200">
+        <v>3</v>
+      </c>
+      <c r="D1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>6</v>
+      </c>
+      <c r="B1201">
+        <v>0</v>
+      </c>
+      <c r="C1201">
+        <v>6</v>
+      </c>
+      <c r="D1201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>3</v>
+      </c>
+      <c r="B1202">
+        <v>3</v>
+      </c>
+      <c r="C1202">
+        <v>4</v>
+      </c>
+      <c r="D1202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>6</v>
+      </c>
+      <c r="B1203">
+        <v>1</v>
+      </c>
+      <c r="C1203">
+        <v>6</v>
+      </c>
+      <c r="D1203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>3</v>
+      </c>
+      <c r="B1204">
+        <v>2</v>
+      </c>
+      <c r="C1204">
+        <v>4</v>
+      </c>
+      <c r="D1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>4</v>
+      </c>
+      <c r="B1205">
+        <v>1</v>
+      </c>
+      <c r="C1205">
+        <v>5</v>
+      </c>
+      <c r="D1205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>3</v>
+      </c>
+      <c r="B1206">
+        <v>0</v>
+      </c>
+      <c r="C1206">
+        <v>2</v>
+      </c>
+      <c r="D1206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207">
+        <v>6</v>
+      </c>
+      <c r="B1207">
+        <v>0</v>
+      </c>
+      <c r="C1207">
+        <v>3</v>
+      </c>
+      <c r="D1207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208">
+        <v>4</v>
+      </c>
+      <c r="B1208">
+        <v>0</v>
+      </c>
+      <c r="C1208">
+        <v>4</v>
+      </c>
+      <c r="D1208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209">
+        <v>5</v>
+      </c>
+      <c r="B1209">
+        <v>2</v>
+      </c>
+      <c r="C1209">
+        <v>4</v>
+      </c>
+      <c r="D1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210">
+        <v>5</v>
+      </c>
+      <c r="B1210">
+        <v>0</v>
+      </c>
+      <c r="C1210">
+        <v>5</v>
+      </c>
+      <c r="D1210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211">
+        <v>6</v>
+      </c>
+      <c r="B1211">
+        <v>0</v>
+      </c>
+      <c r="C1211">
+        <v>5</v>
+      </c>
+      <c r="D1211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212">
+        <v>4</v>
+      </c>
+      <c r="B1212">
+        <v>0</v>
+      </c>
+      <c r="C1212">
+        <v>4</v>
+      </c>
+      <c r="D1212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213">
+        <v>3</v>
+      </c>
+      <c r="B1213">
+        <v>2</v>
+      </c>
+      <c r="C1213">
+        <v>3</v>
+      </c>
+      <c r="D1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214">
+        <v>6</v>
+      </c>
+      <c r="B1214">
+        <v>0</v>
+      </c>
+      <c r="C1214">
+        <v>5</v>
+      </c>
+      <c r="D1214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215">
+        <v>4</v>
+      </c>
+      <c r="B1215">
+        <v>2</v>
+      </c>
+      <c r="C1215">
+        <v>4</v>
+      </c>
+      <c r="D1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216">
+        <v>5</v>
+      </c>
+      <c r="B1216">
+        <v>0</v>
+      </c>
+      <c r="C1216">
+        <v>7</v>
+      </c>
+      <c r="D1216">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C03317-B393-434B-BB84-BDB6EB7B367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DCC74-A83A-4620-ABB9-8EE8E2BF2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20865" yWindow="1425" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1216"/>
+  <dimension ref="A1:D1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1193" workbookViewId="0">
-      <selection activeCell="E1204" sqref="E1204"/>
+    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
+      <selection activeCell="A1242" sqref="A1242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17399,6 +17399,356 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217">
+        <v>7</v>
+      </c>
+      <c r="B1217">
+        <v>3</v>
+      </c>
+      <c r="C1217">
+        <v>6</v>
+      </c>
+      <c r="D1217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218">
+        <v>4</v>
+      </c>
+      <c r="B1218">
+        <v>3</v>
+      </c>
+      <c r="C1218">
+        <v>2</v>
+      </c>
+      <c r="D1218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219">
+        <v>3</v>
+      </c>
+      <c r="B1219">
+        <v>3</v>
+      </c>
+      <c r="C1219">
+        <v>6</v>
+      </c>
+      <c r="D1219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220">
+        <v>2</v>
+      </c>
+      <c r="B1220">
+        <v>1</v>
+      </c>
+      <c r="C1220">
+        <v>3</v>
+      </c>
+      <c r="D1220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221">
+        <v>7</v>
+      </c>
+      <c r="B1221">
+        <v>2</v>
+      </c>
+      <c r="C1221">
+        <v>2</v>
+      </c>
+      <c r="D1221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222">
+        <v>3</v>
+      </c>
+      <c r="B1222">
+        <v>0</v>
+      </c>
+      <c r="C1222">
+        <v>3</v>
+      </c>
+      <c r="D1222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223">
+        <v>6</v>
+      </c>
+      <c r="B1223">
+        <v>0</v>
+      </c>
+      <c r="C1223">
+        <v>6</v>
+      </c>
+      <c r="D1223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224">
+        <v>3</v>
+      </c>
+      <c r="B1224">
+        <v>1</v>
+      </c>
+      <c r="C1224">
+        <v>4</v>
+      </c>
+      <c r="D1224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225">
+        <v>2</v>
+      </c>
+      <c r="B1225">
+        <v>2</v>
+      </c>
+      <c r="C1225">
+        <v>2</v>
+      </c>
+      <c r="D1225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226">
+        <v>3</v>
+      </c>
+      <c r="B1226">
+        <v>3</v>
+      </c>
+      <c r="C1226">
+        <v>6</v>
+      </c>
+      <c r="D1226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227">
+        <v>6</v>
+      </c>
+      <c r="B1227">
+        <v>2</v>
+      </c>
+      <c r="C1227">
+        <v>5</v>
+      </c>
+      <c r="D1227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228">
+        <v>4</v>
+      </c>
+      <c r="B1228">
+        <v>0</v>
+      </c>
+      <c r="C1228">
+        <v>5</v>
+      </c>
+      <c r="D1228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229">
+        <v>3</v>
+      </c>
+      <c r="B1229">
+        <v>3</v>
+      </c>
+      <c r="C1229">
+        <v>3</v>
+      </c>
+      <c r="D1229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230">
+        <v>3</v>
+      </c>
+      <c r="B1230">
+        <v>2</v>
+      </c>
+      <c r="C1230">
+        <v>4</v>
+      </c>
+      <c r="D1230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231">
+        <v>6</v>
+      </c>
+      <c r="B1231">
+        <v>0</v>
+      </c>
+      <c r="C1231">
+        <v>6</v>
+      </c>
+      <c r="D1231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>5</v>
+      </c>
+      <c r="B1232">
+        <v>0</v>
+      </c>
+      <c r="C1232">
+        <v>4</v>
+      </c>
+      <c r="D1232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>5</v>
+      </c>
+      <c r="B1233">
+        <v>2</v>
+      </c>
+      <c r="C1233">
+        <v>6</v>
+      </c>
+      <c r="D1233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>2</v>
+      </c>
+      <c r="B1234">
+        <v>1</v>
+      </c>
+      <c r="C1234">
+        <v>3</v>
+      </c>
+      <c r="D1234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>5</v>
+      </c>
+      <c r="B1235">
+        <v>0</v>
+      </c>
+      <c r="C1235">
+        <v>5</v>
+      </c>
+      <c r="D1235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>6</v>
+      </c>
+      <c r="B1236">
+        <v>2</v>
+      </c>
+      <c r="C1236">
+        <v>4</v>
+      </c>
+      <c r="D1236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>2</v>
+      </c>
+      <c r="B1237">
+        <v>0</v>
+      </c>
+      <c r="C1237">
+        <v>3</v>
+      </c>
+      <c r="D1237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>6</v>
+      </c>
+      <c r="B1238">
+        <v>1</v>
+      </c>
+      <c r="C1238">
+        <v>5</v>
+      </c>
+      <c r="D1238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>4</v>
+      </c>
+      <c r="B1239">
+        <v>0</v>
+      </c>
+      <c r="C1239">
+        <v>3</v>
+      </c>
+      <c r="D1239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>6</v>
+      </c>
+      <c r="B1240">
+        <v>2</v>
+      </c>
+      <c r="C1240">
+        <v>7</v>
+      </c>
+      <c r="D1240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>4</v>
+      </c>
+      <c r="B1241">
+        <v>2</v>
+      </c>
+      <c r="C1241">
+        <v>5</v>
+      </c>
+      <c r="D1241">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DCC74-A83A-4620-ABB9-8EE8E2BF2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889BC4EF-88F5-4C9D-9FCC-45E207BADD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20865" yWindow="1425" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="-30" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1241"/>
+  <dimension ref="A1:D1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
-      <selection activeCell="A1242" sqref="A1242"/>
+    <sheetView tabSelected="1" topLeftCell="A1283" workbookViewId="0">
+      <selection activeCell="A1313" sqref="A1313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17749,6 +17749,1000 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>4</v>
+      </c>
+      <c r="B1242">
+        <v>0</v>
+      </c>
+      <c r="C1242">
+        <v>4</v>
+      </c>
+      <c r="D1242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>2</v>
+      </c>
+      <c r="B1243">
+        <v>2</v>
+      </c>
+      <c r="C1243">
+        <v>2</v>
+      </c>
+      <c r="D1243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>5</v>
+      </c>
+      <c r="B1244">
+        <v>0</v>
+      </c>
+      <c r="C1244">
+        <v>3</v>
+      </c>
+      <c r="D1244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>6</v>
+      </c>
+      <c r="B1245">
+        <v>0</v>
+      </c>
+      <c r="C1245">
+        <v>7</v>
+      </c>
+      <c r="D1245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>6</v>
+      </c>
+      <c r="B1246">
+        <v>0</v>
+      </c>
+      <c r="C1246">
+        <v>5</v>
+      </c>
+      <c r="D1246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>5</v>
+      </c>
+      <c r="B1247">
+        <v>0</v>
+      </c>
+      <c r="C1247">
+        <v>6</v>
+      </c>
+      <c r="D1247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>5</v>
+      </c>
+      <c r="B1248">
+        <v>0</v>
+      </c>
+      <c r="C1248">
+        <v>4</v>
+      </c>
+      <c r="D1248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>5</v>
+      </c>
+      <c r="B1249">
+        <v>0</v>
+      </c>
+      <c r="C1249">
+        <v>5</v>
+      </c>
+      <c r="D1249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>4</v>
+      </c>
+      <c r="B1250">
+        <v>3</v>
+      </c>
+      <c r="C1250">
+        <v>3</v>
+      </c>
+      <c r="D1250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>4</v>
+      </c>
+      <c r="B1251">
+        <v>2</v>
+      </c>
+      <c r="C1251">
+        <v>4</v>
+      </c>
+      <c r="D1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>4</v>
+      </c>
+      <c r="B1252">
+        <v>0</v>
+      </c>
+      <c r="C1252">
+        <v>5</v>
+      </c>
+      <c r="D1252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>4</v>
+      </c>
+      <c r="B1253">
+        <v>3</v>
+      </c>
+      <c r="C1253">
+        <v>3</v>
+      </c>
+      <c r="D1253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>5</v>
+      </c>
+      <c r="B1254">
+        <v>2</v>
+      </c>
+      <c r="C1254">
+        <v>5</v>
+      </c>
+      <c r="D1254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>6</v>
+      </c>
+      <c r="B1255">
+        <v>2</v>
+      </c>
+      <c r="C1255">
+        <v>6</v>
+      </c>
+      <c r="D1255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>2</v>
+      </c>
+      <c r="B1256">
+        <v>2</v>
+      </c>
+      <c r="C1256">
+        <v>2</v>
+      </c>
+      <c r="D1256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>5</v>
+      </c>
+      <c r="B1257">
+        <v>2</v>
+      </c>
+      <c r="C1257">
+        <v>5</v>
+      </c>
+      <c r="D1257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>7</v>
+      </c>
+      <c r="B1258">
+        <v>2</v>
+      </c>
+      <c r="C1258">
+        <v>6</v>
+      </c>
+      <c r="D1258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>5</v>
+      </c>
+      <c r="B1259">
+        <v>2</v>
+      </c>
+      <c r="C1259">
+        <v>5</v>
+      </c>
+      <c r="D1259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>3</v>
+      </c>
+      <c r="B1260">
+        <v>0</v>
+      </c>
+      <c r="C1260">
+        <v>4</v>
+      </c>
+      <c r="D1260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>2</v>
+      </c>
+      <c r="B1261">
+        <v>2</v>
+      </c>
+      <c r="C1261">
+        <v>4</v>
+      </c>
+      <c r="D1261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>6</v>
+      </c>
+      <c r="B1262">
+        <v>2</v>
+      </c>
+      <c r="C1262">
+        <v>7</v>
+      </c>
+      <c r="D1262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>2</v>
+      </c>
+      <c r="B1263">
+        <v>0</v>
+      </c>
+      <c r="C1263">
+        <v>3</v>
+      </c>
+      <c r="D1263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>6</v>
+      </c>
+      <c r="B1264">
+        <v>1</v>
+      </c>
+      <c r="C1264">
+        <v>4</v>
+      </c>
+      <c r="D1264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>3</v>
+      </c>
+      <c r="B1265">
+        <v>3</v>
+      </c>
+      <c r="C1265">
+        <v>2</v>
+      </c>
+      <c r="D1265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>7</v>
+      </c>
+      <c r="B1266">
+        <v>2</v>
+      </c>
+      <c r="C1266">
+        <v>5</v>
+      </c>
+      <c r="D1266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>3</v>
+      </c>
+      <c r="B1267">
+        <v>2</v>
+      </c>
+      <c r="C1267">
+        <v>4</v>
+      </c>
+      <c r="D1267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>5</v>
+      </c>
+      <c r="B1268">
+        <v>1</v>
+      </c>
+      <c r="C1268">
+        <v>5</v>
+      </c>
+      <c r="D1268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>3</v>
+      </c>
+      <c r="B1269">
+        <v>2</v>
+      </c>
+      <c r="C1269">
+        <v>6</v>
+      </c>
+      <c r="D1269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>4</v>
+      </c>
+      <c r="B1270">
+        <v>0</v>
+      </c>
+      <c r="C1270">
+        <v>4</v>
+      </c>
+      <c r="D1270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>6</v>
+      </c>
+      <c r="B1271">
+        <v>2</v>
+      </c>
+      <c r="C1271">
+        <v>6</v>
+      </c>
+      <c r="D1271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>5</v>
+      </c>
+      <c r="B1272">
+        <v>2</v>
+      </c>
+      <c r="C1272">
+        <v>4</v>
+      </c>
+      <c r="D1272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>4</v>
+      </c>
+      <c r="B1273">
+        <v>0</v>
+      </c>
+      <c r="C1273">
+        <v>5</v>
+      </c>
+      <c r="D1273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>4</v>
+      </c>
+      <c r="B1274">
+        <v>3</v>
+      </c>
+      <c r="C1274">
+        <v>4</v>
+      </c>
+      <c r="D1274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>3</v>
+      </c>
+      <c r="B1275">
+        <v>0</v>
+      </c>
+      <c r="C1275">
+        <v>2</v>
+      </c>
+      <c r="D1275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>3</v>
+      </c>
+      <c r="B1276">
+        <v>0</v>
+      </c>
+      <c r="C1276">
+        <v>2</v>
+      </c>
+      <c r="D1276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>5</v>
+      </c>
+      <c r="B1277">
+        <v>3</v>
+      </c>
+      <c r="C1277">
+        <v>5</v>
+      </c>
+      <c r="D1277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>4</v>
+      </c>
+      <c r="B1278">
+        <v>0</v>
+      </c>
+      <c r="C1278">
+        <v>3</v>
+      </c>
+      <c r="D1278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>6</v>
+      </c>
+      <c r="B1279">
+        <v>1</v>
+      </c>
+      <c r="C1279">
+        <v>7</v>
+      </c>
+      <c r="D1279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>5</v>
+      </c>
+      <c r="B1280">
+        <v>0</v>
+      </c>
+      <c r="C1280">
+        <v>6</v>
+      </c>
+      <c r="D1280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>2</v>
+      </c>
+      <c r="B1281">
+        <v>2</v>
+      </c>
+      <c r="C1281">
+        <v>2</v>
+      </c>
+      <c r="D1281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>5</v>
+      </c>
+      <c r="B1282">
+        <v>1</v>
+      </c>
+      <c r="C1282">
+        <v>6</v>
+      </c>
+      <c r="D1282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>5</v>
+      </c>
+      <c r="B1283">
+        <v>1</v>
+      </c>
+      <c r="C1283">
+        <v>5</v>
+      </c>
+      <c r="D1283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>4</v>
+      </c>
+      <c r="B1284">
+        <v>0</v>
+      </c>
+      <c r="C1284">
+        <v>2</v>
+      </c>
+      <c r="D1284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>6</v>
+      </c>
+      <c r="B1285">
+        <v>2</v>
+      </c>
+      <c r="C1285">
+        <v>6</v>
+      </c>
+      <c r="D1285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>2</v>
+      </c>
+      <c r="B1286">
+        <v>3</v>
+      </c>
+      <c r="C1286">
+        <v>2</v>
+      </c>
+      <c r="D1286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>5</v>
+      </c>
+      <c r="B1287">
+        <v>0</v>
+      </c>
+      <c r="C1287">
+        <v>6</v>
+      </c>
+      <c r="D1287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>4</v>
+      </c>
+      <c r="B1288">
+        <v>2</v>
+      </c>
+      <c r="C1288">
+        <v>3</v>
+      </c>
+      <c r="D1288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289">
+        <v>6</v>
+      </c>
+      <c r="B1289">
+        <v>2</v>
+      </c>
+      <c r="C1289">
+        <v>6</v>
+      </c>
+      <c r="D1289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290">
+        <v>4</v>
+      </c>
+      <c r="B1290">
+        <v>1</v>
+      </c>
+      <c r="C1290">
+        <v>3</v>
+      </c>
+      <c r="D1290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291">
+        <v>4</v>
+      </c>
+      <c r="B1291">
+        <v>1</v>
+      </c>
+      <c r="C1291">
+        <v>5</v>
+      </c>
+      <c r="D1291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292">
+        <v>4</v>
+      </c>
+      <c r="B1292">
+        <v>2</v>
+      </c>
+      <c r="C1292">
+        <v>4</v>
+      </c>
+      <c r="D1292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293">
+        <v>6</v>
+      </c>
+      <c r="B1293">
+        <v>0</v>
+      </c>
+      <c r="C1293">
+        <v>6</v>
+      </c>
+      <c r="D1293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294">
+        <v>5</v>
+      </c>
+      <c r="B1294">
+        <v>3</v>
+      </c>
+      <c r="C1294">
+        <v>3</v>
+      </c>
+      <c r="D1294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295">
+        <v>2</v>
+      </c>
+      <c r="B1295">
+        <v>3</v>
+      </c>
+      <c r="C1295">
+        <v>3</v>
+      </c>
+      <c r="D1295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296">
+        <v>3</v>
+      </c>
+      <c r="B1296">
+        <v>3</v>
+      </c>
+      <c r="C1296">
+        <v>4</v>
+      </c>
+      <c r="D1296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>3</v>
+      </c>
+      <c r="B1297">
+        <v>2</v>
+      </c>
+      <c r="C1297">
+        <v>4</v>
+      </c>
+      <c r="D1297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>5</v>
+      </c>
+      <c r="B1298">
+        <v>2</v>
+      </c>
+      <c r="C1298">
+        <v>5</v>
+      </c>
+      <c r="D1298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>7</v>
+      </c>
+      <c r="B1299">
+        <v>2</v>
+      </c>
+      <c r="C1299">
+        <v>6</v>
+      </c>
+      <c r="D1299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>3</v>
+      </c>
+      <c r="B1300">
+        <v>3</v>
+      </c>
+      <c r="C1300">
+        <v>3</v>
+      </c>
+      <c r="D1300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301">
+        <v>5</v>
+      </c>
+      <c r="B1301">
+        <v>2</v>
+      </c>
+      <c r="C1301">
+        <v>5</v>
+      </c>
+      <c r="D1301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302">
+        <v>3</v>
+      </c>
+      <c r="B1302">
+        <v>2</v>
+      </c>
+      <c r="C1302">
+        <v>3</v>
+      </c>
+      <c r="D1302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303">
+        <v>6</v>
+      </c>
+      <c r="B1303">
+        <v>2</v>
+      </c>
+      <c r="C1303">
+        <v>4</v>
+      </c>
+      <c r="D1303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304">
+        <v>6</v>
+      </c>
+      <c r="B1304">
+        <v>2</v>
+      </c>
+      <c r="C1304">
+        <v>6</v>
+      </c>
+      <c r="D1304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305">
+        <v>3</v>
+      </c>
+      <c r="B1305">
+        <v>1</v>
+      </c>
+      <c r="C1305">
+        <v>4</v>
+      </c>
+      <c r="D1305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306">
+        <v>5</v>
+      </c>
+      <c r="B1306">
+        <v>1</v>
+      </c>
+      <c r="C1306">
+        <v>5</v>
+      </c>
+      <c r="D1306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307">
+        <v>6</v>
+      </c>
+      <c r="B1307">
+        <v>0</v>
+      </c>
+      <c r="C1307">
+        <v>6</v>
+      </c>
+      <c r="D1307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308">
+        <v>6</v>
+      </c>
+      <c r="B1308">
+        <v>0</v>
+      </c>
+      <c r="C1308">
+        <v>4</v>
+      </c>
+      <c r="D1308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>4</v>
+      </c>
+      <c r="B1309">
+        <v>2</v>
+      </c>
+      <c r="C1309">
+        <v>7</v>
+      </c>
+      <c r="D1309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>6</v>
+      </c>
+      <c r="B1310">
+        <v>2</v>
+      </c>
+      <c r="C1310">
+        <v>6</v>
+      </c>
+      <c r="D1310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>5</v>
+      </c>
+      <c r="B1311">
+        <v>3</v>
+      </c>
+      <c r="C1311">
+        <v>4</v>
+      </c>
+      <c r="D1311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>4</v>
+      </c>
+      <c r="B1312">
+        <v>2</v>
+      </c>
+      <c r="C1312">
+        <v>4</v>
+      </c>
+      <c r="D1312">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889BC4EF-88F5-4C9D-9FCC-45E207BADD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B109B7-7DFC-4972-9CA4-A96B1AE4AD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="-30" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1312"/>
+  <dimension ref="A1:D1337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1283" workbookViewId="0">
-      <selection activeCell="A1313" sqref="A1313"/>
+    <sheetView tabSelected="1" topLeftCell="A1313" workbookViewId="0">
+      <selection activeCell="A1338" sqref="A1338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18743,6 +18743,356 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>4</v>
+      </c>
+      <c r="B1313">
+        <v>2</v>
+      </c>
+      <c r="C1313">
+        <v>6</v>
+      </c>
+      <c r="D1313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314">
+        <v>3</v>
+      </c>
+      <c r="B1314">
+        <v>2</v>
+      </c>
+      <c r="C1314">
+        <v>3</v>
+      </c>
+      <c r="D1314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315">
+        <v>4</v>
+      </c>
+      <c r="B1315">
+        <v>1</v>
+      </c>
+      <c r="C1315">
+        <v>5</v>
+      </c>
+      <c r="D1315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316">
+        <v>3</v>
+      </c>
+      <c r="B1316">
+        <v>2</v>
+      </c>
+      <c r="C1316">
+        <v>3</v>
+      </c>
+      <c r="D1316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317">
+        <v>5</v>
+      </c>
+      <c r="B1317">
+        <v>0</v>
+      </c>
+      <c r="C1317">
+        <v>6</v>
+      </c>
+      <c r="D1317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318">
+        <v>4</v>
+      </c>
+      <c r="B1318">
+        <v>2</v>
+      </c>
+      <c r="C1318">
+        <v>3</v>
+      </c>
+      <c r="D1318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319">
+        <v>4</v>
+      </c>
+      <c r="B1319">
+        <v>0</v>
+      </c>
+      <c r="C1319">
+        <v>4</v>
+      </c>
+      <c r="D1319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320">
+        <v>6</v>
+      </c>
+      <c r="B1320">
+        <v>2</v>
+      </c>
+      <c r="C1320">
+        <v>6</v>
+      </c>
+      <c r="D1320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321">
+        <v>6</v>
+      </c>
+      <c r="B1321">
+        <v>2</v>
+      </c>
+      <c r="C1321">
+        <v>6</v>
+      </c>
+      <c r="D1321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322">
+        <v>3</v>
+      </c>
+      <c r="B1322">
+        <v>2</v>
+      </c>
+      <c r="C1322">
+        <v>3</v>
+      </c>
+      <c r="D1322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>3</v>
+      </c>
+      <c r="B1323">
+        <v>1</v>
+      </c>
+      <c r="C1323">
+        <v>4</v>
+      </c>
+      <c r="D1323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>5</v>
+      </c>
+      <c r="B1324">
+        <v>0</v>
+      </c>
+      <c r="C1324">
+        <v>5</v>
+      </c>
+      <c r="D1324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>5</v>
+      </c>
+      <c r="B1325">
+        <v>3</v>
+      </c>
+      <c r="C1325">
+        <v>2</v>
+      </c>
+      <c r="D1325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>5</v>
+      </c>
+      <c r="B1326">
+        <v>2</v>
+      </c>
+      <c r="C1326">
+        <v>6</v>
+      </c>
+      <c r="D1326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>4</v>
+      </c>
+      <c r="B1327">
+        <v>1</v>
+      </c>
+      <c r="C1327">
+        <v>2</v>
+      </c>
+      <c r="D1327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>3</v>
+      </c>
+      <c r="B1328">
+        <v>1</v>
+      </c>
+      <c r="C1328">
+        <v>4</v>
+      </c>
+      <c r="D1328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329">
+        <v>5</v>
+      </c>
+      <c r="B1329">
+        <v>2</v>
+      </c>
+      <c r="C1329">
+        <v>6</v>
+      </c>
+      <c r="D1329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330">
+        <v>3</v>
+      </c>
+      <c r="B1330">
+        <v>0</v>
+      </c>
+      <c r="C1330">
+        <v>4</v>
+      </c>
+      <c r="D1330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331">
+        <v>3</v>
+      </c>
+      <c r="B1331">
+        <v>3</v>
+      </c>
+      <c r="C1331">
+        <v>4</v>
+      </c>
+      <c r="D1331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332">
+        <v>7</v>
+      </c>
+      <c r="B1332">
+        <v>0</v>
+      </c>
+      <c r="C1332">
+        <v>5</v>
+      </c>
+      <c r="D1332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333">
+        <v>6</v>
+      </c>
+      <c r="B1333">
+        <v>2</v>
+      </c>
+      <c r="C1333">
+        <v>6</v>
+      </c>
+      <c r="D1333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334">
+        <v>5</v>
+      </c>
+      <c r="B1334">
+        <v>2</v>
+      </c>
+      <c r="C1334">
+        <v>6</v>
+      </c>
+      <c r="D1334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335">
+        <v>2</v>
+      </c>
+      <c r="B1335">
+        <v>2</v>
+      </c>
+      <c r="C1335">
+        <v>4</v>
+      </c>
+      <c r="D1335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336">
+        <v>4</v>
+      </c>
+      <c r="B1336">
+        <v>1</v>
+      </c>
+      <c r="C1336">
+        <v>3</v>
+      </c>
+      <c r="D1336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337">
+        <v>3</v>
+      </c>
+      <c r="B1337">
+        <v>2</v>
+      </c>
+      <c r="C1337">
+        <v>3</v>
+      </c>
+      <c r="D1337">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B109B7-7DFC-4972-9CA4-A96B1AE4AD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030204AF-EB93-45C0-8A2A-E85A0BA5A4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="0" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19335" yWindow="2400" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1337"/>
+  <dimension ref="A1:D1361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1313" workbookViewId="0">
-      <selection activeCell="A1338" sqref="A1338"/>
+    <sheetView tabSelected="1" topLeftCell="A1349" workbookViewId="0">
+      <selection activeCell="A1362" sqref="A1362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19093,6 +19093,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338">
+        <v>4</v>
+      </c>
+      <c r="B1338">
+        <v>0</v>
+      </c>
+      <c r="C1338">
+        <v>4</v>
+      </c>
+      <c r="D1338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339">
+        <v>5</v>
+      </c>
+      <c r="B1339">
+        <v>2</v>
+      </c>
+      <c r="C1339">
+        <v>5</v>
+      </c>
+      <c r="D1339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340">
+        <v>3</v>
+      </c>
+      <c r="B1340">
+        <v>2</v>
+      </c>
+      <c r="C1340">
+        <v>4</v>
+      </c>
+      <c r="D1340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341">
+        <v>3</v>
+      </c>
+      <c r="B1341">
+        <v>2</v>
+      </c>
+      <c r="C1341">
+        <v>3</v>
+      </c>
+      <c r="D1341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342">
+        <v>7</v>
+      </c>
+      <c r="B1342">
+        <v>2</v>
+      </c>
+      <c r="C1342">
+        <v>5</v>
+      </c>
+      <c r="D1342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343">
+        <v>5</v>
+      </c>
+      <c r="B1343">
+        <v>2</v>
+      </c>
+      <c r="C1343">
+        <v>4</v>
+      </c>
+      <c r="D1343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344">
+        <v>4</v>
+      </c>
+      <c r="B1344">
+        <v>3</v>
+      </c>
+      <c r="C1344">
+        <v>3</v>
+      </c>
+      <c r="D1344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345">
+        <v>4</v>
+      </c>
+      <c r="B1345">
+        <v>1</v>
+      </c>
+      <c r="C1345">
+        <v>6</v>
+      </c>
+      <c r="D1345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346">
+        <v>6</v>
+      </c>
+      <c r="B1346">
+        <v>2</v>
+      </c>
+      <c r="C1346">
+        <v>7</v>
+      </c>
+      <c r="D1346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347">
+        <v>2</v>
+      </c>
+      <c r="B1347">
+        <v>1</v>
+      </c>
+      <c r="C1347">
+        <v>3</v>
+      </c>
+      <c r="D1347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348">
+        <v>3</v>
+      </c>
+      <c r="B1348">
+        <v>1</v>
+      </c>
+      <c r="C1348">
+        <v>4</v>
+      </c>
+      <c r="D1348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349">
+        <v>6</v>
+      </c>
+      <c r="B1349">
+        <v>0</v>
+      </c>
+      <c r="C1349">
+        <v>6</v>
+      </c>
+      <c r="D1349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350">
+        <v>5</v>
+      </c>
+      <c r="B1350">
+        <v>2</v>
+      </c>
+      <c r="C1350">
+        <v>5</v>
+      </c>
+      <c r="D1350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351">
+        <v>5</v>
+      </c>
+      <c r="B1351">
+        <v>0</v>
+      </c>
+      <c r="C1351">
+        <v>4</v>
+      </c>
+      <c r="D1351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352">
+        <v>4</v>
+      </c>
+      <c r="B1352">
+        <v>2</v>
+      </c>
+      <c r="C1352">
+        <v>4</v>
+      </c>
+      <c r="D1352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353">
+        <v>5</v>
+      </c>
+      <c r="B1353">
+        <v>3</v>
+      </c>
+      <c r="C1353">
+        <v>4</v>
+      </c>
+      <c r="D1353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354">
+        <v>5</v>
+      </c>
+      <c r="B1354">
+        <v>2</v>
+      </c>
+      <c r="C1354">
+        <v>5</v>
+      </c>
+      <c r="D1354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355">
+        <v>6</v>
+      </c>
+      <c r="B1355">
+        <v>1</v>
+      </c>
+      <c r="C1355">
+        <v>6</v>
+      </c>
+      <c r="D1355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356">
+        <v>3</v>
+      </c>
+      <c r="B1356">
+        <v>2</v>
+      </c>
+      <c r="C1356">
+        <v>4</v>
+      </c>
+      <c r="D1356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357">
+        <v>4</v>
+      </c>
+      <c r="B1357">
+        <v>1</v>
+      </c>
+      <c r="C1357">
+        <v>4</v>
+      </c>
+      <c r="D1357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358">
+        <v>6</v>
+      </c>
+      <c r="B1358">
+        <v>0</v>
+      </c>
+      <c r="C1358">
+        <v>5</v>
+      </c>
+      <c r="D1358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359">
+        <v>6</v>
+      </c>
+      <c r="B1359">
+        <v>3</v>
+      </c>
+      <c r="C1359">
+        <v>5</v>
+      </c>
+      <c r="D1359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360">
+        <v>3</v>
+      </c>
+      <c r="B1360">
+        <v>2</v>
+      </c>
+      <c r="C1360">
+        <v>5</v>
+      </c>
+      <c r="D1360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1361">
+        <v>5</v>
+      </c>
+      <c r="B1361">
+        <v>0</v>
+      </c>
+      <c r="C1361">
+        <v>5</v>
+      </c>
+      <c r="D1361">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030204AF-EB93-45C0-8A2A-E85A0BA5A4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB829A-F007-4CB2-8CF7-32293D91C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="2400" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2160" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1361"/>
+  <dimension ref="A1:D1384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1349" workbookViewId="0">
-      <selection activeCell="A1362" sqref="A1362"/>
+    <sheetView tabSelected="1" topLeftCell="A1361" workbookViewId="0">
+      <selection activeCell="A1385" sqref="A1385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19429,6 +19429,328 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1362">
+        <v>3</v>
+      </c>
+      <c r="B1362">
+        <v>0</v>
+      </c>
+      <c r="C1362">
+        <v>7</v>
+      </c>
+      <c r="D1362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1363">
+        <v>4</v>
+      </c>
+      <c r="B1363">
+        <v>2</v>
+      </c>
+      <c r="C1363">
+        <v>3</v>
+      </c>
+      <c r="D1363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1364">
+        <v>4</v>
+      </c>
+      <c r="B1364">
+        <v>2</v>
+      </c>
+      <c r="C1364">
+        <v>5</v>
+      </c>
+      <c r="D1364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1365">
+        <v>3</v>
+      </c>
+      <c r="B1365">
+        <v>2</v>
+      </c>
+      <c r="C1365">
+        <v>3</v>
+      </c>
+      <c r="D1365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1366">
+        <v>6</v>
+      </c>
+      <c r="B1366">
+        <v>3</v>
+      </c>
+      <c r="C1366">
+        <v>2</v>
+      </c>
+      <c r="D1366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1367">
+        <v>3</v>
+      </c>
+      <c r="B1367">
+        <v>0</v>
+      </c>
+      <c r="C1367">
+        <v>2</v>
+      </c>
+      <c r="D1367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1368">
+        <v>6</v>
+      </c>
+      <c r="B1368">
+        <v>2</v>
+      </c>
+      <c r="C1368">
+        <v>5</v>
+      </c>
+      <c r="D1368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1369">
+        <v>4</v>
+      </c>
+      <c r="B1369">
+        <v>0</v>
+      </c>
+      <c r="C1369">
+        <v>3</v>
+      </c>
+      <c r="D1369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1370">
+        <v>7</v>
+      </c>
+      <c r="B1370">
+        <v>1</v>
+      </c>
+      <c r="C1370">
+        <v>6</v>
+      </c>
+      <c r="D1370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>3</v>
+      </c>
+      <c r="B1371">
+        <v>1</v>
+      </c>
+      <c r="C1371">
+        <v>4</v>
+      </c>
+      <c r="D1371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>5</v>
+      </c>
+      <c r="B1372">
+        <v>2</v>
+      </c>
+      <c r="C1372">
+        <v>5</v>
+      </c>
+      <c r="D1372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>3</v>
+      </c>
+      <c r="B1373">
+        <v>2</v>
+      </c>
+      <c r="C1373">
+        <v>4</v>
+      </c>
+      <c r="D1373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>4</v>
+      </c>
+      <c r="B1374">
+        <v>0</v>
+      </c>
+      <c r="C1374">
+        <v>6</v>
+      </c>
+      <c r="D1374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>4</v>
+      </c>
+      <c r="B1375">
+        <v>2</v>
+      </c>
+      <c r="C1375">
+        <v>2</v>
+      </c>
+      <c r="D1375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1376">
+        <v>5</v>
+      </c>
+      <c r="B1376">
+        <v>0</v>
+      </c>
+      <c r="C1376">
+        <v>6</v>
+      </c>
+      <c r="D1376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1377">
+        <v>4</v>
+      </c>
+      <c r="B1377">
+        <v>0</v>
+      </c>
+      <c r="C1377">
+        <v>3</v>
+      </c>
+      <c r="D1377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1378">
+        <v>6</v>
+      </c>
+      <c r="B1378">
+        <v>0</v>
+      </c>
+      <c r="C1378">
+        <v>6</v>
+      </c>
+      <c r="D1378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1379">
+        <v>4</v>
+      </c>
+      <c r="B1379">
+        <v>0</v>
+      </c>
+      <c r="C1379">
+        <v>3</v>
+      </c>
+      <c r="D1379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1380">
+        <v>4</v>
+      </c>
+      <c r="B1380">
+        <v>2</v>
+      </c>
+      <c r="C1380">
+        <v>2</v>
+      </c>
+      <c r="D1380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1381">
+        <v>5</v>
+      </c>
+      <c r="B1381">
+        <v>3</v>
+      </c>
+      <c r="C1381">
+        <v>3</v>
+      </c>
+      <c r="D1381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1382">
+        <v>5</v>
+      </c>
+      <c r="B1382">
+        <v>2</v>
+      </c>
+      <c r="C1382">
+        <v>3</v>
+      </c>
+      <c r="D1382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383">
+        <v>4</v>
+      </c>
+      <c r="B1383">
+        <v>0</v>
+      </c>
+      <c r="C1383">
+        <v>5</v>
+      </c>
+      <c r="D1383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384">
+        <v>6</v>
+      </c>
+      <c r="B1384">
+        <v>0</v>
+      </c>
+      <c r="C1384">
+        <v>7</v>
+      </c>
+      <c r="D1384">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB829A-F007-4CB2-8CF7-32293D91C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB09C1-6762-40CB-A488-72401189D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2160" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1384"/>
+  <dimension ref="A1:D1408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1361" workbookViewId="0">
-      <selection activeCell="A1385" sqref="A1385"/>
+    <sheetView tabSelected="1" topLeftCell="A1385" workbookViewId="0">
+      <selection activeCell="A1409" sqref="A1409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19751,6 +19751,342 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1385">
+        <v>4</v>
+      </c>
+      <c r="B1385">
+        <v>2</v>
+      </c>
+      <c r="C1385">
+        <v>4</v>
+      </c>
+      <c r="D1385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1386">
+        <v>3</v>
+      </c>
+      <c r="B1386">
+        <v>2</v>
+      </c>
+      <c r="C1386">
+        <v>2</v>
+      </c>
+      <c r="D1386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387">
+        <v>5</v>
+      </c>
+      <c r="B1387">
+        <v>0</v>
+      </c>
+      <c r="C1387">
+        <v>4</v>
+      </c>
+      <c r="D1387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388">
+        <v>3</v>
+      </c>
+      <c r="B1388">
+        <v>0</v>
+      </c>
+      <c r="C1388">
+        <v>3</v>
+      </c>
+      <c r="D1388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>4</v>
+      </c>
+      <c r="B1389">
+        <v>0</v>
+      </c>
+      <c r="C1389">
+        <v>5</v>
+      </c>
+      <c r="D1389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>4</v>
+      </c>
+      <c r="B1390">
+        <v>3</v>
+      </c>
+      <c r="C1390">
+        <v>4</v>
+      </c>
+      <c r="D1390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>5</v>
+      </c>
+      <c r="B1391">
+        <v>0</v>
+      </c>
+      <c r="C1391">
+        <v>6</v>
+      </c>
+      <c r="D1391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>4</v>
+      </c>
+      <c r="B1392">
+        <v>0</v>
+      </c>
+      <c r="C1392">
+        <v>7</v>
+      </c>
+      <c r="D1392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>5</v>
+      </c>
+      <c r="B1393">
+        <v>3</v>
+      </c>
+      <c r="C1393">
+        <v>3</v>
+      </c>
+      <c r="D1393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>5</v>
+      </c>
+      <c r="B1394">
+        <v>3</v>
+      </c>
+      <c r="C1394">
+        <v>3</v>
+      </c>
+      <c r="D1394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>6</v>
+      </c>
+      <c r="B1395">
+        <v>0</v>
+      </c>
+      <c r="C1395">
+        <v>5</v>
+      </c>
+      <c r="D1395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>5</v>
+      </c>
+      <c r="B1396">
+        <v>0</v>
+      </c>
+      <c r="C1396">
+        <v>4</v>
+      </c>
+      <c r="D1396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>5</v>
+      </c>
+      <c r="B1397">
+        <v>2</v>
+      </c>
+      <c r="C1397">
+        <v>6</v>
+      </c>
+      <c r="D1397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>4</v>
+      </c>
+      <c r="B1398">
+        <v>2</v>
+      </c>
+      <c r="C1398">
+        <v>4</v>
+      </c>
+      <c r="D1398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>2</v>
+      </c>
+      <c r="B1399">
+        <v>3</v>
+      </c>
+      <c r="C1399">
+        <v>3</v>
+      </c>
+      <c r="D1399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>4</v>
+      </c>
+      <c r="B1400">
+        <v>1</v>
+      </c>
+      <c r="C1400">
+        <v>5</v>
+      </c>
+      <c r="D1400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>4</v>
+      </c>
+      <c r="B1401">
+        <v>2</v>
+      </c>
+      <c r="C1401">
+        <v>4</v>
+      </c>
+      <c r="D1401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>6</v>
+      </c>
+      <c r="B1402">
+        <v>2</v>
+      </c>
+      <c r="C1402">
+        <v>6</v>
+      </c>
+      <c r="D1402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>5</v>
+      </c>
+      <c r="B1403">
+        <v>2</v>
+      </c>
+      <c r="C1403">
+        <v>5</v>
+      </c>
+      <c r="D1403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>3</v>
+      </c>
+      <c r="B1404">
+        <v>3</v>
+      </c>
+      <c r="C1404">
+        <v>3</v>
+      </c>
+      <c r="D1404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>3</v>
+      </c>
+      <c r="B1405">
+        <v>0</v>
+      </c>
+      <c r="C1405">
+        <v>5</v>
+      </c>
+      <c r="D1405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>3</v>
+      </c>
+      <c r="B1406">
+        <v>3</v>
+      </c>
+      <c r="C1406">
+        <v>2</v>
+      </c>
+      <c r="D1406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>3</v>
+      </c>
+      <c r="B1407">
+        <v>1</v>
+      </c>
+      <c r="C1407">
+        <v>4</v>
+      </c>
+      <c r="D1407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>5</v>
+      </c>
+      <c r="B1408">
+        <v>1</v>
+      </c>
+      <c r="C1408">
+        <v>5</v>
+      </c>
+      <c r="D1408">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB09C1-6762-40CB-A488-72401189D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A202617-3CD2-47D8-9BB7-ABB8DDE4295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1408"/>
+  <dimension ref="A1:D1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1385" workbookViewId="0">
-      <selection activeCell="A1409" sqref="A1409"/>
+    <sheetView tabSelected="1" topLeftCell="A1416" workbookViewId="0">
+      <selection activeCell="A1433" sqref="A1433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20087,6 +20087,342 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>7</v>
+      </c>
+      <c r="B1409">
+        <v>2</v>
+      </c>
+      <c r="C1409">
+        <v>5</v>
+      </c>
+      <c r="D1409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>4</v>
+      </c>
+      <c r="B1410">
+        <v>0</v>
+      </c>
+      <c r="C1410">
+        <v>6</v>
+      </c>
+      <c r="D1410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>4</v>
+      </c>
+      <c r="B1411">
+        <v>3</v>
+      </c>
+      <c r="C1411">
+        <v>4</v>
+      </c>
+      <c r="D1411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>5</v>
+      </c>
+      <c r="B1412">
+        <v>0</v>
+      </c>
+      <c r="C1412">
+        <v>2</v>
+      </c>
+      <c r="D1412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>3</v>
+      </c>
+      <c r="B1413">
+        <v>1</v>
+      </c>
+      <c r="C1413">
+        <v>6</v>
+      </c>
+      <c r="D1413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>5</v>
+      </c>
+      <c r="B1414">
+        <v>2</v>
+      </c>
+      <c r="C1414">
+        <v>5</v>
+      </c>
+      <c r="D1414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>6</v>
+      </c>
+      <c r="B1415">
+        <v>3</v>
+      </c>
+      <c r="C1415">
+        <v>4</v>
+      </c>
+      <c r="D1415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>6</v>
+      </c>
+      <c r="B1416">
+        <v>0</v>
+      </c>
+      <c r="C1416">
+        <v>6</v>
+      </c>
+      <c r="D1416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>3</v>
+      </c>
+      <c r="B1417">
+        <v>0</v>
+      </c>
+      <c r="C1417">
+        <v>4</v>
+      </c>
+      <c r="D1417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>3</v>
+      </c>
+      <c r="B1418">
+        <v>2</v>
+      </c>
+      <c r="C1418">
+        <v>4</v>
+      </c>
+      <c r="D1418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>4</v>
+      </c>
+      <c r="B1419">
+        <v>2</v>
+      </c>
+      <c r="C1419">
+        <v>4</v>
+      </c>
+      <c r="D1419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>3</v>
+      </c>
+      <c r="B1420">
+        <v>0</v>
+      </c>
+      <c r="C1420">
+        <v>2</v>
+      </c>
+      <c r="D1420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>5</v>
+      </c>
+      <c r="B1421">
+        <v>2</v>
+      </c>
+      <c r="C1421">
+        <v>5</v>
+      </c>
+      <c r="D1421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>6</v>
+      </c>
+      <c r="B1422">
+        <v>2</v>
+      </c>
+      <c r="C1422">
+        <v>6</v>
+      </c>
+      <c r="D1422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>5</v>
+      </c>
+      <c r="B1423">
+        <v>2</v>
+      </c>
+      <c r="C1423">
+        <v>5</v>
+      </c>
+      <c r="D1423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>3</v>
+      </c>
+      <c r="B1424">
+        <v>0</v>
+      </c>
+      <c r="C1424">
+        <v>3</v>
+      </c>
+      <c r="D1424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>5</v>
+      </c>
+      <c r="B1425">
+        <v>0</v>
+      </c>
+      <c r="C1425">
+        <v>3</v>
+      </c>
+      <c r="D1425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>3</v>
+      </c>
+      <c r="B1426">
+        <v>0</v>
+      </c>
+      <c r="C1426">
+        <v>3</v>
+      </c>
+      <c r="D1426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>6</v>
+      </c>
+      <c r="B1427">
+        <v>0</v>
+      </c>
+      <c r="C1427">
+        <v>7</v>
+      </c>
+      <c r="D1427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>5</v>
+      </c>
+      <c r="B1428">
+        <v>3</v>
+      </c>
+      <c r="C1428">
+        <v>2</v>
+      </c>
+      <c r="D1428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>5</v>
+      </c>
+      <c r="B1429">
+        <v>2</v>
+      </c>
+      <c r="C1429">
+        <v>5</v>
+      </c>
+      <c r="D1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>5</v>
+      </c>
+      <c r="B1430">
+        <v>0</v>
+      </c>
+      <c r="C1430">
+        <v>3</v>
+      </c>
+      <c r="D1430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>4</v>
+      </c>
+      <c r="B1431">
+        <v>0</v>
+      </c>
+      <c r="C1431">
+        <v>3</v>
+      </c>
+      <c r="D1431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>4</v>
+      </c>
+      <c r="B1432">
+        <v>0</v>
+      </c>
+      <c r="C1432">
+        <v>6</v>
+      </c>
+      <c r="D1432">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A202617-3CD2-47D8-9BB7-ABB8DDE4295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32BF63-1A74-47CE-B28C-0966F29412A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1432"/>
+  <dimension ref="A1:D1456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1416" workbookViewId="0">
-      <selection activeCell="A1433" sqref="A1433"/>
+    <sheetView tabSelected="1" topLeftCell="A1431" workbookViewId="0">
+      <selection activeCell="A1457" sqref="A1457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20423,6 +20423,342 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>4</v>
+      </c>
+      <c r="B1433">
+        <v>2</v>
+      </c>
+      <c r="C1433">
+        <v>4</v>
+      </c>
+      <c r="D1433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>4</v>
+      </c>
+      <c r="B1434">
+        <v>2</v>
+      </c>
+      <c r="C1434">
+        <v>3</v>
+      </c>
+      <c r="D1434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>6</v>
+      </c>
+      <c r="B1435">
+        <v>0</v>
+      </c>
+      <c r="C1435">
+        <v>7</v>
+      </c>
+      <c r="D1435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>4</v>
+      </c>
+      <c r="B1436">
+        <v>2</v>
+      </c>
+      <c r="C1436">
+        <v>5</v>
+      </c>
+      <c r="D1436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>5</v>
+      </c>
+      <c r="B1437">
+        <v>2</v>
+      </c>
+      <c r="C1437">
+        <v>3</v>
+      </c>
+      <c r="D1437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>3</v>
+      </c>
+      <c r="B1438">
+        <v>2</v>
+      </c>
+      <c r="C1438">
+        <v>3</v>
+      </c>
+      <c r="D1438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>6</v>
+      </c>
+      <c r="B1439">
+        <v>1</v>
+      </c>
+      <c r="C1439">
+        <v>6</v>
+      </c>
+      <c r="D1439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>3</v>
+      </c>
+      <c r="B1440">
+        <v>1</v>
+      </c>
+      <c r="C1440">
+        <v>5</v>
+      </c>
+      <c r="D1440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>7</v>
+      </c>
+      <c r="B1441">
+        <v>3</v>
+      </c>
+      <c r="C1441">
+        <v>6</v>
+      </c>
+      <c r="D1441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>3</v>
+      </c>
+      <c r="B1442">
+        <v>3</v>
+      </c>
+      <c r="C1442">
+        <v>3</v>
+      </c>
+      <c r="D1442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>5</v>
+      </c>
+      <c r="B1443">
+        <v>0</v>
+      </c>
+      <c r="C1443">
+        <v>4</v>
+      </c>
+      <c r="D1443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>6</v>
+      </c>
+      <c r="B1444">
+        <v>2</v>
+      </c>
+      <c r="C1444">
+        <v>3</v>
+      </c>
+      <c r="D1444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>3</v>
+      </c>
+      <c r="B1445">
+        <v>3</v>
+      </c>
+      <c r="C1445">
+        <v>3</v>
+      </c>
+      <c r="D1445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>3</v>
+      </c>
+      <c r="B1446">
+        <v>0</v>
+      </c>
+      <c r="C1446">
+        <v>3</v>
+      </c>
+      <c r="D1446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>3</v>
+      </c>
+      <c r="B1447">
+        <v>3</v>
+      </c>
+      <c r="C1447">
+        <v>3</v>
+      </c>
+      <c r="D1447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>5</v>
+      </c>
+      <c r="B1448">
+        <v>2</v>
+      </c>
+      <c r="C1448">
+        <v>4</v>
+      </c>
+      <c r="D1448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>4</v>
+      </c>
+      <c r="B1449">
+        <v>2</v>
+      </c>
+      <c r="C1449">
+        <v>4</v>
+      </c>
+      <c r="D1449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>5</v>
+      </c>
+      <c r="B1450">
+        <v>2</v>
+      </c>
+      <c r="C1450">
+        <v>5</v>
+      </c>
+      <c r="D1450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>2</v>
+      </c>
+      <c r="B1451">
+        <v>0</v>
+      </c>
+      <c r="C1451">
+        <v>6</v>
+      </c>
+      <c r="D1451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>5</v>
+      </c>
+      <c r="B1452">
+        <v>0</v>
+      </c>
+      <c r="C1452">
+        <v>3</v>
+      </c>
+      <c r="D1452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>5</v>
+      </c>
+      <c r="B1453">
+        <v>2</v>
+      </c>
+      <c r="C1453">
+        <v>5</v>
+      </c>
+      <c r="D1453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>5</v>
+      </c>
+      <c r="B1454">
+        <v>2</v>
+      </c>
+      <c r="C1454">
+        <v>6</v>
+      </c>
+      <c r="D1454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>4</v>
+      </c>
+      <c r="B1455">
+        <v>1</v>
+      </c>
+      <c r="C1455">
+        <v>4</v>
+      </c>
+      <c r="D1455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>4</v>
+      </c>
+      <c r="B1456">
+        <v>0</v>
+      </c>
+      <c r="C1456">
+        <v>3</v>
+      </c>
+      <c r="D1456">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32BF63-1A74-47CE-B28C-0966F29412A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D90C5-F6EF-4270-A670-A8FE67EC1E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1456"/>
+  <dimension ref="A1:D1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1431" workbookViewId="0">
-      <selection activeCell="A1457" sqref="A1457"/>
+    <sheetView tabSelected="1" topLeftCell="A1452" workbookViewId="0">
+      <selection activeCell="A1479" sqref="A1479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20759,6 +20759,314 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>7</v>
+      </c>
+      <c r="B1457">
+        <v>3</v>
+      </c>
+      <c r="C1457">
+        <v>3</v>
+      </c>
+      <c r="D1457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>2</v>
+      </c>
+      <c r="B1458">
+        <v>3</v>
+      </c>
+      <c r="C1458">
+        <v>3</v>
+      </c>
+      <c r="D1458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>4</v>
+      </c>
+      <c r="B1459">
+        <v>0</v>
+      </c>
+      <c r="C1459">
+        <v>3</v>
+      </c>
+      <c r="D1459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>7</v>
+      </c>
+      <c r="B1460">
+        <v>3</v>
+      </c>
+      <c r="C1460">
+        <v>7</v>
+      </c>
+      <c r="D1460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>5</v>
+      </c>
+      <c r="B1461">
+        <v>1</v>
+      </c>
+      <c r="C1461">
+        <v>6</v>
+      </c>
+      <c r="D1461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>3</v>
+      </c>
+      <c r="B1462">
+        <v>1</v>
+      </c>
+      <c r="C1462">
+        <v>3</v>
+      </c>
+      <c r="D1462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>4</v>
+      </c>
+      <c r="B1463">
+        <v>1</v>
+      </c>
+      <c r="C1463">
+        <v>5</v>
+      </c>
+      <c r="D1463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>2</v>
+      </c>
+      <c r="B1464">
+        <v>2</v>
+      </c>
+      <c r="C1464">
+        <v>3</v>
+      </c>
+      <c r="D1464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>4</v>
+      </c>
+      <c r="B1465">
+        <v>0</v>
+      </c>
+      <c r="C1465">
+        <v>5</v>
+      </c>
+      <c r="D1465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>3</v>
+      </c>
+      <c r="B1466">
+        <v>1</v>
+      </c>
+      <c r="C1466">
+        <v>2</v>
+      </c>
+      <c r="D1466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>4</v>
+      </c>
+      <c r="B1467">
+        <v>0</v>
+      </c>
+      <c r="C1467">
+        <v>4</v>
+      </c>
+      <c r="D1467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>6</v>
+      </c>
+      <c r="B1468">
+        <v>1</v>
+      </c>
+      <c r="C1468">
+        <v>5</v>
+      </c>
+      <c r="D1468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>5</v>
+      </c>
+      <c r="B1469">
+        <v>0</v>
+      </c>
+      <c r="C1469">
+        <v>6</v>
+      </c>
+      <c r="D1469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>4</v>
+      </c>
+      <c r="B1470">
+        <v>2</v>
+      </c>
+      <c r="C1470">
+        <v>4</v>
+      </c>
+      <c r="D1470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>4</v>
+      </c>
+      <c r="B1471">
+        <v>0</v>
+      </c>
+      <c r="C1471">
+        <v>5</v>
+      </c>
+      <c r="D1471">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>3</v>
+      </c>
+      <c r="B1472">
+        <v>0</v>
+      </c>
+      <c r="C1472">
+        <v>5</v>
+      </c>
+      <c r="D1472">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>4</v>
+      </c>
+      <c r="B1473">
+        <v>0</v>
+      </c>
+      <c r="C1473">
+        <v>6</v>
+      </c>
+      <c r="D1473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>7</v>
+      </c>
+      <c r="B1474">
+        <v>2</v>
+      </c>
+      <c r="C1474">
+        <v>5</v>
+      </c>
+      <c r="D1474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>5</v>
+      </c>
+      <c r="B1475">
+        <v>2</v>
+      </c>
+      <c r="C1475">
+        <v>6</v>
+      </c>
+      <c r="D1475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>2</v>
+      </c>
+      <c r="B1476">
+        <v>2</v>
+      </c>
+      <c r="C1476">
+        <v>4</v>
+      </c>
+      <c r="D1476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>5</v>
+      </c>
+      <c r="B1477">
+        <v>1</v>
+      </c>
+      <c r="C1477">
+        <v>4</v>
+      </c>
+      <c r="D1477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>2</v>
+      </c>
+      <c r="B1478">
+        <v>2</v>
+      </c>
+      <c r="C1478">
+        <v>4</v>
+      </c>
+      <c r="D1478">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D90C5-F6EF-4270-A670-A8FE67EC1E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA1323-A473-45C3-A58D-4EF1E7232DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1478"/>
+  <dimension ref="A1:D1502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1452" workbookViewId="0">
-      <selection activeCell="A1479" sqref="A1479"/>
+    <sheetView tabSelected="1" topLeftCell="A1476" workbookViewId="0">
+      <selection activeCell="A1503" sqref="A1503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21067,6 +21067,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>4</v>
+      </c>
+      <c r="B1479">
+        <v>2</v>
+      </c>
+      <c r="C1479">
+        <v>4</v>
+      </c>
+      <c r="D1479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>2</v>
+      </c>
+      <c r="B1480">
+        <v>2</v>
+      </c>
+      <c r="C1480">
+        <v>3</v>
+      </c>
+      <c r="D1480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>5</v>
+      </c>
+      <c r="B1481">
+        <v>2</v>
+      </c>
+      <c r="C1481">
+        <v>5</v>
+      </c>
+      <c r="D1481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>6</v>
+      </c>
+      <c r="B1482">
+        <v>0</v>
+      </c>
+      <c r="C1482">
+        <v>3</v>
+      </c>
+      <c r="D1482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>3</v>
+      </c>
+      <c r="B1483">
+        <v>1</v>
+      </c>
+      <c r="C1483">
+        <v>7</v>
+      </c>
+      <c r="D1483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>4</v>
+      </c>
+      <c r="B1484">
+        <v>0</v>
+      </c>
+      <c r="C1484">
+        <v>4</v>
+      </c>
+      <c r="D1484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>5</v>
+      </c>
+      <c r="B1485">
+        <v>2</v>
+      </c>
+      <c r="C1485">
+        <v>7</v>
+      </c>
+      <c r="D1485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>5</v>
+      </c>
+      <c r="B1486">
+        <v>0</v>
+      </c>
+      <c r="C1486">
+        <v>6</v>
+      </c>
+      <c r="D1486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>2</v>
+      </c>
+      <c r="B1487">
+        <v>3</v>
+      </c>
+      <c r="C1487">
+        <v>3</v>
+      </c>
+      <c r="D1487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>3</v>
+      </c>
+      <c r="B1488">
+        <v>2</v>
+      </c>
+      <c r="C1488">
+        <v>3</v>
+      </c>
+      <c r="D1488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>5</v>
+      </c>
+      <c r="B1489">
+        <v>0</v>
+      </c>
+      <c r="C1489">
+        <v>4</v>
+      </c>
+      <c r="D1489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>5</v>
+      </c>
+      <c r="B1490">
+        <v>2</v>
+      </c>
+      <c r="C1490">
+        <v>6</v>
+      </c>
+      <c r="D1490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1491">
+        <v>6</v>
+      </c>
+      <c r="B1491">
+        <v>2</v>
+      </c>
+      <c r="C1491">
+        <v>4</v>
+      </c>
+      <c r="D1491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1492">
+        <v>4</v>
+      </c>
+      <c r="B1492">
+        <v>2</v>
+      </c>
+      <c r="C1492">
+        <v>6</v>
+      </c>
+      <c r="D1492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1493">
+        <v>4</v>
+      </c>
+      <c r="B1493">
+        <v>0</v>
+      </c>
+      <c r="C1493">
+        <v>3</v>
+      </c>
+      <c r="D1493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1494">
+        <v>4</v>
+      </c>
+      <c r="B1494">
+        <v>1</v>
+      </c>
+      <c r="C1494">
+        <v>4</v>
+      </c>
+      <c r="D1494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1495">
+        <v>4</v>
+      </c>
+      <c r="B1495">
+        <v>2</v>
+      </c>
+      <c r="C1495">
+        <v>5</v>
+      </c>
+      <c r="D1495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1496">
+        <v>6</v>
+      </c>
+      <c r="B1496">
+        <v>2</v>
+      </c>
+      <c r="C1496">
+        <v>6</v>
+      </c>
+      <c r="D1496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>5</v>
+      </c>
+      <c r="B1497">
+        <v>3</v>
+      </c>
+      <c r="C1497">
+        <v>5</v>
+      </c>
+      <c r="D1497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>3</v>
+      </c>
+      <c r="B1498">
+        <v>0</v>
+      </c>
+      <c r="C1498">
+        <v>5</v>
+      </c>
+      <c r="D1498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1499">
+        <v>3</v>
+      </c>
+      <c r="B1499">
+        <v>1</v>
+      </c>
+      <c r="C1499">
+        <v>5</v>
+      </c>
+      <c r="D1499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1500">
+        <v>6</v>
+      </c>
+      <c r="B1500">
+        <v>0</v>
+      </c>
+      <c r="C1500">
+        <v>7</v>
+      </c>
+      <c r="D1500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1501">
+        <v>3</v>
+      </c>
+      <c r="B1501">
+        <v>3</v>
+      </c>
+      <c r="C1501">
+        <v>2</v>
+      </c>
+      <c r="D1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1502">
+        <v>5</v>
+      </c>
+      <c r="B1502">
+        <v>2</v>
+      </c>
+      <c r="C1502">
+        <v>4</v>
+      </c>
+      <c r="D1502">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA1323-A473-45C3-A58D-4EF1E7232DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C7AC01-1E91-4A2D-A032-7B53C4CE4F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1502"/>
+  <dimension ref="A1:D1524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1476" workbookViewId="0">
-      <selection activeCell="A1503" sqref="A1503"/>
+    <sheetView tabSelected="1" topLeftCell="A1512" workbookViewId="0">
+      <selection activeCell="A1525" sqref="A1525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21403,6 +21403,314 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1503">
+        <v>4</v>
+      </c>
+      <c r="B1503">
+        <v>1</v>
+      </c>
+      <c r="C1503">
+        <v>4</v>
+      </c>
+      <c r="D1503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1504">
+        <v>2</v>
+      </c>
+      <c r="B1504">
+        <v>1</v>
+      </c>
+      <c r="C1504">
+        <v>2</v>
+      </c>
+      <c r="D1504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1505">
+        <v>7</v>
+      </c>
+      <c r="B1505">
+        <v>0</v>
+      </c>
+      <c r="C1505">
+        <v>5</v>
+      </c>
+      <c r="D1505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1506">
+        <v>7</v>
+      </c>
+      <c r="B1506">
+        <v>2</v>
+      </c>
+      <c r="C1506">
+        <v>6</v>
+      </c>
+      <c r="D1506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1507">
+        <v>3</v>
+      </c>
+      <c r="B1507">
+        <v>0</v>
+      </c>
+      <c r="C1507">
+        <v>5</v>
+      </c>
+      <c r="D1507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1508">
+        <v>5</v>
+      </c>
+      <c r="B1508">
+        <v>2</v>
+      </c>
+      <c r="C1508">
+        <v>5</v>
+      </c>
+      <c r="D1508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1509">
+        <v>6</v>
+      </c>
+      <c r="B1509">
+        <v>2</v>
+      </c>
+      <c r="C1509">
+        <v>5</v>
+      </c>
+      <c r="D1509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1510">
+        <v>2</v>
+      </c>
+      <c r="B1510">
+        <v>2</v>
+      </c>
+      <c r="C1510">
+        <v>5</v>
+      </c>
+      <c r="D1510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1511">
+        <v>6</v>
+      </c>
+      <c r="B1511">
+        <v>2</v>
+      </c>
+      <c r="C1511">
+        <v>4</v>
+      </c>
+      <c r="D1511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1512">
+        <v>4</v>
+      </c>
+      <c r="B1512">
+        <v>0</v>
+      </c>
+      <c r="C1512">
+        <v>4</v>
+      </c>
+      <c r="D1512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1513">
+        <v>4</v>
+      </c>
+      <c r="B1513">
+        <v>3</v>
+      </c>
+      <c r="C1513">
+        <v>4</v>
+      </c>
+      <c r="D1513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1514">
+        <v>4</v>
+      </c>
+      <c r="B1514">
+        <v>1</v>
+      </c>
+      <c r="C1514">
+        <v>4</v>
+      </c>
+      <c r="D1514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1515">
+        <v>5</v>
+      </c>
+      <c r="B1515">
+        <v>0</v>
+      </c>
+      <c r="C1515">
+        <v>5</v>
+      </c>
+      <c r="D1515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1516">
+        <v>3</v>
+      </c>
+      <c r="B1516">
+        <v>1</v>
+      </c>
+      <c r="C1516">
+        <v>2</v>
+      </c>
+      <c r="D1516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1517">
+        <v>4</v>
+      </c>
+      <c r="B1517">
+        <v>0</v>
+      </c>
+      <c r="C1517">
+        <v>3</v>
+      </c>
+      <c r="D1517">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1518">
+        <v>5</v>
+      </c>
+      <c r="B1518">
+        <v>0</v>
+      </c>
+      <c r="C1518">
+        <v>4</v>
+      </c>
+      <c r="D1518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1519">
+        <v>4</v>
+      </c>
+      <c r="B1519">
+        <v>0</v>
+      </c>
+      <c r="C1519">
+        <v>7</v>
+      </c>
+      <c r="D1519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1520">
+        <v>6</v>
+      </c>
+      <c r="B1520">
+        <v>0</v>
+      </c>
+      <c r="C1520">
+        <v>5</v>
+      </c>
+      <c r="D1520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1521">
+        <v>6</v>
+      </c>
+      <c r="B1521">
+        <v>2</v>
+      </c>
+      <c r="C1521">
+        <v>6</v>
+      </c>
+      <c r="D1521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1522">
+        <v>3</v>
+      </c>
+      <c r="B1522">
+        <v>2</v>
+      </c>
+      <c r="C1522">
+        <v>6</v>
+      </c>
+      <c r="D1522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1523">
+        <v>5</v>
+      </c>
+      <c r="B1523">
+        <v>2</v>
+      </c>
+      <c r="C1523">
+        <v>4</v>
+      </c>
+      <c r="D1523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1524">
+        <v>5</v>
+      </c>
+      <c r="B1524">
+        <v>0</v>
+      </c>
+      <c r="C1524">
+        <v>2</v>
+      </c>
+      <c r="D1524">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C7AC01-1E91-4A2D-A032-7B53C4CE4F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B5410-2812-4E89-8583-52398FBB4B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1524"/>
+  <dimension ref="A1:D1547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1512" workbookViewId="0">
-      <selection activeCell="A1525" sqref="A1525"/>
+    <sheetView tabSelected="1" topLeftCell="A1545" workbookViewId="0">
+      <selection activeCell="A1548" sqref="A1548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21711,6 +21711,328 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1525">
+        <v>5</v>
+      </c>
+      <c r="B1525">
+        <v>1</v>
+      </c>
+      <c r="C1525">
+        <v>4</v>
+      </c>
+      <c r="D1525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1526">
+        <v>5</v>
+      </c>
+      <c r="B1526">
+        <v>0</v>
+      </c>
+      <c r="C1526">
+        <v>7</v>
+      </c>
+      <c r="D1526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1527">
+        <v>5</v>
+      </c>
+      <c r="B1527">
+        <v>0</v>
+      </c>
+      <c r="C1527">
+        <v>5</v>
+      </c>
+      <c r="D1527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1528">
+        <v>6</v>
+      </c>
+      <c r="B1528">
+        <v>0</v>
+      </c>
+      <c r="C1528">
+        <v>6</v>
+      </c>
+      <c r="D1528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1529">
+        <v>4</v>
+      </c>
+      <c r="B1529">
+        <v>0</v>
+      </c>
+      <c r="C1529">
+        <v>4</v>
+      </c>
+      <c r="D1529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1530">
+        <v>4</v>
+      </c>
+      <c r="B1530">
+        <v>1</v>
+      </c>
+      <c r="C1530">
+        <v>4</v>
+      </c>
+      <c r="D1530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1531">
+        <v>4</v>
+      </c>
+      <c r="B1531">
+        <v>1</v>
+      </c>
+      <c r="C1531">
+        <v>4</v>
+      </c>
+      <c r="D1531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1532">
+        <v>5</v>
+      </c>
+      <c r="B1532">
+        <v>2</v>
+      </c>
+      <c r="C1532">
+        <v>3</v>
+      </c>
+      <c r="D1532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533">
+        <v>3</v>
+      </c>
+      <c r="B1533">
+        <v>2</v>
+      </c>
+      <c r="C1533">
+        <v>4</v>
+      </c>
+      <c r="D1533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1534">
+        <v>6</v>
+      </c>
+      <c r="B1534">
+        <v>0</v>
+      </c>
+      <c r="C1534">
+        <v>4</v>
+      </c>
+      <c r="D1534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1535">
+        <v>3</v>
+      </c>
+      <c r="B1535">
+        <v>3</v>
+      </c>
+      <c r="C1535">
+        <v>3</v>
+      </c>
+      <c r="D1535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536">
+        <v>3</v>
+      </c>
+      <c r="B1536">
+        <v>2</v>
+      </c>
+      <c r="C1536">
+        <v>4</v>
+      </c>
+      <c r="D1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537">
+        <v>7</v>
+      </c>
+      <c r="B1537">
+        <v>0</v>
+      </c>
+      <c r="C1537">
+        <v>5</v>
+      </c>
+      <c r="D1537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538">
+        <v>4</v>
+      </c>
+      <c r="B1538">
+        <v>1</v>
+      </c>
+      <c r="C1538">
+        <v>4</v>
+      </c>
+      <c r="D1538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539">
+        <v>3</v>
+      </c>
+      <c r="B1539">
+        <v>2</v>
+      </c>
+      <c r="C1539">
+        <v>3</v>
+      </c>
+      <c r="D1539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540">
+        <v>6</v>
+      </c>
+      <c r="B1540">
+        <v>2</v>
+      </c>
+      <c r="C1540">
+        <v>6</v>
+      </c>
+      <c r="D1540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541">
+        <v>6</v>
+      </c>
+      <c r="B1541">
+        <v>2</v>
+      </c>
+      <c r="C1541">
+        <v>6</v>
+      </c>
+      <c r="D1541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542">
+        <v>2</v>
+      </c>
+      <c r="B1542">
+        <v>2</v>
+      </c>
+      <c r="C1542">
+        <v>4</v>
+      </c>
+      <c r="D1542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543">
+        <v>6</v>
+      </c>
+      <c r="B1543">
+        <v>2</v>
+      </c>
+      <c r="C1543">
+        <v>7</v>
+      </c>
+      <c r="D1543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544">
+        <v>4</v>
+      </c>
+      <c r="B1544">
+        <v>2</v>
+      </c>
+      <c r="C1544">
+        <v>3</v>
+      </c>
+      <c r="D1544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545">
+        <v>6</v>
+      </c>
+      <c r="B1545">
+        <v>2</v>
+      </c>
+      <c r="C1545">
+        <v>5</v>
+      </c>
+      <c r="D1545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546">
+        <v>5</v>
+      </c>
+      <c r="B1546">
+        <v>0</v>
+      </c>
+      <c r="C1546">
+        <v>5</v>
+      </c>
+      <c r="D1546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547">
+        <v>2</v>
+      </c>
+      <c r="B1547">
+        <v>1</v>
+      </c>
+      <c r="C1547">
+        <v>2</v>
+      </c>
+      <c r="D1547">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B5410-2812-4E89-8583-52398FBB4B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E275FE-F7B0-4282-A1EC-5F1B14C30EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E275FE-F7B0-4282-A1EC-5F1B14C30EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B08D53A-0E03-4C12-99E8-AFFE0323BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1547"/>
+  <dimension ref="A1:D1686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1545" workbookViewId="0">
-      <selection activeCell="A1548" sqref="A1548"/>
+    <sheetView tabSelected="1" topLeftCell="A1665" workbookViewId="0">
+      <selection activeCell="A1687" sqref="A1687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22033,6 +22033,1952 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548">
+        <v>4</v>
+      </c>
+      <c r="B1548">
+        <v>2</v>
+      </c>
+      <c r="C1548">
+        <v>4</v>
+      </c>
+      <c r="D1548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549">
+        <v>4</v>
+      </c>
+      <c r="B1549">
+        <v>0</v>
+      </c>
+      <c r="C1549">
+        <v>4</v>
+      </c>
+      <c r="D1549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550">
+        <v>3</v>
+      </c>
+      <c r="B1550">
+        <v>2</v>
+      </c>
+      <c r="C1550">
+        <v>5</v>
+      </c>
+      <c r="D1550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551">
+        <v>2</v>
+      </c>
+      <c r="B1551">
+        <v>0</v>
+      </c>
+      <c r="C1551">
+        <v>6</v>
+      </c>
+      <c r="D1551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552">
+        <v>7</v>
+      </c>
+      <c r="B1552">
+        <v>2</v>
+      </c>
+      <c r="C1552">
+        <v>4</v>
+      </c>
+      <c r="D1552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553">
+        <v>4</v>
+      </c>
+      <c r="B1553">
+        <v>2</v>
+      </c>
+      <c r="C1553">
+        <v>5</v>
+      </c>
+      <c r="D1553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554">
+        <v>4</v>
+      </c>
+      <c r="B1554">
+        <v>0</v>
+      </c>
+      <c r="C1554">
+        <v>4</v>
+      </c>
+      <c r="D1554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555">
+        <v>3</v>
+      </c>
+      <c r="B1555">
+        <v>1</v>
+      </c>
+      <c r="C1555">
+        <v>3</v>
+      </c>
+      <c r="D1555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556">
+        <v>6</v>
+      </c>
+      <c r="B1556">
+        <v>2</v>
+      </c>
+      <c r="C1556">
+        <v>6</v>
+      </c>
+      <c r="D1556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557">
+        <v>4</v>
+      </c>
+      <c r="B1557">
+        <v>2</v>
+      </c>
+      <c r="C1557">
+        <v>2</v>
+      </c>
+      <c r="D1557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558">
+        <v>3</v>
+      </c>
+      <c r="B1558">
+        <v>2</v>
+      </c>
+      <c r="C1558">
+        <v>5</v>
+      </c>
+      <c r="D1558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559">
+        <v>5</v>
+      </c>
+      <c r="B1559">
+        <v>0</v>
+      </c>
+      <c r="C1559">
+        <v>5</v>
+      </c>
+      <c r="D1559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560">
+        <v>3</v>
+      </c>
+      <c r="B1560">
+        <v>2</v>
+      </c>
+      <c r="C1560">
+        <v>3</v>
+      </c>
+      <c r="D1560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561">
+        <v>4</v>
+      </c>
+      <c r="B1561">
+        <v>1</v>
+      </c>
+      <c r="C1561">
+        <v>4</v>
+      </c>
+      <c r="D1561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562">
+        <v>5</v>
+      </c>
+      <c r="B1562">
+        <v>3</v>
+      </c>
+      <c r="C1562">
+        <v>6</v>
+      </c>
+      <c r="D1562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563">
+        <v>4</v>
+      </c>
+      <c r="B1563">
+        <v>1</v>
+      </c>
+      <c r="C1563">
+        <v>3</v>
+      </c>
+      <c r="D1563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564">
+        <v>3</v>
+      </c>
+      <c r="B1564">
+        <v>1</v>
+      </c>
+      <c r="C1564">
+        <v>3</v>
+      </c>
+      <c r="D1564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565">
+        <v>6</v>
+      </c>
+      <c r="B1565">
+        <v>1</v>
+      </c>
+      <c r="C1565">
+        <v>5</v>
+      </c>
+      <c r="D1565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566">
+        <v>6</v>
+      </c>
+      <c r="B1566">
+        <v>2</v>
+      </c>
+      <c r="C1566">
+        <v>5</v>
+      </c>
+      <c r="D1566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1567">
+        <v>5</v>
+      </c>
+      <c r="B1567">
+        <v>2</v>
+      </c>
+      <c r="C1567">
+        <v>5</v>
+      </c>
+      <c r="D1567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1568">
+        <v>6</v>
+      </c>
+      <c r="B1568">
+        <v>3</v>
+      </c>
+      <c r="C1568">
+        <v>3</v>
+      </c>
+      <c r="D1568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1569">
+        <v>6</v>
+      </c>
+      <c r="B1569">
+        <v>0</v>
+      </c>
+      <c r="C1569">
+        <v>6</v>
+      </c>
+      <c r="D1569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1570">
+        <v>3</v>
+      </c>
+      <c r="B1570">
+        <v>1</v>
+      </c>
+      <c r="C1570">
+        <v>4</v>
+      </c>
+      <c r="D1570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1571">
+        <v>4</v>
+      </c>
+      <c r="B1571">
+        <v>3</v>
+      </c>
+      <c r="C1571">
+        <v>3</v>
+      </c>
+      <c r="D1571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1572">
+        <v>5</v>
+      </c>
+      <c r="B1572">
+        <v>0</v>
+      </c>
+      <c r="C1572">
+        <v>6</v>
+      </c>
+      <c r="D1572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1573">
+        <v>3</v>
+      </c>
+      <c r="B1573">
+        <v>2</v>
+      </c>
+      <c r="C1573">
+        <v>3</v>
+      </c>
+      <c r="D1573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1574">
+        <v>5</v>
+      </c>
+      <c r="B1574">
+        <v>0</v>
+      </c>
+      <c r="C1574">
+        <v>6</v>
+      </c>
+      <c r="D1574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1575">
+        <v>5</v>
+      </c>
+      <c r="B1575">
+        <v>0</v>
+      </c>
+      <c r="C1575">
+        <v>5</v>
+      </c>
+      <c r="D1575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1576">
+        <v>6</v>
+      </c>
+      <c r="B1576">
+        <v>0</v>
+      </c>
+      <c r="C1576">
+        <v>5</v>
+      </c>
+      <c r="D1576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1577">
+        <v>2</v>
+      </c>
+      <c r="B1577">
+        <v>0</v>
+      </c>
+      <c r="C1577">
+        <v>5</v>
+      </c>
+      <c r="D1577">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1578">
+        <v>5</v>
+      </c>
+      <c r="B1578">
+        <v>0</v>
+      </c>
+      <c r="C1578">
+        <v>6</v>
+      </c>
+      <c r="D1578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1579">
+        <v>4</v>
+      </c>
+      <c r="B1579">
+        <v>3</v>
+      </c>
+      <c r="C1579">
+        <v>3</v>
+      </c>
+      <c r="D1579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1580">
+        <v>5</v>
+      </c>
+      <c r="B1580">
+        <v>0</v>
+      </c>
+      <c r="C1580">
+        <v>4</v>
+      </c>
+      <c r="D1580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1581">
+        <v>5</v>
+      </c>
+      <c r="B1581">
+        <v>0</v>
+      </c>
+      <c r="C1581">
+        <v>6</v>
+      </c>
+      <c r="D1581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1582">
+        <v>3</v>
+      </c>
+      <c r="B1582">
+        <v>1</v>
+      </c>
+      <c r="C1582">
+        <v>6</v>
+      </c>
+      <c r="D1582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1583">
+        <v>6</v>
+      </c>
+      <c r="B1583">
+        <v>0</v>
+      </c>
+      <c r="C1583">
+        <v>4</v>
+      </c>
+      <c r="D1583">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1584">
+        <v>4</v>
+      </c>
+      <c r="B1584">
+        <v>1</v>
+      </c>
+      <c r="C1584">
+        <v>3</v>
+      </c>
+      <c r="D1584">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>3</v>
+      </c>
+      <c r="B1585">
+        <v>0</v>
+      </c>
+      <c r="C1585">
+        <v>4</v>
+      </c>
+      <c r="D1585">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>5</v>
+      </c>
+      <c r="B1586">
+        <v>0</v>
+      </c>
+      <c r="C1586">
+        <v>5</v>
+      </c>
+      <c r="D1586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>3</v>
+      </c>
+      <c r="B1587">
+        <v>0</v>
+      </c>
+      <c r="C1587">
+        <v>7</v>
+      </c>
+      <c r="D1587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>3</v>
+      </c>
+      <c r="B1588">
+        <v>0</v>
+      </c>
+      <c r="C1588">
+        <v>2</v>
+      </c>
+      <c r="D1588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>7</v>
+      </c>
+      <c r="B1589">
+        <v>3</v>
+      </c>
+      <c r="C1589">
+        <v>3</v>
+      </c>
+      <c r="D1589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>4</v>
+      </c>
+      <c r="B1590">
+        <v>0</v>
+      </c>
+      <c r="C1590">
+        <v>4</v>
+      </c>
+      <c r="D1590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>4</v>
+      </c>
+      <c r="B1591">
+        <v>2</v>
+      </c>
+      <c r="C1591">
+        <v>3</v>
+      </c>
+      <c r="D1591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>4</v>
+      </c>
+      <c r="B1592">
+        <v>1</v>
+      </c>
+      <c r="C1592">
+        <v>5</v>
+      </c>
+      <c r="D1592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>5</v>
+      </c>
+      <c r="B1593">
+        <v>2</v>
+      </c>
+      <c r="C1593">
+        <v>4</v>
+      </c>
+      <c r="D1593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>6</v>
+      </c>
+      <c r="B1594">
+        <v>0</v>
+      </c>
+      <c r="C1594">
+        <v>5</v>
+      </c>
+      <c r="D1594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1595">
+        <v>4</v>
+      </c>
+      <c r="B1595">
+        <v>2</v>
+      </c>
+      <c r="C1595">
+        <v>5</v>
+      </c>
+      <c r="D1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1596">
+        <v>3</v>
+      </c>
+      <c r="B1596">
+        <v>0</v>
+      </c>
+      <c r="C1596">
+        <v>5</v>
+      </c>
+      <c r="D1596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1597">
+        <v>3</v>
+      </c>
+      <c r="B1597">
+        <v>0</v>
+      </c>
+      <c r="C1597">
+        <v>6</v>
+      </c>
+      <c r="D1597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1598">
+        <v>7</v>
+      </c>
+      <c r="B1598">
+        <v>2</v>
+      </c>
+      <c r="C1598">
+        <v>3</v>
+      </c>
+      <c r="D1598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1599">
+        <v>4</v>
+      </c>
+      <c r="B1599">
+        <v>2</v>
+      </c>
+      <c r="C1599">
+        <v>4</v>
+      </c>
+      <c r="D1599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1600">
+        <v>4</v>
+      </c>
+      <c r="B1600">
+        <v>3</v>
+      </c>
+      <c r="C1600">
+        <v>4</v>
+      </c>
+      <c r="D1600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601">
+        <v>5</v>
+      </c>
+      <c r="B1601">
+        <v>0</v>
+      </c>
+      <c r="C1601">
+        <v>6</v>
+      </c>
+      <c r="D1601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602">
+        <v>2</v>
+      </c>
+      <c r="B1602">
+        <v>0</v>
+      </c>
+      <c r="C1602">
+        <v>3</v>
+      </c>
+      <c r="D1602">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1603">
+        <v>6</v>
+      </c>
+      <c r="B1603">
+        <v>0</v>
+      </c>
+      <c r="C1603">
+        <v>6</v>
+      </c>
+      <c r="D1603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1604">
+        <v>5</v>
+      </c>
+      <c r="B1604">
+        <v>2</v>
+      </c>
+      <c r="C1604">
+        <v>4</v>
+      </c>
+      <c r="D1604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1605">
+        <v>3</v>
+      </c>
+      <c r="B1605">
+        <v>1</v>
+      </c>
+      <c r="C1605">
+        <v>4</v>
+      </c>
+      <c r="D1605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1606">
+        <v>7</v>
+      </c>
+      <c r="B1606">
+        <v>3</v>
+      </c>
+      <c r="C1606">
+        <v>6</v>
+      </c>
+      <c r="D1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1607">
+        <v>5</v>
+      </c>
+      <c r="B1607">
+        <v>0</v>
+      </c>
+      <c r="C1607">
+        <v>4</v>
+      </c>
+      <c r="D1607">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1608">
+        <v>3</v>
+      </c>
+      <c r="B1608">
+        <v>0</v>
+      </c>
+      <c r="C1608">
+        <v>5</v>
+      </c>
+      <c r="D1608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1609">
+        <v>3</v>
+      </c>
+      <c r="B1609">
+        <v>2</v>
+      </c>
+      <c r="C1609">
+        <v>3</v>
+      </c>
+      <c r="D1609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1610">
+        <v>3</v>
+      </c>
+      <c r="B1610">
+        <v>2</v>
+      </c>
+      <c r="C1610">
+        <v>4</v>
+      </c>
+      <c r="D1610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1611">
+        <v>5</v>
+      </c>
+      <c r="B1611">
+        <v>0</v>
+      </c>
+      <c r="C1611">
+        <v>4</v>
+      </c>
+      <c r="D1611">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1612">
+        <v>5</v>
+      </c>
+      <c r="B1612">
+        <v>0</v>
+      </c>
+      <c r="C1612">
+        <v>6</v>
+      </c>
+      <c r="D1612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1613">
+        <v>5</v>
+      </c>
+      <c r="B1613">
+        <v>0</v>
+      </c>
+      <c r="C1613">
+        <v>4</v>
+      </c>
+      <c r="D1613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1614">
+        <v>3</v>
+      </c>
+      <c r="B1614">
+        <v>1</v>
+      </c>
+      <c r="C1614">
+        <v>4</v>
+      </c>
+      <c r="D1614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1615">
+        <v>5</v>
+      </c>
+      <c r="B1615">
+        <v>2</v>
+      </c>
+      <c r="C1615">
+        <v>5</v>
+      </c>
+      <c r="D1615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1616">
+        <v>3</v>
+      </c>
+      <c r="B1616">
+        <v>0</v>
+      </c>
+      <c r="C1616">
+        <v>3</v>
+      </c>
+      <c r="D1616">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1617">
+        <v>7</v>
+      </c>
+      <c r="B1617">
+        <v>0</v>
+      </c>
+      <c r="C1617">
+        <v>6</v>
+      </c>
+      <c r="D1617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1618">
+        <v>4</v>
+      </c>
+      <c r="B1618">
+        <v>0</v>
+      </c>
+      <c r="C1618">
+        <v>5</v>
+      </c>
+      <c r="D1618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1619">
+        <v>5</v>
+      </c>
+      <c r="B1619">
+        <v>2</v>
+      </c>
+      <c r="C1619">
+        <v>4</v>
+      </c>
+      <c r="D1619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1620">
+        <v>3</v>
+      </c>
+      <c r="B1620">
+        <v>2</v>
+      </c>
+      <c r="C1620">
+        <v>5</v>
+      </c>
+      <c r="D1620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1621">
+        <v>5</v>
+      </c>
+      <c r="B1621">
+        <v>2</v>
+      </c>
+      <c r="C1621">
+        <v>5</v>
+      </c>
+      <c r="D1621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1622">
+        <v>5</v>
+      </c>
+      <c r="B1622">
+        <v>0</v>
+      </c>
+      <c r="C1622">
+        <v>5</v>
+      </c>
+      <c r="D1622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1623">
+        <v>4</v>
+      </c>
+      <c r="B1623">
+        <v>1</v>
+      </c>
+      <c r="C1623">
+        <v>4</v>
+      </c>
+      <c r="D1623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1624">
+        <v>3</v>
+      </c>
+      <c r="B1624">
+        <v>0</v>
+      </c>
+      <c r="C1624">
+        <v>5</v>
+      </c>
+      <c r="D1624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1625">
+        <v>3</v>
+      </c>
+      <c r="B1625">
+        <v>0</v>
+      </c>
+      <c r="C1625">
+        <v>2</v>
+      </c>
+      <c r="D1625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1626">
+        <v>7</v>
+      </c>
+      <c r="B1626">
+        <v>3</v>
+      </c>
+      <c r="C1626">
+        <v>3</v>
+      </c>
+      <c r="D1626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>5</v>
+      </c>
+      <c r="B1627">
+        <v>2</v>
+      </c>
+      <c r="C1627">
+        <v>5</v>
+      </c>
+      <c r="D1627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>3</v>
+      </c>
+      <c r="B1628">
+        <v>3</v>
+      </c>
+      <c r="C1628">
+        <v>3</v>
+      </c>
+      <c r="D1628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>6</v>
+      </c>
+      <c r="B1629">
+        <v>2</v>
+      </c>
+      <c r="C1629">
+        <v>6</v>
+      </c>
+      <c r="D1629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>4</v>
+      </c>
+      <c r="B1630">
+        <v>2</v>
+      </c>
+      <c r="C1630">
+        <v>4</v>
+      </c>
+      <c r="D1630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1631">
+        <v>4</v>
+      </c>
+      <c r="B1631">
+        <v>3</v>
+      </c>
+      <c r="C1631">
+        <v>3</v>
+      </c>
+      <c r="D1631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1632">
+        <v>6</v>
+      </c>
+      <c r="B1632">
+        <v>2</v>
+      </c>
+      <c r="C1632">
+        <v>6</v>
+      </c>
+      <c r="D1632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1633">
+        <v>6</v>
+      </c>
+      <c r="B1633">
+        <v>3</v>
+      </c>
+      <c r="C1633">
+        <v>5</v>
+      </c>
+      <c r="D1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1634">
+        <v>3</v>
+      </c>
+      <c r="B1634">
+        <v>0</v>
+      </c>
+      <c r="C1634">
+        <v>3</v>
+      </c>
+      <c r="D1634">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1635">
+        <v>4</v>
+      </c>
+      <c r="B1635">
+        <v>3</v>
+      </c>
+      <c r="C1635">
+        <v>4</v>
+      </c>
+      <c r="D1635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1636">
+        <v>3</v>
+      </c>
+      <c r="B1636">
+        <v>2</v>
+      </c>
+      <c r="C1636">
+        <v>4</v>
+      </c>
+      <c r="D1636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1637">
+        <v>5</v>
+      </c>
+      <c r="B1637">
+        <v>2</v>
+      </c>
+      <c r="C1637">
+        <v>5</v>
+      </c>
+      <c r="D1637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1638">
+        <v>6</v>
+      </c>
+      <c r="B1638">
+        <v>0</v>
+      </c>
+      <c r="C1638">
+        <v>3</v>
+      </c>
+      <c r="D1638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1639">
+        <v>3</v>
+      </c>
+      <c r="B1639">
+        <v>2</v>
+      </c>
+      <c r="C1639">
+        <v>5</v>
+      </c>
+      <c r="D1639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1640">
+        <v>7</v>
+      </c>
+      <c r="B1640">
+        <v>0</v>
+      </c>
+      <c r="C1640">
+        <v>5</v>
+      </c>
+      <c r="D1640">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1641">
+        <v>5</v>
+      </c>
+      <c r="B1641">
+        <v>0</v>
+      </c>
+      <c r="C1641">
+        <v>7</v>
+      </c>
+      <c r="D1641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1642">
+        <v>5</v>
+      </c>
+      <c r="B1642">
+        <v>2</v>
+      </c>
+      <c r="C1642">
+        <v>5</v>
+      </c>
+      <c r="D1642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1643">
+        <v>3</v>
+      </c>
+      <c r="B1643">
+        <v>3</v>
+      </c>
+      <c r="C1643">
+        <v>3</v>
+      </c>
+      <c r="D1643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1644">
+        <v>6</v>
+      </c>
+      <c r="B1644">
+        <v>2</v>
+      </c>
+      <c r="C1644">
+        <v>6</v>
+      </c>
+      <c r="D1644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1645">
+        <v>5</v>
+      </c>
+      <c r="B1645">
+        <v>2</v>
+      </c>
+      <c r="C1645">
+        <v>4</v>
+      </c>
+      <c r="D1645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1646">
+        <v>3</v>
+      </c>
+      <c r="B1646">
+        <v>0</v>
+      </c>
+      <c r="C1646">
+        <v>5</v>
+      </c>
+      <c r="D1646">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1647">
+        <v>4</v>
+      </c>
+      <c r="B1647">
+        <v>1</v>
+      </c>
+      <c r="C1647">
+        <v>2</v>
+      </c>
+      <c r="D1647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1648">
+        <v>5</v>
+      </c>
+      <c r="B1648">
+        <v>0</v>
+      </c>
+      <c r="C1648">
+        <v>6</v>
+      </c>
+      <c r="D1648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1649">
+        <v>3</v>
+      </c>
+      <c r="B1649">
+        <v>2</v>
+      </c>
+      <c r="C1649">
+        <v>4</v>
+      </c>
+      <c r="D1649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1650">
+        <v>4</v>
+      </c>
+      <c r="B1650">
+        <v>1</v>
+      </c>
+      <c r="C1650">
+        <v>5</v>
+      </c>
+      <c r="D1650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1651">
+        <v>5</v>
+      </c>
+      <c r="B1651">
+        <v>2</v>
+      </c>
+      <c r="C1651">
+        <v>6</v>
+      </c>
+      <c r="D1651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1652">
+        <v>4</v>
+      </c>
+      <c r="B1652">
+        <v>2</v>
+      </c>
+      <c r="C1652">
+        <v>7</v>
+      </c>
+      <c r="D1652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1653">
+        <v>3</v>
+      </c>
+      <c r="B1653">
+        <v>2</v>
+      </c>
+      <c r="C1653">
+        <v>3</v>
+      </c>
+      <c r="D1653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1654">
+        <v>5</v>
+      </c>
+      <c r="B1654">
+        <v>0</v>
+      </c>
+      <c r="C1654">
+        <v>3</v>
+      </c>
+      <c r="D1654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1655">
+        <v>6</v>
+      </c>
+      <c r="B1655">
+        <v>2</v>
+      </c>
+      <c r="C1655">
+        <v>7</v>
+      </c>
+      <c r="D1655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1656">
+        <v>5</v>
+      </c>
+      <c r="B1656">
+        <v>3</v>
+      </c>
+      <c r="C1656">
+        <v>2</v>
+      </c>
+      <c r="D1656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1657">
+        <v>4</v>
+      </c>
+      <c r="B1657">
+        <v>3</v>
+      </c>
+      <c r="C1657">
+        <v>3</v>
+      </c>
+      <c r="D1657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1658">
+        <v>3</v>
+      </c>
+      <c r="B1658">
+        <v>3</v>
+      </c>
+      <c r="C1658">
+        <v>2</v>
+      </c>
+      <c r="D1658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1659">
+        <v>6</v>
+      </c>
+      <c r="B1659">
+        <v>0</v>
+      </c>
+      <c r="C1659">
+        <v>7</v>
+      </c>
+      <c r="D1659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1660">
+        <v>4</v>
+      </c>
+      <c r="B1660">
+        <v>2</v>
+      </c>
+      <c r="C1660">
+        <v>5</v>
+      </c>
+      <c r="D1660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1661">
+        <v>4</v>
+      </c>
+      <c r="B1661">
+        <v>2</v>
+      </c>
+      <c r="C1661">
+        <v>5</v>
+      </c>
+      <c r="D1661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1662">
+        <v>5</v>
+      </c>
+      <c r="B1662">
+        <v>2</v>
+      </c>
+      <c r="C1662">
+        <v>5</v>
+      </c>
+      <c r="D1662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1663">
+        <v>3</v>
+      </c>
+      <c r="B1663">
+        <v>0</v>
+      </c>
+      <c r="C1663">
+        <v>3</v>
+      </c>
+      <c r="D1663">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1664">
+        <v>4</v>
+      </c>
+      <c r="B1664">
+        <v>2</v>
+      </c>
+      <c r="C1664">
+        <v>4</v>
+      </c>
+      <c r="D1664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1665">
+        <v>5</v>
+      </c>
+      <c r="B1665">
+        <v>0</v>
+      </c>
+      <c r="C1665">
+        <v>3</v>
+      </c>
+      <c r="D1665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1666">
+        <v>6</v>
+      </c>
+      <c r="B1666">
+        <v>1</v>
+      </c>
+      <c r="C1666">
+        <v>7</v>
+      </c>
+      <c r="D1666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1667">
+        <v>7</v>
+      </c>
+      <c r="B1667">
+        <v>3</v>
+      </c>
+      <c r="C1667">
+        <v>5</v>
+      </c>
+      <c r="D1667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1668">
+        <v>3</v>
+      </c>
+      <c r="B1668">
+        <v>1</v>
+      </c>
+      <c r="C1668">
+        <v>4</v>
+      </c>
+      <c r="D1668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1669">
+        <v>2</v>
+      </c>
+      <c r="B1669">
+        <v>2</v>
+      </c>
+      <c r="C1669">
+        <v>6</v>
+      </c>
+      <c r="D1669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1670">
+        <v>2</v>
+      </c>
+      <c r="B1670">
+        <v>1</v>
+      </c>
+      <c r="C1670">
+        <v>3</v>
+      </c>
+      <c r="D1670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1671">
+        <v>5</v>
+      </c>
+      <c r="B1671">
+        <v>2</v>
+      </c>
+      <c r="C1671">
+        <v>5</v>
+      </c>
+      <c r="D1671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1672">
+        <v>4</v>
+      </c>
+      <c r="B1672">
+        <v>2</v>
+      </c>
+      <c r="C1672">
+        <v>4</v>
+      </c>
+      <c r="D1672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1673">
+        <v>6</v>
+      </c>
+      <c r="B1673">
+        <v>0</v>
+      </c>
+      <c r="C1673">
+        <v>5</v>
+      </c>
+      <c r="D1673">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1674">
+        <v>6</v>
+      </c>
+      <c r="B1674">
+        <v>0</v>
+      </c>
+      <c r="C1674">
+        <v>6</v>
+      </c>
+      <c r="D1674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1675">
+        <v>3</v>
+      </c>
+      <c r="B1675">
+        <v>3</v>
+      </c>
+      <c r="C1675">
+        <v>4</v>
+      </c>
+      <c r="D1675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1676">
+        <v>6</v>
+      </c>
+      <c r="B1676">
+        <v>0</v>
+      </c>
+      <c r="C1676">
+        <v>5</v>
+      </c>
+      <c r="D1676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1677">
+        <v>3</v>
+      </c>
+      <c r="B1677">
+        <v>1</v>
+      </c>
+      <c r="C1677">
+        <v>3</v>
+      </c>
+      <c r="D1677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1678">
+        <v>4</v>
+      </c>
+      <c r="B1678">
+        <v>0</v>
+      </c>
+      <c r="C1678">
+        <v>6</v>
+      </c>
+      <c r="D1678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1679">
+        <v>5</v>
+      </c>
+      <c r="B1679">
+        <v>0</v>
+      </c>
+      <c r="C1679">
+        <v>5</v>
+      </c>
+      <c r="D1679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1680">
+        <v>5</v>
+      </c>
+      <c r="B1680">
+        <v>0</v>
+      </c>
+      <c r="C1680">
+        <v>4</v>
+      </c>
+      <c r="D1680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>4</v>
+      </c>
+      <c r="B1681">
+        <v>2</v>
+      </c>
+      <c r="C1681">
+        <v>4</v>
+      </c>
+      <c r="D1681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>3</v>
+      </c>
+      <c r="B1682">
+        <v>2</v>
+      </c>
+      <c r="C1682">
+        <v>3</v>
+      </c>
+      <c r="D1682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>4</v>
+      </c>
+      <c r="B1683">
+        <v>0</v>
+      </c>
+      <c r="C1683">
+        <v>7</v>
+      </c>
+      <c r="D1683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>5</v>
+      </c>
+      <c r="B1684">
+        <v>0</v>
+      </c>
+      <c r="C1684">
+        <v>3</v>
+      </c>
+      <c r="D1684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>5</v>
+      </c>
+      <c r="B1685">
+        <v>0</v>
+      </c>
+      <c r="C1685">
+        <v>3</v>
+      </c>
+      <c r="D1685">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>7</v>
+      </c>
+      <c r="B1686">
+        <v>1</v>
+      </c>
+      <c r="C1686">
+        <v>6</v>
+      </c>
+      <c r="D1686">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B08D53A-0E03-4C12-99E8-AFFE0323BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7905B0-03B2-4B9E-9E94-195641BD554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1686"/>
+  <dimension ref="A1:D1711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1665" workbookViewId="0">
-      <selection activeCell="A1687" sqref="A1687"/>
+    <sheetView tabSelected="1" topLeftCell="A1683" workbookViewId="0">
+      <selection activeCell="A1712" sqref="A1712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23979,6 +23979,356 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>4</v>
+      </c>
+      <c r="B1687">
+        <v>0</v>
+      </c>
+      <c r="C1687">
+        <v>5</v>
+      </c>
+      <c r="D1687">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>2</v>
+      </c>
+      <c r="B1688">
+        <v>0</v>
+      </c>
+      <c r="C1688">
+        <v>6</v>
+      </c>
+      <c r="D1688">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>3</v>
+      </c>
+      <c r="B1689">
+        <v>2</v>
+      </c>
+      <c r="C1689">
+        <v>5</v>
+      </c>
+      <c r="D1689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>7</v>
+      </c>
+      <c r="B1690">
+        <v>3</v>
+      </c>
+      <c r="C1690">
+        <v>5</v>
+      </c>
+      <c r="D1690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>5</v>
+      </c>
+      <c r="B1691">
+        <v>3</v>
+      </c>
+      <c r="C1691">
+        <v>2</v>
+      </c>
+      <c r="D1691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>6</v>
+      </c>
+      <c r="B1692">
+        <v>3</v>
+      </c>
+      <c r="C1692">
+        <v>5</v>
+      </c>
+      <c r="D1692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>3</v>
+      </c>
+      <c r="B1693">
+        <v>1</v>
+      </c>
+      <c r="C1693">
+        <v>3</v>
+      </c>
+      <c r="D1693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>4</v>
+      </c>
+      <c r="B1694">
+        <v>0</v>
+      </c>
+      <c r="C1694">
+        <v>5</v>
+      </c>
+      <c r="D1694">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>3</v>
+      </c>
+      <c r="B1695">
+        <v>0</v>
+      </c>
+      <c r="C1695">
+        <v>3</v>
+      </c>
+      <c r="D1695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>7</v>
+      </c>
+      <c r="B1696">
+        <v>2</v>
+      </c>
+      <c r="C1696">
+        <v>6</v>
+      </c>
+      <c r="D1696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>3</v>
+      </c>
+      <c r="B1697">
+        <v>3</v>
+      </c>
+      <c r="C1697">
+        <v>4</v>
+      </c>
+      <c r="D1697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>3</v>
+      </c>
+      <c r="B1698">
+        <v>1</v>
+      </c>
+      <c r="C1698">
+        <v>3</v>
+      </c>
+      <c r="D1698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>5</v>
+      </c>
+      <c r="B1699">
+        <v>2</v>
+      </c>
+      <c r="C1699">
+        <v>5</v>
+      </c>
+      <c r="D1699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>5</v>
+      </c>
+      <c r="B1700">
+        <v>2</v>
+      </c>
+      <c r="C1700">
+        <v>5</v>
+      </c>
+      <c r="D1700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>5</v>
+      </c>
+      <c r="B1701">
+        <v>2</v>
+      </c>
+      <c r="C1701">
+        <v>4</v>
+      </c>
+      <c r="D1701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>5</v>
+      </c>
+      <c r="B1702">
+        <v>3</v>
+      </c>
+      <c r="C1702">
+        <v>3</v>
+      </c>
+      <c r="D1702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>5</v>
+      </c>
+      <c r="B1703">
+        <v>2</v>
+      </c>
+      <c r="C1703">
+        <v>5</v>
+      </c>
+      <c r="D1703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>6</v>
+      </c>
+      <c r="B1704">
+        <v>2</v>
+      </c>
+      <c r="C1704">
+        <v>6</v>
+      </c>
+      <c r="D1704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>4</v>
+      </c>
+      <c r="B1705">
+        <v>0</v>
+      </c>
+      <c r="C1705">
+        <v>4</v>
+      </c>
+      <c r="D1705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>3</v>
+      </c>
+      <c r="B1706">
+        <v>2</v>
+      </c>
+      <c r="C1706">
+        <v>4</v>
+      </c>
+      <c r="D1706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>4</v>
+      </c>
+      <c r="B1707">
+        <v>3</v>
+      </c>
+      <c r="C1707">
+        <v>3</v>
+      </c>
+      <c r="D1707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>2</v>
+      </c>
+      <c r="B1708">
+        <v>0</v>
+      </c>
+      <c r="C1708">
+        <v>3</v>
+      </c>
+      <c r="D1708">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1709">
+        <v>5</v>
+      </c>
+      <c r="B1709">
+        <v>2</v>
+      </c>
+      <c r="C1709">
+        <v>5</v>
+      </c>
+      <c r="D1709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1710">
+        <v>5</v>
+      </c>
+      <c r="B1710">
+        <v>3</v>
+      </c>
+      <c r="C1710">
+        <v>5</v>
+      </c>
+      <c r="D1710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1711">
+        <v>6</v>
+      </c>
+      <c r="B1711">
+        <v>0</v>
+      </c>
+      <c r="C1711">
+        <v>5</v>
+      </c>
+      <c r="D1711">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7905B0-03B2-4B9E-9E94-195641BD554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032C757-9182-418B-A17E-14B89BC07F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1711"/>
+  <dimension ref="A1:D1735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1683" workbookViewId="0">
-      <selection activeCell="A1712" sqref="A1712"/>
+    <sheetView tabSelected="1" topLeftCell="A1716" workbookViewId="0">
+      <selection activeCell="A1736" sqref="A1736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24329,6 +24329,342 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1712">
+        <v>5</v>
+      </c>
+      <c r="B1712">
+        <v>0</v>
+      </c>
+      <c r="C1712">
+        <v>4</v>
+      </c>
+      <c r="D1712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1713">
+        <v>5</v>
+      </c>
+      <c r="B1713">
+        <v>0</v>
+      </c>
+      <c r="C1713">
+        <v>4</v>
+      </c>
+      <c r="D1713">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1714">
+        <v>3</v>
+      </c>
+      <c r="B1714">
+        <v>0</v>
+      </c>
+      <c r="C1714">
+        <v>3</v>
+      </c>
+      <c r="D1714">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1715">
+        <v>6</v>
+      </c>
+      <c r="B1715">
+        <v>0</v>
+      </c>
+      <c r="C1715">
+        <v>5</v>
+      </c>
+      <c r="D1715">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>4</v>
+      </c>
+      <c r="B1716">
+        <v>3</v>
+      </c>
+      <c r="C1716">
+        <v>2</v>
+      </c>
+      <c r="D1716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>3</v>
+      </c>
+      <c r="B1717">
+        <v>2</v>
+      </c>
+      <c r="C1717">
+        <v>3</v>
+      </c>
+      <c r="D1717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>5</v>
+      </c>
+      <c r="B1718">
+        <v>0</v>
+      </c>
+      <c r="C1718">
+        <v>5</v>
+      </c>
+      <c r="D1718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>4</v>
+      </c>
+      <c r="B1719">
+        <v>1</v>
+      </c>
+      <c r="C1719">
+        <v>3</v>
+      </c>
+      <c r="D1719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>4</v>
+      </c>
+      <c r="B1720">
+        <v>0</v>
+      </c>
+      <c r="C1720">
+        <v>5</v>
+      </c>
+      <c r="D1720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>5</v>
+      </c>
+      <c r="B1721">
+        <v>3</v>
+      </c>
+      <c r="C1721">
+        <v>5</v>
+      </c>
+      <c r="D1721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>6</v>
+      </c>
+      <c r="B1722">
+        <v>0</v>
+      </c>
+      <c r="C1722">
+        <v>6</v>
+      </c>
+      <c r="D1722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>4</v>
+      </c>
+      <c r="B1723">
+        <v>2</v>
+      </c>
+      <c r="C1723">
+        <v>4</v>
+      </c>
+      <c r="D1723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>3</v>
+      </c>
+      <c r="B1724">
+        <v>3</v>
+      </c>
+      <c r="C1724">
+        <v>5</v>
+      </c>
+      <c r="D1724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>7</v>
+      </c>
+      <c r="B1725">
+        <v>3</v>
+      </c>
+      <c r="C1725">
+        <v>3</v>
+      </c>
+      <c r="D1725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>3</v>
+      </c>
+      <c r="B1726">
+        <v>0</v>
+      </c>
+      <c r="C1726">
+        <v>3</v>
+      </c>
+      <c r="D1726">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>4</v>
+      </c>
+      <c r="B1727">
+        <v>3</v>
+      </c>
+      <c r="C1727">
+        <v>3</v>
+      </c>
+      <c r="D1727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>5</v>
+      </c>
+      <c r="B1728">
+        <v>2</v>
+      </c>
+      <c r="C1728">
+        <v>5</v>
+      </c>
+      <c r="D1728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>3</v>
+      </c>
+      <c r="B1729">
+        <v>0</v>
+      </c>
+      <c r="C1729">
+        <v>4</v>
+      </c>
+      <c r="D1729">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>7</v>
+      </c>
+      <c r="B1730">
+        <v>0</v>
+      </c>
+      <c r="C1730">
+        <v>5</v>
+      </c>
+      <c r="D1730">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>5</v>
+      </c>
+      <c r="B1731">
+        <v>0</v>
+      </c>
+      <c r="C1731">
+        <v>6</v>
+      </c>
+      <c r="D1731">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>5</v>
+      </c>
+      <c r="B1732">
+        <v>1</v>
+      </c>
+      <c r="C1732">
+        <v>4</v>
+      </c>
+      <c r="D1732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>4</v>
+      </c>
+      <c r="B1733">
+        <v>0</v>
+      </c>
+      <c r="C1733">
+        <v>6</v>
+      </c>
+      <c r="D1733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>3</v>
+      </c>
+      <c r="B1734">
+        <v>1</v>
+      </c>
+      <c r="C1734">
+        <v>2</v>
+      </c>
+      <c r="D1734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>6</v>
+      </c>
+      <c r="B1735">
+        <v>2</v>
+      </c>
+      <c r="C1735">
+        <v>5</v>
+      </c>
+      <c r="D1735">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032C757-9182-418B-A17E-14B89BC07F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A255D6C-FB6A-4E73-86E0-D6EC3F7C1AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1735"/>
+  <dimension ref="A1:D1758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1716" workbookViewId="0">
-      <selection activeCell="A1736" sqref="A1736"/>
+    <sheetView tabSelected="1" topLeftCell="A1743" workbookViewId="0">
+      <selection activeCell="A1759" sqref="A1759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24665,6 +24665,328 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>4</v>
+      </c>
+      <c r="B1736">
+        <v>0</v>
+      </c>
+      <c r="C1736">
+        <v>4</v>
+      </c>
+      <c r="D1736">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>3</v>
+      </c>
+      <c r="B1737">
+        <v>0</v>
+      </c>
+      <c r="C1737">
+        <v>6</v>
+      </c>
+      <c r="D1737">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>2</v>
+      </c>
+      <c r="B1738">
+        <v>0</v>
+      </c>
+      <c r="C1738">
+        <v>3</v>
+      </c>
+      <c r="D1738">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>5</v>
+      </c>
+      <c r="B1739">
+        <v>1</v>
+      </c>
+      <c r="C1739">
+        <v>5</v>
+      </c>
+      <c r="D1739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>7</v>
+      </c>
+      <c r="B1740">
+        <v>0</v>
+      </c>
+      <c r="C1740">
+        <v>5</v>
+      </c>
+      <c r="D1740">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>4</v>
+      </c>
+      <c r="B1741">
+        <v>3</v>
+      </c>
+      <c r="C1741">
+        <v>5</v>
+      </c>
+      <c r="D1741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>3</v>
+      </c>
+      <c r="B1742">
+        <v>1</v>
+      </c>
+      <c r="C1742">
+        <v>4</v>
+      </c>
+      <c r="D1742">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>5</v>
+      </c>
+      <c r="B1743">
+        <v>0</v>
+      </c>
+      <c r="C1743">
+        <v>5</v>
+      </c>
+      <c r="D1743">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>7</v>
+      </c>
+      <c r="B1744">
+        <v>0</v>
+      </c>
+      <c r="C1744">
+        <v>6</v>
+      </c>
+      <c r="D1744">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>3</v>
+      </c>
+      <c r="B1745">
+        <v>3</v>
+      </c>
+      <c r="C1745">
+        <v>3</v>
+      </c>
+      <c r="D1745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>5</v>
+      </c>
+      <c r="B1746">
+        <v>2</v>
+      </c>
+      <c r="C1746">
+        <v>5</v>
+      </c>
+      <c r="D1746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>4</v>
+      </c>
+      <c r="B1747">
+        <v>2</v>
+      </c>
+      <c r="C1747">
+        <v>4</v>
+      </c>
+      <c r="D1747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>5</v>
+      </c>
+      <c r="B1748">
+        <v>0</v>
+      </c>
+      <c r="C1748">
+        <v>5</v>
+      </c>
+      <c r="D1748">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>6</v>
+      </c>
+      <c r="B1749">
+        <v>2</v>
+      </c>
+      <c r="C1749">
+        <v>6</v>
+      </c>
+      <c r="D1749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>5</v>
+      </c>
+      <c r="B1750">
+        <v>0</v>
+      </c>
+      <c r="C1750">
+        <v>6</v>
+      </c>
+      <c r="D1750">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>3</v>
+      </c>
+      <c r="B1751">
+        <v>1</v>
+      </c>
+      <c r="C1751">
+        <v>3</v>
+      </c>
+      <c r="D1751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>4</v>
+      </c>
+      <c r="B1752">
+        <v>2</v>
+      </c>
+      <c r="C1752">
+        <v>7</v>
+      </c>
+      <c r="D1752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>4</v>
+      </c>
+      <c r="B1753">
+        <v>0</v>
+      </c>
+      <c r="C1753">
+        <v>4</v>
+      </c>
+      <c r="D1753">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>3</v>
+      </c>
+      <c r="B1754">
+        <v>1</v>
+      </c>
+      <c r="C1754">
+        <v>3</v>
+      </c>
+      <c r="D1754">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>6</v>
+      </c>
+      <c r="B1755">
+        <v>2</v>
+      </c>
+      <c r="C1755">
+        <v>5</v>
+      </c>
+      <c r="D1755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>4</v>
+      </c>
+      <c r="B1756">
+        <v>2</v>
+      </c>
+      <c r="C1756">
+        <v>4</v>
+      </c>
+      <c r="D1756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>4</v>
+      </c>
+      <c r="B1757">
+        <v>1</v>
+      </c>
+      <c r="C1757">
+        <v>4</v>
+      </c>
+      <c r="D1757">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>6</v>
+      </c>
+      <c r="B1758">
+        <v>0</v>
+      </c>
+      <c r="C1758">
+        <v>5</v>
+      </c>
+      <c r="D1758">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A255D6C-FB6A-4E73-86E0-D6EC3F7C1AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDB50BD-0897-4115-AB6D-C63C2009B727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1758"/>
+  <dimension ref="A1:D1782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1743" workbookViewId="0">
-      <selection activeCell="A1759" sqref="A1759"/>
+    <sheetView tabSelected="1" topLeftCell="A1770" workbookViewId="0">
+      <selection activeCell="A1783" sqref="A1783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24987,6 +24987,342 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>4</v>
+      </c>
+      <c r="B1759">
+        <v>0</v>
+      </c>
+      <c r="C1759">
+        <v>4</v>
+      </c>
+      <c r="D1759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>5</v>
+      </c>
+      <c r="B1760">
+        <v>0</v>
+      </c>
+      <c r="C1760">
+        <v>7</v>
+      </c>
+      <c r="D1760">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>4</v>
+      </c>
+      <c r="B1761">
+        <v>1</v>
+      </c>
+      <c r="C1761">
+        <v>3</v>
+      </c>
+      <c r="D1761">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>6</v>
+      </c>
+      <c r="B1762">
+        <v>1</v>
+      </c>
+      <c r="C1762">
+        <v>5</v>
+      </c>
+      <c r="D1762">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>3</v>
+      </c>
+      <c r="B1763">
+        <v>2</v>
+      </c>
+      <c r="C1763">
+        <v>2</v>
+      </c>
+      <c r="D1763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>4</v>
+      </c>
+      <c r="B1764">
+        <v>0</v>
+      </c>
+      <c r="C1764">
+        <v>3</v>
+      </c>
+      <c r="D1764">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>3</v>
+      </c>
+      <c r="B1765">
+        <v>1</v>
+      </c>
+      <c r="C1765">
+        <v>3</v>
+      </c>
+      <c r="D1765">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>6</v>
+      </c>
+      <c r="B1766">
+        <v>1</v>
+      </c>
+      <c r="C1766">
+        <v>4</v>
+      </c>
+      <c r="D1766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>4</v>
+      </c>
+      <c r="B1767">
+        <v>2</v>
+      </c>
+      <c r="C1767">
+        <v>6</v>
+      </c>
+      <c r="D1767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>6</v>
+      </c>
+      <c r="B1768">
+        <v>1</v>
+      </c>
+      <c r="C1768">
+        <v>3</v>
+      </c>
+      <c r="D1768">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>4</v>
+      </c>
+      <c r="B1769">
+        <v>2</v>
+      </c>
+      <c r="C1769">
+        <v>4</v>
+      </c>
+      <c r="D1769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>5</v>
+      </c>
+      <c r="B1770">
+        <v>3</v>
+      </c>
+      <c r="C1770">
+        <v>5</v>
+      </c>
+      <c r="D1770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>4</v>
+      </c>
+      <c r="B1771">
+        <v>0</v>
+      </c>
+      <c r="C1771">
+        <v>3</v>
+      </c>
+      <c r="D1771">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>6</v>
+      </c>
+      <c r="B1772">
+        <v>1</v>
+      </c>
+      <c r="C1772">
+        <v>5</v>
+      </c>
+      <c r="D1772">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>3</v>
+      </c>
+      <c r="B1773">
+        <v>3</v>
+      </c>
+      <c r="C1773">
+        <v>3</v>
+      </c>
+      <c r="D1773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>5</v>
+      </c>
+      <c r="B1774">
+        <v>2</v>
+      </c>
+      <c r="C1774">
+        <v>5</v>
+      </c>
+      <c r="D1774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>3</v>
+      </c>
+      <c r="B1775">
+        <v>2</v>
+      </c>
+      <c r="C1775">
+        <v>3</v>
+      </c>
+      <c r="D1775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>4</v>
+      </c>
+      <c r="B1776">
+        <v>0</v>
+      </c>
+      <c r="C1776">
+        <v>4</v>
+      </c>
+      <c r="D1776">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>7</v>
+      </c>
+      <c r="B1777">
+        <v>0</v>
+      </c>
+      <c r="C1777">
+        <v>7</v>
+      </c>
+      <c r="D1777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>4</v>
+      </c>
+      <c r="B1778">
+        <v>1</v>
+      </c>
+      <c r="C1778">
+        <v>6</v>
+      </c>
+      <c r="D1778">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>3</v>
+      </c>
+      <c r="B1779">
+        <v>0</v>
+      </c>
+      <c r="C1779">
+        <v>7</v>
+      </c>
+      <c r="D1779">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>5</v>
+      </c>
+      <c r="B1780">
+        <v>2</v>
+      </c>
+      <c r="C1780">
+        <v>3</v>
+      </c>
+      <c r="D1780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>4</v>
+      </c>
+      <c r="B1781">
+        <v>0</v>
+      </c>
+      <c r="C1781">
+        <v>2</v>
+      </c>
+      <c r="D1781">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>5</v>
+      </c>
+      <c r="B1782">
+        <v>2</v>
+      </c>
+      <c r="C1782">
+        <v>5</v>
+      </c>
+      <c r="D1782">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDB50BD-0897-4115-AB6D-C63C2009B727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69235BD-75E7-47AB-AD14-4FF368B1BF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21330" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1782"/>
+  <dimension ref="A1:D1806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1770" workbookViewId="0">
-      <selection activeCell="A1783" sqref="A1783"/>
+    <sheetView tabSelected="1" topLeftCell="A1800" workbookViewId="0">
+      <selection activeCell="A1807" sqref="A1807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25323,6 +25323,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>3</v>
+      </c>
+      <c r="B1783">
+        <v>1</v>
+      </c>
+      <c r="C1783">
+        <v>3</v>
+      </c>
+      <c r="D1783">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>7</v>
+      </c>
+      <c r="B1784">
+        <v>3</v>
+      </c>
+      <c r="C1784">
+        <v>5</v>
+      </c>
+      <c r="D1784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>3</v>
+      </c>
+      <c r="B1785">
+        <v>0</v>
+      </c>
+      <c r="C1785">
+        <v>3</v>
+      </c>
+      <c r="D1785">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>5</v>
+      </c>
+      <c r="B1786">
+        <v>0</v>
+      </c>
+      <c r="C1786">
+        <v>6</v>
+      </c>
+      <c r="D1786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>5</v>
+      </c>
+      <c r="B1787">
+        <v>2</v>
+      </c>
+      <c r="C1787">
+        <v>5</v>
+      </c>
+      <c r="D1787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>6</v>
+      </c>
+      <c r="B1788">
+        <v>2</v>
+      </c>
+      <c r="C1788">
+        <v>6</v>
+      </c>
+      <c r="D1788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>5</v>
+      </c>
+      <c r="B1789">
+        <v>2</v>
+      </c>
+      <c r="C1789">
+        <v>4</v>
+      </c>
+      <c r="D1789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>7</v>
+      </c>
+      <c r="B1790">
+        <v>0</v>
+      </c>
+      <c r="C1790">
+        <v>4</v>
+      </c>
+      <c r="D1790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>2</v>
+      </c>
+      <c r="B1791">
+        <v>0</v>
+      </c>
+      <c r="C1791">
+        <v>3</v>
+      </c>
+      <c r="D1791">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>6</v>
+      </c>
+      <c r="B1792">
+        <v>0</v>
+      </c>
+      <c r="C1792">
+        <v>5</v>
+      </c>
+      <c r="D1792">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>5</v>
+      </c>
+      <c r="B1793">
+        <v>0</v>
+      </c>
+      <c r="C1793">
+        <v>4</v>
+      </c>
+      <c r="D1793">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>5</v>
+      </c>
+      <c r="B1794">
+        <v>0</v>
+      </c>
+      <c r="C1794">
+        <v>5</v>
+      </c>
+      <c r="D1794">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>4</v>
+      </c>
+      <c r="B1795">
+        <v>1</v>
+      </c>
+      <c r="C1795">
+        <v>4</v>
+      </c>
+      <c r="D1795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>3</v>
+      </c>
+      <c r="B1796">
+        <v>1</v>
+      </c>
+      <c r="C1796">
+        <v>4</v>
+      </c>
+      <c r="D1796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1797">
+        <v>4</v>
+      </c>
+      <c r="B1797">
+        <v>1</v>
+      </c>
+      <c r="C1797">
+        <v>4</v>
+      </c>
+      <c r="D1797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1798">
+        <v>2</v>
+      </c>
+      <c r="B1798">
+        <v>0</v>
+      </c>
+      <c r="C1798">
+        <v>3</v>
+      </c>
+      <c r="D1798">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1799">
+        <v>3</v>
+      </c>
+      <c r="B1799">
+        <v>3</v>
+      </c>
+      <c r="C1799">
+        <v>3</v>
+      </c>
+      <c r="D1799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1800">
+        <v>2</v>
+      </c>
+      <c r="B1800">
+        <v>2</v>
+      </c>
+      <c r="C1800">
+        <v>5</v>
+      </c>
+      <c r="D1800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1801">
+        <v>7</v>
+      </c>
+      <c r="B1801">
+        <v>2</v>
+      </c>
+      <c r="C1801">
+        <v>7</v>
+      </c>
+      <c r="D1801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>3</v>
+      </c>
+      <c r="B1802">
+        <v>2</v>
+      </c>
+      <c r="C1802">
+        <v>3</v>
+      </c>
+      <c r="D1802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>4</v>
+      </c>
+      <c r="B1803">
+        <v>2</v>
+      </c>
+      <c r="C1803">
+        <v>5</v>
+      </c>
+      <c r="D1803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>5</v>
+      </c>
+      <c r="B1804">
+        <v>0</v>
+      </c>
+      <c r="C1804">
+        <v>5</v>
+      </c>
+      <c r="D1804">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>3</v>
+      </c>
+      <c r="B1805">
+        <v>2</v>
+      </c>
+      <c r="C1805">
+        <v>4</v>
+      </c>
+      <c r="D1805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>5</v>
+      </c>
+      <c r="B1806">
+        <v>1</v>
+      </c>
+      <c r="C1806">
+        <v>5</v>
+      </c>
+      <c r="D1806">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69235BD-75E7-47AB-AD14-4FF368B1BF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D56794-37C6-467D-9319-C43056A700A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1806"/>
+  <dimension ref="A1:D1828"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1800" workbookViewId="0">
-      <selection activeCell="A1807" sqref="A1807"/>
+    <sheetView tabSelected="1" topLeftCell="A1809" workbookViewId="0">
+      <selection activeCell="A1829" sqref="A1829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25659,6 +25659,314 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>5</v>
+      </c>
+      <c r="B1807">
+        <v>0</v>
+      </c>
+      <c r="C1807">
+        <v>7</v>
+      </c>
+      <c r="D1807">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>5</v>
+      </c>
+      <c r="B1808">
+        <v>2</v>
+      </c>
+      <c r="C1808">
+        <v>4</v>
+      </c>
+      <c r="D1808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>5</v>
+      </c>
+      <c r="B1809">
+        <v>2</v>
+      </c>
+      <c r="C1809">
+        <v>5</v>
+      </c>
+      <c r="D1809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>4</v>
+      </c>
+      <c r="B1810">
+        <v>0</v>
+      </c>
+      <c r="C1810">
+        <v>3</v>
+      </c>
+      <c r="D1810">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>3</v>
+      </c>
+      <c r="B1811">
+        <v>0</v>
+      </c>
+      <c r="C1811">
+        <v>3</v>
+      </c>
+      <c r="D1811">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>4</v>
+      </c>
+      <c r="B1812">
+        <v>2</v>
+      </c>
+      <c r="C1812">
+        <v>4</v>
+      </c>
+      <c r="D1812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>7</v>
+      </c>
+      <c r="B1813">
+        <v>1</v>
+      </c>
+      <c r="C1813">
+        <v>6</v>
+      </c>
+      <c r="D1813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>6</v>
+      </c>
+      <c r="B1814">
+        <v>0</v>
+      </c>
+      <c r="C1814">
+        <v>4</v>
+      </c>
+      <c r="D1814">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>5</v>
+      </c>
+      <c r="B1815">
+        <v>0</v>
+      </c>
+      <c r="C1815">
+        <v>6</v>
+      </c>
+      <c r="D1815">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>3</v>
+      </c>
+      <c r="B1816">
+        <v>1</v>
+      </c>
+      <c r="C1816">
+        <v>6</v>
+      </c>
+      <c r="D1816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1817">
+        <v>4</v>
+      </c>
+      <c r="B1817">
+        <v>0</v>
+      </c>
+      <c r="C1817">
+        <v>2</v>
+      </c>
+      <c r="D1817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1818">
+        <v>6</v>
+      </c>
+      <c r="B1818">
+        <v>2</v>
+      </c>
+      <c r="C1818">
+        <v>3</v>
+      </c>
+      <c r="D1818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1819">
+        <v>6</v>
+      </c>
+      <c r="B1819">
+        <v>1</v>
+      </c>
+      <c r="C1819">
+        <v>4</v>
+      </c>
+      <c r="D1819">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1820">
+        <v>4</v>
+      </c>
+      <c r="B1820">
+        <v>2</v>
+      </c>
+      <c r="C1820">
+        <v>4</v>
+      </c>
+      <c r="D1820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1821">
+        <v>3</v>
+      </c>
+      <c r="B1821">
+        <v>2</v>
+      </c>
+      <c r="C1821">
+        <v>4</v>
+      </c>
+      <c r="D1821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1822">
+        <v>6</v>
+      </c>
+      <c r="B1822">
+        <v>2</v>
+      </c>
+      <c r="C1822">
+        <v>5</v>
+      </c>
+      <c r="D1822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1823">
+        <v>3</v>
+      </c>
+      <c r="B1823">
+        <v>0</v>
+      </c>
+      <c r="C1823">
+        <v>5</v>
+      </c>
+      <c r="D1823">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1824">
+        <v>4</v>
+      </c>
+      <c r="B1824">
+        <v>0</v>
+      </c>
+      <c r="C1824">
+        <v>3</v>
+      </c>
+      <c r="D1824">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1825">
+        <v>3</v>
+      </c>
+      <c r="B1825">
+        <v>2</v>
+      </c>
+      <c r="C1825">
+        <v>3</v>
+      </c>
+      <c r="D1825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1826">
+        <v>5</v>
+      </c>
+      <c r="B1826">
+        <v>0</v>
+      </c>
+      <c r="C1826">
+        <v>4</v>
+      </c>
+      <c r="D1826">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1827">
+        <v>5</v>
+      </c>
+      <c r="B1827">
+        <v>0</v>
+      </c>
+      <c r="C1827">
+        <v>3</v>
+      </c>
+      <c r="D1827">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1828">
+        <v>5</v>
+      </c>
+      <c r="B1828">
+        <v>2</v>
+      </c>
+      <c r="C1828">
+        <v>5</v>
+      </c>
+      <c r="D1828">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D56794-37C6-467D-9319-C43056A700A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2629E342-4738-49B9-8C89-7739C8D7070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1828"/>
+  <dimension ref="A1:D1852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1809" workbookViewId="0">
-      <selection activeCell="A1829" sqref="A1829"/>
+    <sheetView tabSelected="1" topLeftCell="A1827" workbookViewId="0">
+      <selection activeCell="A1853" sqref="A1853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25967,6 +25967,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1829">
+        <v>4</v>
+      </c>
+      <c r="B1829">
+        <v>3</v>
+      </c>
+      <c r="C1829">
+        <v>5</v>
+      </c>
+      <c r="D1829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1830">
+        <v>6</v>
+      </c>
+      <c r="B1830">
+        <v>2</v>
+      </c>
+      <c r="C1830">
+        <v>5</v>
+      </c>
+      <c r="D1830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1831">
+        <v>3</v>
+      </c>
+      <c r="B1831">
+        <v>3</v>
+      </c>
+      <c r="C1831">
+        <v>4</v>
+      </c>
+      <c r="D1831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1832">
+        <v>5</v>
+      </c>
+      <c r="B1832">
+        <v>2</v>
+      </c>
+      <c r="C1832">
+        <v>5</v>
+      </c>
+      <c r="D1832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1833">
+        <v>5</v>
+      </c>
+      <c r="B1833">
+        <v>0</v>
+      </c>
+      <c r="C1833">
+        <v>2</v>
+      </c>
+      <c r="D1833">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1834">
+        <v>5</v>
+      </c>
+      <c r="B1834">
+        <v>3</v>
+      </c>
+      <c r="C1834">
+        <v>4</v>
+      </c>
+      <c r="D1834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1835">
+        <v>4</v>
+      </c>
+      <c r="B1835">
+        <v>2</v>
+      </c>
+      <c r="C1835">
+        <v>3</v>
+      </c>
+      <c r="D1835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1836">
+        <v>3</v>
+      </c>
+      <c r="B1836">
+        <v>0</v>
+      </c>
+      <c r="C1836">
+        <v>2</v>
+      </c>
+      <c r="D1836">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1837">
+        <v>6</v>
+      </c>
+      <c r="B1837">
+        <v>2</v>
+      </c>
+      <c r="C1837">
+        <v>2</v>
+      </c>
+      <c r="D1837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1838">
+        <v>6</v>
+      </c>
+      <c r="B1838">
+        <v>0</v>
+      </c>
+      <c r="C1838">
+        <v>6</v>
+      </c>
+      <c r="D1838">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1839">
+        <v>3</v>
+      </c>
+      <c r="B1839">
+        <v>0</v>
+      </c>
+      <c r="C1839">
+        <v>3</v>
+      </c>
+      <c r="D1839">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1840">
+        <v>5</v>
+      </c>
+      <c r="B1840">
+        <v>2</v>
+      </c>
+      <c r="C1840">
+        <v>5</v>
+      </c>
+      <c r="D1840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1841">
+        <v>4</v>
+      </c>
+      <c r="B1841">
+        <v>0</v>
+      </c>
+      <c r="C1841">
+        <v>3</v>
+      </c>
+      <c r="D1841">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1842">
+        <v>5</v>
+      </c>
+      <c r="B1842">
+        <v>1</v>
+      </c>
+      <c r="C1842">
+        <v>5</v>
+      </c>
+      <c r="D1842">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1843">
+        <v>4</v>
+      </c>
+      <c r="B1843">
+        <v>1</v>
+      </c>
+      <c r="C1843">
+        <v>4</v>
+      </c>
+      <c r="D1843">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1844">
+        <v>4</v>
+      </c>
+      <c r="B1844">
+        <v>0</v>
+      </c>
+      <c r="C1844">
+        <v>3</v>
+      </c>
+      <c r="D1844">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1845">
+        <v>5</v>
+      </c>
+      <c r="B1845">
+        <v>2</v>
+      </c>
+      <c r="C1845">
+        <v>5</v>
+      </c>
+      <c r="D1845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1846">
+        <v>5</v>
+      </c>
+      <c r="B1846">
+        <v>0</v>
+      </c>
+      <c r="C1846">
+        <v>6</v>
+      </c>
+      <c r="D1846">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1847">
+        <v>5</v>
+      </c>
+      <c r="B1847">
+        <v>0</v>
+      </c>
+      <c r="C1847">
+        <v>5</v>
+      </c>
+      <c r="D1847">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1848">
+        <v>5</v>
+      </c>
+      <c r="B1848">
+        <v>2</v>
+      </c>
+      <c r="C1848">
+        <v>6</v>
+      </c>
+      <c r="D1848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1849">
+        <v>5</v>
+      </c>
+      <c r="B1849">
+        <v>3</v>
+      </c>
+      <c r="C1849">
+        <v>2</v>
+      </c>
+      <c r="D1849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1850">
+        <v>3</v>
+      </c>
+      <c r="B1850">
+        <v>0</v>
+      </c>
+      <c r="C1850">
+        <v>5</v>
+      </c>
+      <c r="D1850">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1851">
+        <v>4</v>
+      </c>
+      <c r="B1851">
+        <v>2</v>
+      </c>
+      <c r="C1851">
+        <v>6</v>
+      </c>
+      <c r="D1851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1852">
+        <v>3</v>
+      </c>
+      <c r="B1852">
+        <v>3</v>
+      </c>
+      <c r="C1852">
+        <v>2</v>
+      </c>
+      <c r="D1852">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2629E342-4738-49B9-8C89-7739C8D7070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5548F-80B6-41CD-8C64-F5784F95D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1852"/>
+  <dimension ref="A1:D1875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1827" workbookViewId="0">
-      <selection activeCell="A1853" sqref="A1853"/>
+    <sheetView tabSelected="1" topLeftCell="A1860" workbookViewId="0">
+      <selection activeCell="A1876" sqref="A1876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26303,6 +26303,328 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1853">
+        <v>5</v>
+      </c>
+      <c r="B1853">
+        <v>2</v>
+      </c>
+      <c r="C1853">
+        <v>5</v>
+      </c>
+      <c r="D1853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1854">
+        <v>3</v>
+      </c>
+      <c r="B1854">
+        <v>0</v>
+      </c>
+      <c r="C1854">
+        <v>3</v>
+      </c>
+      <c r="D1854">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1855">
+        <v>5</v>
+      </c>
+      <c r="B1855">
+        <v>1</v>
+      </c>
+      <c r="C1855">
+        <v>5</v>
+      </c>
+      <c r="D1855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1856">
+        <v>6</v>
+      </c>
+      <c r="B1856">
+        <v>0</v>
+      </c>
+      <c r="C1856">
+        <v>6</v>
+      </c>
+      <c r="D1856">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1857">
+        <v>4</v>
+      </c>
+      <c r="B1857">
+        <v>1</v>
+      </c>
+      <c r="C1857">
+        <v>3</v>
+      </c>
+      <c r="D1857">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1858">
+        <v>5</v>
+      </c>
+      <c r="B1858">
+        <v>1</v>
+      </c>
+      <c r="C1858">
+        <v>4</v>
+      </c>
+      <c r="D1858">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1859">
+        <v>6</v>
+      </c>
+      <c r="B1859">
+        <v>3</v>
+      </c>
+      <c r="C1859">
+        <v>5</v>
+      </c>
+      <c r="D1859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1860">
+        <v>4</v>
+      </c>
+      <c r="B1860">
+        <v>3</v>
+      </c>
+      <c r="C1860">
+        <v>5</v>
+      </c>
+      <c r="D1860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>3</v>
+      </c>
+      <c r="B1861">
+        <v>1</v>
+      </c>
+      <c r="C1861">
+        <v>4</v>
+      </c>
+      <c r="D1861">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>4</v>
+      </c>
+      <c r="B1862">
+        <v>2</v>
+      </c>
+      <c r="C1862">
+        <v>4</v>
+      </c>
+      <c r="D1862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>7</v>
+      </c>
+      <c r="B1863">
+        <v>1</v>
+      </c>
+      <c r="C1863">
+        <v>5</v>
+      </c>
+      <c r="D1863">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>2</v>
+      </c>
+      <c r="B1864">
+        <v>0</v>
+      </c>
+      <c r="C1864">
+        <v>3</v>
+      </c>
+      <c r="D1864">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>7</v>
+      </c>
+      <c r="B1865">
+        <v>2</v>
+      </c>
+      <c r="C1865">
+        <v>5</v>
+      </c>
+      <c r="D1865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>2</v>
+      </c>
+      <c r="B1866">
+        <v>1</v>
+      </c>
+      <c r="C1866">
+        <v>5</v>
+      </c>
+      <c r="D1866">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>6</v>
+      </c>
+      <c r="B1867">
+        <v>2</v>
+      </c>
+      <c r="C1867">
+        <v>6</v>
+      </c>
+      <c r="D1867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>3</v>
+      </c>
+      <c r="B1868">
+        <v>2</v>
+      </c>
+      <c r="C1868">
+        <v>4</v>
+      </c>
+      <c r="D1868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>7</v>
+      </c>
+      <c r="B1869">
+        <v>1</v>
+      </c>
+      <c r="C1869">
+        <v>6</v>
+      </c>
+      <c r="D1869">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>5</v>
+      </c>
+      <c r="B1870">
+        <v>2</v>
+      </c>
+      <c r="C1870">
+        <v>4</v>
+      </c>
+      <c r="D1870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>3</v>
+      </c>
+      <c r="B1871">
+        <v>0</v>
+      </c>
+      <c r="C1871">
+        <v>3</v>
+      </c>
+      <c r="D1871">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>3</v>
+      </c>
+      <c r="B1872">
+        <v>1</v>
+      </c>
+      <c r="C1872">
+        <v>3</v>
+      </c>
+      <c r="D1872">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>4</v>
+      </c>
+      <c r="B1873">
+        <v>1</v>
+      </c>
+      <c r="C1873">
+        <v>4</v>
+      </c>
+      <c r="D1873">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>7</v>
+      </c>
+      <c r="B1874">
+        <v>2</v>
+      </c>
+      <c r="C1874">
+        <v>6</v>
+      </c>
+      <c r="D1874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>5</v>
+      </c>
+      <c r="B1875">
+        <v>2</v>
+      </c>
+      <c r="C1875">
+        <v>5</v>
+      </c>
+      <c r="D1875">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5548F-80B6-41CD-8C64-F5784F95D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337219B-4B10-47D5-9120-669B831B2F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1875"/>
+  <dimension ref="A1:D1899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1860" workbookViewId="0">
-      <selection activeCell="A1876" sqref="A1876"/>
+    <sheetView tabSelected="1" topLeftCell="A1872" workbookViewId="0">
+      <selection activeCell="A1900" sqref="A1900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26625,6 +26625,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>4</v>
+      </c>
+      <c r="B1876">
+        <v>1</v>
+      </c>
+      <c r="C1876">
+        <v>6</v>
+      </c>
+      <c r="D1876">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>5</v>
+      </c>
+      <c r="B1877">
+        <v>2</v>
+      </c>
+      <c r="C1877">
+        <v>6</v>
+      </c>
+      <c r="D1877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1878">
+        <v>5</v>
+      </c>
+      <c r="B1878">
+        <v>2</v>
+      </c>
+      <c r="C1878">
+        <v>5</v>
+      </c>
+      <c r="D1878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1879">
+        <v>3</v>
+      </c>
+      <c r="B1879">
+        <v>1</v>
+      </c>
+      <c r="C1879">
+        <v>2</v>
+      </c>
+      <c r="D1879">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1880">
+        <v>5</v>
+      </c>
+      <c r="B1880">
+        <v>2</v>
+      </c>
+      <c r="C1880">
+        <v>6</v>
+      </c>
+      <c r="D1880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1881">
+        <v>3</v>
+      </c>
+      <c r="B1881">
+        <v>0</v>
+      </c>
+      <c r="C1881">
+        <v>3</v>
+      </c>
+      <c r="D1881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1882">
+        <v>4</v>
+      </c>
+      <c r="B1882">
+        <v>0</v>
+      </c>
+      <c r="C1882">
+        <v>4</v>
+      </c>
+      <c r="D1882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1883">
+        <v>5</v>
+      </c>
+      <c r="B1883">
+        <v>0</v>
+      </c>
+      <c r="C1883">
+        <v>6</v>
+      </c>
+      <c r="D1883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1884">
+        <v>5</v>
+      </c>
+      <c r="B1884">
+        <v>2</v>
+      </c>
+      <c r="C1884">
+        <v>4</v>
+      </c>
+      <c r="D1884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1885">
+        <v>4</v>
+      </c>
+      <c r="B1885">
+        <v>0</v>
+      </c>
+      <c r="C1885">
+        <v>3</v>
+      </c>
+      <c r="D1885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1886">
+        <v>3</v>
+      </c>
+      <c r="B1886">
+        <v>2</v>
+      </c>
+      <c r="C1886">
+        <v>4</v>
+      </c>
+      <c r="D1886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1887">
+        <v>6</v>
+      </c>
+      <c r="B1887">
+        <v>3</v>
+      </c>
+      <c r="C1887">
+        <v>5</v>
+      </c>
+      <c r="D1887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1888">
+        <v>3</v>
+      </c>
+      <c r="B1888">
+        <v>1</v>
+      </c>
+      <c r="C1888">
+        <v>4</v>
+      </c>
+      <c r="D1888">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1889">
+        <v>7</v>
+      </c>
+      <c r="B1889">
+        <v>0</v>
+      </c>
+      <c r="C1889">
+        <v>5</v>
+      </c>
+      <c r="D1889">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1890">
+        <v>4</v>
+      </c>
+      <c r="B1890">
+        <v>2</v>
+      </c>
+      <c r="C1890">
+        <v>5</v>
+      </c>
+      <c r="D1890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1891">
+        <v>5</v>
+      </c>
+      <c r="B1891">
+        <v>0</v>
+      </c>
+      <c r="C1891">
+        <v>4</v>
+      </c>
+      <c r="D1891">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1892">
+        <v>3</v>
+      </c>
+      <c r="B1892">
+        <v>3</v>
+      </c>
+      <c r="C1892">
+        <v>3</v>
+      </c>
+      <c r="D1892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1893">
+        <v>2</v>
+      </c>
+      <c r="B1893">
+        <v>1</v>
+      </c>
+      <c r="C1893">
+        <v>4</v>
+      </c>
+      <c r="D1893">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1894">
+        <v>7</v>
+      </c>
+      <c r="B1894">
+        <v>3</v>
+      </c>
+      <c r="C1894">
+        <v>5</v>
+      </c>
+      <c r="D1894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1895">
+        <v>5</v>
+      </c>
+      <c r="B1895">
+        <v>0</v>
+      </c>
+      <c r="C1895">
+        <v>3</v>
+      </c>
+      <c r="D1895">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1896">
+        <v>3</v>
+      </c>
+      <c r="B1896">
+        <v>1</v>
+      </c>
+      <c r="C1896">
+        <v>3</v>
+      </c>
+      <c r="D1896">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1897">
+        <v>5</v>
+      </c>
+      <c r="B1897">
+        <v>0</v>
+      </c>
+      <c r="C1897">
+        <v>5</v>
+      </c>
+      <c r="D1897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1898">
+        <v>6</v>
+      </c>
+      <c r="B1898">
+        <v>1</v>
+      </c>
+      <c r="C1898">
+        <v>7</v>
+      </c>
+      <c r="D1898">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1899">
+        <v>4</v>
+      </c>
+      <c r="B1899">
+        <v>0</v>
+      </c>
+      <c r="C1899">
+        <v>5</v>
+      </c>
+      <c r="D1899">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337219B-4B10-47D5-9120-669B831B2F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF76FDD-1F17-4958-8A36-057CE6F771EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1899"/>
+  <dimension ref="A1:D1921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1872" workbookViewId="0">
-      <selection activeCell="A1900" sqref="A1900"/>
+    <sheetView tabSelected="1" topLeftCell="A1896" workbookViewId="0">
+      <selection activeCell="A1922" sqref="A1922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26961,6 +26961,314 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1900">
+        <v>6</v>
+      </c>
+      <c r="B1900">
+        <v>3</v>
+      </c>
+      <c r="C1900">
+        <v>4</v>
+      </c>
+      <c r="D1900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1901">
+        <v>7</v>
+      </c>
+      <c r="B1901">
+        <v>3</v>
+      </c>
+      <c r="C1901">
+        <v>2</v>
+      </c>
+      <c r="D1901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1902">
+        <v>3</v>
+      </c>
+      <c r="B1902">
+        <v>2</v>
+      </c>
+      <c r="C1902">
+        <v>5</v>
+      </c>
+      <c r="D1902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1903">
+        <v>2</v>
+      </c>
+      <c r="B1903">
+        <v>1</v>
+      </c>
+      <c r="C1903">
+        <v>4</v>
+      </c>
+      <c r="D1903">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1904">
+        <v>5</v>
+      </c>
+      <c r="B1904">
+        <v>0</v>
+      </c>
+      <c r="C1904">
+        <v>7</v>
+      </c>
+      <c r="D1904">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1905">
+        <v>3</v>
+      </c>
+      <c r="B1905">
+        <v>1</v>
+      </c>
+      <c r="C1905">
+        <v>4</v>
+      </c>
+      <c r="D1905">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1906">
+        <v>6</v>
+      </c>
+      <c r="B1906">
+        <v>0</v>
+      </c>
+      <c r="C1906">
+        <v>6</v>
+      </c>
+      <c r="D1906">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1907">
+        <v>4</v>
+      </c>
+      <c r="B1907">
+        <v>0</v>
+      </c>
+      <c r="C1907">
+        <v>5</v>
+      </c>
+      <c r="D1907">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1908">
+        <v>4</v>
+      </c>
+      <c r="B1908">
+        <v>3</v>
+      </c>
+      <c r="C1908">
+        <v>3</v>
+      </c>
+      <c r="D1908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1909">
+        <v>4</v>
+      </c>
+      <c r="B1909">
+        <v>1</v>
+      </c>
+      <c r="C1909">
+        <v>4</v>
+      </c>
+      <c r="D1909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1910">
+        <v>5</v>
+      </c>
+      <c r="B1910">
+        <v>0</v>
+      </c>
+      <c r="C1910">
+        <v>5</v>
+      </c>
+      <c r="D1910">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1911">
+        <v>4</v>
+      </c>
+      <c r="B1911">
+        <v>2</v>
+      </c>
+      <c r="C1911">
+        <v>4</v>
+      </c>
+      <c r="D1911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1912">
+        <v>4</v>
+      </c>
+      <c r="B1912">
+        <v>0</v>
+      </c>
+      <c r="C1912">
+        <v>5</v>
+      </c>
+      <c r="D1912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1913">
+        <v>5</v>
+      </c>
+      <c r="B1913">
+        <v>0</v>
+      </c>
+      <c r="C1913">
+        <v>5</v>
+      </c>
+      <c r="D1913">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1914">
+        <v>3</v>
+      </c>
+      <c r="B1914">
+        <v>1</v>
+      </c>
+      <c r="C1914">
+        <v>5</v>
+      </c>
+      <c r="D1914">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1915">
+        <v>4</v>
+      </c>
+      <c r="B1915">
+        <v>0</v>
+      </c>
+      <c r="C1915">
+        <v>4</v>
+      </c>
+      <c r="D1915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1916">
+        <v>3</v>
+      </c>
+      <c r="B1916">
+        <v>0</v>
+      </c>
+      <c r="C1916">
+        <v>5</v>
+      </c>
+      <c r="D1916">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1917">
+        <v>5</v>
+      </c>
+      <c r="B1917">
+        <v>0</v>
+      </c>
+      <c r="C1917">
+        <v>6</v>
+      </c>
+      <c r="D1917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1918">
+        <v>3</v>
+      </c>
+      <c r="B1918">
+        <v>2</v>
+      </c>
+      <c r="C1918">
+        <v>4</v>
+      </c>
+      <c r="D1918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1919">
+        <v>5</v>
+      </c>
+      <c r="B1919">
+        <v>0</v>
+      </c>
+      <c r="C1919">
+        <v>5</v>
+      </c>
+      <c r="D1919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1920">
+        <v>3</v>
+      </c>
+      <c r="B1920">
+        <v>1</v>
+      </c>
+      <c r="C1920">
+        <v>3</v>
+      </c>
+      <c r="D1920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1921">
+        <v>7</v>
+      </c>
+      <c r="B1921">
+        <v>0</v>
+      </c>
+      <c r="C1921">
+        <v>6</v>
+      </c>
+      <c r="D1921">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF76FDD-1F17-4958-8A36-057CE6F771EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF58AB-C89D-4715-B48F-0D330AF39722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1921"/>
+  <dimension ref="A1:D1941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1896" workbookViewId="0">
-      <selection activeCell="A1922" sqref="A1922"/>
+    <sheetView tabSelected="1" topLeftCell="A1930" workbookViewId="0">
+      <selection activeCell="A1942" sqref="A1942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27269,6 +27269,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1922">
+        <v>4</v>
+      </c>
+      <c r="B1922">
+        <v>0</v>
+      </c>
+      <c r="C1922">
+        <v>4</v>
+      </c>
+      <c r="D1922">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1923">
+        <v>3</v>
+      </c>
+      <c r="B1923">
+        <v>1</v>
+      </c>
+      <c r="C1923">
+        <v>3</v>
+      </c>
+      <c r="D1923">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1924">
+        <v>5</v>
+      </c>
+      <c r="B1924">
+        <v>1</v>
+      </c>
+      <c r="C1924">
+        <v>6</v>
+      </c>
+      <c r="D1924">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1925">
+        <v>5</v>
+      </c>
+      <c r="B1925">
+        <v>2</v>
+      </c>
+      <c r="C1925">
+        <v>4</v>
+      </c>
+      <c r="D1925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1926">
+        <v>5</v>
+      </c>
+      <c r="B1926">
+        <v>1</v>
+      </c>
+      <c r="C1926">
+        <v>6</v>
+      </c>
+      <c r="D1926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1927">
+        <v>4</v>
+      </c>
+      <c r="B1927">
+        <v>0</v>
+      </c>
+      <c r="C1927">
+        <v>4</v>
+      </c>
+      <c r="D1927">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1928">
+        <v>4</v>
+      </c>
+      <c r="B1928">
+        <v>2</v>
+      </c>
+      <c r="C1928">
+        <v>5</v>
+      </c>
+      <c r="D1928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1929">
+        <v>4</v>
+      </c>
+      <c r="B1929">
+        <v>3</v>
+      </c>
+      <c r="C1929">
+        <v>2</v>
+      </c>
+      <c r="D1929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1930">
+        <v>5</v>
+      </c>
+      <c r="B1930">
+        <v>1</v>
+      </c>
+      <c r="C1930">
+        <v>5</v>
+      </c>
+      <c r="D1930">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1931">
+        <v>5</v>
+      </c>
+      <c r="B1931">
+        <v>0</v>
+      </c>
+      <c r="C1931">
+        <v>2</v>
+      </c>
+      <c r="D1931">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1932">
+        <v>4</v>
+      </c>
+      <c r="B1932">
+        <v>0</v>
+      </c>
+      <c r="C1932">
+        <v>3</v>
+      </c>
+      <c r="D1932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1933">
+        <v>5</v>
+      </c>
+      <c r="B1933">
+        <v>0</v>
+      </c>
+      <c r="C1933">
+        <v>4</v>
+      </c>
+      <c r="D1933">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1934">
+        <v>5</v>
+      </c>
+      <c r="B1934">
+        <v>2</v>
+      </c>
+      <c r="C1934">
+        <v>5</v>
+      </c>
+      <c r="D1934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1935">
+        <v>6</v>
+      </c>
+      <c r="B1935">
+        <v>1</v>
+      </c>
+      <c r="C1935">
+        <v>6</v>
+      </c>
+      <c r="D1935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1936">
+        <v>3</v>
+      </c>
+      <c r="B1936">
+        <v>3</v>
+      </c>
+      <c r="C1936">
+        <v>3</v>
+      </c>
+      <c r="D1936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1937">
+        <v>6</v>
+      </c>
+      <c r="B1937">
+        <v>0</v>
+      </c>
+      <c r="C1937">
+        <v>5</v>
+      </c>
+      <c r="D1937">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1938">
+        <v>3</v>
+      </c>
+      <c r="B1938">
+        <v>3</v>
+      </c>
+      <c r="C1938">
+        <v>3</v>
+      </c>
+      <c r="D1938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1939">
+        <v>4</v>
+      </c>
+      <c r="B1939">
+        <v>2</v>
+      </c>
+      <c r="C1939">
+        <v>6</v>
+      </c>
+      <c r="D1939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1940">
+        <v>6</v>
+      </c>
+      <c r="B1940">
+        <v>0</v>
+      </c>
+      <c r="C1940">
+        <v>5</v>
+      </c>
+      <c r="D1940">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1941">
+        <v>4</v>
+      </c>
+      <c r="B1941">
+        <v>2</v>
+      </c>
+      <c r="C1941">
+        <v>3</v>
+      </c>
+      <c r="D1941">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF58AB-C89D-4715-B48F-0D330AF39722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F973487-F8EC-4BF5-9EA2-E8F4D7D48FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1941"/>
+  <dimension ref="A1:D1960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1930" workbookViewId="0">
-      <selection activeCell="A1942" sqref="A1942"/>
+    <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
+      <selection activeCell="A1961" sqref="A1961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27549,6 +27549,272 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1942">
+        <v>4</v>
+      </c>
+      <c r="B1942">
+        <v>3</v>
+      </c>
+      <c r="C1942">
+        <v>5</v>
+      </c>
+      <c r="D1942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1943">
+        <v>3</v>
+      </c>
+      <c r="B1943">
+        <v>3</v>
+      </c>
+      <c r="C1943">
+        <v>3</v>
+      </c>
+      <c r="D1943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1944">
+        <v>4</v>
+      </c>
+      <c r="B1944">
+        <v>0</v>
+      </c>
+      <c r="C1944">
+        <v>3</v>
+      </c>
+      <c r="D1944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1945">
+        <v>5</v>
+      </c>
+      <c r="B1945">
+        <v>3</v>
+      </c>
+      <c r="C1945">
+        <v>4</v>
+      </c>
+      <c r="D1945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1946">
+        <v>6</v>
+      </c>
+      <c r="B1946">
+        <v>0</v>
+      </c>
+      <c r="C1946">
+        <v>5</v>
+      </c>
+      <c r="D1946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1947">
+        <v>5</v>
+      </c>
+      <c r="B1947">
+        <v>2</v>
+      </c>
+      <c r="C1947">
+        <v>5</v>
+      </c>
+      <c r="D1947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1948">
+        <v>4</v>
+      </c>
+      <c r="B1948">
+        <v>3</v>
+      </c>
+      <c r="C1948">
+        <v>4</v>
+      </c>
+      <c r="D1948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1949">
+        <v>5</v>
+      </c>
+      <c r="B1949">
+        <v>0</v>
+      </c>
+      <c r="C1949">
+        <v>4</v>
+      </c>
+      <c r="D1949">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1950">
+        <v>5</v>
+      </c>
+      <c r="B1950">
+        <v>0</v>
+      </c>
+      <c r="C1950">
+        <v>6</v>
+      </c>
+      <c r="D1950">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1951">
+        <v>3</v>
+      </c>
+      <c r="B1951">
+        <v>0</v>
+      </c>
+      <c r="C1951">
+        <v>3</v>
+      </c>
+      <c r="D1951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1952">
+        <v>4</v>
+      </c>
+      <c r="B1952">
+        <v>0</v>
+      </c>
+      <c r="C1952">
+        <v>5</v>
+      </c>
+      <c r="D1952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1953">
+        <v>6</v>
+      </c>
+      <c r="B1953">
+        <v>2</v>
+      </c>
+      <c r="C1953">
+        <v>5</v>
+      </c>
+      <c r="D1953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1954">
+        <v>6</v>
+      </c>
+      <c r="B1954">
+        <v>2</v>
+      </c>
+      <c r="C1954">
+        <v>5</v>
+      </c>
+      <c r="D1954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1955">
+        <v>3</v>
+      </c>
+      <c r="B1955">
+        <v>0</v>
+      </c>
+      <c r="C1955">
+        <v>3</v>
+      </c>
+      <c r="D1955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1956">
+        <v>3</v>
+      </c>
+      <c r="B1956">
+        <v>1</v>
+      </c>
+      <c r="C1956">
+        <v>4</v>
+      </c>
+      <c r="D1956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1957">
+        <v>4</v>
+      </c>
+      <c r="B1957">
+        <v>1</v>
+      </c>
+      <c r="C1957">
+        <v>4</v>
+      </c>
+      <c r="D1957">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1958">
+        <v>6</v>
+      </c>
+      <c r="B1958">
+        <v>2</v>
+      </c>
+      <c r="C1958">
+        <v>5</v>
+      </c>
+      <c r="D1958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1959">
+        <v>6</v>
+      </c>
+      <c r="B1959">
+        <v>2</v>
+      </c>
+      <c r="C1959">
+        <v>5</v>
+      </c>
+      <c r="D1959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1960">
+        <v>4</v>
+      </c>
+      <c r="B1960">
+        <v>2</v>
+      </c>
+      <c r="C1960">
+        <v>4</v>
+      </c>
+      <c r="D1960">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F973487-F8EC-4BF5-9EA2-E8F4D7D48FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979696C-D18A-485D-B85D-403F80895C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1960"/>
+  <dimension ref="A1:D1980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
-      <selection activeCell="A1961" sqref="A1961"/>
+    <sheetView tabSelected="1" topLeftCell="A1966" workbookViewId="0">
+      <selection activeCell="A1981" sqref="A1981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27815,6 +27815,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1961">
+        <v>5</v>
+      </c>
+      <c r="B1961">
+        <v>2</v>
+      </c>
+      <c r="C1961">
+        <v>5</v>
+      </c>
+      <c r="D1961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1962">
+        <v>3</v>
+      </c>
+      <c r="B1962">
+        <v>2</v>
+      </c>
+      <c r="C1962">
+        <v>4</v>
+      </c>
+      <c r="D1962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1963">
+        <v>6</v>
+      </c>
+      <c r="B1963">
+        <v>0</v>
+      </c>
+      <c r="C1963">
+        <v>6</v>
+      </c>
+      <c r="D1963">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1964">
+        <v>5</v>
+      </c>
+      <c r="B1964">
+        <v>0</v>
+      </c>
+      <c r="C1964">
+        <v>4</v>
+      </c>
+      <c r="D1964">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1965">
+        <v>3</v>
+      </c>
+      <c r="B1965">
+        <v>2</v>
+      </c>
+      <c r="C1965">
+        <v>3</v>
+      </c>
+      <c r="D1965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1966">
+        <v>5</v>
+      </c>
+      <c r="B1966">
+        <v>0</v>
+      </c>
+      <c r="C1966">
+        <v>3</v>
+      </c>
+      <c r="D1966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1967">
+        <v>3</v>
+      </c>
+      <c r="B1967">
+        <v>2</v>
+      </c>
+      <c r="C1967">
+        <v>5</v>
+      </c>
+      <c r="D1967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1968">
+        <v>4</v>
+      </c>
+      <c r="B1968">
+        <v>2</v>
+      </c>
+      <c r="C1968">
+        <v>4</v>
+      </c>
+      <c r="D1968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1969">
+        <v>7</v>
+      </c>
+      <c r="B1969">
+        <v>2</v>
+      </c>
+      <c r="C1969">
+        <v>7</v>
+      </c>
+      <c r="D1969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1970">
+        <v>2</v>
+      </c>
+      <c r="B1970">
+        <v>1</v>
+      </c>
+      <c r="C1970">
+        <v>4</v>
+      </c>
+      <c r="D1970">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1971">
+        <v>3</v>
+      </c>
+      <c r="B1971">
+        <v>0</v>
+      </c>
+      <c r="C1971">
+        <v>4</v>
+      </c>
+      <c r="D1971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1972">
+        <v>5</v>
+      </c>
+      <c r="B1972">
+        <v>0</v>
+      </c>
+      <c r="C1972">
+        <v>5</v>
+      </c>
+      <c r="D1972">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1973">
+        <v>5</v>
+      </c>
+      <c r="B1973">
+        <v>2</v>
+      </c>
+      <c r="C1973">
+        <v>4</v>
+      </c>
+      <c r="D1973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1974">
+        <v>7</v>
+      </c>
+      <c r="B1974">
+        <v>0</v>
+      </c>
+      <c r="C1974">
+        <v>4</v>
+      </c>
+      <c r="D1974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1975">
+        <v>3</v>
+      </c>
+      <c r="B1975">
+        <v>2</v>
+      </c>
+      <c r="C1975">
+        <v>4</v>
+      </c>
+      <c r="D1975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1976">
+        <v>5</v>
+      </c>
+      <c r="B1976">
+        <v>2</v>
+      </c>
+      <c r="C1976">
+        <v>6</v>
+      </c>
+      <c r="D1976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1977">
+        <v>4</v>
+      </c>
+      <c r="B1977">
+        <v>0</v>
+      </c>
+      <c r="C1977">
+        <v>4</v>
+      </c>
+      <c r="D1977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1978">
+        <v>4</v>
+      </c>
+      <c r="B1978">
+        <v>0</v>
+      </c>
+      <c r="C1978">
+        <v>4</v>
+      </c>
+      <c r="D1978">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1979">
+        <v>3</v>
+      </c>
+      <c r="B1979">
+        <v>3</v>
+      </c>
+      <c r="C1979">
+        <v>3</v>
+      </c>
+      <c r="D1979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1980">
+        <v>7</v>
+      </c>
+      <c r="B1980">
+        <v>3</v>
+      </c>
+      <c r="C1980">
+        <v>6</v>
+      </c>
+      <c r="D1980">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979696C-D18A-485D-B85D-403F80895C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE72063-DA8D-4B24-9E92-2CB6C02952A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1980"/>
+  <dimension ref="A1:D1999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1966" workbookViewId="0">
-      <selection activeCell="A1981" sqref="A1981"/>
+    <sheetView tabSelected="1" topLeftCell="A1978" workbookViewId="0">
+      <selection activeCell="A2000" sqref="A2000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28095,6 +28095,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1981">
+        <v>6</v>
+      </c>
+      <c r="B1981">
+        <v>2</v>
+      </c>
+      <c r="C1981">
+        <v>5</v>
+      </c>
+      <c r="D1981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1982">
+        <v>3</v>
+      </c>
+      <c r="B1982">
+        <v>0</v>
+      </c>
+      <c r="C1982">
+        <v>3</v>
+      </c>
+      <c r="D1982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1983">
+        <v>4</v>
+      </c>
+      <c r="B1983">
+        <v>1</v>
+      </c>
+      <c r="C1983">
+        <v>4</v>
+      </c>
+      <c r="D1983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1984">
+        <v>6</v>
+      </c>
+      <c r="B1984">
+        <v>2</v>
+      </c>
+      <c r="C1984">
+        <v>6</v>
+      </c>
+      <c r="D1984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1985">
+        <v>3</v>
+      </c>
+      <c r="B1985">
+        <v>0</v>
+      </c>
+      <c r="C1985">
+        <v>5</v>
+      </c>
+      <c r="D1985">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1986">
+        <v>4</v>
+      </c>
+      <c r="B1986">
+        <v>0</v>
+      </c>
+      <c r="C1986">
+        <v>4</v>
+      </c>
+      <c r="D1986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1987">
+        <v>5</v>
+      </c>
+      <c r="B1987">
+        <v>1</v>
+      </c>
+      <c r="C1987">
+        <v>4</v>
+      </c>
+      <c r="D1987">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1988">
+        <v>4</v>
+      </c>
+      <c r="B1988">
+        <v>2</v>
+      </c>
+      <c r="C1988">
+        <v>5</v>
+      </c>
+      <c r="D1988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1989">
+        <v>4</v>
+      </c>
+      <c r="B1989">
+        <v>0</v>
+      </c>
+      <c r="C1989">
+        <v>6</v>
+      </c>
+      <c r="D1989">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1990">
+        <v>4</v>
+      </c>
+      <c r="B1990">
+        <v>2</v>
+      </c>
+      <c r="C1990">
+        <v>3</v>
+      </c>
+      <c r="D1990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1991">
+        <v>3</v>
+      </c>
+      <c r="B1991">
+        <v>1</v>
+      </c>
+      <c r="C1991">
+        <v>4</v>
+      </c>
+      <c r="D1991">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1992">
+        <v>5</v>
+      </c>
+      <c r="B1992">
+        <v>2</v>
+      </c>
+      <c r="C1992">
+        <v>4</v>
+      </c>
+      <c r="D1992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1993">
+        <v>3</v>
+      </c>
+      <c r="B1993">
+        <v>2</v>
+      </c>
+      <c r="C1993">
+        <v>3</v>
+      </c>
+      <c r="D1993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1994">
+        <v>4</v>
+      </c>
+      <c r="B1994">
+        <v>3</v>
+      </c>
+      <c r="C1994">
+        <v>3</v>
+      </c>
+      <c r="D1994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1995">
+        <v>6</v>
+      </c>
+      <c r="B1995">
+        <v>0</v>
+      </c>
+      <c r="C1995">
+        <v>7</v>
+      </c>
+      <c r="D1995">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1996">
+        <v>6</v>
+      </c>
+      <c r="B1996">
+        <v>0</v>
+      </c>
+      <c r="C1996">
+        <v>4</v>
+      </c>
+      <c r="D1996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1997">
+        <v>4</v>
+      </c>
+      <c r="B1997">
+        <v>1</v>
+      </c>
+      <c r="C1997">
+        <v>6</v>
+      </c>
+      <c r="D1997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1998">
+        <v>4</v>
+      </c>
+      <c r="B1998">
+        <v>2</v>
+      </c>
+      <c r="C1998">
+        <v>3</v>
+      </c>
+      <c r="D1998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1999">
+        <v>6</v>
+      </c>
+      <c r="B1999">
+        <v>0</v>
+      </c>
+      <c r="C1999">
+        <v>6</v>
+      </c>
+      <c r="D1999">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE72063-DA8D-4B24-9E92-2CB6C02952A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A263CF1-FC9D-4305-9C35-A3F49E7C4A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1999"/>
+  <dimension ref="A1:D2019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1978" workbookViewId="0">
-      <selection activeCell="A2000" sqref="A2000"/>
+    <sheetView tabSelected="1" topLeftCell="A1999" workbookViewId="0">
+      <selection activeCell="A2020" sqref="A2020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28361,6 +28361,286 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2000">
+        <v>3</v>
+      </c>
+      <c r="B2000">
+        <v>0</v>
+      </c>
+      <c r="C2000">
+        <v>4</v>
+      </c>
+      <c r="D2000">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2001">
+        <v>4</v>
+      </c>
+      <c r="B2001">
+        <v>2</v>
+      </c>
+      <c r="C2001">
+        <v>5</v>
+      </c>
+      <c r="D2001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2002">
+        <v>5</v>
+      </c>
+      <c r="B2002">
+        <v>1</v>
+      </c>
+      <c r="C2002">
+        <v>6</v>
+      </c>
+      <c r="D2002">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2003">
+        <v>3</v>
+      </c>
+      <c r="B2003">
+        <v>2</v>
+      </c>
+      <c r="C2003">
+        <v>3</v>
+      </c>
+      <c r="D2003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2004">
+        <v>4</v>
+      </c>
+      <c r="B2004">
+        <v>2</v>
+      </c>
+      <c r="C2004">
+        <v>4</v>
+      </c>
+      <c r="D2004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2005">
+        <v>3</v>
+      </c>
+      <c r="B2005">
+        <v>2</v>
+      </c>
+      <c r="C2005">
+        <v>3</v>
+      </c>
+      <c r="D2005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2006">
+        <v>5</v>
+      </c>
+      <c r="B2006">
+        <v>2</v>
+      </c>
+      <c r="C2006">
+        <v>5</v>
+      </c>
+      <c r="D2006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2007">
+        <v>3</v>
+      </c>
+      <c r="B2007">
+        <v>3</v>
+      </c>
+      <c r="C2007">
+        <v>4</v>
+      </c>
+      <c r="D2007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2008">
+        <v>7</v>
+      </c>
+      <c r="B2008">
+        <v>2</v>
+      </c>
+      <c r="C2008">
+        <v>6</v>
+      </c>
+      <c r="D2008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2009">
+        <v>4</v>
+      </c>
+      <c r="B2009">
+        <v>1</v>
+      </c>
+      <c r="C2009">
+        <v>4</v>
+      </c>
+      <c r="D2009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2010">
+        <v>5</v>
+      </c>
+      <c r="B2010">
+        <v>0</v>
+      </c>
+      <c r="C2010">
+        <v>5</v>
+      </c>
+      <c r="D2010">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2011">
+        <v>4</v>
+      </c>
+      <c r="B2011">
+        <v>3</v>
+      </c>
+      <c r="C2011">
+        <v>2</v>
+      </c>
+      <c r="D2011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2012">
+        <v>4</v>
+      </c>
+      <c r="B2012">
+        <v>0</v>
+      </c>
+      <c r="C2012">
+        <v>6</v>
+      </c>
+      <c r="D2012">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2013">
+        <v>4</v>
+      </c>
+      <c r="B2013">
+        <v>2</v>
+      </c>
+      <c r="C2013">
+        <v>5</v>
+      </c>
+      <c r="D2013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2014">
+        <v>4</v>
+      </c>
+      <c r="B2014">
+        <v>2</v>
+      </c>
+      <c r="C2014">
+        <v>3</v>
+      </c>
+      <c r="D2014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2015">
+        <v>3</v>
+      </c>
+      <c r="B2015">
+        <v>3</v>
+      </c>
+      <c r="C2015">
+        <v>3</v>
+      </c>
+      <c r="D2015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2016">
+        <v>4</v>
+      </c>
+      <c r="B2016">
+        <v>0</v>
+      </c>
+      <c r="C2016">
+        <v>4</v>
+      </c>
+      <c r="D2016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2017">
+        <v>6</v>
+      </c>
+      <c r="B2017">
+        <v>3</v>
+      </c>
+      <c r="C2017">
+        <v>6</v>
+      </c>
+      <c r="D2017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2018">
+        <v>6</v>
+      </c>
+      <c r="B2018">
+        <v>0</v>
+      </c>
+      <c r="C2018">
+        <v>7</v>
+      </c>
+      <c r="D2018">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2019">
+        <v>4</v>
+      </c>
+      <c r="B2019">
+        <v>3</v>
+      </c>
+      <c r="C2019">
+        <v>3</v>
+      </c>
+      <c r="D2019">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A263CF1-FC9D-4305-9C35-A3F49E7C4A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC19A5F-7EB8-49E0-ACAC-24E2E5A8C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2019"/>
+  <dimension ref="A1:D2038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1999" workbookViewId="0">
-      <selection activeCell="A2020" sqref="A2020"/>
+    <sheetView tabSelected="1" topLeftCell="A2017" workbookViewId="0">
+      <selection activeCell="A2039" sqref="A2039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28641,6 +28641,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2020">
+        <v>2</v>
+      </c>
+      <c r="B2020">
+        <v>2</v>
+      </c>
+      <c r="C2020">
+        <v>3</v>
+      </c>
+      <c r="D2020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2021">
+        <v>3</v>
+      </c>
+      <c r="B2021">
+        <v>2</v>
+      </c>
+      <c r="C2021">
+        <v>3</v>
+      </c>
+      <c r="D2021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2022">
+        <v>5</v>
+      </c>
+      <c r="B2022">
+        <v>3</v>
+      </c>
+      <c r="C2022">
+        <v>5</v>
+      </c>
+      <c r="D2022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2023">
+        <v>3</v>
+      </c>
+      <c r="B2023">
+        <v>0</v>
+      </c>
+      <c r="C2023">
+        <v>3</v>
+      </c>
+      <c r="D2023">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2024">
+        <v>5</v>
+      </c>
+      <c r="B2024">
+        <v>1</v>
+      </c>
+      <c r="C2024">
+        <v>7</v>
+      </c>
+      <c r="D2024">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2025">
+        <v>3</v>
+      </c>
+      <c r="B2025">
+        <v>1</v>
+      </c>
+      <c r="C2025">
+        <v>4</v>
+      </c>
+      <c r="D2025">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2026">
+        <v>3</v>
+      </c>
+      <c r="B2026">
+        <v>0</v>
+      </c>
+      <c r="C2026">
+        <v>3</v>
+      </c>
+      <c r="D2026">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2027">
+        <v>5</v>
+      </c>
+      <c r="B2027">
+        <v>0</v>
+      </c>
+      <c r="C2027">
+        <v>5</v>
+      </c>
+      <c r="D2027">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2028">
+        <v>3</v>
+      </c>
+      <c r="B2028">
+        <v>2</v>
+      </c>
+      <c r="C2028">
+        <v>2</v>
+      </c>
+      <c r="D2028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2029">
+        <v>6</v>
+      </c>
+      <c r="B2029">
+        <v>0</v>
+      </c>
+      <c r="C2029">
+        <v>7</v>
+      </c>
+      <c r="D2029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2030">
+        <v>4</v>
+      </c>
+      <c r="B2030">
+        <v>1</v>
+      </c>
+      <c r="C2030">
+        <v>3</v>
+      </c>
+      <c r="D2030">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2031">
+        <v>5</v>
+      </c>
+      <c r="B2031">
+        <v>0</v>
+      </c>
+      <c r="C2031">
+        <v>5</v>
+      </c>
+      <c r="D2031">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2032">
+        <v>5</v>
+      </c>
+      <c r="B2032">
+        <v>2</v>
+      </c>
+      <c r="C2032">
+        <v>4</v>
+      </c>
+      <c r="D2032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2033">
+        <v>3</v>
+      </c>
+      <c r="B2033">
+        <v>0</v>
+      </c>
+      <c r="C2033">
+        <v>6</v>
+      </c>
+      <c r="D2033">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2034">
+        <v>4</v>
+      </c>
+      <c r="B2034">
+        <v>2</v>
+      </c>
+      <c r="C2034">
+        <v>4</v>
+      </c>
+      <c r="D2034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2035">
+        <v>5</v>
+      </c>
+      <c r="B2035">
+        <v>1</v>
+      </c>
+      <c r="C2035">
+        <v>6</v>
+      </c>
+      <c r="D2035">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2036">
+        <v>3</v>
+      </c>
+      <c r="B2036">
+        <v>0</v>
+      </c>
+      <c r="C2036">
+        <v>3</v>
+      </c>
+      <c r="D2036">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2037">
+        <v>5</v>
+      </c>
+      <c r="B2037">
+        <v>0</v>
+      </c>
+      <c r="C2037">
+        <v>3</v>
+      </c>
+      <c r="D2037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2038">
+        <v>6</v>
+      </c>
+      <c r="B2038">
+        <v>0</v>
+      </c>
+      <c r="C2038">
+        <v>6</v>
+      </c>
+      <c r="D2038">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC19A5F-7EB8-49E0-ACAC-24E2E5A8C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4B52B8-4481-4FC5-A1CB-0083CD9AD158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2038"/>
+  <dimension ref="A1:D2058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2017" workbookViewId="0">
-      <selection activeCell="A2039" sqref="A2039"/>
+    <sheetView tabSelected="1" topLeftCell="A2035" workbookViewId="0">
+      <selection activeCell="A2059" sqref="A2059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28907,6 +28907,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2039">
+        <v>6</v>
+      </c>
+      <c r="B2039">
+        <v>0</v>
+      </c>
+      <c r="C2039">
+        <v>6</v>
+      </c>
+      <c r="D2039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2040">
+        <v>7</v>
+      </c>
+      <c r="B2040">
+        <v>0</v>
+      </c>
+      <c r="C2040">
+        <v>3</v>
+      </c>
+      <c r="D2040">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2041">
+        <v>3</v>
+      </c>
+      <c r="B2041">
+        <v>0</v>
+      </c>
+      <c r="C2041">
+        <v>2</v>
+      </c>
+      <c r="D2041">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2042">
+        <v>4</v>
+      </c>
+      <c r="B2042">
+        <v>2</v>
+      </c>
+      <c r="C2042">
+        <v>5</v>
+      </c>
+      <c r="D2042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2043">
+        <v>3</v>
+      </c>
+      <c r="B2043">
+        <v>0</v>
+      </c>
+      <c r="C2043">
+        <v>2</v>
+      </c>
+      <c r="D2043">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2044">
+        <v>3</v>
+      </c>
+      <c r="B2044">
+        <v>2</v>
+      </c>
+      <c r="C2044">
+        <v>3</v>
+      </c>
+      <c r="D2044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2045">
+        <v>4</v>
+      </c>
+      <c r="B2045">
+        <v>1</v>
+      </c>
+      <c r="C2045">
+        <v>6</v>
+      </c>
+      <c r="D2045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2046">
+        <v>3</v>
+      </c>
+      <c r="B2046">
+        <v>0</v>
+      </c>
+      <c r="C2046">
+        <v>3</v>
+      </c>
+      <c r="D2046">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2047">
+        <v>3</v>
+      </c>
+      <c r="B2047">
+        <v>3</v>
+      </c>
+      <c r="C2047">
+        <v>3</v>
+      </c>
+      <c r="D2047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2048">
+        <v>7</v>
+      </c>
+      <c r="B2048">
+        <v>0</v>
+      </c>
+      <c r="C2048">
+        <v>6</v>
+      </c>
+      <c r="D2048">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2049">
+        <v>4</v>
+      </c>
+      <c r="B2049">
+        <v>0</v>
+      </c>
+      <c r="C2049">
+        <v>4</v>
+      </c>
+      <c r="D2049">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2050">
+        <v>5</v>
+      </c>
+      <c r="B2050">
+        <v>2</v>
+      </c>
+      <c r="C2050">
+        <v>5</v>
+      </c>
+      <c r="D2050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2051">
+        <v>4</v>
+      </c>
+      <c r="B2051">
+        <v>0</v>
+      </c>
+      <c r="C2051">
+        <v>4</v>
+      </c>
+      <c r="D2051">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2052">
+        <v>6</v>
+      </c>
+      <c r="B2052">
+        <v>2</v>
+      </c>
+      <c r="C2052">
+        <v>4</v>
+      </c>
+      <c r="D2052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2053">
+        <v>2</v>
+      </c>
+      <c r="B2053">
+        <v>2</v>
+      </c>
+      <c r="C2053">
+        <v>5</v>
+      </c>
+      <c r="D2053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2054">
+        <v>5</v>
+      </c>
+      <c r="B2054">
+        <v>2</v>
+      </c>
+      <c r="C2054">
+        <v>4</v>
+      </c>
+      <c r="D2054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2055">
+        <v>4</v>
+      </c>
+      <c r="B2055">
+        <v>0</v>
+      </c>
+      <c r="C2055">
+        <v>5</v>
+      </c>
+      <c r="D2055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2056">
+        <v>3</v>
+      </c>
+      <c r="B2056">
+        <v>2</v>
+      </c>
+      <c r="C2056">
+        <v>3</v>
+      </c>
+      <c r="D2056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2057">
+        <v>5</v>
+      </c>
+      <c r="B2057">
+        <v>1</v>
+      </c>
+      <c r="C2057">
+        <v>6</v>
+      </c>
+      <c r="D2057">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2058">
+        <v>3</v>
+      </c>
+      <c r="B2058">
+        <v>1</v>
+      </c>
+      <c r="C2058">
+        <v>5</v>
+      </c>
+      <c r="D2058">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4B52B8-4481-4FC5-A1CB-0083CD9AD158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46818D-C58A-48C2-BADA-2BDCE22E9829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2058"/>
+  <dimension ref="A1:D2078"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2035" workbookViewId="0">
-      <selection activeCell="A2059" sqref="A2059"/>
+    <sheetView tabSelected="1" topLeftCell="A2062" workbookViewId="0">
+      <selection activeCell="A2079" sqref="A2079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29187,6 +29187,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2059">
+        <v>3</v>
+      </c>
+      <c r="B2059">
+        <v>0</v>
+      </c>
+      <c r="C2059">
+        <v>4</v>
+      </c>
+      <c r="D2059">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2060">
+        <v>3</v>
+      </c>
+      <c r="B2060">
+        <v>0</v>
+      </c>
+      <c r="C2060">
+        <v>3</v>
+      </c>
+      <c r="D2060">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2061">
+        <v>3</v>
+      </c>
+      <c r="B2061">
+        <v>3</v>
+      </c>
+      <c r="C2061">
+        <v>3</v>
+      </c>
+      <c r="D2061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2062">
+        <v>5</v>
+      </c>
+      <c r="B2062">
+        <v>2</v>
+      </c>
+      <c r="C2062">
+        <v>6</v>
+      </c>
+      <c r="D2062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2063">
+        <v>6</v>
+      </c>
+      <c r="B2063">
+        <v>3</v>
+      </c>
+      <c r="C2063">
+        <v>7</v>
+      </c>
+      <c r="D2063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2064">
+        <v>6</v>
+      </c>
+      <c r="B2064">
+        <v>1</v>
+      </c>
+      <c r="C2064">
+        <v>4</v>
+      </c>
+      <c r="D2064">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2065">
+        <v>6</v>
+      </c>
+      <c r="B2065">
+        <v>3</v>
+      </c>
+      <c r="C2065">
+        <v>6</v>
+      </c>
+      <c r="D2065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2066">
+        <v>4</v>
+      </c>
+      <c r="B2066">
+        <v>3</v>
+      </c>
+      <c r="C2066">
+        <v>4</v>
+      </c>
+      <c r="D2066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2067">
+        <v>3</v>
+      </c>
+      <c r="B2067">
+        <v>3</v>
+      </c>
+      <c r="C2067">
+        <v>3</v>
+      </c>
+      <c r="D2067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2068">
+        <v>4</v>
+      </c>
+      <c r="B2068">
+        <v>2</v>
+      </c>
+      <c r="C2068">
+        <v>3</v>
+      </c>
+      <c r="D2068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2069">
+        <v>5</v>
+      </c>
+      <c r="B2069">
+        <v>0</v>
+      </c>
+      <c r="C2069">
+        <v>4</v>
+      </c>
+      <c r="D2069">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2070">
+        <v>4</v>
+      </c>
+      <c r="B2070">
+        <v>3</v>
+      </c>
+      <c r="C2070">
+        <v>3</v>
+      </c>
+      <c r="D2070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2071">
+        <v>5</v>
+      </c>
+      <c r="B2071">
+        <v>0</v>
+      </c>
+      <c r="C2071">
+        <v>4</v>
+      </c>
+      <c r="D2071">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2072">
+        <v>4</v>
+      </c>
+      <c r="B2072">
+        <v>0</v>
+      </c>
+      <c r="C2072">
+        <v>5</v>
+      </c>
+      <c r="D2072">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2073">
+        <v>5</v>
+      </c>
+      <c r="B2073">
+        <v>2</v>
+      </c>
+      <c r="C2073">
+        <v>3</v>
+      </c>
+      <c r="D2073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2074">
+        <v>3</v>
+      </c>
+      <c r="B2074">
+        <v>1</v>
+      </c>
+      <c r="C2074">
+        <v>3</v>
+      </c>
+      <c r="D2074">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2075">
+        <v>4</v>
+      </c>
+      <c r="B2075">
+        <v>0</v>
+      </c>
+      <c r="C2075">
+        <v>5</v>
+      </c>
+      <c r="D2075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2076">
+        <v>6</v>
+      </c>
+      <c r="B2076">
+        <v>0</v>
+      </c>
+      <c r="C2076">
+        <v>7</v>
+      </c>
+      <c r="D2076">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2077">
+        <v>5</v>
+      </c>
+      <c r="B2077">
+        <v>2</v>
+      </c>
+      <c r="C2077">
+        <v>4</v>
+      </c>
+      <c r="D2077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2078">
+        <v>5</v>
+      </c>
+      <c r="B2078">
+        <v>0</v>
+      </c>
+      <c r="C2078">
+        <v>4</v>
+      </c>
+      <c r="D2078">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46818D-C58A-48C2-BADA-2BDCE22E9829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA77EBE-2179-45E1-9174-39D37E2D3CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2078"/>
+  <dimension ref="A1:D2096"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2062" workbookViewId="0">
-      <selection activeCell="A2079" sqref="A2079"/>
+    <sheetView tabSelected="1" topLeftCell="A2080" workbookViewId="0">
+      <selection activeCell="A2097" sqref="A2097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29467,6 +29467,258 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2079">
+        <v>3</v>
+      </c>
+      <c r="B2079">
+        <v>2</v>
+      </c>
+      <c r="C2079">
+        <v>3</v>
+      </c>
+      <c r="D2079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2080">
+        <v>5</v>
+      </c>
+      <c r="B2080">
+        <v>2</v>
+      </c>
+      <c r="C2080">
+        <v>5</v>
+      </c>
+      <c r="D2080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2081">
+        <v>3</v>
+      </c>
+      <c r="B2081">
+        <v>0</v>
+      </c>
+      <c r="C2081">
+        <v>3</v>
+      </c>
+      <c r="D2081">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2082">
+        <v>6</v>
+      </c>
+      <c r="B2082">
+        <v>2</v>
+      </c>
+      <c r="C2082">
+        <v>5</v>
+      </c>
+      <c r="D2082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2083">
+        <v>5</v>
+      </c>
+      <c r="B2083">
+        <v>2</v>
+      </c>
+      <c r="C2083">
+        <v>5</v>
+      </c>
+      <c r="D2083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2084">
+        <v>4</v>
+      </c>
+      <c r="B2084">
+        <v>3</v>
+      </c>
+      <c r="C2084">
+        <v>3</v>
+      </c>
+      <c r="D2084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2085">
+        <v>4</v>
+      </c>
+      <c r="B2085">
+        <v>2</v>
+      </c>
+      <c r="C2085">
+        <v>5</v>
+      </c>
+      <c r="D2085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2086">
+        <v>4</v>
+      </c>
+      <c r="B2086">
+        <v>2</v>
+      </c>
+      <c r="C2086">
+        <v>4</v>
+      </c>
+      <c r="D2086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2087">
+        <v>6</v>
+      </c>
+      <c r="B2087">
+        <v>2</v>
+      </c>
+      <c r="C2087">
+        <v>5</v>
+      </c>
+      <c r="D2087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2088">
+        <v>5</v>
+      </c>
+      <c r="B2088">
+        <v>3</v>
+      </c>
+      <c r="C2088">
+        <v>2</v>
+      </c>
+      <c r="D2088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2089">
+        <v>5</v>
+      </c>
+      <c r="B2089">
+        <v>2</v>
+      </c>
+      <c r="C2089">
+        <v>5</v>
+      </c>
+      <c r="D2089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2090">
+        <v>4</v>
+      </c>
+      <c r="B2090">
+        <v>3</v>
+      </c>
+      <c r="C2090">
+        <v>4</v>
+      </c>
+      <c r="D2090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2091">
+        <v>2</v>
+      </c>
+      <c r="B2091">
+        <v>2</v>
+      </c>
+      <c r="C2091">
+        <v>5</v>
+      </c>
+      <c r="D2091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2092">
+        <v>5</v>
+      </c>
+      <c r="B2092">
+        <v>2</v>
+      </c>
+      <c r="C2092">
+        <v>4</v>
+      </c>
+      <c r="D2092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2093">
+        <v>4</v>
+      </c>
+      <c r="B2093">
+        <v>2</v>
+      </c>
+      <c r="C2093">
+        <v>3</v>
+      </c>
+      <c r="D2093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2094">
+        <v>6</v>
+      </c>
+      <c r="B2094">
+        <v>2</v>
+      </c>
+      <c r="C2094">
+        <v>6</v>
+      </c>
+      <c r="D2094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2095">
+        <v>4</v>
+      </c>
+      <c r="B2095">
+        <v>2</v>
+      </c>
+      <c r="C2095">
+        <v>4</v>
+      </c>
+      <c r="D2095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2096">
+        <v>6</v>
+      </c>
+      <c r="B2096">
+        <v>2</v>
+      </c>
+      <c r="C2096">
+        <v>7</v>
+      </c>
+      <c r="D2096">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA77EBE-2179-45E1-9174-39D37E2D3CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B981DD-6167-4E38-9416-713C2A2FC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2096"/>
+  <dimension ref="A1:D2116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2080" workbookViewId="0">
-      <selection activeCell="A2097" sqref="A2097"/>
+    <sheetView tabSelected="1" topLeftCell="A2101" workbookViewId="0">
+      <selection activeCell="A2117" sqref="A2117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29719,6 +29719,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2097">
+        <v>5</v>
+      </c>
+      <c r="B2097">
+        <v>3</v>
+      </c>
+      <c r="C2097">
+        <v>5</v>
+      </c>
+      <c r="D2097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2098">
+        <v>3</v>
+      </c>
+      <c r="B2098">
+        <v>2</v>
+      </c>
+      <c r="C2098">
+        <v>4</v>
+      </c>
+      <c r="D2098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2099">
+        <v>5</v>
+      </c>
+      <c r="B2099">
+        <v>2</v>
+      </c>
+      <c r="C2099">
+        <v>4</v>
+      </c>
+      <c r="D2099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2100">
+        <v>3</v>
+      </c>
+      <c r="B2100">
+        <v>2</v>
+      </c>
+      <c r="C2100">
+        <v>4</v>
+      </c>
+      <c r="D2100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2101">
+        <v>7</v>
+      </c>
+      <c r="B2101">
+        <v>0</v>
+      </c>
+      <c r="C2101">
+        <v>6</v>
+      </c>
+      <c r="D2101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2102">
+        <v>3</v>
+      </c>
+      <c r="B2102">
+        <v>2</v>
+      </c>
+      <c r="C2102">
+        <v>3</v>
+      </c>
+      <c r="D2102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2103">
+        <v>7</v>
+      </c>
+      <c r="B2103">
+        <v>3</v>
+      </c>
+      <c r="C2103">
+        <v>4</v>
+      </c>
+      <c r="D2103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2104">
+        <v>6</v>
+      </c>
+      <c r="B2104">
+        <v>2</v>
+      </c>
+      <c r="C2104">
+        <v>6</v>
+      </c>
+      <c r="D2104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2105">
+        <v>5</v>
+      </c>
+      <c r="B2105">
+        <v>0</v>
+      </c>
+      <c r="C2105">
+        <v>5</v>
+      </c>
+      <c r="D2105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2106">
+        <v>2</v>
+      </c>
+      <c r="B2106">
+        <v>0</v>
+      </c>
+      <c r="C2106">
+        <v>5</v>
+      </c>
+      <c r="D2106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2107">
+        <v>3</v>
+      </c>
+      <c r="B2107">
+        <v>2</v>
+      </c>
+      <c r="C2107">
+        <v>2</v>
+      </c>
+      <c r="D2107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2108">
+        <v>6</v>
+      </c>
+      <c r="B2108">
+        <v>2</v>
+      </c>
+      <c r="C2108">
+        <v>6</v>
+      </c>
+      <c r="D2108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2109">
+        <v>5</v>
+      </c>
+      <c r="B2109">
+        <v>2</v>
+      </c>
+      <c r="C2109">
+        <v>6</v>
+      </c>
+      <c r="D2109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2110">
+        <v>5</v>
+      </c>
+      <c r="B2110">
+        <v>0</v>
+      </c>
+      <c r="C2110">
+        <v>4</v>
+      </c>
+      <c r="D2110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2111">
+        <v>3</v>
+      </c>
+      <c r="B2111">
+        <v>3</v>
+      </c>
+      <c r="C2111">
+        <v>4</v>
+      </c>
+      <c r="D2111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2112">
+        <v>5</v>
+      </c>
+      <c r="B2112">
+        <v>1</v>
+      </c>
+      <c r="C2112">
+        <v>7</v>
+      </c>
+      <c r="D2112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2113">
+        <v>4</v>
+      </c>
+      <c r="B2113">
+        <v>3</v>
+      </c>
+      <c r="C2113">
+        <v>5</v>
+      </c>
+      <c r="D2113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2114">
+        <v>5</v>
+      </c>
+      <c r="B2114">
+        <v>1</v>
+      </c>
+      <c r="C2114">
+        <v>4</v>
+      </c>
+      <c r="D2114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2115">
+        <v>4</v>
+      </c>
+      <c r="B2115">
+        <v>0</v>
+      </c>
+      <c r="C2115">
+        <v>3</v>
+      </c>
+      <c r="D2115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2116">
+        <v>5</v>
+      </c>
+      <c r="B2116">
+        <v>2</v>
+      </c>
+      <c r="C2116">
+        <v>4</v>
+      </c>
+      <c r="D2116">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B981DD-6167-4E38-9416-713C2A2FC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9EBE2-53D1-4517-A434-83EACF400C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2116"/>
+  <dimension ref="A1:D2155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2101" workbookViewId="0">
-      <selection activeCell="A2117" sqref="A2117"/>
+    <sheetView tabSelected="1" topLeftCell="A2134" workbookViewId="0">
+      <selection activeCell="A2156" sqref="A2156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29999,6 +29999,552 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2117">
+        <v>4</v>
+      </c>
+      <c r="B2117">
+        <v>3</v>
+      </c>
+      <c r="C2117">
+        <v>3</v>
+      </c>
+      <c r="D2117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2118">
+        <v>3</v>
+      </c>
+      <c r="B2118">
+        <v>0</v>
+      </c>
+      <c r="C2118">
+        <v>3</v>
+      </c>
+      <c r="D2118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2119">
+        <v>5</v>
+      </c>
+      <c r="B2119">
+        <v>2</v>
+      </c>
+      <c r="C2119">
+        <v>5</v>
+      </c>
+      <c r="D2119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2120">
+        <v>6</v>
+      </c>
+      <c r="B2120">
+        <v>2</v>
+      </c>
+      <c r="C2120">
+        <v>5</v>
+      </c>
+      <c r="D2120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2121">
+        <v>3</v>
+      </c>
+      <c r="B2121">
+        <v>1</v>
+      </c>
+      <c r="C2121">
+        <v>3</v>
+      </c>
+      <c r="D2121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2122">
+        <v>3</v>
+      </c>
+      <c r="B2122">
+        <v>0</v>
+      </c>
+      <c r="C2122">
+        <v>4</v>
+      </c>
+      <c r="D2122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2123">
+        <v>3</v>
+      </c>
+      <c r="B2123">
+        <v>0</v>
+      </c>
+      <c r="C2123">
+        <v>3</v>
+      </c>
+      <c r="D2123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2124">
+        <v>4</v>
+      </c>
+      <c r="B2124">
+        <v>0</v>
+      </c>
+      <c r="C2124">
+        <v>4</v>
+      </c>
+      <c r="D2124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2125">
+        <v>6</v>
+      </c>
+      <c r="B2125">
+        <v>2</v>
+      </c>
+      <c r="C2125">
+        <v>5</v>
+      </c>
+      <c r="D2125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2126">
+        <v>7</v>
+      </c>
+      <c r="B2126">
+        <v>0</v>
+      </c>
+      <c r="C2126">
+        <v>6</v>
+      </c>
+      <c r="D2126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2127">
+        <v>4</v>
+      </c>
+      <c r="B2127">
+        <v>0</v>
+      </c>
+      <c r="C2127">
+        <v>3</v>
+      </c>
+      <c r="D2127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2128">
+        <v>5</v>
+      </c>
+      <c r="B2128">
+        <v>2</v>
+      </c>
+      <c r="C2128">
+        <v>5</v>
+      </c>
+      <c r="D2128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2129">
+        <v>5</v>
+      </c>
+      <c r="B2129">
+        <v>2</v>
+      </c>
+      <c r="C2129">
+        <v>3</v>
+      </c>
+      <c r="D2129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2130">
+        <v>6</v>
+      </c>
+      <c r="B2130">
+        <v>0</v>
+      </c>
+      <c r="C2130">
+        <v>7</v>
+      </c>
+      <c r="D2130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2131">
+        <v>4</v>
+      </c>
+      <c r="B2131">
+        <v>2</v>
+      </c>
+      <c r="C2131">
+        <v>5</v>
+      </c>
+      <c r="D2131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2132">
+        <v>3</v>
+      </c>
+      <c r="B2132">
+        <v>1</v>
+      </c>
+      <c r="C2132">
+        <v>4</v>
+      </c>
+      <c r="D2132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2133">
+        <v>6</v>
+      </c>
+      <c r="B2133">
+        <v>2</v>
+      </c>
+      <c r="C2133">
+        <v>4</v>
+      </c>
+      <c r="D2133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2134">
+        <v>7</v>
+      </c>
+      <c r="B2134">
+        <v>3</v>
+      </c>
+      <c r="C2134">
+        <v>5</v>
+      </c>
+      <c r="D2134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2135">
+        <v>3</v>
+      </c>
+      <c r="B2135">
+        <v>1</v>
+      </c>
+      <c r="C2135">
+        <v>4</v>
+      </c>
+      <c r="D2135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2136">
+        <v>5</v>
+      </c>
+      <c r="B2136">
+        <v>1</v>
+      </c>
+      <c r="C2136">
+        <v>5</v>
+      </c>
+      <c r="D2136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2137">
+        <v>4</v>
+      </c>
+      <c r="B2137">
+        <v>3</v>
+      </c>
+      <c r="C2137">
+        <v>3</v>
+      </c>
+      <c r="D2137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2138">
+        <v>6</v>
+      </c>
+      <c r="B2138">
+        <v>2</v>
+      </c>
+      <c r="C2138">
+        <v>5</v>
+      </c>
+      <c r="D2138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2139">
+        <v>3</v>
+      </c>
+      <c r="B2139">
+        <v>0</v>
+      </c>
+      <c r="C2139">
+        <v>3</v>
+      </c>
+      <c r="D2139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2140">
+        <v>4</v>
+      </c>
+      <c r="B2140">
+        <v>1</v>
+      </c>
+      <c r="C2140">
+        <v>3</v>
+      </c>
+      <c r="D2140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2141">
+        <v>3</v>
+      </c>
+      <c r="B2141">
+        <v>1</v>
+      </c>
+      <c r="C2141">
+        <v>3</v>
+      </c>
+      <c r="D2141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2142">
+        <v>5</v>
+      </c>
+      <c r="B2142">
+        <v>2</v>
+      </c>
+      <c r="C2142">
+        <v>5</v>
+      </c>
+      <c r="D2142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2143">
+        <v>4</v>
+      </c>
+      <c r="B2143">
+        <v>2</v>
+      </c>
+      <c r="C2143">
+        <v>5</v>
+      </c>
+      <c r="D2143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2144">
+        <v>4</v>
+      </c>
+      <c r="B2144">
+        <v>1</v>
+      </c>
+      <c r="C2144">
+        <v>2</v>
+      </c>
+      <c r="D2144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2145">
+        <v>7</v>
+      </c>
+      <c r="B2145">
+        <v>0</v>
+      </c>
+      <c r="C2145">
+        <v>6</v>
+      </c>
+      <c r="D2145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2146">
+        <v>4</v>
+      </c>
+      <c r="B2146">
+        <v>0</v>
+      </c>
+      <c r="C2146">
+        <v>3</v>
+      </c>
+      <c r="D2146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2147">
+        <v>5</v>
+      </c>
+      <c r="B2147">
+        <v>2</v>
+      </c>
+      <c r="C2147">
+        <v>3</v>
+      </c>
+      <c r="D2147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2148">
+        <v>5</v>
+      </c>
+      <c r="B2148">
+        <v>0</v>
+      </c>
+      <c r="C2148">
+        <v>6</v>
+      </c>
+      <c r="D2148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2149">
+        <v>4</v>
+      </c>
+      <c r="B2149">
+        <v>2</v>
+      </c>
+      <c r="C2149">
+        <v>7</v>
+      </c>
+      <c r="D2149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2150">
+        <v>5</v>
+      </c>
+      <c r="B2150">
+        <v>3</v>
+      </c>
+      <c r="C2150">
+        <v>4</v>
+      </c>
+      <c r="D2150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2151">
+        <v>6</v>
+      </c>
+      <c r="B2151">
+        <v>0</v>
+      </c>
+      <c r="C2151">
+        <v>5</v>
+      </c>
+      <c r="D2151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2152">
+        <v>5</v>
+      </c>
+      <c r="B2152">
+        <v>0</v>
+      </c>
+      <c r="C2152">
+        <v>7</v>
+      </c>
+      <c r="D2152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2153">
+        <v>4</v>
+      </c>
+      <c r="B2153">
+        <v>2</v>
+      </c>
+      <c r="C2153">
+        <v>3</v>
+      </c>
+      <c r="D2153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2154">
+        <v>2</v>
+      </c>
+      <c r="B2154">
+        <v>1</v>
+      </c>
+      <c r="C2154">
+        <v>3</v>
+      </c>
+      <c r="D2154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2155">
+        <v>3</v>
+      </c>
+      <c r="B2155">
+        <v>0</v>
+      </c>
+      <c r="C2155">
+        <v>3</v>
+      </c>
+      <c r="D2155">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9EBE2-53D1-4517-A434-83EACF400C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9C359-2B54-4CDA-B477-C37025065CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2155"/>
+  <dimension ref="A1:D2175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2134" workbookViewId="0">
-      <selection activeCell="A2156" sqref="A2156"/>
+    <sheetView tabSelected="1" topLeftCell="A2152" workbookViewId="0">
+      <selection activeCell="A2176" sqref="A2176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30545,6 +30545,286 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2156">
+        <v>3</v>
+      </c>
+      <c r="B2156">
+        <v>1</v>
+      </c>
+      <c r="C2156">
+        <v>3</v>
+      </c>
+      <c r="D2156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2157">
+        <v>4</v>
+      </c>
+      <c r="B2157">
+        <v>1</v>
+      </c>
+      <c r="C2157">
+        <v>3</v>
+      </c>
+      <c r="D2157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2158">
+        <v>5</v>
+      </c>
+      <c r="B2158">
+        <v>0</v>
+      </c>
+      <c r="C2158">
+        <v>6</v>
+      </c>
+      <c r="D2158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2159">
+        <v>5</v>
+      </c>
+      <c r="B2159">
+        <v>2</v>
+      </c>
+      <c r="C2159">
+        <v>3</v>
+      </c>
+      <c r="D2159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2160">
+        <v>6</v>
+      </c>
+      <c r="B2160">
+        <v>0</v>
+      </c>
+      <c r="C2160">
+        <v>7</v>
+      </c>
+      <c r="D2160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2161">
+        <v>4</v>
+      </c>
+      <c r="B2161">
+        <v>2</v>
+      </c>
+      <c r="C2161">
+        <v>5</v>
+      </c>
+      <c r="D2161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2162">
+        <v>6</v>
+      </c>
+      <c r="B2162">
+        <v>2</v>
+      </c>
+      <c r="C2162">
+        <v>4</v>
+      </c>
+      <c r="D2162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2163">
+        <v>3</v>
+      </c>
+      <c r="B2163">
+        <v>0</v>
+      </c>
+      <c r="C2163">
+        <v>4</v>
+      </c>
+      <c r="D2163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2164">
+        <v>6</v>
+      </c>
+      <c r="B2164">
+        <v>0</v>
+      </c>
+      <c r="C2164">
+        <v>4</v>
+      </c>
+      <c r="D2164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2165">
+        <v>4</v>
+      </c>
+      <c r="B2165">
+        <v>0</v>
+      </c>
+      <c r="C2165">
+        <v>4</v>
+      </c>
+      <c r="D2165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2166">
+        <v>5</v>
+      </c>
+      <c r="B2166">
+        <v>0</v>
+      </c>
+      <c r="C2166">
+        <v>6</v>
+      </c>
+      <c r="D2166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2167">
+        <v>3</v>
+      </c>
+      <c r="B2167">
+        <v>0</v>
+      </c>
+      <c r="C2167">
+        <v>7</v>
+      </c>
+      <c r="D2167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2168">
+        <v>5</v>
+      </c>
+      <c r="B2168">
+        <v>1</v>
+      </c>
+      <c r="C2168">
+        <v>5</v>
+      </c>
+      <c r="D2168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2169">
+        <v>7</v>
+      </c>
+      <c r="B2169">
+        <v>3</v>
+      </c>
+      <c r="C2169">
+        <v>3</v>
+      </c>
+      <c r="D2169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2170">
+        <v>3</v>
+      </c>
+      <c r="B2170">
+        <v>3</v>
+      </c>
+      <c r="C2170">
+        <v>2</v>
+      </c>
+      <c r="D2170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2171">
+        <v>5</v>
+      </c>
+      <c r="B2171">
+        <v>0</v>
+      </c>
+      <c r="C2171">
+        <v>5</v>
+      </c>
+      <c r="D2171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2172">
+        <v>4</v>
+      </c>
+      <c r="B2172">
+        <v>2</v>
+      </c>
+      <c r="C2172">
+        <v>4</v>
+      </c>
+      <c r="D2172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2173">
+        <v>6</v>
+      </c>
+      <c r="B2173">
+        <v>0</v>
+      </c>
+      <c r="C2173">
+        <v>5</v>
+      </c>
+      <c r="D2173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2174">
+        <v>3</v>
+      </c>
+      <c r="B2174">
+        <v>1</v>
+      </c>
+      <c r="C2174">
+        <v>3</v>
+      </c>
+      <c r="D2174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2175">
+        <v>4</v>
+      </c>
+      <c r="B2175">
+        <v>1</v>
+      </c>
+      <c r="C2175">
+        <v>6</v>
+      </c>
+      <c r="D2175">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9C359-2B54-4CDA-B477-C37025065CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE6C66-EDD9-48A4-8AE3-37AA9219D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2175"/>
+  <dimension ref="A1:D2200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2152" workbookViewId="0">
-      <selection activeCell="A2176" sqref="A2176"/>
+    <sheetView tabSelected="1" topLeftCell="A2173" workbookViewId="0">
+      <selection activeCell="A2201" sqref="A2201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30825,6 +30825,356 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2176">
+        <v>3</v>
+      </c>
+      <c r="B2176">
+        <v>0</v>
+      </c>
+      <c r="C2176">
+        <v>3</v>
+      </c>
+      <c r="D2176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2177">
+        <v>5</v>
+      </c>
+      <c r="B2177">
+        <v>2</v>
+      </c>
+      <c r="C2177">
+        <v>4</v>
+      </c>
+      <c r="D2177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2178">
+        <v>3</v>
+      </c>
+      <c r="B2178">
+        <v>1</v>
+      </c>
+      <c r="C2178">
+        <v>4</v>
+      </c>
+      <c r="D2178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2179">
+        <v>5</v>
+      </c>
+      <c r="B2179">
+        <v>1</v>
+      </c>
+      <c r="C2179">
+        <v>5</v>
+      </c>
+      <c r="D2179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2180">
+        <v>5</v>
+      </c>
+      <c r="B2180">
+        <v>0</v>
+      </c>
+      <c r="C2180">
+        <v>7</v>
+      </c>
+      <c r="D2180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2181">
+        <v>6</v>
+      </c>
+      <c r="B2181">
+        <v>0</v>
+      </c>
+      <c r="C2181">
+        <v>6</v>
+      </c>
+      <c r="D2181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2182">
+        <v>3</v>
+      </c>
+      <c r="B2182">
+        <v>2</v>
+      </c>
+      <c r="C2182">
+        <v>5</v>
+      </c>
+      <c r="D2182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2183">
+        <v>4</v>
+      </c>
+      <c r="B2183">
+        <v>3</v>
+      </c>
+      <c r="C2183">
+        <v>3</v>
+      </c>
+      <c r="D2183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2184">
+        <v>5</v>
+      </c>
+      <c r="B2184">
+        <v>2</v>
+      </c>
+      <c r="C2184">
+        <v>4</v>
+      </c>
+      <c r="D2184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2185">
+        <v>5</v>
+      </c>
+      <c r="B2185">
+        <v>3</v>
+      </c>
+      <c r="C2185">
+        <v>4</v>
+      </c>
+      <c r="D2185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2186">
+        <v>5</v>
+      </c>
+      <c r="B2186">
+        <v>0</v>
+      </c>
+      <c r="C2186">
+        <v>5</v>
+      </c>
+      <c r="D2186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2187">
+        <v>4</v>
+      </c>
+      <c r="B2187">
+        <v>3</v>
+      </c>
+      <c r="C2187">
+        <v>4</v>
+      </c>
+      <c r="D2187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2188">
+        <v>5</v>
+      </c>
+      <c r="B2188">
+        <v>2</v>
+      </c>
+      <c r="C2188">
+        <v>5</v>
+      </c>
+      <c r="D2188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2189">
+        <v>4</v>
+      </c>
+      <c r="B2189">
+        <v>1</v>
+      </c>
+      <c r="C2189">
+        <v>4</v>
+      </c>
+      <c r="D2189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2190">
+        <v>5</v>
+      </c>
+      <c r="B2190">
+        <v>3</v>
+      </c>
+      <c r="C2190">
+        <v>4</v>
+      </c>
+      <c r="D2190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2191">
+        <v>3</v>
+      </c>
+      <c r="B2191">
+        <v>2</v>
+      </c>
+      <c r="C2191">
+        <v>3</v>
+      </c>
+      <c r="D2191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2192">
+        <v>3</v>
+      </c>
+      <c r="B2192">
+        <v>2</v>
+      </c>
+      <c r="C2192">
+        <v>4</v>
+      </c>
+      <c r="D2192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2193">
+        <v>6</v>
+      </c>
+      <c r="B2193">
+        <v>0</v>
+      </c>
+      <c r="C2193">
+        <v>5</v>
+      </c>
+      <c r="D2193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2194">
+        <v>7</v>
+      </c>
+      <c r="B2194">
+        <v>2</v>
+      </c>
+      <c r="C2194">
+        <v>6</v>
+      </c>
+      <c r="D2194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2195">
+        <v>3</v>
+      </c>
+      <c r="B2195">
+        <v>0</v>
+      </c>
+      <c r="C2195">
+        <v>4</v>
+      </c>
+      <c r="D2195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2196">
+        <v>3</v>
+      </c>
+      <c r="B2196">
+        <v>2</v>
+      </c>
+      <c r="C2196">
+        <v>5</v>
+      </c>
+      <c r="D2196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2197">
+        <v>4</v>
+      </c>
+      <c r="B2197">
+        <v>0</v>
+      </c>
+      <c r="C2197">
+        <v>4</v>
+      </c>
+      <c r="D2197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2198">
+        <v>5</v>
+      </c>
+      <c r="B2198">
+        <v>2</v>
+      </c>
+      <c r="C2198">
+        <v>5</v>
+      </c>
+      <c r="D2198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2199">
+        <v>3</v>
+      </c>
+      <c r="B2199">
+        <v>3</v>
+      </c>
+      <c r="C2199">
+        <v>3</v>
+      </c>
+      <c r="D2199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2200">
+        <v>5</v>
+      </c>
+      <c r="B2200">
+        <v>3</v>
+      </c>
+      <c r="C2200">
+        <v>3</v>
+      </c>
+      <c r="D2200">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE6C66-EDD9-48A4-8AE3-37AA9219D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614634E8-E6F0-41C5-B3F7-E8FB79170DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2200"/>
+  <dimension ref="A1:D2225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2173" workbookViewId="0">
-      <selection activeCell="A2201" sqref="A2201"/>
+    <sheetView tabSelected="1" topLeftCell="A2200" workbookViewId="0">
+      <selection activeCell="A2226" sqref="A2226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31175,6 +31175,356 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2201">
+        <v>4</v>
+      </c>
+      <c r="B2201">
+        <v>0</v>
+      </c>
+      <c r="C2201">
+        <v>3</v>
+      </c>
+      <c r="D2201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2202">
+        <v>7</v>
+      </c>
+      <c r="B2202">
+        <v>0</v>
+      </c>
+      <c r="C2202">
+        <v>6</v>
+      </c>
+      <c r="D2202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2203">
+        <v>5</v>
+      </c>
+      <c r="B2203">
+        <v>0</v>
+      </c>
+      <c r="C2203">
+        <v>3</v>
+      </c>
+      <c r="D2203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2204">
+        <v>2</v>
+      </c>
+      <c r="B2204">
+        <v>1</v>
+      </c>
+      <c r="C2204">
+        <v>3</v>
+      </c>
+      <c r="D2204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2205">
+        <v>3</v>
+      </c>
+      <c r="B2205">
+        <v>2</v>
+      </c>
+      <c r="C2205">
+        <v>7</v>
+      </c>
+      <c r="D2205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2206">
+        <v>4</v>
+      </c>
+      <c r="B2206">
+        <v>2</v>
+      </c>
+      <c r="C2206">
+        <v>5</v>
+      </c>
+      <c r="D2206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2207">
+        <v>3</v>
+      </c>
+      <c r="B2207">
+        <v>3</v>
+      </c>
+      <c r="C2207">
+        <v>3</v>
+      </c>
+      <c r="D2207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2208">
+        <v>4</v>
+      </c>
+      <c r="B2208">
+        <v>0</v>
+      </c>
+      <c r="C2208">
+        <v>4</v>
+      </c>
+      <c r="D2208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2209">
+        <v>5</v>
+      </c>
+      <c r="B2209">
+        <v>0</v>
+      </c>
+      <c r="C2209">
+        <v>3</v>
+      </c>
+      <c r="D2209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2210">
+        <v>6</v>
+      </c>
+      <c r="B2210">
+        <v>2</v>
+      </c>
+      <c r="C2210">
+        <v>7</v>
+      </c>
+      <c r="D2210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2211">
+        <v>5</v>
+      </c>
+      <c r="B2211">
+        <v>1</v>
+      </c>
+      <c r="C2211">
+        <v>4</v>
+      </c>
+      <c r="D2211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2212">
+        <v>5</v>
+      </c>
+      <c r="B2212">
+        <v>2</v>
+      </c>
+      <c r="C2212">
+        <v>5</v>
+      </c>
+      <c r="D2212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2213">
+        <v>4</v>
+      </c>
+      <c r="B2213">
+        <v>2</v>
+      </c>
+      <c r="C2213">
+        <v>6</v>
+      </c>
+      <c r="D2213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2214">
+        <v>6</v>
+      </c>
+      <c r="B2214">
+        <v>0</v>
+      </c>
+      <c r="C2214">
+        <v>5</v>
+      </c>
+      <c r="D2214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2215">
+        <v>2</v>
+      </c>
+      <c r="B2215">
+        <v>0</v>
+      </c>
+      <c r="C2215">
+        <v>3</v>
+      </c>
+      <c r="D2215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2216">
+        <v>4</v>
+      </c>
+      <c r="B2216">
+        <v>0</v>
+      </c>
+      <c r="C2216">
+        <v>5</v>
+      </c>
+      <c r="D2216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2217">
+        <v>5</v>
+      </c>
+      <c r="B2217">
+        <v>2</v>
+      </c>
+      <c r="C2217">
+        <v>5</v>
+      </c>
+      <c r="D2217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2218">
+        <v>3</v>
+      </c>
+      <c r="B2218">
+        <v>2</v>
+      </c>
+      <c r="C2218">
+        <v>3</v>
+      </c>
+      <c r="D2218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2219">
+        <v>2</v>
+      </c>
+      <c r="B2219">
+        <v>2</v>
+      </c>
+      <c r="C2219">
+        <v>3</v>
+      </c>
+      <c r="D2219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2220">
+        <v>6</v>
+      </c>
+      <c r="B2220">
+        <v>0</v>
+      </c>
+      <c r="C2220">
+        <v>6</v>
+      </c>
+      <c r="D2220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2221">
+        <v>3</v>
+      </c>
+      <c r="B2221">
+        <v>0</v>
+      </c>
+      <c r="C2221">
+        <v>4</v>
+      </c>
+      <c r="D2221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2222">
+        <v>6</v>
+      </c>
+      <c r="B2222">
+        <v>3</v>
+      </c>
+      <c r="C2222">
+        <v>5</v>
+      </c>
+      <c r="D2222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2223">
+        <v>4</v>
+      </c>
+      <c r="B2223">
+        <v>2</v>
+      </c>
+      <c r="C2223">
+        <v>4</v>
+      </c>
+      <c r="D2223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2224">
+        <v>5</v>
+      </c>
+      <c r="B2224">
+        <v>0</v>
+      </c>
+      <c r="C2224">
+        <v>5</v>
+      </c>
+      <c r="D2224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2225">
+        <v>3</v>
+      </c>
+      <c r="B2225">
+        <v>2</v>
+      </c>
+      <c r="C2225">
+        <v>5</v>
+      </c>
+      <c r="D2225">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614634E8-E6F0-41C5-B3F7-E8FB79170DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D242BF5-5B36-4992-A3A2-95FACCFAC1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2225"/>
+  <dimension ref="A1:D2249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2200" workbookViewId="0">
-      <selection activeCell="A2226" sqref="A2226"/>
+    <sheetView tabSelected="1" topLeftCell="A2236" workbookViewId="0">
+      <selection activeCell="A2250" sqref="A2250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31525,6 +31525,342 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2226">
+        <v>3</v>
+      </c>
+      <c r="B2226">
+        <v>0</v>
+      </c>
+      <c r="C2226">
+        <v>3</v>
+      </c>
+      <c r="D2226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2227">
+        <v>5</v>
+      </c>
+      <c r="B2227">
+        <v>2</v>
+      </c>
+      <c r="C2227">
+        <v>5</v>
+      </c>
+      <c r="D2227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2228">
+        <v>6</v>
+      </c>
+      <c r="B2228">
+        <v>2</v>
+      </c>
+      <c r="C2228">
+        <v>5</v>
+      </c>
+      <c r="D2228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2229">
+        <v>5</v>
+      </c>
+      <c r="B2229">
+        <v>2</v>
+      </c>
+      <c r="C2229">
+        <v>4</v>
+      </c>
+      <c r="D2229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2230">
+        <v>3</v>
+      </c>
+      <c r="B2230">
+        <v>2</v>
+      </c>
+      <c r="C2230">
+        <v>4</v>
+      </c>
+      <c r="D2230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2231">
+        <v>4</v>
+      </c>
+      <c r="B2231">
+        <v>0</v>
+      </c>
+      <c r="C2231">
+        <v>6</v>
+      </c>
+      <c r="D2231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2232">
+        <v>3</v>
+      </c>
+      <c r="B2232">
+        <v>1</v>
+      </c>
+      <c r="C2232">
+        <v>3</v>
+      </c>
+      <c r="D2232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2233">
+        <v>4</v>
+      </c>
+      <c r="B2233">
+        <v>0</v>
+      </c>
+      <c r="C2233">
+        <v>4</v>
+      </c>
+      <c r="D2233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2234">
+        <v>5</v>
+      </c>
+      <c r="B2234">
+        <v>3</v>
+      </c>
+      <c r="C2234">
+        <v>7</v>
+      </c>
+      <c r="D2234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2235">
+        <v>4</v>
+      </c>
+      <c r="B2235">
+        <v>3</v>
+      </c>
+      <c r="C2235">
+        <v>3</v>
+      </c>
+      <c r="D2235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2236">
+        <v>4</v>
+      </c>
+      <c r="B2236">
+        <v>2</v>
+      </c>
+      <c r="C2236">
+        <v>4</v>
+      </c>
+      <c r="D2236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2237">
+        <v>3</v>
+      </c>
+      <c r="B2237">
+        <v>0</v>
+      </c>
+      <c r="C2237">
+        <v>3</v>
+      </c>
+      <c r="D2237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2238">
+        <v>5</v>
+      </c>
+      <c r="B2238">
+        <v>0</v>
+      </c>
+      <c r="C2238">
+        <v>6</v>
+      </c>
+      <c r="D2238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2239">
+        <v>3</v>
+      </c>
+      <c r="B2239">
+        <v>0</v>
+      </c>
+      <c r="C2239">
+        <v>3</v>
+      </c>
+      <c r="D2239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2240">
+        <v>5</v>
+      </c>
+      <c r="B2240">
+        <v>2</v>
+      </c>
+      <c r="C2240">
+        <v>7</v>
+      </c>
+      <c r="D2240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2241">
+        <v>5</v>
+      </c>
+      <c r="B2241">
+        <v>1</v>
+      </c>
+      <c r="C2241">
+        <v>4</v>
+      </c>
+      <c r="D2241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2242">
+        <v>4</v>
+      </c>
+      <c r="B2242">
+        <v>0</v>
+      </c>
+      <c r="C2242">
+        <v>7</v>
+      </c>
+      <c r="D2242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2243">
+        <v>6</v>
+      </c>
+      <c r="B2243">
+        <v>0</v>
+      </c>
+      <c r="C2243">
+        <v>5</v>
+      </c>
+      <c r="D2243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2244">
+        <v>4</v>
+      </c>
+      <c r="B2244">
+        <v>2</v>
+      </c>
+      <c r="C2244">
+        <v>2</v>
+      </c>
+      <c r="D2244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2245">
+        <v>4</v>
+      </c>
+      <c r="B2245">
+        <v>0</v>
+      </c>
+      <c r="C2245">
+        <v>4</v>
+      </c>
+      <c r="D2245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2246">
+        <v>2</v>
+      </c>
+      <c r="B2246">
+        <v>1</v>
+      </c>
+      <c r="C2246">
+        <v>2</v>
+      </c>
+      <c r="D2246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2247">
+        <v>6</v>
+      </c>
+      <c r="B2247">
+        <v>2</v>
+      </c>
+      <c r="C2247">
+        <v>5</v>
+      </c>
+      <c r="D2247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2248">
+        <v>6</v>
+      </c>
+      <c r="B2248">
+        <v>1</v>
+      </c>
+      <c r="C2248">
+        <v>7</v>
+      </c>
+      <c r="D2248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2249">
+        <v>3</v>
+      </c>
+      <c r="B2249">
+        <v>3</v>
+      </c>
+      <c r="C2249">
+        <v>3</v>
+      </c>
+      <c r="D2249">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D242BF5-5B36-4992-A3A2-95FACCFAC1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59CDF2-E058-4E12-BFA6-8D6CC80BBD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2249"/>
+  <dimension ref="A1:D2274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2236" workbookViewId="0">
-      <selection activeCell="A2250" sqref="A2250"/>
+    <sheetView tabSelected="1" topLeftCell="A2248" workbookViewId="0">
+      <selection activeCell="A2275" sqref="A2275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31861,6 +31861,356 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2250">
+        <v>3</v>
+      </c>
+      <c r="B2250">
+        <v>0</v>
+      </c>
+      <c r="C2250">
+        <v>3</v>
+      </c>
+      <c r="D2250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2251">
+        <v>5</v>
+      </c>
+      <c r="B2251">
+        <v>0</v>
+      </c>
+      <c r="C2251">
+        <v>7</v>
+      </c>
+      <c r="D2251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2252">
+        <v>5</v>
+      </c>
+      <c r="B2252">
+        <v>3</v>
+      </c>
+      <c r="C2252">
+        <v>3</v>
+      </c>
+      <c r="D2252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2253">
+        <v>6</v>
+      </c>
+      <c r="B2253">
+        <v>0</v>
+      </c>
+      <c r="C2253">
+        <v>4</v>
+      </c>
+      <c r="D2253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2254">
+        <v>2</v>
+      </c>
+      <c r="B2254">
+        <v>0</v>
+      </c>
+      <c r="C2254">
+        <v>5</v>
+      </c>
+      <c r="D2254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2255">
+        <v>3</v>
+      </c>
+      <c r="B2255">
+        <v>0</v>
+      </c>
+      <c r="C2255">
+        <v>3</v>
+      </c>
+      <c r="D2255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2256">
+        <v>5</v>
+      </c>
+      <c r="B2256">
+        <v>1</v>
+      </c>
+      <c r="C2256">
+        <v>5</v>
+      </c>
+      <c r="D2256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2257">
+        <v>3</v>
+      </c>
+      <c r="B2257">
+        <v>1</v>
+      </c>
+      <c r="C2257">
+        <v>4</v>
+      </c>
+      <c r="D2257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2258">
+        <v>5</v>
+      </c>
+      <c r="B2258">
+        <v>3</v>
+      </c>
+      <c r="C2258">
+        <v>4</v>
+      </c>
+      <c r="D2258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2259">
+        <v>6</v>
+      </c>
+      <c r="B2259">
+        <v>1</v>
+      </c>
+      <c r="C2259">
+        <v>6</v>
+      </c>
+      <c r="D2259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2260">
+        <v>4</v>
+      </c>
+      <c r="B2260">
+        <v>0</v>
+      </c>
+      <c r="C2260">
+        <v>5</v>
+      </c>
+      <c r="D2260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2261">
+        <v>3</v>
+      </c>
+      <c r="B2261">
+        <v>0</v>
+      </c>
+      <c r="C2261">
+        <v>3</v>
+      </c>
+      <c r="D2261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2262">
+        <v>5</v>
+      </c>
+      <c r="B2262">
+        <v>2</v>
+      </c>
+      <c r="C2262">
+        <v>6</v>
+      </c>
+      <c r="D2262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2263">
+        <v>6</v>
+      </c>
+      <c r="B2263">
+        <v>0</v>
+      </c>
+      <c r="C2263">
+        <v>5</v>
+      </c>
+      <c r="D2263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2264">
+        <v>2</v>
+      </c>
+      <c r="B2264">
+        <v>0</v>
+      </c>
+      <c r="C2264">
+        <v>3</v>
+      </c>
+      <c r="D2264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2265">
+        <v>3</v>
+      </c>
+      <c r="B2265">
+        <v>0</v>
+      </c>
+      <c r="C2265">
+        <v>5</v>
+      </c>
+      <c r="D2265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2266">
+        <v>6</v>
+      </c>
+      <c r="B2266">
+        <v>3</v>
+      </c>
+      <c r="C2266">
+        <v>5</v>
+      </c>
+      <c r="D2266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2267">
+        <v>3</v>
+      </c>
+      <c r="B2267">
+        <v>1</v>
+      </c>
+      <c r="C2267">
+        <v>4</v>
+      </c>
+      <c r="D2267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2268">
+        <v>3</v>
+      </c>
+      <c r="B2268">
+        <v>0</v>
+      </c>
+      <c r="C2268">
+        <v>4</v>
+      </c>
+      <c r="D2268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2269">
+        <v>6</v>
+      </c>
+      <c r="B2269">
+        <v>0</v>
+      </c>
+      <c r="C2269">
+        <v>5</v>
+      </c>
+      <c r="D2269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2270">
+        <v>3</v>
+      </c>
+      <c r="B2270">
+        <v>1</v>
+      </c>
+      <c r="C2270">
+        <v>2</v>
+      </c>
+      <c r="D2270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2271">
+        <v>5</v>
+      </c>
+      <c r="B2271">
+        <v>2</v>
+      </c>
+      <c r="C2271">
+        <v>6</v>
+      </c>
+      <c r="D2271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2272">
+        <v>3</v>
+      </c>
+      <c r="B2272">
+        <v>1</v>
+      </c>
+      <c r="C2272">
+        <v>4</v>
+      </c>
+      <c r="D2272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2273">
+        <v>7</v>
+      </c>
+      <c r="B2273">
+        <v>1</v>
+      </c>
+      <c r="C2273">
+        <v>6</v>
+      </c>
+      <c r="D2273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2274">
+        <v>5</v>
+      </c>
+      <c r="B2274">
+        <v>2</v>
+      </c>
+      <c r="C2274">
+        <v>4</v>
+      </c>
+      <c r="D2274">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59CDF2-E058-4E12-BFA6-8D6CC80BBD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABFE660-AC89-4D8C-97B4-1FE6A6DA4BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2274"/>
+  <dimension ref="A1:D2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2248" workbookViewId="0">
-      <selection activeCell="A2275" sqref="A2275"/>
+    <sheetView tabSelected="1" topLeftCell="A2269" workbookViewId="0">
+      <selection activeCell="A2295" sqref="A2295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32211,6 +32211,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2275">
+        <v>7</v>
+      </c>
+      <c r="B2275">
+        <v>0</v>
+      </c>
+      <c r="C2275">
+        <v>4</v>
+      </c>
+      <c r="D2275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2276">
+        <v>6</v>
+      </c>
+      <c r="B2276">
+        <v>2</v>
+      </c>
+      <c r="C2276">
+        <v>5</v>
+      </c>
+      <c r="D2276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2277">
+        <v>3</v>
+      </c>
+      <c r="B2277">
+        <v>2</v>
+      </c>
+      <c r="C2277">
+        <v>3</v>
+      </c>
+      <c r="D2277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2278">
+        <v>4</v>
+      </c>
+      <c r="B2278">
+        <v>2</v>
+      </c>
+      <c r="C2278">
+        <v>5</v>
+      </c>
+      <c r="D2278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2279">
+        <v>3</v>
+      </c>
+      <c r="B2279">
+        <v>0</v>
+      </c>
+      <c r="C2279">
+        <v>2</v>
+      </c>
+      <c r="D2279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2280">
+        <v>4</v>
+      </c>
+      <c r="B2280">
+        <v>0</v>
+      </c>
+      <c r="C2280">
+        <v>4</v>
+      </c>
+      <c r="D2280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2281">
+        <v>4</v>
+      </c>
+      <c r="B2281">
+        <v>2</v>
+      </c>
+      <c r="C2281">
+        <v>4</v>
+      </c>
+      <c r="D2281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2282">
+        <v>5</v>
+      </c>
+      <c r="B2282">
+        <v>0</v>
+      </c>
+      <c r="C2282">
+        <v>5</v>
+      </c>
+      <c r="D2282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2283">
+        <v>4</v>
+      </c>
+      <c r="B2283">
+        <v>0</v>
+      </c>
+      <c r="C2283">
+        <v>6</v>
+      </c>
+      <c r="D2283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2284">
+        <v>5</v>
+      </c>
+      <c r="B2284">
+        <v>2</v>
+      </c>
+      <c r="C2284">
+        <v>4</v>
+      </c>
+      <c r="D2284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2285">
+        <v>4</v>
+      </c>
+      <c r="B2285">
+        <v>0</v>
+      </c>
+      <c r="C2285">
+        <v>3</v>
+      </c>
+      <c r="D2285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2286">
+        <v>5</v>
+      </c>
+      <c r="B2286">
+        <v>2</v>
+      </c>
+      <c r="C2286">
+        <v>5</v>
+      </c>
+      <c r="D2286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2287">
+        <v>3</v>
+      </c>
+      <c r="B2287">
+        <v>2</v>
+      </c>
+      <c r="C2287">
+        <v>3</v>
+      </c>
+      <c r="D2287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2288">
+        <v>4</v>
+      </c>
+      <c r="B2288">
+        <v>2</v>
+      </c>
+      <c r="C2288">
+        <v>3</v>
+      </c>
+      <c r="D2288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2289">
+        <v>5</v>
+      </c>
+      <c r="B2289">
+        <v>2</v>
+      </c>
+      <c r="C2289">
+        <v>5</v>
+      </c>
+      <c r="D2289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2290">
+        <v>3</v>
+      </c>
+      <c r="B2290">
+        <v>2</v>
+      </c>
+      <c r="C2290">
+        <v>3</v>
+      </c>
+      <c r="D2290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2291">
+        <v>4</v>
+      </c>
+      <c r="B2291">
+        <v>3</v>
+      </c>
+      <c r="C2291">
+        <v>4</v>
+      </c>
+      <c r="D2291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2292">
+        <v>5</v>
+      </c>
+      <c r="B2292">
+        <v>2</v>
+      </c>
+      <c r="C2292">
+        <v>4</v>
+      </c>
+      <c r="D2292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2293">
+        <v>7</v>
+      </c>
+      <c r="B2293">
+        <v>2</v>
+      </c>
+      <c r="C2293">
+        <v>6</v>
+      </c>
+      <c r="D2293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2294">
+        <v>3</v>
+      </c>
+      <c r="B2294">
+        <v>2</v>
+      </c>
+      <c r="C2294">
+        <v>2</v>
+      </c>
+      <c r="D2294">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABFE660-AC89-4D8C-97B4-1FE6A6DA4BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0054FE08-99DD-46C9-BA3E-EAA71C8A0663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2294"/>
+  <dimension ref="A1:D2317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2269" workbookViewId="0">
-      <selection activeCell="A2295" sqref="A2295"/>
+    <sheetView tabSelected="1" topLeftCell="A2305" workbookViewId="0">
+      <selection activeCell="A2318" sqref="A2318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32491,6 +32491,328 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2295">
+        <v>4</v>
+      </c>
+      <c r="B2295">
+        <v>1</v>
+      </c>
+      <c r="C2295">
+        <v>4</v>
+      </c>
+      <c r="D2295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2296">
+        <v>5</v>
+      </c>
+      <c r="B2296">
+        <v>2</v>
+      </c>
+      <c r="C2296">
+        <v>5</v>
+      </c>
+      <c r="D2296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2297">
+        <v>5</v>
+      </c>
+      <c r="B2297">
+        <v>2</v>
+      </c>
+      <c r="C2297">
+        <v>5</v>
+      </c>
+      <c r="D2297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2298">
+        <v>3</v>
+      </c>
+      <c r="B2298">
+        <v>2</v>
+      </c>
+      <c r="C2298">
+        <v>6</v>
+      </c>
+      <c r="D2298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2299">
+        <v>4</v>
+      </c>
+      <c r="B2299">
+        <v>1</v>
+      </c>
+      <c r="C2299">
+        <v>4</v>
+      </c>
+      <c r="D2299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2300">
+        <v>5</v>
+      </c>
+      <c r="B2300">
+        <v>1</v>
+      </c>
+      <c r="C2300">
+        <v>4</v>
+      </c>
+      <c r="D2300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2301">
+        <v>4</v>
+      </c>
+      <c r="B2301">
+        <v>0</v>
+      </c>
+      <c r="C2301">
+        <v>5</v>
+      </c>
+      <c r="D2301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2302">
+        <v>4</v>
+      </c>
+      <c r="B2302">
+        <v>0</v>
+      </c>
+      <c r="C2302">
+        <v>5</v>
+      </c>
+      <c r="D2302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2303">
+        <v>5</v>
+      </c>
+      <c r="B2303">
+        <v>2</v>
+      </c>
+      <c r="C2303">
+        <v>3</v>
+      </c>
+      <c r="D2303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2304">
+        <v>6</v>
+      </c>
+      <c r="B2304">
+        <v>0</v>
+      </c>
+      <c r="C2304">
+        <v>6</v>
+      </c>
+      <c r="D2304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2305">
+        <v>3</v>
+      </c>
+      <c r="B2305">
+        <v>1</v>
+      </c>
+      <c r="C2305">
+        <v>3</v>
+      </c>
+      <c r="D2305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2306">
+        <v>4</v>
+      </c>
+      <c r="B2306">
+        <v>3</v>
+      </c>
+      <c r="C2306">
+        <v>3</v>
+      </c>
+      <c r="D2306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2307">
+        <v>7</v>
+      </c>
+      <c r="B2307">
+        <v>0</v>
+      </c>
+      <c r="C2307">
+        <v>5</v>
+      </c>
+      <c r="D2307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2308">
+        <v>3</v>
+      </c>
+      <c r="B2308">
+        <v>1</v>
+      </c>
+      <c r="C2308">
+        <v>6</v>
+      </c>
+      <c r="D2308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2309">
+        <v>4</v>
+      </c>
+      <c r="B2309">
+        <v>0</v>
+      </c>
+      <c r="C2309">
+        <v>3</v>
+      </c>
+      <c r="D2309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2310">
+        <v>5</v>
+      </c>
+      <c r="B2310">
+        <v>1</v>
+      </c>
+      <c r="C2310">
+        <v>5</v>
+      </c>
+      <c r="D2310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2311">
+        <v>4</v>
+      </c>
+      <c r="B2311">
+        <v>2</v>
+      </c>
+      <c r="C2311">
+        <v>3</v>
+      </c>
+      <c r="D2311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2312">
+        <v>4</v>
+      </c>
+      <c r="B2312">
+        <v>2</v>
+      </c>
+      <c r="C2312">
+        <v>3</v>
+      </c>
+      <c r="D2312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2313">
+        <v>4</v>
+      </c>
+      <c r="B2313">
+        <v>0</v>
+      </c>
+      <c r="C2313">
+        <v>5</v>
+      </c>
+      <c r="D2313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2314">
+        <v>6</v>
+      </c>
+      <c r="B2314">
+        <v>2</v>
+      </c>
+      <c r="C2314">
+        <v>6</v>
+      </c>
+      <c r="D2314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2315">
+        <v>4</v>
+      </c>
+      <c r="B2315">
+        <v>1</v>
+      </c>
+      <c r="C2315">
+        <v>7</v>
+      </c>
+      <c r="D2315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2316">
+        <v>6</v>
+      </c>
+      <c r="B2316">
+        <v>2</v>
+      </c>
+      <c r="C2316">
+        <v>5</v>
+      </c>
+      <c r="D2316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2317">
+        <v>2</v>
+      </c>
+      <c r="B2317">
+        <v>2</v>
+      </c>
+      <c r="C2317">
+        <v>2</v>
+      </c>
+      <c r="D2317">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0054FE08-99DD-46C9-BA3E-EAA71C8A0663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19586AF4-C8AB-459B-A3EC-F7BA0A6548C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2317"/>
+  <dimension ref="A1:D2342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2305" workbookViewId="0">
-      <selection activeCell="A2318" sqref="A2318"/>
+    <sheetView tabSelected="1" topLeftCell="A2317" workbookViewId="0">
+      <selection activeCell="A2343" sqref="A2343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32813,6 +32813,356 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2318">
+        <v>3</v>
+      </c>
+      <c r="B2318">
+        <v>0</v>
+      </c>
+      <c r="C2318">
+        <v>3</v>
+      </c>
+      <c r="D2318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2319">
+        <v>5</v>
+      </c>
+      <c r="B2319">
+        <v>1</v>
+      </c>
+      <c r="C2319">
+        <v>3</v>
+      </c>
+      <c r="D2319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2320">
+        <v>5</v>
+      </c>
+      <c r="B2320">
+        <v>2</v>
+      </c>
+      <c r="C2320">
+        <v>5</v>
+      </c>
+      <c r="D2320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2321">
+        <v>3</v>
+      </c>
+      <c r="B2321">
+        <v>2</v>
+      </c>
+      <c r="C2321">
+        <v>7</v>
+      </c>
+      <c r="D2321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2322">
+        <v>4</v>
+      </c>
+      <c r="B2322">
+        <v>0</v>
+      </c>
+      <c r="C2322">
+        <v>5</v>
+      </c>
+      <c r="D2322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2323">
+        <v>3</v>
+      </c>
+      <c r="B2323">
+        <v>2</v>
+      </c>
+      <c r="C2323">
+        <v>3</v>
+      </c>
+      <c r="D2323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2324">
+        <v>3</v>
+      </c>
+      <c r="B2324">
+        <v>1</v>
+      </c>
+      <c r="C2324">
+        <v>5</v>
+      </c>
+      <c r="D2324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2325">
+        <v>6</v>
+      </c>
+      <c r="B2325">
+        <v>0</v>
+      </c>
+      <c r="C2325">
+        <v>7</v>
+      </c>
+      <c r="D2325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2326">
+        <v>6</v>
+      </c>
+      <c r="B2326">
+        <v>2</v>
+      </c>
+      <c r="C2326">
+        <v>5</v>
+      </c>
+      <c r="D2326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2327">
+        <v>3</v>
+      </c>
+      <c r="B2327">
+        <v>3</v>
+      </c>
+      <c r="C2327">
+        <v>2</v>
+      </c>
+      <c r="D2327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2328">
+        <v>4</v>
+      </c>
+      <c r="B2328">
+        <v>0</v>
+      </c>
+      <c r="C2328">
+        <v>4</v>
+      </c>
+      <c r="D2328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2329">
+        <v>4</v>
+      </c>
+      <c r="B2329">
+        <v>2</v>
+      </c>
+      <c r="C2329">
+        <v>5</v>
+      </c>
+      <c r="D2329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2330">
+        <v>3</v>
+      </c>
+      <c r="B2330">
+        <v>2</v>
+      </c>
+      <c r="C2330">
+        <v>5</v>
+      </c>
+      <c r="D2330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2331">
+        <v>5</v>
+      </c>
+      <c r="B2331">
+        <v>2</v>
+      </c>
+      <c r="C2331">
+        <v>4</v>
+      </c>
+      <c r="D2331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2332">
+        <v>5</v>
+      </c>
+      <c r="B2332">
+        <v>2</v>
+      </c>
+      <c r="C2332">
+        <v>5</v>
+      </c>
+      <c r="D2332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2333">
+        <v>3</v>
+      </c>
+      <c r="B2333">
+        <v>0</v>
+      </c>
+      <c r="C2333">
+        <v>3</v>
+      </c>
+      <c r="D2333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2334">
+        <v>5</v>
+      </c>
+      <c r="B2334">
+        <v>2</v>
+      </c>
+      <c r="C2334">
+        <v>6</v>
+      </c>
+      <c r="D2334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2335">
+        <v>4</v>
+      </c>
+      <c r="B2335">
+        <v>2</v>
+      </c>
+      <c r="C2335">
+        <v>5</v>
+      </c>
+      <c r="D2335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2336">
+        <v>4</v>
+      </c>
+      <c r="B2336">
+        <v>2</v>
+      </c>
+      <c r="C2336">
+        <v>5</v>
+      </c>
+      <c r="D2336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2337">
+        <v>2</v>
+      </c>
+      <c r="B2337">
+        <v>2</v>
+      </c>
+      <c r="C2337">
+        <v>3</v>
+      </c>
+      <c r="D2337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2338">
+        <v>3</v>
+      </c>
+      <c r="B2338">
+        <v>2</v>
+      </c>
+      <c r="C2338">
+        <v>4</v>
+      </c>
+      <c r="D2338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2339">
+        <v>4</v>
+      </c>
+      <c r="B2339">
+        <v>1</v>
+      </c>
+      <c r="C2339">
+        <v>4</v>
+      </c>
+      <c r="D2339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2340">
+        <v>6</v>
+      </c>
+      <c r="B2340">
+        <v>0</v>
+      </c>
+      <c r="C2340">
+        <v>6</v>
+      </c>
+      <c r="D2340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2341">
+        <v>4</v>
+      </c>
+      <c r="B2341">
+        <v>1</v>
+      </c>
+      <c r="C2341">
+        <v>6</v>
+      </c>
+      <c r="D2341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2342">
+        <v>5</v>
+      </c>
+      <c r="B2342">
+        <v>2</v>
+      </c>
+      <c r="C2342">
+        <v>3</v>
+      </c>
+      <c r="D2342">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19586AF4-C8AB-459B-A3EC-F7BA0A6548C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89A7F5-2E51-4AAF-8F82-8E1EF59B3813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2342"/>
+  <dimension ref="A1:D2416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2317" workbookViewId="0">
-      <selection activeCell="A2343" sqref="A2343"/>
+    <sheetView tabSelected="1" topLeftCell="A2407" workbookViewId="0">
+      <selection activeCell="A2417" sqref="A2417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33163,6 +33163,1042 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2343">
+        <v>4</v>
+      </c>
+      <c r="B2343">
+        <v>3</v>
+      </c>
+      <c r="C2343">
+        <v>3</v>
+      </c>
+      <c r="D2343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2344">
+        <v>5</v>
+      </c>
+      <c r="B2344">
+        <v>2</v>
+      </c>
+      <c r="C2344">
+        <v>5</v>
+      </c>
+      <c r="D2344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2345">
+        <v>7</v>
+      </c>
+      <c r="B2345">
+        <v>1</v>
+      </c>
+      <c r="C2345">
+        <v>6</v>
+      </c>
+      <c r="D2345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2346">
+        <v>5</v>
+      </c>
+      <c r="B2346">
+        <v>2</v>
+      </c>
+      <c r="C2346">
+        <v>5</v>
+      </c>
+      <c r="D2346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2347">
+        <v>2</v>
+      </c>
+      <c r="B2347">
+        <v>2</v>
+      </c>
+      <c r="C2347">
+        <v>3</v>
+      </c>
+      <c r="D2347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2348">
+        <v>5</v>
+      </c>
+      <c r="B2348">
+        <v>1</v>
+      </c>
+      <c r="C2348">
+        <v>5</v>
+      </c>
+      <c r="D2348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2349">
+        <v>5</v>
+      </c>
+      <c r="B2349">
+        <v>2</v>
+      </c>
+      <c r="C2349">
+        <v>5</v>
+      </c>
+      <c r="D2349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2350">
+        <v>4</v>
+      </c>
+      <c r="B2350">
+        <v>0</v>
+      </c>
+      <c r="C2350">
+        <v>4</v>
+      </c>
+      <c r="D2350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2351">
+        <v>3</v>
+      </c>
+      <c r="B2351">
+        <v>2</v>
+      </c>
+      <c r="C2351">
+        <v>4</v>
+      </c>
+      <c r="D2351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2352">
+        <v>6</v>
+      </c>
+      <c r="B2352">
+        <v>0</v>
+      </c>
+      <c r="C2352">
+        <v>5</v>
+      </c>
+      <c r="D2352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2353">
+        <v>5</v>
+      </c>
+      <c r="B2353">
+        <v>2</v>
+      </c>
+      <c r="C2353">
+        <v>6</v>
+      </c>
+      <c r="D2353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2354">
+        <v>3</v>
+      </c>
+      <c r="B2354">
+        <v>0</v>
+      </c>
+      <c r="C2354">
+        <v>3</v>
+      </c>
+      <c r="D2354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2355">
+        <v>2</v>
+      </c>
+      <c r="B2355">
+        <v>2</v>
+      </c>
+      <c r="C2355">
+        <v>3</v>
+      </c>
+      <c r="D2355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2356">
+        <v>7</v>
+      </c>
+      <c r="B2356">
+        <v>2</v>
+      </c>
+      <c r="C2356">
+        <v>6</v>
+      </c>
+      <c r="D2356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2357">
+        <v>4</v>
+      </c>
+      <c r="B2357">
+        <v>1</v>
+      </c>
+      <c r="C2357">
+        <v>5</v>
+      </c>
+      <c r="D2357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2358">
+        <v>4</v>
+      </c>
+      <c r="B2358">
+        <v>2</v>
+      </c>
+      <c r="C2358">
+        <v>4</v>
+      </c>
+      <c r="D2358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2359">
+        <v>4</v>
+      </c>
+      <c r="B2359">
+        <v>2</v>
+      </c>
+      <c r="C2359">
+        <v>4</v>
+      </c>
+      <c r="D2359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2360">
+        <v>6</v>
+      </c>
+      <c r="B2360">
+        <v>2</v>
+      </c>
+      <c r="C2360">
+        <v>6</v>
+      </c>
+      <c r="D2360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2361">
+        <v>3</v>
+      </c>
+      <c r="B2361">
+        <v>1</v>
+      </c>
+      <c r="C2361">
+        <v>4</v>
+      </c>
+      <c r="D2361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2362">
+        <v>6</v>
+      </c>
+      <c r="B2362">
+        <v>2</v>
+      </c>
+      <c r="C2362">
+        <v>5</v>
+      </c>
+      <c r="D2362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2363">
+        <v>3</v>
+      </c>
+      <c r="B2363">
+        <v>0</v>
+      </c>
+      <c r="C2363">
+        <v>3</v>
+      </c>
+      <c r="D2363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2364">
+        <v>5</v>
+      </c>
+      <c r="B2364">
+        <v>2</v>
+      </c>
+      <c r="C2364">
+        <v>4</v>
+      </c>
+      <c r="D2364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2365">
+        <v>4</v>
+      </c>
+      <c r="B2365">
+        <v>2</v>
+      </c>
+      <c r="C2365">
+        <v>5</v>
+      </c>
+      <c r="D2365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2366">
+        <v>5</v>
+      </c>
+      <c r="B2366">
+        <v>2</v>
+      </c>
+      <c r="C2366">
+        <v>6</v>
+      </c>
+      <c r="D2366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2367">
+        <v>4</v>
+      </c>
+      <c r="B2367">
+        <v>0</v>
+      </c>
+      <c r="C2367">
+        <v>5</v>
+      </c>
+      <c r="D2367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2368">
+        <v>5</v>
+      </c>
+      <c r="B2368">
+        <v>1</v>
+      </c>
+      <c r="C2368">
+        <v>7</v>
+      </c>
+      <c r="D2368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2369">
+        <v>3</v>
+      </c>
+      <c r="B2369">
+        <v>0</v>
+      </c>
+      <c r="C2369">
+        <v>3</v>
+      </c>
+      <c r="D2369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2370">
+        <v>4</v>
+      </c>
+      <c r="B2370">
+        <v>0</v>
+      </c>
+      <c r="C2370">
+        <v>3</v>
+      </c>
+      <c r="D2370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2371">
+        <v>6</v>
+      </c>
+      <c r="B2371">
+        <v>3</v>
+      </c>
+      <c r="C2371">
+        <v>6</v>
+      </c>
+      <c r="D2371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2372">
+        <v>4</v>
+      </c>
+      <c r="B2372">
+        <v>0</v>
+      </c>
+      <c r="C2372">
+        <v>3</v>
+      </c>
+      <c r="D2372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2373">
+        <v>4</v>
+      </c>
+      <c r="B2373">
+        <v>2</v>
+      </c>
+      <c r="C2373">
+        <v>4</v>
+      </c>
+      <c r="D2373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2374">
+        <v>3</v>
+      </c>
+      <c r="B2374">
+        <v>3</v>
+      </c>
+      <c r="C2374">
+        <v>2</v>
+      </c>
+      <c r="D2374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2375">
+        <v>6</v>
+      </c>
+      <c r="B2375">
+        <v>0</v>
+      </c>
+      <c r="C2375">
+        <v>5</v>
+      </c>
+      <c r="D2375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2376">
+        <v>3</v>
+      </c>
+      <c r="B2376">
+        <v>0</v>
+      </c>
+      <c r="C2376">
+        <v>3</v>
+      </c>
+      <c r="D2376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2377">
+        <v>3</v>
+      </c>
+      <c r="B2377">
+        <v>2</v>
+      </c>
+      <c r="C2377">
+        <v>6</v>
+      </c>
+      <c r="D2377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2378">
+        <v>4</v>
+      </c>
+      <c r="B2378">
+        <v>1</v>
+      </c>
+      <c r="C2378">
+        <v>5</v>
+      </c>
+      <c r="D2378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2379">
+        <v>4</v>
+      </c>
+      <c r="B2379">
+        <v>2</v>
+      </c>
+      <c r="C2379">
+        <v>5</v>
+      </c>
+      <c r="D2379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2380">
+        <v>3</v>
+      </c>
+      <c r="B2380">
+        <v>3</v>
+      </c>
+      <c r="C2380">
+        <v>4</v>
+      </c>
+      <c r="D2380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2381">
+        <v>5</v>
+      </c>
+      <c r="B2381">
+        <v>2</v>
+      </c>
+      <c r="C2381">
+        <v>3</v>
+      </c>
+      <c r="D2381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2382">
+        <v>4</v>
+      </c>
+      <c r="B2382">
+        <v>2</v>
+      </c>
+      <c r="C2382">
+        <v>3</v>
+      </c>
+      <c r="D2382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2383">
+        <v>4</v>
+      </c>
+      <c r="B2383">
+        <v>1</v>
+      </c>
+      <c r="C2383">
+        <v>5</v>
+      </c>
+      <c r="D2383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2384">
+        <v>4</v>
+      </c>
+      <c r="B2384">
+        <v>1</v>
+      </c>
+      <c r="C2384">
+        <v>5</v>
+      </c>
+      <c r="D2384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2385">
+        <v>4</v>
+      </c>
+      <c r="B2385">
+        <v>3</v>
+      </c>
+      <c r="C2385">
+        <v>3</v>
+      </c>
+      <c r="D2385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2386">
+        <v>5</v>
+      </c>
+      <c r="B2386">
+        <v>0</v>
+      </c>
+      <c r="C2386">
+        <v>7</v>
+      </c>
+      <c r="D2386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2387">
+        <v>4</v>
+      </c>
+      <c r="B2387">
+        <v>3</v>
+      </c>
+      <c r="C2387">
+        <v>3</v>
+      </c>
+      <c r="D2387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2388">
+        <v>5</v>
+      </c>
+      <c r="B2388">
+        <v>1</v>
+      </c>
+      <c r="C2388">
+        <v>5</v>
+      </c>
+      <c r="D2388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2389">
+        <v>4</v>
+      </c>
+      <c r="B2389">
+        <v>1</v>
+      </c>
+      <c r="C2389">
+        <v>4</v>
+      </c>
+      <c r="D2389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2390">
+        <v>5</v>
+      </c>
+      <c r="B2390">
+        <v>0</v>
+      </c>
+      <c r="C2390">
+        <v>7</v>
+      </c>
+      <c r="D2390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2391">
+        <v>5</v>
+      </c>
+      <c r="B2391">
+        <v>2</v>
+      </c>
+      <c r="C2391">
+        <v>4</v>
+      </c>
+      <c r="D2391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2392">
+        <v>3</v>
+      </c>
+      <c r="B2392">
+        <v>1</v>
+      </c>
+      <c r="C2392">
+        <v>3</v>
+      </c>
+      <c r="D2392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2393">
+        <v>3</v>
+      </c>
+      <c r="B2393">
+        <v>0</v>
+      </c>
+      <c r="C2393">
+        <v>3</v>
+      </c>
+      <c r="D2393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2394">
+        <v>4</v>
+      </c>
+      <c r="B2394">
+        <v>2</v>
+      </c>
+      <c r="C2394">
+        <v>3</v>
+      </c>
+      <c r="D2394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2395">
+        <v>6</v>
+      </c>
+      <c r="B2395">
+        <v>1</v>
+      </c>
+      <c r="C2395">
+        <v>6</v>
+      </c>
+      <c r="D2395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2396">
+        <v>5</v>
+      </c>
+      <c r="B2396">
+        <v>2</v>
+      </c>
+      <c r="C2396">
+        <v>5</v>
+      </c>
+      <c r="D2396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2397">
+        <v>3</v>
+      </c>
+      <c r="B2397">
+        <v>2</v>
+      </c>
+      <c r="C2397">
+        <v>2</v>
+      </c>
+      <c r="D2397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2398">
+        <v>5</v>
+      </c>
+      <c r="B2398">
+        <v>0</v>
+      </c>
+      <c r="C2398">
+        <v>5</v>
+      </c>
+      <c r="D2398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2399">
+        <v>5</v>
+      </c>
+      <c r="B2399">
+        <v>2</v>
+      </c>
+      <c r="C2399">
+        <v>5</v>
+      </c>
+      <c r="D2399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2400">
+        <v>4</v>
+      </c>
+      <c r="B2400">
+        <v>1</v>
+      </c>
+      <c r="C2400">
+        <v>3</v>
+      </c>
+      <c r="D2400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2401">
+        <v>6</v>
+      </c>
+      <c r="B2401">
+        <v>2</v>
+      </c>
+      <c r="C2401">
+        <v>5</v>
+      </c>
+      <c r="D2401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2402">
+        <v>5</v>
+      </c>
+      <c r="B2402">
+        <v>2</v>
+      </c>
+      <c r="C2402">
+        <v>4</v>
+      </c>
+      <c r="D2402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2403">
+        <v>3</v>
+      </c>
+      <c r="B2403">
+        <v>0</v>
+      </c>
+      <c r="C2403">
+        <v>4</v>
+      </c>
+      <c r="D2403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2404">
+        <v>4</v>
+      </c>
+      <c r="B2404">
+        <v>1</v>
+      </c>
+      <c r="C2404">
+        <v>4</v>
+      </c>
+      <c r="D2404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2405">
+        <v>5</v>
+      </c>
+      <c r="B2405">
+        <v>2</v>
+      </c>
+      <c r="C2405">
+        <v>6</v>
+      </c>
+      <c r="D2405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2406">
+        <v>4</v>
+      </c>
+      <c r="B2406">
+        <v>0</v>
+      </c>
+      <c r="C2406">
+        <v>4</v>
+      </c>
+      <c r="D2406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2407">
+        <v>6</v>
+      </c>
+      <c r="B2407">
+        <v>0</v>
+      </c>
+      <c r="C2407">
+        <v>6</v>
+      </c>
+      <c r="D2407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2408">
+        <v>4</v>
+      </c>
+      <c r="B2408">
+        <v>0</v>
+      </c>
+      <c r="C2408">
+        <v>3</v>
+      </c>
+      <c r="D2408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2409">
+        <v>6</v>
+      </c>
+      <c r="B2409">
+        <v>2</v>
+      </c>
+      <c r="C2409">
+        <v>6</v>
+      </c>
+      <c r="D2409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2410">
+        <v>3</v>
+      </c>
+      <c r="B2410">
+        <v>2</v>
+      </c>
+      <c r="C2410">
+        <v>3</v>
+      </c>
+      <c r="D2410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2411">
+        <v>4</v>
+      </c>
+      <c r="B2411">
+        <v>2</v>
+      </c>
+      <c r="C2411">
+        <v>3</v>
+      </c>
+      <c r="D2411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2412">
+        <v>5</v>
+      </c>
+      <c r="B2412">
+        <v>0</v>
+      </c>
+      <c r="C2412">
+        <v>5</v>
+      </c>
+      <c r="D2412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2413">
+        <v>3</v>
+      </c>
+      <c r="B2413">
+        <v>2</v>
+      </c>
+      <c r="C2413">
+        <v>2</v>
+      </c>
+      <c r="D2413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2414">
+        <v>4</v>
+      </c>
+      <c r="B2414">
+        <v>2</v>
+      </c>
+      <c r="C2414">
+        <v>3</v>
+      </c>
+      <c r="D2414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2415">
+        <v>5</v>
+      </c>
+      <c r="B2415">
+        <v>2</v>
+      </c>
+      <c r="C2415">
+        <v>7</v>
+      </c>
+      <c r="D2415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2416">
+        <v>4</v>
+      </c>
+      <c r="B2416">
+        <v>0</v>
+      </c>
+      <c r="C2416">
+        <v>3</v>
+      </c>
+      <c r="D2416">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89A7F5-2E51-4AAF-8F82-8E1EF59B3813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B4DBC6-5667-4C3C-9499-6CE1CD4E1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2416"/>
+  <dimension ref="A1:D2461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2407" workbookViewId="0">
-      <selection activeCell="A2417" sqref="A2417"/>
+    <sheetView tabSelected="1" topLeftCell="A2443" workbookViewId="0">
+      <selection activeCell="A2462" sqref="A2462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34199,6 +34199,636 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2417">
+        <v>3</v>
+      </c>
+      <c r="B2417">
+        <v>2</v>
+      </c>
+      <c r="C2417">
+        <v>4</v>
+      </c>
+      <c r="D2417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2418">
+        <v>6</v>
+      </c>
+      <c r="B2418">
+        <v>1</v>
+      </c>
+      <c r="C2418">
+        <v>4</v>
+      </c>
+      <c r="D2418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2419">
+        <v>3</v>
+      </c>
+      <c r="B2419">
+        <v>1</v>
+      </c>
+      <c r="C2419">
+        <v>4</v>
+      </c>
+      <c r="D2419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2420">
+        <v>6</v>
+      </c>
+      <c r="B2420">
+        <v>0</v>
+      </c>
+      <c r="C2420">
+        <v>3</v>
+      </c>
+      <c r="D2420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2421">
+        <v>3</v>
+      </c>
+      <c r="B2421">
+        <v>2</v>
+      </c>
+      <c r="C2421">
+        <v>5</v>
+      </c>
+      <c r="D2421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2422">
+        <v>5</v>
+      </c>
+      <c r="B2422">
+        <v>2</v>
+      </c>
+      <c r="C2422">
+        <v>4</v>
+      </c>
+      <c r="D2422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2423">
+        <v>4</v>
+      </c>
+      <c r="B2423">
+        <v>2</v>
+      </c>
+      <c r="C2423">
+        <v>4</v>
+      </c>
+      <c r="D2423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2424">
+        <v>5</v>
+      </c>
+      <c r="B2424">
+        <v>0</v>
+      </c>
+      <c r="C2424">
+        <v>6</v>
+      </c>
+      <c r="D2424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2425">
+        <v>2</v>
+      </c>
+      <c r="B2425">
+        <v>2</v>
+      </c>
+      <c r="C2425">
+        <v>3</v>
+      </c>
+      <c r="D2425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2426">
+        <v>7</v>
+      </c>
+      <c r="B2426">
+        <v>0</v>
+      </c>
+      <c r="C2426">
+        <v>5</v>
+      </c>
+      <c r="D2426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2427">
+        <v>5</v>
+      </c>
+      <c r="B2427">
+        <v>2</v>
+      </c>
+      <c r="C2427">
+        <v>5</v>
+      </c>
+      <c r="D2427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2428">
+        <v>2</v>
+      </c>
+      <c r="B2428">
+        <v>2</v>
+      </c>
+      <c r="C2428">
+        <v>2</v>
+      </c>
+      <c r="D2428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2429">
+        <v>5</v>
+      </c>
+      <c r="B2429">
+        <v>0</v>
+      </c>
+      <c r="C2429">
+        <v>4</v>
+      </c>
+      <c r="D2429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2430">
+        <v>2</v>
+      </c>
+      <c r="B2430">
+        <v>2</v>
+      </c>
+      <c r="C2430">
+        <v>4</v>
+      </c>
+      <c r="D2430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2431">
+        <v>3</v>
+      </c>
+      <c r="B2431">
+        <v>0</v>
+      </c>
+      <c r="C2431">
+        <v>6</v>
+      </c>
+      <c r="D2431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2432">
+        <v>4</v>
+      </c>
+      <c r="B2432">
+        <v>2</v>
+      </c>
+      <c r="C2432">
+        <v>4</v>
+      </c>
+      <c r="D2432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2433">
+        <v>3</v>
+      </c>
+      <c r="B2433">
+        <v>1</v>
+      </c>
+      <c r="C2433">
+        <v>2</v>
+      </c>
+      <c r="D2433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2434">
+        <v>5</v>
+      </c>
+      <c r="B2434">
+        <v>0</v>
+      </c>
+      <c r="C2434">
+        <v>4</v>
+      </c>
+      <c r="D2434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2435">
+        <v>6</v>
+      </c>
+      <c r="B2435">
+        <v>3</v>
+      </c>
+      <c r="C2435">
+        <v>6</v>
+      </c>
+      <c r="D2435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2436">
+        <v>4</v>
+      </c>
+      <c r="B2436">
+        <v>1</v>
+      </c>
+      <c r="C2436">
+        <v>3</v>
+      </c>
+      <c r="D2436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2437">
+        <v>5</v>
+      </c>
+      <c r="B2437">
+        <v>0</v>
+      </c>
+      <c r="C2437">
+        <v>3</v>
+      </c>
+      <c r="D2437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2438">
+        <v>4</v>
+      </c>
+      <c r="B2438">
+        <v>1</v>
+      </c>
+      <c r="C2438">
+        <v>5</v>
+      </c>
+      <c r="D2438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2439">
+        <v>4</v>
+      </c>
+      <c r="B2439">
+        <v>0</v>
+      </c>
+      <c r="C2439">
+        <v>6</v>
+      </c>
+      <c r="D2439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2440">
+        <v>4</v>
+      </c>
+      <c r="B2440">
+        <v>0</v>
+      </c>
+      <c r="C2440">
+        <v>4</v>
+      </c>
+      <c r="D2440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2441">
+        <v>4</v>
+      </c>
+      <c r="B2441">
+        <v>1</v>
+      </c>
+      <c r="C2441">
+        <v>3</v>
+      </c>
+      <c r="D2441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2442">
+        <v>4</v>
+      </c>
+      <c r="B2442">
+        <v>0</v>
+      </c>
+      <c r="C2442">
+        <v>3</v>
+      </c>
+      <c r="D2442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2443">
+        <v>5</v>
+      </c>
+      <c r="B2443">
+        <v>0</v>
+      </c>
+      <c r="C2443">
+        <v>5</v>
+      </c>
+      <c r="D2443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2444">
+        <v>3</v>
+      </c>
+      <c r="B2444">
+        <v>2</v>
+      </c>
+      <c r="C2444">
+        <v>3</v>
+      </c>
+      <c r="D2444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2445">
+        <v>4</v>
+      </c>
+      <c r="B2445">
+        <v>1</v>
+      </c>
+      <c r="C2445">
+        <v>3</v>
+      </c>
+      <c r="D2445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2446">
+        <v>5</v>
+      </c>
+      <c r="B2446">
+        <v>0</v>
+      </c>
+      <c r="C2446">
+        <v>5</v>
+      </c>
+      <c r="D2446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2447">
+        <v>6</v>
+      </c>
+      <c r="B2447">
+        <v>2</v>
+      </c>
+      <c r="C2447">
+        <v>5</v>
+      </c>
+      <c r="D2447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2448">
+        <v>6</v>
+      </c>
+      <c r="B2448">
+        <v>2</v>
+      </c>
+      <c r="C2448">
+        <v>5</v>
+      </c>
+      <c r="D2448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2449">
+        <v>3</v>
+      </c>
+      <c r="B2449">
+        <v>0</v>
+      </c>
+      <c r="C2449">
+        <v>3</v>
+      </c>
+      <c r="D2449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2450">
+        <v>3</v>
+      </c>
+      <c r="B2450">
+        <v>2</v>
+      </c>
+      <c r="C2450">
+        <v>4</v>
+      </c>
+      <c r="D2450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2451">
+        <v>3</v>
+      </c>
+      <c r="B2451">
+        <v>2</v>
+      </c>
+      <c r="C2451">
+        <v>5</v>
+      </c>
+      <c r="D2451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2452">
+        <v>3</v>
+      </c>
+      <c r="B2452">
+        <v>3</v>
+      </c>
+      <c r="C2452">
+        <v>2</v>
+      </c>
+      <c r="D2452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2453">
+        <v>5</v>
+      </c>
+      <c r="B2453">
+        <v>0</v>
+      </c>
+      <c r="C2453">
+        <v>3</v>
+      </c>
+      <c r="D2453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2454">
+        <v>4</v>
+      </c>
+      <c r="B2454">
+        <v>2</v>
+      </c>
+      <c r="C2454">
+        <v>5</v>
+      </c>
+      <c r="D2454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2455">
+        <v>7</v>
+      </c>
+      <c r="B2455">
+        <v>2</v>
+      </c>
+      <c r="C2455">
+        <v>7</v>
+      </c>
+      <c r="D2455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2456">
+        <v>3</v>
+      </c>
+      <c r="B2456">
+        <v>2</v>
+      </c>
+      <c r="C2456">
+        <v>3</v>
+      </c>
+      <c r="D2456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2457">
+        <v>4</v>
+      </c>
+      <c r="B2457">
+        <v>3</v>
+      </c>
+      <c r="C2457">
+        <v>3</v>
+      </c>
+      <c r="D2457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2458">
+        <v>5</v>
+      </c>
+      <c r="B2458">
+        <v>2</v>
+      </c>
+      <c r="C2458">
+        <v>6</v>
+      </c>
+      <c r="D2458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2459">
+        <v>4</v>
+      </c>
+      <c r="B2459">
+        <v>3</v>
+      </c>
+      <c r="C2459">
+        <v>4</v>
+      </c>
+      <c r="D2459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2460">
+        <v>3</v>
+      </c>
+      <c r="B2460">
+        <v>1</v>
+      </c>
+      <c r="C2460">
+        <v>4</v>
+      </c>
+      <c r="D2460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2461">
+        <v>5</v>
+      </c>
+      <c r="B2461">
+        <v>2</v>
+      </c>
+      <c r="C2461">
+        <v>6</v>
+      </c>
+      <c r="D2461">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B4DBC6-5667-4C3C-9499-6CE1CD4E1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0127FC4-DE7B-42AD-BA0F-4D04FC23E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2461"/>
+  <dimension ref="A1:D2508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2443" workbookViewId="0">
-      <selection activeCell="A2462" sqref="A2462"/>
+    <sheetView tabSelected="1" topLeftCell="A2488" workbookViewId="0">
+      <selection activeCell="A2509" sqref="A2509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34829,6 +34829,664 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2462">
+        <v>5</v>
+      </c>
+      <c r="B2462">
+        <v>0</v>
+      </c>
+      <c r="C2462">
+        <v>4</v>
+      </c>
+      <c r="D2462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2463">
+        <v>5</v>
+      </c>
+      <c r="B2463">
+        <v>2</v>
+      </c>
+      <c r="C2463">
+        <v>5</v>
+      </c>
+      <c r="D2463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2464">
+        <v>4</v>
+      </c>
+      <c r="B2464">
+        <v>0</v>
+      </c>
+      <c r="C2464">
+        <v>4</v>
+      </c>
+      <c r="D2464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2465">
+        <v>3</v>
+      </c>
+      <c r="B2465">
+        <v>3</v>
+      </c>
+      <c r="C2465">
+        <v>2</v>
+      </c>
+      <c r="D2465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2466">
+        <v>5</v>
+      </c>
+      <c r="B2466">
+        <v>3</v>
+      </c>
+      <c r="C2466">
+        <v>2</v>
+      </c>
+      <c r="D2466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2467">
+        <v>5</v>
+      </c>
+      <c r="B2467">
+        <v>0</v>
+      </c>
+      <c r="C2467">
+        <v>5</v>
+      </c>
+      <c r="D2467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2468">
+        <v>4</v>
+      </c>
+      <c r="B2468">
+        <v>3</v>
+      </c>
+      <c r="C2468">
+        <v>4</v>
+      </c>
+      <c r="D2468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2469">
+        <v>3</v>
+      </c>
+      <c r="B2469">
+        <v>2</v>
+      </c>
+      <c r="C2469">
+        <v>3</v>
+      </c>
+      <c r="D2469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2470">
+        <v>5</v>
+      </c>
+      <c r="B2470">
+        <v>3</v>
+      </c>
+      <c r="C2470">
+        <v>3</v>
+      </c>
+      <c r="D2470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2471">
+        <v>6</v>
+      </c>
+      <c r="B2471">
+        <v>2</v>
+      </c>
+      <c r="C2471">
+        <v>5</v>
+      </c>
+      <c r="D2471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2472">
+        <v>3</v>
+      </c>
+      <c r="B2472">
+        <v>2</v>
+      </c>
+      <c r="C2472">
+        <v>2</v>
+      </c>
+      <c r="D2472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2473">
+        <v>6</v>
+      </c>
+      <c r="B2473">
+        <v>2</v>
+      </c>
+      <c r="C2473">
+        <v>5</v>
+      </c>
+      <c r="D2473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2474">
+        <v>5</v>
+      </c>
+      <c r="B2474">
+        <v>2</v>
+      </c>
+      <c r="C2474">
+        <v>5</v>
+      </c>
+      <c r="D2474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2475">
+        <v>4</v>
+      </c>
+      <c r="B2475">
+        <v>2</v>
+      </c>
+      <c r="C2475">
+        <v>5</v>
+      </c>
+      <c r="D2475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2476">
+        <v>3</v>
+      </c>
+      <c r="B2476">
+        <v>2</v>
+      </c>
+      <c r="C2476">
+        <v>4</v>
+      </c>
+      <c r="D2476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2477">
+        <v>4</v>
+      </c>
+      <c r="B2477">
+        <v>2</v>
+      </c>
+      <c r="C2477">
+        <v>3</v>
+      </c>
+      <c r="D2477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2478">
+        <v>4</v>
+      </c>
+      <c r="B2478">
+        <v>0</v>
+      </c>
+      <c r="C2478">
+        <v>6</v>
+      </c>
+      <c r="D2478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2479">
+        <v>4</v>
+      </c>
+      <c r="B2479">
+        <v>3</v>
+      </c>
+      <c r="C2479">
+        <v>3</v>
+      </c>
+      <c r="D2479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2480">
+        <v>5</v>
+      </c>
+      <c r="B2480">
+        <v>0</v>
+      </c>
+      <c r="C2480">
+        <v>6</v>
+      </c>
+      <c r="D2480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2481">
+        <v>4</v>
+      </c>
+      <c r="B2481">
+        <v>0</v>
+      </c>
+      <c r="C2481">
+        <v>3</v>
+      </c>
+      <c r="D2481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2482">
+        <v>4</v>
+      </c>
+      <c r="B2482">
+        <v>1</v>
+      </c>
+      <c r="C2482">
+        <v>3</v>
+      </c>
+      <c r="D2482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2483">
+        <v>6</v>
+      </c>
+      <c r="B2483">
+        <v>1</v>
+      </c>
+      <c r="C2483">
+        <v>7</v>
+      </c>
+      <c r="D2483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2484">
+        <v>4</v>
+      </c>
+      <c r="B2484">
+        <v>1</v>
+      </c>
+      <c r="C2484">
+        <v>5</v>
+      </c>
+      <c r="D2484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2485">
+        <v>6</v>
+      </c>
+      <c r="B2485">
+        <v>2</v>
+      </c>
+      <c r="C2485">
+        <v>5</v>
+      </c>
+      <c r="D2485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2486">
+        <v>5</v>
+      </c>
+      <c r="B2486">
+        <v>3</v>
+      </c>
+      <c r="C2486">
+        <v>3</v>
+      </c>
+      <c r="D2486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2487">
+        <v>4</v>
+      </c>
+      <c r="B2487">
+        <v>2</v>
+      </c>
+      <c r="C2487">
+        <v>3</v>
+      </c>
+      <c r="D2487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2488">
+        <v>3</v>
+      </c>
+      <c r="B2488">
+        <v>1</v>
+      </c>
+      <c r="C2488">
+        <v>3</v>
+      </c>
+      <c r="D2488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2489">
+        <v>6</v>
+      </c>
+      <c r="B2489">
+        <v>0</v>
+      </c>
+      <c r="C2489">
+        <v>6</v>
+      </c>
+      <c r="D2489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2490">
+        <v>2</v>
+      </c>
+      <c r="B2490">
+        <v>0</v>
+      </c>
+      <c r="C2490">
+        <v>6</v>
+      </c>
+      <c r="D2490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2491">
+        <v>3</v>
+      </c>
+      <c r="B2491">
+        <v>2</v>
+      </c>
+      <c r="C2491">
+        <v>5</v>
+      </c>
+      <c r="D2491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2492">
+        <v>5</v>
+      </c>
+      <c r="B2492">
+        <v>2</v>
+      </c>
+      <c r="C2492">
+        <v>4</v>
+      </c>
+      <c r="D2492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2493">
+        <v>6</v>
+      </c>
+      <c r="B2493">
+        <v>3</v>
+      </c>
+      <c r="C2493">
+        <v>5</v>
+      </c>
+      <c r="D2493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2494">
+        <v>5</v>
+      </c>
+      <c r="B2494">
+        <v>2</v>
+      </c>
+      <c r="C2494">
+        <v>4</v>
+      </c>
+      <c r="D2494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2495">
+        <v>4</v>
+      </c>
+      <c r="B2495">
+        <v>0</v>
+      </c>
+      <c r="C2495">
+        <v>4</v>
+      </c>
+      <c r="D2495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2496">
+        <v>6</v>
+      </c>
+      <c r="B2496">
+        <v>0</v>
+      </c>
+      <c r="C2496">
+        <v>5</v>
+      </c>
+      <c r="D2496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2497">
+        <v>3</v>
+      </c>
+      <c r="B2497">
+        <v>3</v>
+      </c>
+      <c r="C2497">
+        <v>4</v>
+      </c>
+      <c r="D2497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2498">
+        <v>6</v>
+      </c>
+      <c r="B2498">
+        <v>3</v>
+      </c>
+      <c r="C2498">
+        <v>3</v>
+      </c>
+      <c r="D2498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2499">
+        <v>3</v>
+      </c>
+      <c r="B2499">
+        <v>2</v>
+      </c>
+      <c r="C2499">
+        <v>3</v>
+      </c>
+      <c r="D2499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2500">
+        <v>4</v>
+      </c>
+      <c r="B2500">
+        <v>2</v>
+      </c>
+      <c r="C2500">
+        <v>5</v>
+      </c>
+      <c r="D2500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2501">
+        <v>2</v>
+      </c>
+      <c r="B2501">
+        <v>3</v>
+      </c>
+      <c r="C2501">
+        <v>2</v>
+      </c>
+      <c r="D2501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2502">
+        <v>5</v>
+      </c>
+      <c r="B2502">
+        <v>0</v>
+      </c>
+      <c r="C2502">
+        <v>7</v>
+      </c>
+      <c r="D2502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2503">
+        <v>3</v>
+      </c>
+      <c r="B2503">
+        <v>2</v>
+      </c>
+      <c r="C2503">
+        <v>4</v>
+      </c>
+      <c r="D2503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2504">
+        <v>2</v>
+      </c>
+      <c r="B2504">
+        <v>2</v>
+      </c>
+      <c r="C2504">
+        <v>3</v>
+      </c>
+      <c r="D2504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2505">
+        <v>6</v>
+      </c>
+      <c r="B2505">
+        <v>3</v>
+      </c>
+      <c r="C2505">
+        <v>5</v>
+      </c>
+      <c r="D2505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2506">
+        <v>6</v>
+      </c>
+      <c r="B2506">
+        <v>3</v>
+      </c>
+      <c r="C2506">
+        <v>6</v>
+      </c>
+      <c r="D2506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2507">
+        <v>4</v>
+      </c>
+      <c r="B2507">
+        <v>0</v>
+      </c>
+      <c r="C2507">
+        <v>4</v>
+      </c>
+      <c r="D2507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2508">
+        <v>2</v>
+      </c>
+      <c r="B2508">
+        <v>1</v>
+      </c>
+      <c r="C2508">
+        <v>3</v>
+      </c>
+      <c r="D2508">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0127FC4-DE7B-42AD-BA0F-4D04FC23E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC73F85-5037-46D4-8D0B-B0295DB8A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2508"/>
+  <dimension ref="A1:D2533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2488" workbookViewId="0">
-      <selection activeCell="A2509" sqref="A2509"/>
+    <sheetView tabSelected="1" topLeftCell="A2524" workbookViewId="0">
+      <selection activeCell="A2534" sqref="A2534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35487,6 +35487,356 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2509">
+        <v>4</v>
+      </c>
+      <c r="B2509">
+        <v>0</v>
+      </c>
+      <c r="C2509">
+        <v>4</v>
+      </c>
+      <c r="D2509">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2510">
+        <v>6</v>
+      </c>
+      <c r="B2510">
+        <v>0</v>
+      </c>
+      <c r="C2510">
+        <v>3</v>
+      </c>
+      <c r="D2510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2511">
+        <v>5</v>
+      </c>
+      <c r="B2511">
+        <v>1</v>
+      </c>
+      <c r="C2511">
+        <v>5</v>
+      </c>
+      <c r="D2511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2512">
+        <v>3</v>
+      </c>
+      <c r="B2512">
+        <v>0</v>
+      </c>
+      <c r="C2512">
+        <v>3</v>
+      </c>
+      <c r="D2512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2513">
+        <v>4</v>
+      </c>
+      <c r="B2513">
+        <v>3</v>
+      </c>
+      <c r="C2513">
+        <v>7</v>
+      </c>
+      <c r="D2513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2514">
+        <v>5</v>
+      </c>
+      <c r="B2514">
+        <v>2</v>
+      </c>
+      <c r="C2514">
+        <v>3</v>
+      </c>
+      <c r="D2514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2515">
+        <v>4</v>
+      </c>
+      <c r="B2515">
+        <v>2</v>
+      </c>
+      <c r="C2515">
+        <v>3</v>
+      </c>
+      <c r="D2515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2516">
+        <v>4</v>
+      </c>
+      <c r="B2516">
+        <v>2</v>
+      </c>
+      <c r="C2516">
+        <v>5</v>
+      </c>
+      <c r="D2516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2517">
+        <v>4</v>
+      </c>
+      <c r="B2517">
+        <v>2</v>
+      </c>
+      <c r="C2517">
+        <v>6</v>
+      </c>
+      <c r="D2517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2518">
+        <v>5</v>
+      </c>
+      <c r="B2518">
+        <v>1</v>
+      </c>
+      <c r="C2518">
+        <v>6</v>
+      </c>
+      <c r="D2518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2519">
+        <v>3</v>
+      </c>
+      <c r="B2519">
+        <v>0</v>
+      </c>
+      <c r="C2519">
+        <v>3</v>
+      </c>
+      <c r="D2519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2520">
+        <v>3</v>
+      </c>
+      <c r="B2520">
+        <v>1</v>
+      </c>
+      <c r="C2520">
+        <v>3</v>
+      </c>
+      <c r="D2520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2521">
+        <v>3</v>
+      </c>
+      <c r="B2521">
+        <v>3</v>
+      </c>
+      <c r="C2521">
+        <v>4</v>
+      </c>
+      <c r="D2521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2522">
+        <v>6</v>
+      </c>
+      <c r="B2522">
+        <v>0</v>
+      </c>
+      <c r="C2522">
+        <v>5</v>
+      </c>
+      <c r="D2522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2523">
+        <v>7</v>
+      </c>
+      <c r="B2523">
+        <v>2</v>
+      </c>
+      <c r="C2523">
+        <v>6</v>
+      </c>
+      <c r="D2523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2524">
+        <v>3</v>
+      </c>
+      <c r="B2524">
+        <v>3</v>
+      </c>
+      <c r="C2524">
+        <v>4</v>
+      </c>
+      <c r="D2524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2525">
+        <v>6</v>
+      </c>
+      <c r="B2525">
+        <v>2</v>
+      </c>
+      <c r="C2525">
+        <v>5</v>
+      </c>
+      <c r="D2525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2526">
+        <v>3</v>
+      </c>
+      <c r="B2526">
+        <v>2</v>
+      </c>
+      <c r="C2526">
+        <v>4</v>
+      </c>
+      <c r="D2526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2527">
+        <v>3</v>
+      </c>
+      <c r="B2527">
+        <v>1</v>
+      </c>
+      <c r="C2527">
+        <v>4</v>
+      </c>
+      <c r="D2527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2528">
+        <v>5</v>
+      </c>
+      <c r="B2528">
+        <v>0</v>
+      </c>
+      <c r="C2528">
+        <v>4</v>
+      </c>
+      <c r="D2528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2529">
+        <v>4</v>
+      </c>
+      <c r="B2529">
+        <v>1</v>
+      </c>
+      <c r="C2529">
+        <v>3</v>
+      </c>
+      <c r="D2529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2530">
+        <v>7</v>
+      </c>
+      <c r="B2530">
+        <v>2</v>
+      </c>
+      <c r="C2530">
+        <v>6</v>
+      </c>
+      <c r="D2530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2531">
+        <v>5</v>
+      </c>
+      <c r="B2531">
+        <v>2</v>
+      </c>
+      <c r="C2531">
+        <v>6</v>
+      </c>
+      <c r="D2531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2532">
+        <v>3</v>
+      </c>
+      <c r="B2532">
+        <v>0</v>
+      </c>
+      <c r="C2532">
+        <v>3</v>
+      </c>
+      <c r="D2532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2533">
+        <v>2</v>
+      </c>
+      <c r="B2533">
+        <v>0</v>
+      </c>
+      <c r="C2533">
+        <v>4</v>
+      </c>
+      <c r="D2533">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC73F85-5037-46D4-8D0B-B0295DB8A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46090BA-1245-4FB9-AC0E-731DF37E5079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2533"/>
+  <dimension ref="A1:D2555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2524" workbookViewId="0">
-      <selection activeCell="A2534" sqref="A2534"/>
+    <sheetView tabSelected="1" topLeftCell="A2545" workbookViewId="0">
+      <selection activeCell="A2556" sqref="A2556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35837,6 +35837,314 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2534">
+        <v>3</v>
+      </c>
+      <c r="B2534">
+        <v>0</v>
+      </c>
+      <c r="C2534">
+        <v>3</v>
+      </c>
+      <c r="D2534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2535">
+        <v>5</v>
+      </c>
+      <c r="B2535">
+        <v>2</v>
+      </c>
+      <c r="C2535">
+        <v>6</v>
+      </c>
+      <c r="D2535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2536">
+        <v>4</v>
+      </c>
+      <c r="B2536">
+        <v>3</v>
+      </c>
+      <c r="C2536">
+        <v>3</v>
+      </c>
+      <c r="D2536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2537">
+        <v>3</v>
+      </c>
+      <c r="B2537">
+        <v>1</v>
+      </c>
+      <c r="C2537">
+        <v>4</v>
+      </c>
+      <c r="D2537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2538">
+        <v>7</v>
+      </c>
+      <c r="B2538">
+        <v>0</v>
+      </c>
+      <c r="C2538">
+        <v>5</v>
+      </c>
+      <c r="D2538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2539">
+        <v>5</v>
+      </c>
+      <c r="B2539">
+        <v>2</v>
+      </c>
+      <c r="C2539">
+        <v>3</v>
+      </c>
+      <c r="D2539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2540">
+        <v>4</v>
+      </c>
+      <c r="B2540">
+        <v>3</v>
+      </c>
+      <c r="C2540">
+        <v>6</v>
+      </c>
+      <c r="D2540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2541">
+        <v>2</v>
+      </c>
+      <c r="B2541">
+        <v>0</v>
+      </c>
+      <c r="C2541">
+        <v>3</v>
+      </c>
+      <c r="D2541">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2542">
+        <v>7</v>
+      </c>
+      <c r="B2542">
+        <v>2</v>
+      </c>
+      <c r="C2542">
+        <v>6</v>
+      </c>
+      <c r="D2542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2543">
+        <v>5</v>
+      </c>
+      <c r="B2543">
+        <v>0</v>
+      </c>
+      <c r="C2543">
+        <v>4</v>
+      </c>
+      <c r="D2543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2544">
+        <v>4</v>
+      </c>
+      <c r="B2544">
+        <v>0</v>
+      </c>
+      <c r="C2544">
+        <v>5</v>
+      </c>
+      <c r="D2544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2545">
+        <v>4</v>
+      </c>
+      <c r="B2545">
+        <v>0</v>
+      </c>
+      <c r="C2545">
+        <v>5</v>
+      </c>
+      <c r="D2545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2546">
+        <v>4</v>
+      </c>
+      <c r="B2546">
+        <v>2</v>
+      </c>
+      <c r="C2546">
+        <v>4</v>
+      </c>
+      <c r="D2546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2547">
+        <v>4</v>
+      </c>
+      <c r="B2547">
+        <v>0</v>
+      </c>
+      <c r="C2547">
+        <v>4</v>
+      </c>
+      <c r="D2547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2548">
+        <v>3</v>
+      </c>
+      <c r="B2548">
+        <v>0</v>
+      </c>
+      <c r="C2548">
+        <v>3</v>
+      </c>
+      <c r="D2548">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2549">
+        <v>3</v>
+      </c>
+      <c r="B2549">
+        <v>3</v>
+      </c>
+      <c r="C2549">
+        <v>5</v>
+      </c>
+      <c r="D2549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2550">
+        <v>6</v>
+      </c>
+      <c r="B2550">
+        <v>2</v>
+      </c>
+      <c r="C2550">
+        <v>6</v>
+      </c>
+      <c r="D2550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2551">
+        <v>5</v>
+      </c>
+      <c r="B2551">
+        <v>2</v>
+      </c>
+      <c r="C2551">
+        <v>4</v>
+      </c>
+      <c r="D2551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2552">
+        <v>3</v>
+      </c>
+      <c r="B2552">
+        <v>0</v>
+      </c>
+      <c r="C2552">
+        <v>3</v>
+      </c>
+      <c r="D2552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2553">
+        <v>6</v>
+      </c>
+      <c r="B2553">
+        <v>1</v>
+      </c>
+      <c r="C2553">
+        <v>6</v>
+      </c>
+      <c r="D2553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2554">
+        <v>6</v>
+      </c>
+      <c r="B2554">
+        <v>1</v>
+      </c>
+      <c r="C2554">
+        <v>5</v>
+      </c>
+      <c r="D2554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2555">
+        <v>3</v>
+      </c>
+      <c r="B2555">
+        <v>2</v>
+      </c>
+      <c r="C2555">
+        <v>3</v>
+      </c>
+      <c r="D2555">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46090BA-1245-4FB9-AC0E-731DF37E5079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614F7A1-2D51-44A5-906F-FA9514CF2980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2555"/>
+  <dimension ref="A1:D2591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2545" workbookViewId="0">
-      <selection activeCell="A2556" sqref="A2556"/>
+    <sheetView tabSelected="1" topLeftCell="A2572" workbookViewId="0">
+      <selection activeCell="A2592" sqref="A2592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36145,6 +36145,510 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2556">
+        <v>3</v>
+      </c>
+      <c r="B2556">
+        <v>3</v>
+      </c>
+      <c r="C2556">
+        <v>3</v>
+      </c>
+      <c r="D2556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2557">
+        <v>3</v>
+      </c>
+      <c r="B2557">
+        <v>1</v>
+      </c>
+      <c r="C2557">
+        <v>4</v>
+      </c>
+      <c r="D2557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2558">
+        <v>6</v>
+      </c>
+      <c r="B2558">
+        <v>0</v>
+      </c>
+      <c r="C2558">
+        <v>5</v>
+      </c>
+      <c r="D2558">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2559">
+        <v>4</v>
+      </c>
+      <c r="B2559">
+        <v>1</v>
+      </c>
+      <c r="C2559">
+        <v>4</v>
+      </c>
+      <c r="D2559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2560">
+        <v>5</v>
+      </c>
+      <c r="B2560">
+        <v>0</v>
+      </c>
+      <c r="C2560">
+        <v>5</v>
+      </c>
+      <c r="D2560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2561">
+        <v>7</v>
+      </c>
+      <c r="B2561">
+        <v>3</v>
+      </c>
+      <c r="C2561">
+        <v>6</v>
+      </c>
+      <c r="D2561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2562">
+        <v>2</v>
+      </c>
+      <c r="B2562">
+        <v>2</v>
+      </c>
+      <c r="C2562">
+        <v>3</v>
+      </c>
+      <c r="D2562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2563">
+        <v>5</v>
+      </c>
+      <c r="B2563">
+        <v>0</v>
+      </c>
+      <c r="C2563">
+        <v>3</v>
+      </c>
+      <c r="D2563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2564">
+        <v>4</v>
+      </c>
+      <c r="B2564">
+        <v>0</v>
+      </c>
+      <c r="C2564">
+        <v>4</v>
+      </c>
+      <c r="D2564">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2565">
+        <v>4</v>
+      </c>
+      <c r="B2565">
+        <v>0</v>
+      </c>
+      <c r="C2565">
+        <v>6</v>
+      </c>
+      <c r="D2565">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2566">
+        <v>4</v>
+      </c>
+      <c r="B2566">
+        <v>0</v>
+      </c>
+      <c r="C2566">
+        <v>3</v>
+      </c>
+      <c r="D2566">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2567">
+        <v>4</v>
+      </c>
+      <c r="B2567">
+        <v>2</v>
+      </c>
+      <c r="C2567">
+        <v>4</v>
+      </c>
+      <c r="D2567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2568">
+        <v>3</v>
+      </c>
+      <c r="B2568">
+        <v>0</v>
+      </c>
+      <c r="C2568">
+        <v>3</v>
+      </c>
+      <c r="D2568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2569">
+        <v>3</v>
+      </c>
+      <c r="B2569">
+        <v>1</v>
+      </c>
+      <c r="C2569">
+        <v>3</v>
+      </c>
+      <c r="D2569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2570">
+        <v>6</v>
+      </c>
+      <c r="B2570">
+        <v>2</v>
+      </c>
+      <c r="C2570">
+        <v>4</v>
+      </c>
+      <c r="D2570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2571">
+        <v>3</v>
+      </c>
+      <c r="B2571">
+        <v>3</v>
+      </c>
+      <c r="C2571">
+        <v>3</v>
+      </c>
+      <c r="D2571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2572">
+        <v>6</v>
+      </c>
+      <c r="B2572">
+        <v>2</v>
+      </c>
+      <c r="C2572">
+        <v>7</v>
+      </c>
+      <c r="D2572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2573">
+        <v>4</v>
+      </c>
+      <c r="B2573">
+        <v>0</v>
+      </c>
+      <c r="C2573">
+        <v>5</v>
+      </c>
+      <c r="D2573">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2574">
+        <v>3</v>
+      </c>
+      <c r="B2574">
+        <v>0</v>
+      </c>
+      <c r="C2574">
+        <v>3</v>
+      </c>
+      <c r="D2574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2575">
+        <v>3</v>
+      </c>
+      <c r="B2575">
+        <v>0</v>
+      </c>
+      <c r="C2575">
+        <v>3</v>
+      </c>
+      <c r="D2575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2576">
+        <v>6</v>
+      </c>
+      <c r="B2576">
+        <v>1</v>
+      </c>
+      <c r="C2576">
+        <v>7</v>
+      </c>
+      <c r="D2576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2577">
+        <v>5</v>
+      </c>
+      <c r="B2577">
+        <v>2</v>
+      </c>
+      <c r="C2577">
+        <v>5</v>
+      </c>
+      <c r="D2577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2578">
+        <v>6</v>
+      </c>
+      <c r="B2578">
+        <v>0</v>
+      </c>
+      <c r="C2578">
+        <v>4</v>
+      </c>
+      <c r="D2578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2579">
+        <v>4</v>
+      </c>
+      <c r="B2579">
+        <v>3</v>
+      </c>
+      <c r="C2579">
+        <v>5</v>
+      </c>
+      <c r="D2579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2580">
+        <v>4</v>
+      </c>
+      <c r="B2580">
+        <v>2</v>
+      </c>
+      <c r="C2580">
+        <v>4</v>
+      </c>
+      <c r="D2580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2581">
+        <v>5</v>
+      </c>
+      <c r="B2581">
+        <v>0</v>
+      </c>
+      <c r="C2581">
+        <v>7</v>
+      </c>
+      <c r="D2581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2582">
+        <v>3</v>
+      </c>
+      <c r="B2582">
+        <v>1</v>
+      </c>
+      <c r="C2582">
+        <v>3</v>
+      </c>
+      <c r="D2582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2583">
+        <v>3</v>
+      </c>
+      <c r="B2583">
+        <v>2</v>
+      </c>
+      <c r="C2583">
+        <v>3</v>
+      </c>
+      <c r="D2583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2584">
+        <v>7</v>
+      </c>
+      <c r="B2584">
+        <v>2</v>
+      </c>
+      <c r="C2584">
+        <v>6</v>
+      </c>
+      <c r="D2584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2585">
+        <v>5</v>
+      </c>
+      <c r="B2585">
+        <v>3</v>
+      </c>
+      <c r="C2585">
+        <v>4</v>
+      </c>
+      <c r="D2585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2586">
+        <v>4</v>
+      </c>
+      <c r="B2586">
+        <v>1</v>
+      </c>
+      <c r="C2586">
+        <v>5</v>
+      </c>
+      <c r="D2586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2587">
+        <v>4</v>
+      </c>
+      <c r="B2587">
+        <v>2</v>
+      </c>
+      <c r="C2587">
+        <v>4</v>
+      </c>
+      <c r="D2587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2588">
+        <v>5</v>
+      </c>
+      <c r="B2588">
+        <v>0</v>
+      </c>
+      <c r="C2588">
+        <v>5</v>
+      </c>
+      <c r="D2588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2589">
+        <v>6</v>
+      </c>
+      <c r="B2589">
+        <v>2</v>
+      </c>
+      <c r="C2589">
+        <v>5</v>
+      </c>
+      <c r="D2589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2590">
+        <v>4</v>
+      </c>
+      <c r="B2590">
+        <v>2</v>
+      </c>
+      <c r="C2590">
+        <v>6</v>
+      </c>
+      <c r="D2590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2591">
+        <v>4</v>
+      </c>
+      <c r="B2591">
+        <v>3</v>
+      </c>
+      <c r="C2591">
+        <v>3</v>
+      </c>
+      <c r="D2591">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614F7A1-2D51-44A5-906F-FA9514CF2980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA750A90-8BD8-4596-98AA-75D9A59E050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2591"/>
+  <dimension ref="A1:D2611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2572" workbookViewId="0">
-      <selection activeCell="A2592" sqref="A2592"/>
+    <sheetView tabSelected="1" topLeftCell="A2590" workbookViewId="0">
+      <selection activeCell="A2612" sqref="A2612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36649,6 +36649,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2592">
+        <v>3</v>
+      </c>
+      <c r="B2592">
+        <v>2</v>
+      </c>
+      <c r="C2592">
+        <v>3</v>
+      </c>
+      <c r="D2592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2593">
+        <v>3</v>
+      </c>
+      <c r="B2593">
+        <v>1</v>
+      </c>
+      <c r="C2593">
+        <v>4</v>
+      </c>
+      <c r="D2593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2594">
+        <v>6</v>
+      </c>
+      <c r="B2594">
+        <v>2</v>
+      </c>
+      <c r="C2594">
+        <v>5</v>
+      </c>
+      <c r="D2594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2595">
+        <v>5</v>
+      </c>
+      <c r="B2595">
+        <v>2</v>
+      </c>
+      <c r="C2595">
+        <v>4</v>
+      </c>
+      <c r="D2595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2596">
+        <v>6</v>
+      </c>
+      <c r="B2596">
+        <v>1</v>
+      </c>
+      <c r="C2596">
+        <v>6</v>
+      </c>
+      <c r="D2596">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2597">
+        <v>3</v>
+      </c>
+      <c r="B2597">
+        <v>0</v>
+      </c>
+      <c r="C2597">
+        <v>3</v>
+      </c>
+      <c r="D2597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2598">
+        <v>4</v>
+      </c>
+      <c r="B2598">
+        <v>2</v>
+      </c>
+      <c r="C2598">
+        <v>3</v>
+      </c>
+      <c r="D2598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2599">
+        <v>5</v>
+      </c>
+      <c r="B2599">
+        <v>0</v>
+      </c>
+      <c r="C2599">
+        <v>6</v>
+      </c>
+      <c r="D2599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2600">
+        <v>3</v>
+      </c>
+      <c r="B2600">
+        <v>3</v>
+      </c>
+      <c r="C2600">
+        <v>3</v>
+      </c>
+      <c r="D2600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2601">
+        <v>6</v>
+      </c>
+      <c r="B2601">
+        <v>1</v>
+      </c>
+      <c r="C2601">
+        <v>6</v>
+      </c>
+      <c r="D2601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2602">
+        <v>5</v>
+      </c>
+      <c r="B2602">
+        <v>0</v>
+      </c>
+      <c r="C2602">
+        <v>4</v>
+      </c>
+      <c r="D2602">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2603">
+        <v>3</v>
+      </c>
+      <c r="B2603">
+        <v>2</v>
+      </c>
+      <c r="C2603">
+        <v>4</v>
+      </c>
+      <c r="D2603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2604">
+        <v>3</v>
+      </c>
+      <c r="B2604">
+        <v>3</v>
+      </c>
+      <c r="C2604">
+        <v>5</v>
+      </c>
+      <c r="D2604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2605">
+        <v>5</v>
+      </c>
+      <c r="B2605">
+        <v>1</v>
+      </c>
+      <c r="C2605">
+        <v>6</v>
+      </c>
+      <c r="D2605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2606">
+        <v>7</v>
+      </c>
+      <c r="B2606">
+        <v>3</v>
+      </c>
+      <c r="C2606">
+        <v>4</v>
+      </c>
+      <c r="D2606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2607">
+        <v>4</v>
+      </c>
+      <c r="B2607">
+        <v>2</v>
+      </c>
+      <c r="C2607">
+        <v>4</v>
+      </c>
+      <c r="D2607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2608">
+        <v>3</v>
+      </c>
+      <c r="B2608">
+        <v>0</v>
+      </c>
+      <c r="C2608">
+        <v>7</v>
+      </c>
+      <c r="D2608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2609">
+        <v>5</v>
+      </c>
+      <c r="B2609">
+        <v>3</v>
+      </c>
+      <c r="C2609">
+        <v>5</v>
+      </c>
+      <c r="D2609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2610">
+        <v>4</v>
+      </c>
+      <c r="B2610">
+        <v>3</v>
+      </c>
+      <c r="C2610">
+        <v>2</v>
+      </c>
+      <c r="D2610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2611">
+        <v>4</v>
+      </c>
+      <c r="B2611">
+        <v>3</v>
+      </c>
+      <c r="C2611">
+        <v>5</v>
+      </c>
+      <c r="D2611">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA750A90-8BD8-4596-98AA-75D9A59E050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C1EBC-9AC1-4B69-B663-095226153F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2611"/>
+  <dimension ref="A1:D2631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2590" workbookViewId="0">
-      <selection activeCell="A2612" sqref="A2612"/>
+    <sheetView tabSelected="1" topLeftCell="A2611" workbookViewId="0">
+      <selection activeCell="A2632" sqref="A2632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36929,6 +36929,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2612">
+        <v>5</v>
+      </c>
+      <c r="B2612">
+        <v>1</v>
+      </c>
+      <c r="C2612">
+        <v>3</v>
+      </c>
+      <c r="D2612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2613">
+        <v>5</v>
+      </c>
+      <c r="B2613">
+        <v>2</v>
+      </c>
+      <c r="C2613">
+        <v>5</v>
+      </c>
+      <c r="D2613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2614">
+        <v>3</v>
+      </c>
+      <c r="B2614">
+        <v>0</v>
+      </c>
+      <c r="C2614">
+        <v>4</v>
+      </c>
+      <c r="D2614">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2615">
+        <v>3</v>
+      </c>
+      <c r="B2615">
+        <v>3</v>
+      </c>
+      <c r="C2615">
+        <v>4</v>
+      </c>
+      <c r="D2615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2616">
+        <v>6</v>
+      </c>
+      <c r="B2616">
+        <v>2</v>
+      </c>
+      <c r="C2616">
+        <v>6</v>
+      </c>
+      <c r="D2616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2617">
+        <v>4</v>
+      </c>
+      <c r="B2617">
+        <v>0</v>
+      </c>
+      <c r="C2617">
+        <v>4</v>
+      </c>
+      <c r="D2617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2618">
+        <v>5</v>
+      </c>
+      <c r="B2618">
+        <v>2</v>
+      </c>
+      <c r="C2618">
+        <v>6</v>
+      </c>
+      <c r="D2618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2619">
+        <v>7</v>
+      </c>
+      <c r="B2619">
+        <v>2</v>
+      </c>
+      <c r="C2619">
+        <v>4</v>
+      </c>
+      <c r="D2619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2620">
+        <v>5</v>
+      </c>
+      <c r="B2620">
+        <v>1</v>
+      </c>
+      <c r="C2620">
+        <v>5</v>
+      </c>
+      <c r="D2620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2621">
+        <v>2</v>
+      </c>
+      <c r="B2621">
+        <v>2</v>
+      </c>
+      <c r="C2621">
+        <v>4</v>
+      </c>
+      <c r="D2621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2622">
+        <v>3</v>
+      </c>
+      <c r="B2622">
+        <v>3</v>
+      </c>
+      <c r="C2622">
+        <v>3</v>
+      </c>
+      <c r="D2622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2623">
+        <v>3</v>
+      </c>
+      <c r="B2623">
+        <v>1</v>
+      </c>
+      <c r="C2623">
+        <v>4</v>
+      </c>
+      <c r="D2623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2624">
+        <v>3</v>
+      </c>
+      <c r="B2624">
+        <v>0</v>
+      </c>
+      <c r="C2624">
+        <v>4</v>
+      </c>
+      <c r="D2624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2625">
+        <v>6</v>
+      </c>
+      <c r="B2625">
+        <v>0</v>
+      </c>
+      <c r="C2625">
+        <v>4</v>
+      </c>
+      <c r="D2625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2626">
+        <v>6</v>
+      </c>
+      <c r="B2626">
+        <v>0</v>
+      </c>
+      <c r="C2626">
+        <v>6</v>
+      </c>
+      <c r="D2626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2627">
+        <v>3</v>
+      </c>
+      <c r="B2627">
+        <v>2</v>
+      </c>
+      <c r="C2627">
+        <v>6</v>
+      </c>
+      <c r="D2627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2628">
+        <v>5</v>
+      </c>
+      <c r="B2628">
+        <v>0</v>
+      </c>
+      <c r="C2628">
+        <v>3</v>
+      </c>
+      <c r="D2628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2629">
+        <v>3</v>
+      </c>
+      <c r="B2629">
+        <v>3</v>
+      </c>
+      <c r="C2629">
+        <v>3</v>
+      </c>
+      <c r="D2629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2630">
+        <v>7</v>
+      </c>
+      <c r="B2630">
+        <v>2</v>
+      </c>
+      <c r="C2630">
+        <v>7</v>
+      </c>
+      <c r="D2630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2631">
+        <v>5</v>
+      </c>
+      <c r="B2631">
+        <v>2</v>
+      </c>
+      <c r="C2631">
+        <v>4</v>
+      </c>
+      <c r="D2631">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C1EBC-9AC1-4B69-B663-095226153F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A295F961-F1B3-4D48-853D-1CB5B2675871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2631"/>
+  <dimension ref="A1:D2651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2611" workbookViewId="0">
-      <selection activeCell="A2632" sqref="A2632"/>
+    <sheetView tabSelected="1" topLeftCell="A2641" workbookViewId="0">
+      <selection activeCell="F2663" sqref="F2663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37209,6 +37209,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2632">
+        <v>6</v>
+      </c>
+      <c r="B2632">
+        <v>1</v>
+      </c>
+      <c r="C2632">
+        <v>4</v>
+      </c>
+      <c r="D2632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2633">
+        <v>3</v>
+      </c>
+      <c r="B2633">
+        <v>0</v>
+      </c>
+      <c r="C2633">
+        <v>4</v>
+      </c>
+      <c r="D2633">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2634">
+        <v>3</v>
+      </c>
+      <c r="B2634">
+        <v>2</v>
+      </c>
+      <c r="C2634">
+        <v>5</v>
+      </c>
+      <c r="D2634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2635">
+        <v>4</v>
+      </c>
+      <c r="B2635">
+        <v>3</v>
+      </c>
+      <c r="C2635">
+        <v>4</v>
+      </c>
+      <c r="D2635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2636">
+        <v>4</v>
+      </c>
+      <c r="B2636">
+        <v>0</v>
+      </c>
+      <c r="C2636">
+        <v>6</v>
+      </c>
+      <c r="D2636">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2637">
+        <v>5</v>
+      </c>
+      <c r="B2637">
+        <v>0</v>
+      </c>
+      <c r="C2637">
+        <v>3</v>
+      </c>
+      <c r="D2637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2638">
+        <v>6</v>
+      </c>
+      <c r="B2638">
+        <v>0</v>
+      </c>
+      <c r="C2638">
+        <v>5</v>
+      </c>
+      <c r="D2638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2639">
+        <v>3</v>
+      </c>
+      <c r="B2639">
+        <v>0</v>
+      </c>
+      <c r="C2639">
+        <v>3</v>
+      </c>
+      <c r="D2639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2640">
+        <v>4</v>
+      </c>
+      <c r="B2640">
+        <v>2</v>
+      </c>
+      <c r="C2640">
+        <v>6</v>
+      </c>
+      <c r="D2640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2641">
+        <v>4</v>
+      </c>
+      <c r="B2641">
+        <v>0</v>
+      </c>
+      <c r="C2641">
+        <v>6</v>
+      </c>
+      <c r="D2641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2642">
+        <v>5</v>
+      </c>
+      <c r="B2642">
+        <v>0</v>
+      </c>
+      <c r="C2642">
+        <v>5</v>
+      </c>
+      <c r="D2642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2643">
+        <v>4</v>
+      </c>
+      <c r="B2643">
+        <v>0</v>
+      </c>
+      <c r="C2643">
+        <v>3</v>
+      </c>
+      <c r="D2643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2644">
+        <v>5</v>
+      </c>
+      <c r="B2644">
+        <v>1</v>
+      </c>
+      <c r="C2644">
+        <v>3</v>
+      </c>
+      <c r="D2644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2645">
+        <v>2</v>
+      </c>
+      <c r="B2645">
+        <v>2</v>
+      </c>
+      <c r="C2645">
+        <v>4</v>
+      </c>
+      <c r="D2645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2646">
+        <v>7</v>
+      </c>
+      <c r="B2646">
+        <v>0</v>
+      </c>
+      <c r="C2646">
+        <v>7</v>
+      </c>
+      <c r="D2646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2647">
+        <v>3</v>
+      </c>
+      <c r="B2647">
+        <v>1</v>
+      </c>
+      <c r="C2647">
+        <v>4</v>
+      </c>
+      <c r="D2647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2648">
+        <v>6</v>
+      </c>
+      <c r="B2648">
+        <v>2</v>
+      </c>
+      <c r="C2648">
+        <v>7</v>
+      </c>
+      <c r="D2648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2649">
+        <v>4</v>
+      </c>
+      <c r="B2649">
+        <v>0</v>
+      </c>
+      <c r="C2649">
+        <v>3</v>
+      </c>
+      <c r="D2649">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2650">
+        <v>5</v>
+      </c>
+      <c r="B2650">
+        <v>1</v>
+      </c>
+      <c r="C2650">
+        <v>6</v>
+      </c>
+      <c r="D2650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2651">
+        <v>4</v>
+      </c>
+      <c r="B2651">
+        <v>2</v>
+      </c>
+      <c r="C2651">
+        <v>3</v>
+      </c>
+      <c r="D2651">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A295F961-F1B3-4D48-853D-1CB5B2675871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B455F2-CE1A-460F-B061-0D2DAB677F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2651"/>
+  <dimension ref="A1:D2671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2641" workbookViewId="0">
-      <selection activeCell="F2663" sqref="F2663"/>
+    <sheetView tabSelected="1" topLeftCell="A2659" workbookViewId="0">
+      <selection activeCell="A2672" sqref="A2672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37489,6 +37489,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2652">
+        <v>3</v>
+      </c>
+      <c r="B2652">
+        <v>3</v>
+      </c>
+      <c r="C2652">
+        <v>3</v>
+      </c>
+      <c r="D2652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2653">
+        <v>5</v>
+      </c>
+      <c r="B2653">
+        <v>3</v>
+      </c>
+      <c r="C2653">
+        <v>4</v>
+      </c>
+      <c r="D2653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2654">
+        <v>5</v>
+      </c>
+      <c r="B2654">
+        <v>2</v>
+      </c>
+      <c r="C2654">
+        <v>5</v>
+      </c>
+      <c r="D2654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2655">
+        <v>4</v>
+      </c>
+      <c r="B2655">
+        <v>0</v>
+      </c>
+      <c r="C2655">
+        <v>6</v>
+      </c>
+      <c r="D2655">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2656">
+        <v>3</v>
+      </c>
+      <c r="B2656">
+        <v>0</v>
+      </c>
+      <c r="C2656">
+        <v>3</v>
+      </c>
+      <c r="D2656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2657">
+        <v>6</v>
+      </c>
+      <c r="B2657">
+        <v>0</v>
+      </c>
+      <c r="C2657">
+        <v>7</v>
+      </c>
+      <c r="D2657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2658">
+        <v>4</v>
+      </c>
+      <c r="B2658">
+        <v>2</v>
+      </c>
+      <c r="C2658">
+        <v>2</v>
+      </c>
+      <c r="D2658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2659">
+        <v>4</v>
+      </c>
+      <c r="B2659">
+        <v>0</v>
+      </c>
+      <c r="C2659">
+        <v>5</v>
+      </c>
+      <c r="D2659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2660">
+        <v>5</v>
+      </c>
+      <c r="B2660">
+        <v>2</v>
+      </c>
+      <c r="C2660">
+        <v>6</v>
+      </c>
+      <c r="D2660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2661">
+        <v>4</v>
+      </c>
+      <c r="B2661">
+        <v>0</v>
+      </c>
+      <c r="C2661">
+        <v>3</v>
+      </c>
+      <c r="D2661">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2662">
+        <v>2</v>
+      </c>
+      <c r="B2662">
+        <v>0</v>
+      </c>
+      <c r="C2662">
+        <v>3</v>
+      </c>
+      <c r="D2662">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2663">
+        <v>4</v>
+      </c>
+      <c r="B2663">
+        <v>2</v>
+      </c>
+      <c r="C2663">
+        <v>5</v>
+      </c>
+      <c r="D2663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2664">
+        <v>4</v>
+      </c>
+      <c r="B2664">
+        <v>2</v>
+      </c>
+      <c r="C2664">
+        <v>4</v>
+      </c>
+      <c r="D2664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2665">
+        <v>5</v>
+      </c>
+      <c r="B2665">
+        <v>0</v>
+      </c>
+      <c r="C2665">
+        <v>3</v>
+      </c>
+      <c r="D2665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2666">
+        <v>6</v>
+      </c>
+      <c r="B2666">
+        <v>0</v>
+      </c>
+      <c r="C2666">
+        <v>6</v>
+      </c>
+      <c r="D2666">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2667">
+        <v>3</v>
+      </c>
+      <c r="B2667">
+        <v>0</v>
+      </c>
+      <c r="C2667">
+        <v>3</v>
+      </c>
+      <c r="D2667">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2668">
+        <v>4</v>
+      </c>
+      <c r="B2668">
+        <v>0</v>
+      </c>
+      <c r="C2668">
+        <v>5</v>
+      </c>
+      <c r="D2668">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2669">
+        <v>3</v>
+      </c>
+      <c r="B2669">
+        <v>2</v>
+      </c>
+      <c r="C2669">
+        <v>4</v>
+      </c>
+      <c r="D2669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2670">
+        <v>7</v>
+      </c>
+      <c r="B2670">
+        <v>3</v>
+      </c>
+      <c r="C2670">
+        <v>4</v>
+      </c>
+      <c r="D2670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2671">
+        <v>3</v>
+      </c>
+      <c r="B2671">
+        <v>0</v>
+      </c>
+      <c r="C2671">
+        <v>7</v>
+      </c>
+      <c r="D2671">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B455F2-CE1A-460F-B061-0D2DAB677F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B1BE6-AA4D-4599-8933-C254C35E319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2671"/>
+  <dimension ref="A1:D2704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2659" workbookViewId="0">
-      <selection activeCell="A2672" sqref="A2672"/>
+    <sheetView tabSelected="1" topLeftCell="A2689" workbookViewId="0">
+      <selection activeCell="A2705" sqref="A2705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37769,6 +37769,468 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2672">
+        <v>5</v>
+      </c>
+      <c r="B2672">
+        <v>0</v>
+      </c>
+      <c r="C2672">
+        <v>5</v>
+      </c>
+      <c r="D2672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2673">
+        <v>4</v>
+      </c>
+      <c r="B2673">
+        <v>3</v>
+      </c>
+      <c r="C2673">
+        <v>3</v>
+      </c>
+      <c r="D2673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2674">
+        <v>4</v>
+      </c>
+      <c r="B2674">
+        <v>0</v>
+      </c>
+      <c r="C2674">
+        <v>5</v>
+      </c>
+      <c r="D2674">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2675">
+        <v>3</v>
+      </c>
+      <c r="B2675">
+        <v>0</v>
+      </c>
+      <c r="C2675">
+        <v>3</v>
+      </c>
+      <c r="D2675">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2676">
+        <v>6</v>
+      </c>
+      <c r="B2676">
+        <v>0</v>
+      </c>
+      <c r="C2676">
+        <v>7</v>
+      </c>
+      <c r="D2676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2677">
+        <v>2</v>
+      </c>
+      <c r="B2677">
+        <v>0</v>
+      </c>
+      <c r="C2677">
+        <v>3</v>
+      </c>
+      <c r="D2677">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2678">
+        <v>6</v>
+      </c>
+      <c r="B2678">
+        <v>2</v>
+      </c>
+      <c r="C2678">
+        <v>5</v>
+      </c>
+      <c r="D2678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2679">
+        <v>5</v>
+      </c>
+      <c r="B2679">
+        <v>0</v>
+      </c>
+      <c r="C2679">
+        <v>7</v>
+      </c>
+      <c r="D2679">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2680">
+        <v>3</v>
+      </c>
+      <c r="B2680">
+        <v>2</v>
+      </c>
+      <c r="C2680">
+        <v>4</v>
+      </c>
+      <c r="D2680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2681">
+        <v>6</v>
+      </c>
+      <c r="B2681">
+        <v>2</v>
+      </c>
+      <c r="C2681">
+        <v>4</v>
+      </c>
+      <c r="D2681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2682">
+        <v>4</v>
+      </c>
+      <c r="B2682">
+        <v>0</v>
+      </c>
+      <c r="C2682">
+        <v>4</v>
+      </c>
+      <c r="D2682">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2683">
+        <v>6</v>
+      </c>
+      <c r="B2683">
+        <v>2</v>
+      </c>
+      <c r="C2683">
+        <v>3</v>
+      </c>
+      <c r="D2683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2684">
+        <v>3</v>
+      </c>
+      <c r="B2684">
+        <v>0</v>
+      </c>
+      <c r="C2684">
+        <v>5</v>
+      </c>
+      <c r="D2684">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2685">
+        <v>4</v>
+      </c>
+      <c r="B2685">
+        <v>2</v>
+      </c>
+      <c r="C2685">
+        <v>4</v>
+      </c>
+      <c r="D2685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2686">
+        <v>5</v>
+      </c>
+      <c r="B2686">
+        <v>2</v>
+      </c>
+      <c r="C2686">
+        <v>7</v>
+      </c>
+      <c r="D2686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2687">
+        <v>4</v>
+      </c>
+      <c r="B2687">
+        <v>0</v>
+      </c>
+      <c r="C2687">
+        <v>4</v>
+      </c>
+      <c r="D2687">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2688">
+        <v>6</v>
+      </c>
+      <c r="B2688">
+        <v>2</v>
+      </c>
+      <c r="C2688">
+        <v>6</v>
+      </c>
+      <c r="D2688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2689">
+        <v>5</v>
+      </c>
+      <c r="B2689">
+        <v>2</v>
+      </c>
+      <c r="C2689">
+        <v>4</v>
+      </c>
+      <c r="D2689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2690">
+        <v>4</v>
+      </c>
+      <c r="B2690">
+        <v>0</v>
+      </c>
+      <c r="C2690">
+        <v>3</v>
+      </c>
+      <c r="D2690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2691">
+        <v>4</v>
+      </c>
+      <c r="B2691">
+        <v>2</v>
+      </c>
+      <c r="C2691">
+        <v>7</v>
+      </c>
+      <c r="D2691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2692">
+        <v>3</v>
+      </c>
+      <c r="B2692">
+        <v>3</v>
+      </c>
+      <c r="C2692">
+        <v>3</v>
+      </c>
+      <c r="D2692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2693">
+        <v>4</v>
+      </c>
+      <c r="B2693">
+        <v>0</v>
+      </c>
+      <c r="C2693">
+        <v>5</v>
+      </c>
+      <c r="D2693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2694">
+        <v>3</v>
+      </c>
+      <c r="B2694">
+        <v>1</v>
+      </c>
+      <c r="C2694">
+        <v>3</v>
+      </c>
+      <c r="D2694">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2695">
+        <v>4</v>
+      </c>
+      <c r="B2695">
+        <v>1</v>
+      </c>
+      <c r="C2695">
+        <v>4</v>
+      </c>
+      <c r="D2695">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2696">
+        <v>3</v>
+      </c>
+      <c r="B2696">
+        <v>0</v>
+      </c>
+      <c r="C2696">
+        <v>2</v>
+      </c>
+      <c r="D2696">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2697">
+        <v>3</v>
+      </c>
+      <c r="B2697">
+        <v>0</v>
+      </c>
+      <c r="C2697">
+        <v>4</v>
+      </c>
+      <c r="D2697">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2698">
+        <v>7</v>
+      </c>
+      <c r="B2698">
+        <v>2</v>
+      </c>
+      <c r="C2698">
+        <v>4</v>
+      </c>
+      <c r="D2698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2699">
+        <v>6</v>
+      </c>
+      <c r="B2699">
+        <v>1</v>
+      </c>
+      <c r="C2699">
+        <v>6</v>
+      </c>
+      <c r="D2699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2700">
+        <v>4</v>
+      </c>
+      <c r="B2700">
+        <v>1</v>
+      </c>
+      <c r="C2700">
+        <v>5</v>
+      </c>
+      <c r="D2700">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2701">
+        <v>4</v>
+      </c>
+      <c r="B2701">
+        <v>3</v>
+      </c>
+      <c r="C2701">
+        <v>4</v>
+      </c>
+      <c r="D2701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2702">
+        <v>3</v>
+      </c>
+      <c r="B2702">
+        <v>0</v>
+      </c>
+      <c r="C2702">
+        <v>4</v>
+      </c>
+      <c r="D2702">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2703">
+        <v>6</v>
+      </c>
+      <c r="B2703">
+        <v>2</v>
+      </c>
+      <c r="C2703">
+        <v>5</v>
+      </c>
+      <c r="D2703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2704">
+        <v>5</v>
+      </c>
+      <c r="B2704">
+        <v>1</v>
+      </c>
+      <c r="C2704">
+        <v>4</v>
+      </c>
+      <c r="D2704">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B1BE6-AA4D-4599-8933-C254C35E319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A31FA-DA7B-4B6C-8086-AF005BA5201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2704"/>
+  <dimension ref="A1:D2725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2689" workbookViewId="0">
-      <selection activeCell="A2705" sqref="A2705"/>
+    <sheetView tabSelected="1" topLeftCell="A2707" workbookViewId="0">
+      <selection activeCell="A2726" sqref="A2726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38231,6 +38231,300 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2705">
+        <v>6</v>
+      </c>
+      <c r="B2705">
+        <v>0</v>
+      </c>
+      <c r="C2705">
+        <v>5</v>
+      </c>
+      <c r="D2705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2706">
+        <v>4</v>
+      </c>
+      <c r="B2706">
+        <v>3</v>
+      </c>
+      <c r="C2706">
+        <v>3</v>
+      </c>
+      <c r="D2706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2707">
+        <v>3</v>
+      </c>
+      <c r="B2707">
+        <v>2</v>
+      </c>
+      <c r="C2707">
+        <v>2</v>
+      </c>
+      <c r="D2707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2708">
+        <v>5</v>
+      </c>
+      <c r="B2708">
+        <v>1</v>
+      </c>
+      <c r="C2708">
+        <v>5</v>
+      </c>
+      <c r="D2708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2709">
+        <v>5</v>
+      </c>
+      <c r="B2709">
+        <v>2</v>
+      </c>
+      <c r="C2709">
+        <v>6</v>
+      </c>
+      <c r="D2709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2710">
+        <v>4</v>
+      </c>
+      <c r="B2710">
+        <v>0</v>
+      </c>
+      <c r="C2710">
+        <v>3</v>
+      </c>
+      <c r="D2710">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2711">
+        <v>4</v>
+      </c>
+      <c r="B2711">
+        <v>0</v>
+      </c>
+      <c r="C2711">
+        <v>4</v>
+      </c>
+      <c r="D2711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2712">
+        <v>3</v>
+      </c>
+      <c r="B2712">
+        <v>1</v>
+      </c>
+      <c r="C2712">
+        <v>4</v>
+      </c>
+      <c r="D2712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2713">
+        <v>6</v>
+      </c>
+      <c r="B2713">
+        <v>0</v>
+      </c>
+      <c r="C2713">
+        <v>5</v>
+      </c>
+      <c r="D2713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2714">
+        <v>3</v>
+      </c>
+      <c r="B2714">
+        <v>0</v>
+      </c>
+      <c r="C2714">
+        <v>6</v>
+      </c>
+      <c r="D2714">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2715">
+        <v>7</v>
+      </c>
+      <c r="B2715">
+        <v>2</v>
+      </c>
+      <c r="C2715">
+        <v>3</v>
+      </c>
+      <c r="D2715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2716">
+        <v>2</v>
+      </c>
+      <c r="B2716">
+        <v>0</v>
+      </c>
+      <c r="C2716">
+        <v>3</v>
+      </c>
+      <c r="D2716">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2717">
+        <v>4</v>
+      </c>
+      <c r="B2717">
+        <v>2</v>
+      </c>
+      <c r="C2717">
+        <v>5</v>
+      </c>
+      <c r="D2717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2718">
+        <v>4</v>
+      </c>
+      <c r="B2718">
+        <v>2</v>
+      </c>
+      <c r="C2718">
+        <v>3</v>
+      </c>
+      <c r="D2718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2719">
+        <v>5</v>
+      </c>
+      <c r="B2719">
+        <v>0</v>
+      </c>
+      <c r="C2719">
+        <v>5</v>
+      </c>
+      <c r="D2719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2720">
+        <v>6</v>
+      </c>
+      <c r="B2720">
+        <v>0</v>
+      </c>
+      <c r="C2720">
+        <v>4</v>
+      </c>
+      <c r="D2720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2721">
+        <v>4</v>
+      </c>
+      <c r="B2721">
+        <v>0</v>
+      </c>
+      <c r="C2721">
+        <v>4</v>
+      </c>
+      <c r="D2721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2722">
+        <v>4</v>
+      </c>
+      <c r="B2722">
+        <v>0</v>
+      </c>
+      <c r="C2722">
+        <v>4</v>
+      </c>
+      <c r="D2722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2723">
+        <v>5</v>
+      </c>
+      <c r="B2723">
+        <v>1</v>
+      </c>
+      <c r="C2723">
+        <v>6</v>
+      </c>
+      <c r="D2723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2724">
+        <v>4</v>
+      </c>
+      <c r="B2724">
+        <v>2</v>
+      </c>
+      <c r="C2724">
+        <v>4</v>
+      </c>
+      <c r="D2724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2725">
+        <v>6</v>
+      </c>
+      <c r="B2725">
+        <v>0</v>
+      </c>
+      <c r="C2725">
+        <v>4</v>
+      </c>
+      <c r="D2725">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A31FA-DA7B-4B6C-8086-AF005BA5201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{A62A31FA-DA7B-4B6C-8086-AF005BA5201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C6A724-B2DD-4331-AAF7-248FCFC989F1}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2725"/>
+  <dimension ref="A1:D2745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2707" workbookViewId="0">
-      <selection activeCell="A2726" sqref="A2726"/>
+    <sheetView tabSelected="1" topLeftCell="A2725" workbookViewId="0">
+      <selection activeCell="A2746" sqref="A2746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38525,6 +38525,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2726">
+        <v>4</v>
+      </c>
+      <c r="B2726">
+        <v>1</v>
+      </c>
+      <c r="C2726">
+        <v>5</v>
+      </c>
+      <c r="D2726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2727">
+        <v>3</v>
+      </c>
+      <c r="B2727">
+        <v>3</v>
+      </c>
+      <c r="C2727">
+        <v>3</v>
+      </c>
+      <c r="D2727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2728">
+        <v>5</v>
+      </c>
+      <c r="B2728">
+        <v>1</v>
+      </c>
+      <c r="C2728">
+        <v>5</v>
+      </c>
+      <c r="D2728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2729">
+        <v>6</v>
+      </c>
+      <c r="B2729">
+        <v>3</v>
+      </c>
+      <c r="C2729">
+        <v>6</v>
+      </c>
+      <c r="D2729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2730">
+        <v>5</v>
+      </c>
+      <c r="B2730">
+        <v>0</v>
+      </c>
+      <c r="C2730">
+        <v>4</v>
+      </c>
+      <c r="D2730">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2731">
+        <v>6</v>
+      </c>
+      <c r="B2731">
+        <v>2</v>
+      </c>
+      <c r="C2731">
+        <v>4</v>
+      </c>
+      <c r="D2731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2732">
+        <v>5</v>
+      </c>
+      <c r="B2732">
+        <v>1</v>
+      </c>
+      <c r="C2732">
+        <v>7</v>
+      </c>
+      <c r="D2732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2733">
+        <v>4</v>
+      </c>
+      <c r="B2733">
+        <v>0</v>
+      </c>
+      <c r="C2733">
+        <v>5</v>
+      </c>
+      <c r="D2733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2734">
+        <v>4</v>
+      </c>
+      <c r="B2734">
+        <v>0</v>
+      </c>
+      <c r="C2734">
+        <v>3</v>
+      </c>
+      <c r="D2734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2735">
+        <v>4</v>
+      </c>
+      <c r="B2735">
+        <v>1</v>
+      </c>
+      <c r="C2735">
+        <v>4</v>
+      </c>
+      <c r="D2735">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2736">
+        <v>5</v>
+      </c>
+      <c r="B2736">
+        <v>3</v>
+      </c>
+      <c r="C2736">
+        <v>2</v>
+      </c>
+      <c r="D2736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2737">
+        <v>4</v>
+      </c>
+      <c r="B2737">
+        <v>2</v>
+      </c>
+      <c r="C2737">
+        <v>5</v>
+      </c>
+      <c r="D2737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2738">
+        <v>3</v>
+      </c>
+      <c r="B2738">
+        <v>3</v>
+      </c>
+      <c r="C2738">
+        <v>4</v>
+      </c>
+      <c r="D2738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2739">
+        <v>5</v>
+      </c>
+      <c r="B2739">
+        <v>1</v>
+      </c>
+      <c r="C2739">
+        <v>6</v>
+      </c>
+      <c r="D2739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2740">
+        <v>6</v>
+      </c>
+      <c r="B2740">
+        <v>2</v>
+      </c>
+      <c r="C2740">
+        <v>6</v>
+      </c>
+      <c r="D2740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2741">
+        <v>7</v>
+      </c>
+      <c r="B2741">
+        <v>0</v>
+      </c>
+      <c r="C2741">
+        <v>7</v>
+      </c>
+      <c r="D2741">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2742">
+        <v>4</v>
+      </c>
+      <c r="B2742">
+        <v>0</v>
+      </c>
+      <c r="C2742">
+        <v>5</v>
+      </c>
+      <c r="D2742">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2743">
+        <v>6</v>
+      </c>
+      <c r="B2743">
+        <v>1</v>
+      </c>
+      <c r="C2743">
+        <v>6</v>
+      </c>
+      <c r="D2743">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2744">
+        <v>3</v>
+      </c>
+      <c r="B2744">
+        <v>1</v>
+      </c>
+      <c r="C2744">
+        <v>2</v>
+      </c>
+      <c r="D2744">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2745">
+        <v>3</v>
+      </c>
+      <c r="B2745">
+        <v>1</v>
+      </c>
+      <c r="C2745">
+        <v>2</v>
+      </c>
+      <c r="D2745">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{A62A31FA-DA7B-4B6C-8086-AF005BA5201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C6A724-B2DD-4331-AAF7-248FCFC989F1}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{A62A31FA-DA7B-4B6C-8086-AF005BA5201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0389CB-477F-44DF-8A44-B19EFBFE8F7D}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,6 +99,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2745"/>
+  <dimension ref="A1:D2764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2725" workbookViewId="0">
-      <selection activeCell="A2746" sqref="A2746"/>
+    <sheetView tabSelected="1" topLeftCell="A2752" workbookViewId="0">
+      <selection activeCell="A2765" sqref="A2765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38805,6 +38809,272 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2746">
+        <v>5</v>
+      </c>
+      <c r="B2746">
+        <v>3</v>
+      </c>
+      <c r="C2746">
+        <v>5</v>
+      </c>
+      <c r="D2746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2747">
+        <v>3</v>
+      </c>
+      <c r="B2747">
+        <v>2</v>
+      </c>
+      <c r="C2747">
+        <v>4</v>
+      </c>
+      <c r="D2747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2748">
+        <v>3</v>
+      </c>
+      <c r="B2748">
+        <v>2</v>
+      </c>
+      <c r="C2748">
+        <v>4</v>
+      </c>
+      <c r="D2748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2749">
+        <v>5</v>
+      </c>
+      <c r="B2749">
+        <v>2</v>
+      </c>
+      <c r="C2749">
+        <v>6</v>
+      </c>
+      <c r="D2749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2750">
+        <v>4</v>
+      </c>
+      <c r="B2750">
+        <v>0</v>
+      </c>
+      <c r="C2750">
+        <v>3</v>
+      </c>
+      <c r="D2750">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2751">
+        <v>5</v>
+      </c>
+      <c r="B2751">
+        <v>0</v>
+      </c>
+      <c r="C2751">
+        <v>5</v>
+      </c>
+      <c r="D2751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2752">
+        <v>7</v>
+      </c>
+      <c r="B2752">
+        <v>2</v>
+      </c>
+      <c r="C2752">
+        <v>5</v>
+      </c>
+      <c r="D2752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2753">
+        <v>4</v>
+      </c>
+      <c r="B2753">
+        <v>0</v>
+      </c>
+      <c r="C2753">
+        <v>4</v>
+      </c>
+      <c r="D2753">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2754">
+        <v>3</v>
+      </c>
+      <c r="B2754">
+        <v>1</v>
+      </c>
+      <c r="C2754">
+        <v>3</v>
+      </c>
+      <c r="D2754">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2755">
+        <v>5</v>
+      </c>
+      <c r="B2755">
+        <v>2</v>
+      </c>
+      <c r="C2755">
+        <v>3</v>
+      </c>
+      <c r="D2755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2756">
+        <v>3</v>
+      </c>
+      <c r="B2756">
+        <v>1</v>
+      </c>
+      <c r="C2756">
+        <v>3</v>
+      </c>
+      <c r="D2756">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2757">
+        <v>3</v>
+      </c>
+      <c r="B2757">
+        <v>2</v>
+      </c>
+      <c r="C2757">
+        <v>3</v>
+      </c>
+      <c r="D2757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2758">
+        <v>5</v>
+      </c>
+      <c r="B2758">
+        <v>2</v>
+      </c>
+      <c r="C2758">
+        <v>4</v>
+      </c>
+      <c r="D2758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2759">
+        <v>6</v>
+      </c>
+      <c r="B2759">
+        <v>2</v>
+      </c>
+      <c r="C2759">
+        <v>7</v>
+      </c>
+      <c r="D2759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2760">
+        <v>4</v>
+      </c>
+      <c r="B2760">
+        <v>1</v>
+      </c>
+      <c r="C2760">
+        <v>3</v>
+      </c>
+      <c r="D2760">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2761">
+        <v>4</v>
+      </c>
+      <c r="B2761">
+        <v>2</v>
+      </c>
+      <c r="C2761">
+        <v>5</v>
+      </c>
+      <c r="D2761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2762">
+        <v>5</v>
+      </c>
+      <c r="B2762">
+        <v>2</v>
+      </c>
+      <c r="C2762">
+        <v>6</v>
+      </c>
+      <c r="D2762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2763">
+        <v>6</v>
+      </c>
+      <c r="B2763">
+        <v>2</v>
+      </c>
+      <c r="C2763">
+        <v>5</v>
+      </c>
+      <c r="D2763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2764">
+        <v>4</v>
+      </c>
+      <c r="B2764">
+        <v>1</v>
+      </c>
+      <c r="C2764">
+        <v>4</v>
+      </c>
+      <c r="D2764">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{A62A31FA-DA7B-4B6C-8086-AF005BA5201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0389CB-477F-44DF-8A44-B19EFBFE8F7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2764"/>
+  <dimension ref="A1:D2784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2752" workbookViewId="0">
-      <selection activeCell="A2765" sqref="A2765"/>
+    <sheetView tabSelected="1" topLeftCell="A2764" workbookViewId="0">
+      <selection activeCell="A2785" sqref="A2785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39075,6 +39071,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2765">
+        <v>4</v>
+      </c>
+      <c r="B2765">
+        <v>3</v>
+      </c>
+      <c r="C2765">
+        <v>5</v>
+      </c>
+      <c r="D2765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2766">
+        <v>4</v>
+      </c>
+      <c r="B2766">
+        <v>1</v>
+      </c>
+      <c r="C2766">
+        <v>3</v>
+      </c>
+      <c r="D2766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2767">
+        <v>4</v>
+      </c>
+      <c r="B2767">
+        <v>0</v>
+      </c>
+      <c r="C2767">
+        <v>4</v>
+      </c>
+      <c r="D2767">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2768">
+        <v>5</v>
+      </c>
+      <c r="B2768">
+        <v>1</v>
+      </c>
+      <c r="C2768">
+        <v>5</v>
+      </c>
+      <c r="D2768">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2769">
+        <v>5</v>
+      </c>
+      <c r="B2769">
+        <v>1</v>
+      </c>
+      <c r="C2769">
+        <v>5</v>
+      </c>
+      <c r="D2769">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2770">
+        <v>3</v>
+      </c>
+      <c r="B2770">
+        <v>0</v>
+      </c>
+      <c r="C2770">
+        <v>4</v>
+      </c>
+      <c r="D2770">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2771">
+        <v>6</v>
+      </c>
+      <c r="B2771">
+        <v>2</v>
+      </c>
+      <c r="C2771">
+        <v>6</v>
+      </c>
+      <c r="D2771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2772">
+        <v>5</v>
+      </c>
+      <c r="B2772">
+        <v>2</v>
+      </c>
+      <c r="C2772">
+        <v>4</v>
+      </c>
+      <c r="D2772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2773">
+        <v>2</v>
+      </c>
+      <c r="B2773">
+        <v>0</v>
+      </c>
+      <c r="C2773">
+        <v>3</v>
+      </c>
+      <c r="D2773">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2774">
+        <v>6</v>
+      </c>
+      <c r="B2774">
+        <v>2</v>
+      </c>
+      <c r="C2774">
+        <v>6</v>
+      </c>
+      <c r="D2774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2775">
+        <v>5</v>
+      </c>
+      <c r="B2775">
+        <v>2</v>
+      </c>
+      <c r="C2775">
+        <v>4</v>
+      </c>
+      <c r="D2775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2776">
+        <v>6</v>
+      </c>
+      <c r="B2776">
+        <v>3</v>
+      </c>
+      <c r="C2776">
+        <v>6</v>
+      </c>
+      <c r="D2776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2777">
+        <v>4</v>
+      </c>
+      <c r="B2777">
+        <v>0</v>
+      </c>
+      <c r="C2777">
+        <v>3</v>
+      </c>
+      <c r="D2777">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2778">
+        <v>4</v>
+      </c>
+      <c r="B2778">
+        <v>0</v>
+      </c>
+      <c r="C2778">
+        <v>3</v>
+      </c>
+      <c r="D2778">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2779">
+        <v>4</v>
+      </c>
+      <c r="B2779">
+        <v>2</v>
+      </c>
+      <c r="C2779">
+        <v>7</v>
+      </c>
+      <c r="D2779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2780">
+        <v>4</v>
+      </c>
+      <c r="B2780">
+        <v>2</v>
+      </c>
+      <c r="C2780">
+        <v>5</v>
+      </c>
+      <c r="D2780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2781">
+        <v>4</v>
+      </c>
+      <c r="B2781">
+        <v>0</v>
+      </c>
+      <c r="C2781">
+        <v>2</v>
+      </c>
+      <c r="D2781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2782">
+        <v>5</v>
+      </c>
+      <c r="B2782">
+        <v>0</v>
+      </c>
+      <c r="C2782">
+        <v>4</v>
+      </c>
+      <c r="D2782">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2783">
+        <v>7</v>
+      </c>
+      <c r="B2783">
+        <v>2</v>
+      </c>
+      <c r="C2783">
+        <v>6</v>
+      </c>
+      <c r="D2783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2784">
+        <v>3</v>
+      </c>
+      <c r="B2784">
+        <v>0</v>
+      </c>
+      <c r="C2784">
+        <v>4</v>
+      </c>
+      <c r="D2784">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2301CAE1-207A-4E02-8503-2B1DA4528FFF}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2784"/>
+  <dimension ref="A1:D2804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2764" workbookViewId="0">
-      <selection activeCell="A2785" sqref="A2785"/>
+    <sheetView tabSelected="1" topLeftCell="A2779" workbookViewId="0">
+      <selection activeCell="A2805" sqref="A2805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39351,6 +39351,286 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2785">
+        <v>4</v>
+      </c>
+      <c r="B2785">
+        <v>2</v>
+      </c>
+      <c r="C2785">
+        <v>5</v>
+      </c>
+      <c r="D2785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2786">
+        <v>3</v>
+      </c>
+      <c r="B2786">
+        <v>0</v>
+      </c>
+      <c r="C2786">
+        <v>3</v>
+      </c>
+      <c r="D2786">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2787">
+        <v>5</v>
+      </c>
+      <c r="B2787">
+        <v>0</v>
+      </c>
+      <c r="C2787">
+        <v>3</v>
+      </c>
+      <c r="D2787">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2788">
+        <v>3</v>
+      </c>
+      <c r="B2788">
+        <v>1</v>
+      </c>
+      <c r="C2788">
+        <v>5</v>
+      </c>
+      <c r="D2788">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2789">
+        <v>6</v>
+      </c>
+      <c r="B2789">
+        <v>1</v>
+      </c>
+      <c r="C2789">
+        <v>6</v>
+      </c>
+      <c r="D2789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2790">
+        <v>5</v>
+      </c>
+      <c r="B2790">
+        <v>0</v>
+      </c>
+      <c r="C2790">
+        <v>5</v>
+      </c>
+      <c r="D2790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2791">
+        <v>5</v>
+      </c>
+      <c r="B2791">
+        <v>1</v>
+      </c>
+      <c r="C2791">
+        <v>4</v>
+      </c>
+      <c r="D2791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2792">
+        <v>5</v>
+      </c>
+      <c r="B2792">
+        <v>0</v>
+      </c>
+      <c r="C2792">
+        <v>7</v>
+      </c>
+      <c r="D2792">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2793">
+        <v>4</v>
+      </c>
+      <c r="B2793">
+        <v>2</v>
+      </c>
+      <c r="C2793">
+        <v>5</v>
+      </c>
+      <c r="D2793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2794">
+        <v>4</v>
+      </c>
+      <c r="B2794">
+        <v>3</v>
+      </c>
+      <c r="C2794">
+        <v>2</v>
+      </c>
+      <c r="D2794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2795">
+        <v>2</v>
+      </c>
+      <c r="B2795">
+        <v>0</v>
+      </c>
+      <c r="C2795">
+        <v>2</v>
+      </c>
+      <c r="D2795">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2796">
+        <v>6</v>
+      </c>
+      <c r="B2796">
+        <v>0</v>
+      </c>
+      <c r="C2796">
+        <v>6</v>
+      </c>
+      <c r="D2796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2797">
+        <v>5</v>
+      </c>
+      <c r="B2797">
+        <v>0</v>
+      </c>
+      <c r="C2797">
+        <v>3</v>
+      </c>
+      <c r="D2797">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2798">
+        <v>5</v>
+      </c>
+      <c r="B2798">
+        <v>0</v>
+      </c>
+      <c r="C2798">
+        <v>5</v>
+      </c>
+      <c r="D2798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2799">
+        <v>4</v>
+      </c>
+      <c r="B2799">
+        <v>0</v>
+      </c>
+      <c r="C2799">
+        <v>5</v>
+      </c>
+      <c r="D2799">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2800">
+        <v>4</v>
+      </c>
+      <c r="B2800">
+        <v>0</v>
+      </c>
+      <c r="C2800">
+        <v>4</v>
+      </c>
+      <c r="D2800">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2801">
+        <v>7</v>
+      </c>
+      <c r="B2801">
+        <v>2</v>
+      </c>
+      <c r="C2801">
+        <v>5</v>
+      </c>
+      <c r="D2801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2802">
+        <v>3</v>
+      </c>
+      <c r="B2802">
+        <v>0</v>
+      </c>
+      <c r="C2802">
+        <v>3</v>
+      </c>
+      <c r="D2802">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2803">
+        <v>6</v>
+      </c>
+      <c r="B2803">
+        <v>1</v>
+      </c>
+      <c r="C2803">
+        <v>6</v>
+      </c>
+      <c r="D2803">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2804">
+        <v>3</v>
+      </c>
+      <c r="B2804">
+        <v>0</v>
+      </c>
+      <c r="C2804">
+        <v>3</v>
+      </c>
+      <c r="D2804">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2301CAE1-207A-4E02-8503-2B1DA4528FFF}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78B81EA7-6299-47F5-BED2-F370FA726FE9}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,6 +99,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2804"/>
+  <dimension ref="A1:D2822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2779" workbookViewId="0">
-      <selection activeCell="A2805" sqref="A2805"/>
+    <sheetView tabSelected="1" topLeftCell="A2803" workbookViewId="0">
+      <selection activeCell="A2823" sqref="A2823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39631,6 +39635,258 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2805">
+        <v>4</v>
+      </c>
+      <c r="B2805">
+        <v>3</v>
+      </c>
+      <c r="C2805">
+        <v>2</v>
+      </c>
+      <c r="D2805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2806">
+        <v>4</v>
+      </c>
+      <c r="B2806">
+        <v>2</v>
+      </c>
+      <c r="C2806">
+        <v>3</v>
+      </c>
+      <c r="D2806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2807">
+        <v>3</v>
+      </c>
+      <c r="B2807">
+        <v>0</v>
+      </c>
+      <c r="C2807">
+        <v>5</v>
+      </c>
+      <c r="D2807">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2808">
+        <v>5</v>
+      </c>
+      <c r="B2808">
+        <v>0</v>
+      </c>
+      <c r="C2808">
+        <v>5</v>
+      </c>
+      <c r="D2808">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2809">
+        <v>4</v>
+      </c>
+      <c r="B2809">
+        <v>2</v>
+      </c>
+      <c r="C2809">
+        <v>3</v>
+      </c>
+      <c r="D2809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2810">
+        <v>5</v>
+      </c>
+      <c r="B2810">
+        <v>2</v>
+      </c>
+      <c r="C2810">
+        <v>4</v>
+      </c>
+      <c r="D2810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2811">
+        <v>6</v>
+      </c>
+      <c r="B2811">
+        <v>2</v>
+      </c>
+      <c r="C2811">
+        <v>6</v>
+      </c>
+      <c r="D2811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2812">
+        <v>3</v>
+      </c>
+      <c r="B2812">
+        <v>3</v>
+      </c>
+      <c r="C2812">
+        <v>4</v>
+      </c>
+      <c r="D2812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2813">
+        <v>6</v>
+      </c>
+      <c r="B2813">
+        <v>2</v>
+      </c>
+      <c r="C2813">
+        <v>4</v>
+      </c>
+      <c r="D2813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2814">
+        <v>3</v>
+      </c>
+      <c r="B2814">
+        <v>1</v>
+      </c>
+      <c r="C2814">
+        <v>5</v>
+      </c>
+      <c r="D2814">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2815">
+        <v>5</v>
+      </c>
+      <c r="B2815">
+        <v>3</v>
+      </c>
+      <c r="C2815">
+        <v>5</v>
+      </c>
+      <c r="D2815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2816">
+        <v>6</v>
+      </c>
+      <c r="B2816">
+        <v>0</v>
+      </c>
+      <c r="C2816">
+        <v>7</v>
+      </c>
+      <c r="D2816">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2817">
+        <v>4</v>
+      </c>
+      <c r="B2817">
+        <v>1</v>
+      </c>
+      <c r="C2817">
+        <v>3</v>
+      </c>
+      <c r="D2817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2818">
+        <v>3</v>
+      </c>
+      <c r="B2818">
+        <v>0</v>
+      </c>
+      <c r="C2818">
+        <v>5</v>
+      </c>
+      <c r="D2818">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2819">
+        <v>6</v>
+      </c>
+      <c r="B2819">
+        <v>0</v>
+      </c>
+      <c r="C2819">
+        <v>5</v>
+      </c>
+      <c r="D2819">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2820">
+        <v>3</v>
+      </c>
+      <c r="B2820">
+        <v>1</v>
+      </c>
+      <c r="C2820">
+        <v>3</v>
+      </c>
+      <c r="D2820">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2821">
+        <v>7</v>
+      </c>
+      <c r="B2821">
+        <v>2</v>
+      </c>
+      <c r="C2821">
+        <v>6</v>
+      </c>
+      <c r="D2821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2822">
+        <v>4</v>
+      </c>
+      <c r="B2822">
+        <v>2</v>
+      </c>
+      <c r="C2822">
+        <v>4</v>
+      </c>
+      <c r="D2822">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78B81EA7-6299-47F5-BED2-F370FA726FE9}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDEAD364-1DE4-49FD-9013-B4E79417FE43}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2822"/>
+  <dimension ref="A1:D2842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2803" workbookViewId="0">
-      <selection activeCell="A2823" sqref="A2823"/>
+    <sheetView tabSelected="1" topLeftCell="A2821" workbookViewId="0">
+      <selection activeCell="A2843" sqref="A2843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39887,6 +39887,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2823">
+        <v>4</v>
+      </c>
+      <c r="B2823">
+        <v>2</v>
+      </c>
+      <c r="C2823">
+        <v>5</v>
+      </c>
+      <c r="D2823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2824">
+        <v>3</v>
+      </c>
+      <c r="B2824">
+        <v>1</v>
+      </c>
+      <c r="C2824">
+        <v>3</v>
+      </c>
+      <c r="D2824">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2825">
+        <v>6</v>
+      </c>
+      <c r="B2825">
+        <v>0</v>
+      </c>
+      <c r="C2825">
+        <v>3</v>
+      </c>
+      <c r="D2825">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2826">
+        <v>5</v>
+      </c>
+      <c r="B2826">
+        <v>3</v>
+      </c>
+      <c r="C2826">
+        <v>3</v>
+      </c>
+      <c r="D2826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2827">
+        <v>5</v>
+      </c>
+      <c r="B2827">
+        <v>0</v>
+      </c>
+      <c r="C2827">
+        <v>6</v>
+      </c>
+      <c r="D2827">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2828">
+        <v>5</v>
+      </c>
+      <c r="B2828">
+        <v>2</v>
+      </c>
+      <c r="C2828">
+        <v>5</v>
+      </c>
+      <c r="D2828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2829">
+        <v>3</v>
+      </c>
+      <c r="B2829">
+        <v>2</v>
+      </c>
+      <c r="C2829">
+        <v>4</v>
+      </c>
+      <c r="D2829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2830">
+        <v>3</v>
+      </c>
+      <c r="B2830">
+        <v>2</v>
+      </c>
+      <c r="C2830">
+        <v>4</v>
+      </c>
+      <c r="D2830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2831">
+        <v>5</v>
+      </c>
+      <c r="B2831">
+        <v>1</v>
+      </c>
+      <c r="C2831">
+        <v>3</v>
+      </c>
+      <c r="D2831">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2832">
+        <v>6</v>
+      </c>
+      <c r="B2832">
+        <v>2</v>
+      </c>
+      <c r="C2832">
+        <v>6</v>
+      </c>
+      <c r="D2832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2833">
+        <v>5</v>
+      </c>
+      <c r="B2833">
+        <v>0</v>
+      </c>
+      <c r="C2833">
+        <v>4</v>
+      </c>
+      <c r="D2833">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2834">
+        <v>3</v>
+      </c>
+      <c r="B2834">
+        <v>2</v>
+      </c>
+      <c r="C2834">
+        <v>2</v>
+      </c>
+      <c r="D2834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2835">
+        <v>6</v>
+      </c>
+      <c r="B2835">
+        <v>0</v>
+      </c>
+      <c r="C2835">
+        <v>6</v>
+      </c>
+      <c r="D2835">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2836">
+        <v>3</v>
+      </c>
+      <c r="B2836">
+        <v>0</v>
+      </c>
+      <c r="C2836">
+        <v>4</v>
+      </c>
+      <c r="D2836">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2837">
+        <v>6</v>
+      </c>
+      <c r="B2837">
+        <v>2</v>
+      </c>
+      <c r="C2837">
+        <v>6</v>
+      </c>
+      <c r="D2837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2838">
+        <v>5</v>
+      </c>
+      <c r="B2838">
+        <v>0</v>
+      </c>
+      <c r="C2838">
+        <v>4</v>
+      </c>
+      <c r="D2838">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2839">
+        <v>4</v>
+      </c>
+      <c r="B2839">
+        <v>3</v>
+      </c>
+      <c r="C2839">
+        <v>3</v>
+      </c>
+      <c r="D2839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2840">
+        <v>3</v>
+      </c>
+      <c r="B2840">
+        <v>3</v>
+      </c>
+      <c r="C2840">
+        <v>3</v>
+      </c>
+      <c r="D2840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2841">
+        <v>7</v>
+      </c>
+      <c r="B2841">
+        <v>2</v>
+      </c>
+      <c r="C2841">
+        <v>7</v>
+      </c>
+      <c r="D2841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2842">
+        <v>2</v>
+      </c>
+      <c r="B2842">
+        <v>0</v>
+      </c>
+      <c r="C2842">
+        <v>3</v>
+      </c>
+      <c r="D2842">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDEAD364-1DE4-49FD-9013-B4E79417FE43}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9472665F-785A-470E-B516-1CB0D36DCBA6}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2842"/>
+  <dimension ref="A1:D2861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2821" workbookViewId="0">
-      <selection activeCell="A2843" sqref="A2843"/>
+    <sheetView tabSelected="1" topLeftCell="A2842" workbookViewId="0">
+      <selection activeCell="A2862" sqref="A2862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40167,6 +40167,272 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2843">
+        <v>3</v>
+      </c>
+      <c r="B2843">
+        <v>2</v>
+      </c>
+      <c r="C2843">
+        <v>3</v>
+      </c>
+      <c r="D2843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2844">
+        <v>3</v>
+      </c>
+      <c r="B2844">
+        <v>2</v>
+      </c>
+      <c r="C2844">
+        <v>4</v>
+      </c>
+      <c r="D2844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2845">
+        <v>6</v>
+      </c>
+      <c r="B2845">
+        <v>0</v>
+      </c>
+      <c r="C2845">
+        <v>6</v>
+      </c>
+      <c r="D2845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2846">
+        <v>5</v>
+      </c>
+      <c r="B2846">
+        <v>1</v>
+      </c>
+      <c r="C2846">
+        <v>5</v>
+      </c>
+      <c r="D2846">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2847">
+        <v>6</v>
+      </c>
+      <c r="B2847">
+        <v>0</v>
+      </c>
+      <c r="C2847">
+        <v>5</v>
+      </c>
+      <c r="D2847">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2848">
+        <v>5</v>
+      </c>
+      <c r="B2848">
+        <v>0</v>
+      </c>
+      <c r="C2848">
+        <v>5</v>
+      </c>
+      <c r="D2848">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2849">
+        <v>2</v>
+      </c>
+      <c r="B2849">
+        <v>1</v>
+      </c>
+      <c r="C2849">
+        <v>2</v>
+      </c>
+      <c r="D2849">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2850">
+        <v>3</v>
+      </c>
+      <c r="B2850">
+        <v>3</v>
+      </c>
+      <c r="C2850">
+        <v>3</v>
+      </c>
+      <c r="D2850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2851">
+        <v>7</v>
+      </c>
+      <c r="B2851">
+        <v>2</v>
+      </c>
+      <c r="C2851">
+        <v>6</v>
+      </c>
+      <c r="D2851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2852">
+        <v>5</v>
+      </c>
+      <c r="B2852">
+        <v>0</v>
+      </c>
+      <c r="C2852">
+        <v>5</v>
+      </c>
+      <c r="D2852">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2853">
+        <v>3</v>
+      </c>
+      <c r="B2853">
+        <v>1</v>
+      </c>
+      <c r="C2853">
+        <v>4</v>
+      </c>
+      <c r="D2853">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2854">
+        <v>5</v>
+      </c>
+      <c r="B2854">
+        <v>1</v>
+      </c>
+      <c r="C2854">
+        <v>6</v>
+      </c>
+      <c r="D2854">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2855">
+        <v>4</v>
+      </c>
+      <c r="B2855">
+        <v>1</v>
+      </c>
+      <c r="C2855">
+        <v>5</v>
+      </c>
+      <c r="D2855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2856">
+        <v>6</v>
+      </c>
+      <c r="B2856">
+        <v>0</v>
+      </c>
+      <c r="C2856">
+        <v>3</v>
+      </c>
+      <c r="D2856">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2857">
+        <v>3</v>
+      </c>
+      <c r="B2857">
+        <v>2</v>
+      </c>
+      <c r="C2857">
+        <v>3</v>
+      </c>
+      <c r="D2857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2858">
+        <v>7</v>
+      </c>
+      <c r="B2858">
+        <v>0</v>
+      </c>
+      <c r="C2858">
+        <v>4</v>
+      </c>
+      <c r="D2858">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2859">
+        <v>6</v>
+      </c>
+      <c r="B2859">
+        <v>2</v>
+      </c>
+      <c r="C2859">
+        <v>5</v>
+      </c>
+      <c r="D2859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2860">
+        <v>4</v>
+      </c>
+      <c r="B2860">
+        <v>0</v>
+      </c>
+      <c r="C2860">
+        <v>5</v>
+      </c>
+      <c r="D2860">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2861">
+        <v>3</v>
+      </c>
+      <c r="B2861">
+        <v>0</v>
+      </c>
+      <c r="C2861">
+        <v>6</v>
+      </c>
+      <c r="D2861">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9472665F-785A-470E-B516-1CB0D36DCBA6}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDD67B4-3EF0-48B5-A2B2-89B6A9E9A31D}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2861"/>
+  <dimension ref="A1:D2875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2842" workbookViewId="0">
-      <selection activeCell="A2862" sqref="A2862"/>
+    <sheetView tabSelected="1" topLeftCell="A2860" workbookViewId="0">
+      <selection activeCell="A2876" sqref="A2876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40433,6 +40433,202 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2862">
+        <v>3</v>
+      </c>
+      <c r="B2862">
+        <v>1</v>
+      </c>
+      <c r="C2862">
+        <v>3</v>
+      </c>
+      <c r="D2862">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2863">
+        <v>6</v>
+      </c>
+      <c r="B2863">
+        <v>0</v>
+      </c>
+      <c r="C2863">
+        <v>4</v>
+      </c>
+      <c r="D2863">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2864">
+        <v>6</v>
+      </c>
+      <c r="B2864">
+        <v>2</v>
+      </c>
+      <c r="C2864">
+        <v>5</v>
+      </c>
+      <c r="D2864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2865">
+        <v>3</v>
+      </c>
+      <c r="B2865">
+        <v>0</v>
+      </c>
+      <c r="C2865">
+        <v>6</v>
+      </c>
+      <c r="D2865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2866">
+        <v>3</v>
+      </c>
+      <c r="B2866">
+        <v>2</v>
+      </c>
+      <c r="C2866">
+        <v>5</v>
+      </c>
+      <c r="D2866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2867">
+        <v>2</v>
+      </c>
+      <c r="B2867">
+        <v>2</v>
+      </c>
+      <c r="C2867">
+        <v>3</v>
+      </c>
+      <c r="D2867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2868">
+        <v>5</v>
+      </c>
+      <c r="B2868">
+        <v>2</v>
+      </c>
+      <c r="C2868">
+        <v>5</v>
+      </c>
+      <c r="D2868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2869">
+        <v>7</v>
+      </c>
+      <c r="B2869">
+        <v>0</v>
+      </c>
+      <c r="C2869">
+        <v>6</v>
+      </c>
+      <c r="D2869">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2870">
+        <v>6</v>
+      </c>
+      <c r="B2870">
+        <v>2</v>
+      </c>
+      <c r="C2870">
+        <v>5</v>
+      </c>
+      <c r="D2870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2871">
+        <v>4</v>
+      </c>
+      <c r="B2871">
+        <v>2</v>
+      </c>
+      <c r="C2871">
+        <v>4</v>
+      </c>
+      <c r="D2871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2872">
+        <v>6</v>
+      </c>
+      <c r="B2872">
+        <v>2</v>
+      </c>
+      <c r="C2872">
+        <v>6</v>
+      </c>
+      <c r="D2872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2873">
+        <v>3</v>
+      </c>
+      <c r="B2873">
+        <v>3</v>
+      </c>
+      <c r="C2873">
+        <v>3</v>
+      </c>
+      <c r="D2873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2874">
+        <v>5</v>
+      </c>
+      <c r="B2874">
+        <v>2</v>
+      </c>
+      <c r="C2874">
+        <v>5</v>
+      </c>
+      <c r="D2874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2875">
+        <v>3</v>
+      </c>
+      <c r="B2875">
+        <v>1</v>
+      </c>
+      <c r="C2875">
+        <v>3</v>
+      </c>
+      <c r="D2875">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDD67B4-3EF0-48B5-A2B2-89B6A9E9A31D}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB32C17-37D6-40F6-92CE-FE685D03EFF3}"/>
   <bookViews>
-    <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2875"/>
+  <dimension ref="A1:D2895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2860" workbookViewId="0">
-      <selection activeCell="A2876" sqref="A2876"/>
+    <sheetView tabSelected="1" topLeftCell="A2887" workbookViewId="0">
+      <selection activeCell="A2896" sqref="A2896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40629,6 +40629,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2876">
+        <v>4</v>
+      </c>
+      <c r="B2876">
+        <v>2</v>
+      </c>
+      <c r="C2876">
+        <v>4</v>
+      </c>
+      <c r="D2876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2877">
+        <v>4</v>
+      </c>
+      <c r="B2877">
+        <v>2</v>
+      </c>
+      <c r="C2877">
+        <v>3</v>
+      </c>
+      <c r="D2877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2878">
+        <v>4</v>
+      </c>
+      <c r="B2878">
+        <v>0</v>
+      </c>
+      <c r="C2878">
+        <v>3</v>
+      </c>
+      <c r="D2878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2879">
+        <v>3</v>
+      </c>
+      <c r="B2879">
+        <v>2</v>
+      </c>
+      <c r="C2879">
+        <v>5</v>
+      </c>
+      <c r="D2879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2880">
+        <v>5</v>
+      </c>
+      <c r="B2880">
+        <v>1</v>
+      </c>
+      <c r="C2880">
+        <v>7</v>
+      </c>
+      <c r="D2880">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2881">
+        <v>3</v>
+      </c>
+      <c r="B2881">
+        <v>1</v>
+      </c>
+      <c r="C2881">
+        <v>4</v>
+      </c>
+      <c r="D2881">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2882">
+        <v>2</v>
+      </c>
+      <c r="B2882">
+        <v>3</v>
+      </c>
+      <c r="C2882">
+        <v>2</v>
+      </c>
+      <c r="D2882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2883">
+        <v>6</v>
+      </c>
+      <c r="B2883">
+        <v>2</v>
+      </c>
+      <c r="C2883">
+        <v>6</v>
+      </c>
+      <c r="D2883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2884">
+        <v>6</v>
+      </c>
+      <c r="B2884">
+        <v>0</v>
+      </c>
+      <c r="C2884">
+        <v>6</v>
+      </c>
+      <c r="D2884">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2885">
+        <v>5</v>
+      </c>
+      <c r="B2885">
+        <v>1</v>
+      </c>
+      <c r="C2885">
+        <v>3</v>
+      </c>
+      <c r="D2885">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2886">
+        <v>4</v>
+      </c>
+      <c r="B2886">
+        <v>3</v>
+      </c>
+      <c r="C2886">
+        <v>5</v>
+      </c>
+      <c r="D2886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2887">
+        <v>3</v>
+      </c>
+      <c r="B2887">
+        <v>2</v>
+      </c>
+      <c r="C2887">
+        <v>3</v>
+      </c>
+      <c r="D2887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2888">
+        <v>5</v>
+      </c>
+      <c r="B2888">
+        <v>0</v>
+      </c>
+      <c r="C2888">
+        <v>3</v>
+      </c>
+      <c r="D2888">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2889">
+        <v>4</v>
+      </c>
+      <c r="B2889">
+        <v>3</v>
+      </c>
+      <c r="C2889">
+        <v>4</v>
+      </c>
+      <c r="D2889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2890">
+        <v>5</v>
+      </c>
+      <c r="B2890">
+        <v>1</v>
+      </c>
+      <c r="C2890">
+        <v>5</v>
+      </c>
+      <c r="D2890">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2891">
+        <v>4</v>
+      </c>
+      <c r="B2891">
+        <v>0</v>
+      </c>
+      <c r="C2891">
+        <v>4</v>
+      </c>
+      <c r="D2891">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2892">
+        <v>4</v>
+      </c>
+      <c r="B2892">
+        <v>0</v>
+      </c>
+      <c r="C2892">
+        <v>5</v>
+      </c>
+      <c r="D2892">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2893">
+        <v>5</v>
+      </c>
+      <c r="B2893">
+        <v>0</v>
+      </c>
+      <c r="C2893">
+        <v>5</v>
+      </c>
+      <c r="D2893">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2894">
+        <v>4</v>
+      </c>
+      <c r="B2894">
+        <v>1</v>
+      </c>
+      <c r="C2894">
+        <v>6</v>
+      </c>
+      <c r="D2894">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2895">
+        <v>3</v>
+      </c>
+      <c r="B2895">
+        <v>1</v>
+      </c>
+      <c r="C2895">
+        <v>3</v>
+      </c>
+      <c r="D2895">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB32C17-37D6-40F6-92CE-FE685D03EFF3}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8B09FDC-73B2-4F40-BC37-57ADF7E2F9F4}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2895"/>
+  <dimension ref="A1:D2915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2887" workbookViewId="0">
-      <selection activeCell="A2896" sqref="A2896"/>
+    <sheetView tabSelected="1" topLeftCell="A2899" workbookViewId="0">
+      <selection activeCell="A2916" sqref="A2916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40909,6 +40909,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2896">
+        <v>6</v>
+      </c>
+      <c r="B2896">
+        <v>2</v>
+      </c>
+      <c r="C2896">
+        <v>7</v>
+      </c>
+      <c r="D2896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2897">
+        <v>4</v>
+      </c>
+      <c r="B2897">
+        <v>2</v>
+      </c>
+      <c r="C2897">
+        <v>3</v>
+      </c>
+      <c r="D2897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2898">
+        <v>3</v>
+      </c>
+      <c r="B2898">
+        <v>0</v>
+      </c>
+      <c r="C2898">
+        <v>5</v>
+      </c>
+      <c r="D2898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2899">
+        <v>4</v>
+      </c>
+      <c r="B2899">
+        <v>0</v>
+      </c>
+      <c r="C2899">
+        <v>3</v>
+      </c>
+      <c r="D2899">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2900">
+        <v>4</v>
+      </c>
+      <c r="B2900">
+        <v>0</v>
+      </c>
+      <c r="C2900">
+        <v>5</v>
+      </c>
+      <c r="D2900">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2901">
+        <v>7</v>
+      </c>
+      <c r="B2901">
+        <v>2</v>
+      </c>
+      <c r="C2901">
+        <v>6</v>
+      </c>
+      <c r="D2901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2902">
+        <v>3</v>
+      </c>
+      <c r="B2902">
+        <v>3</v>
+      </c>
+      <c r="C2902">
+        <v>3</v>
+      </c>
+      <c r="D2902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2903">
+        <v>4</v>
+      </c>
+      <c r="B2903">
+        <v>0</v>
+      </c>
+      <c r="C2903">
+        <v>5</v>
+      </c>
+      <c r="D2903">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2904">
+        <v>6</v>
+      </c>
+      <c r="B2904">
+        <v>3</v>
+      </c>
+      <c r="C2904">
+        <v>4</v>
+      </c>
+      <c r="D2904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2905">
+        <v>2</v>
+      </c>
+      <c r="B2905">
+        <v>0</v>
+      </c>
+      <c r="C2905">
+        <v>3</v>
+      </c>
+      <c r="D2905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2906">
+        <v>3</v>
+      </c>
+      <c r="B2906">
+        <v>2</v>
+      </c>
+      <c r="C2906">
+        <v>3</v>
+      </c>
+      <c r="D2906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2907">
+        <v>5</v>
+      </c>
+      <c r="B2907">
+        <v>1</v>
+      </c>
+      <c r="C2907">
+        <v>5</v>
+      </c>
+      <c r="D2907">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2908">
+        <v>4</v>
+      </c>
+      <c r="B2908">
+        <v>2</v>
+      </c>
+      <c r="C2908">
+        <v>4</v>
+      </c>
+      <c r="D2908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2909">
+        <v>5</v>
+      </c>
+      <c r="B2909">
+        <v>0</v>
+      </c>
+      <c r="C2909">
+        <v>5</v>
+      </c>
+      <c r="D2909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2910">
+        <v>6</v>
+      </c>
+      <c r="B2910">
+        <v>3</v>
+      </c>
+      <c r="C2910">
+        <v>5</v>
+      </c>
+      <c r="D2910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2911">
+        <v>3</v>
+      </c>
+      <c r="B2911">
+        <v>1</v>
+      </c>
+      <c r="C2911">
+        <v>3</v>
+      </c>
+      <c r="D2911">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2912">
+        <v>5</v>
+      </c>
+      <c r="B2912">
+        <v>0</v>
+      </c>
+      <c r="C2912">
+        <v>4</v>
+      </c>
+      <c r="D2912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2913">
+        <v>3</v>
+      </c>
+      <c r="B2913">
+        <v>1</v>
+      </c>
+      <c r="C2913">
+        <v>4</v>
+      </c>
+      <c r="D2913">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2914">
+        <v>6</v>
+      </c>
+      <c r="B2914">
+        <v>1</v>
+      </c>
+      <c r="C2914">
+        <v>5</v>
+      </c>
+      <c r="D2914">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2915">
+        <v>5</v>
+      </c>
+      <c r="B2915">
+        <v>0</v>
+      </c>
+      <c r="C2915">
+        <v>6</v>
+      </c>
+      <c r="D2915">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{EF58B412-D997-42A7-9453-BBA9E1F751AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8B09FDC-73B2-4F40-BC37-57ADF7E2F9F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2915"/>
+  <dimension ref="A1:D2935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2899" workbookViewId="0">
-      <selection activeCell="A2916" sqref="A2916"/>
+    <sheetView tabSelected="1" topLeftCell="A2911" workbookViewId="0">
+      <selection activeCell="A2936" sqref="A2936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41189,6 +41185,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2916">
+        <v>3</v>
+      </c>
+      <c r="B2916">
+        <v>2</v>
+      </c>
+      <c r="C2916">
+        <v>3</v>
+      </c>
+      <c r="D2916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2917">
+        <v>5</v>
+      </c>
+      <c r="B2917">
+        <v>3</v>
+      </c>
+      <c r="C2917">
+        <v>5</v>
+      </c>
+      <c r="D2917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2918">
+        <v>3</v>
+      </c>
+      <c r="B2918">
+        <v>1</v>
+      </c>
+      <c r="C2918">
+        <v>5</v>
+      </c>
+      <c r="D2918">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2919">
+        <v>6</v>
+      </c>
+      <c r="B2919">
+        <v>2</v>
+      </c>
+      <c r="C2919">
+        <v>6</v>
+      </c>
+      <c r="D2919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2920">
+        <v>3</v>
+      </c>
+      <c r="B2920">
+        <v>1</v>
+      </c>
+      <c r="C2920">
+        <v>4</v>
+      </c>
+      <c r="D2920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2921">
+        <v>3</v>
+      </c>
+      <c r="B2921">
+        <v>3</v>
+      </c>
+      <c r="C2921">
+        <v>2</v>
+      </c>
+      <c r="D2921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2922">
+        <v>5</v>
+      </c>
+      <c r="B2922">
+        <v>2</v>
+      </c>
+      <c r="C2922">
+        <v>5</v>
+      </c>
+      <c r="D2922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2923">
+        <v>4</v>
+      </c>
+      <c r="B2923">
+        <v>2</v>
+      </c>
+      <c r="C2923">
+        <v>5</v>
+      </c>
+      <c r="D2923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2924">
+        <v>5</v>
+      </c>
+      <c r="B2924">
+        <v>2</v>
+      </c>
+      <c r="C2924">
+        <v>5</v>
+      </c>
+      <c r="D2924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2925">
+        <v>6</v>
+      </c>
+      <c r="B2925">
+        <v>2</v>
+      </c>
+      <c r="C2925">
+        <v>6</v>
+      </c>
+      <c r="D2925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2926">
+        <v>4</v>
+      </c>
+      <c r="B2926">
+        <v>0</v>
+      </c>
+      <c r="C2926">
+        <v>4</v>
+      </c>
+      <c r="D2926">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2927">
+        <v>5</v>
+      </c>
+      <c r="B2927">
+        <v>0</v>
+      </c>
+      <c r="C2927">
+        <v>6</v>
+      </c>
+      <c r="D2927">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2928">
+        <v>2</v>
+      </c>
+      <c r="B2928">
+        <v>1</v>
+      </c>
+      <c r="C2928">
+        <v>4</v>
+      </c>
+      <c r="D2928">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2929">
+        <v>3</v>
+      </c>
+      <c r="B2929">
+        <v>0</v>
+      </c>
+      <c r="C2929">
+        <v>5</v>
+      </c>
+      <c r="D2929">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2930">
+        <v>6</v>
+      </c>
+      <c r="B2930">
+        <v>2</v>
+      </c>
+      <c r="C2930">
+        <v>3</v>
+      </c>
+      <c r="D2930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2931">
+        <v>7</v>
+      </c>
+      <c r="B2931">
+        <v>2</v>
+      </c>
+      <c r="C2931">
+        <v>6</v>
+      </c>
+      <c r="D2931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2932">
+        <v>3</v>
+      </c>
+      <c r="B2932">
+        <v>1</v>
+      </c>
+      <c r="C2932">
+        <v>4</v>
+      </c>
+      <c r="D2932">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2933">
+        <v>3</v>
+      </c>
+      <c r="B2933">
+        <v>2</v>
+      </c>
+      <c r="C2933">
+        <v>3</v>
+      </c>
+      <c r="D2933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2934">
+        <v>6</v>
+      </c>
+      <c r="B2934">
+        <v>0</v>
+      </c>
+      <c r="C2934">
+        <v>6</v>
+      </c>
+      <c r="D2934">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2935">
+        <v>4</v>
+      </c>
+      <c r="B2935">
+        <v>2</v>
+      </c>
+      <c r="C2935">
+        <v>3</v>
+      </c>
+      <c r="D2935">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E31DBFE5-6203-44D3-95CB-97100E2AB8AC}"/>
   <bookViews>
     <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2935"/>
+  <dimension ref="A1:D2955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2911" workbookViewId="0">
-      <selection activeCell="A2936" sqref="A2936"/>
+    <sheetView tabSelected="1" topLeftCell="A2932" workbookViewId="0">
+      <selection activeCell="I2938" sqref="I2938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41465,6 +41465,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2936">
+        <v>6</v>
+      </c>
+      <c r="B2936">
+        <v>1</v>
+      </c>
+      <c r="C2936">
+        <v>5</v>
+      </c>
+      <c r="D2936">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2937">
+        <v>4</v>
+      </c>
+      <c r="B2937">
+        <v>2</v>
+      </c>
+      <c r="C2937">
+        <v>4</v>
+      </c>
+      <c r="D2937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2938">
+        <v>5</v>
+      </c>
+      <c r="B2938">
+        <v>1</v>
+      </c>
+      <c r="C2938">
+        <v>6</v>
+      </c>
+      <c r="D2938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2939">
+        <v>5</v>
+      </c>
+      <c r="B2939">
+        <v>0</v>
+      </c>
+      <c r="C2939">
+        <v>3</v>
+      </c>
+      <c r="D2939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2940">
+        <v>3</v>
+      </c>
+      <c r="B2940">
+        <v>1</v>
+      </c>
+      <c r="C2940">
+        <v>3</v>
+      </c>
+      <c r="D2940">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2941">
+        <v>3</v>
+      </c>
+      <c r="B2941">
+        <v>0</v>
+      </c>
+      <c r="C2941">
+        <v>4</v>
+      </c>
+      <c r="D2941">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2942">
+        <v>5</v>
+      </c>
+      <c r="B2942">
+        <v>3</v>
+      </c>
+      <c r="C2942">
+        <v>4</v>
+      </c>
+      <c r="D2942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2943">
+        <v>6</v>
+      </c>
+      <c r="B2943">
+        <v>2</v>
+      </c>
+      <c r="C2943">
+        <v>5</v>
+      </c>
+      <c r="D2943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2944">
+        <v>5</v>
+      </c>
+      <c r="B2944">
+        <v>3</v>
+      </c>
+      <c r="C2944">
+        <v>3</v>
+      </c>
+      <c r="D2944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2945">
+        <v>4</v>
+      </c>
+      <c r="B2945">
+        <v>2</v>
+      </c>
+      <c r="C2945">
+        <v>6</v>
+      </c>
+      <c r="D2945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2946">
+        <v>3</v>
+      </c>
+      <c r="B2946">
+        <v>1</v>
+      </c>
+      <c r="C2946">
+        <v>2</v>
+      </c>
+      <c r="D2946">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2947">
+        <v>4</v>
+      </c>
+      <c r="B2947">
+        <v>2</v>
+      </c>
+      <c r="C2947">
+        <v>5</v>
+      </c>
+      <c r="D2947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2948">
+        <v>2</v>
+      </c>
+      <c r="B2948">
+        <v>2</v>
+      </c>
+      <c r="C2948">
+        <v>5</v>
+      </c>
+      <c r="D2948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2949">
+        <v>6</v>
+      </c>
+      <c r="B2949">
+        <v>2</v>
+      </c>
+      <c r="C2949">
+        <v>5</v>
+      </c>
+      <c r="D2949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2950">
+        <v>7</v>
+      </c>
+      <c r="B2950">
+        <v>2</v>
+      </c>
+      <c r="C2950">
+        <v>6</v>
+      </c>
+      <c r="D2950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2951">
+        <v>4</v>
+      </c>
+      <c r="B2951">
+        <v>0</v>
+      </c>
+      <c r="C2951">
+        <v>4</v>
+      </c>
+      <c r="D2951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2952">
+        <v>7</v>
+      </c>
+      <c r="B2952">
+        <v>2</v>
+      </c>
+      <c r="C2952">
+        <v>6</v>
+      </c>
+      <c r="D2952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2953">
+        <v>3</v>
+      </c>
+      <c r="B2953">
+        <v>0</v>
+      </c>
+      <c r="C2953">
+        <v>3</v>
+      </c>
+      <c r="D2953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2954">
+        <v>6</v>
+      </c>
+      <c r="B2954">
+        <v>0</v>
+      </c>
+      <c r="C2954">
+        <v>5</v>
+      </c>
+      <c r="D2954">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2955">
+        <v>3</v>
+      </c>
+      <c r="B2955">
+        <v>1</v>
+      </c>
+      <c r="C2955">
+        <v>5</v>
+      </c>
+      <c r="D2955">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E31DBFE5-6203-44D3-95CB-97100E2AB8AC}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F7B019-89CA-4761-B74F-CF6B92B8F5BC}"/>
   <bookViews>
-    <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2955"/>
+  <dimension ref="A1:D2974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2932" workbookViewId="0">
-      <selection activeCell="I2938" sqref="I2938"/>
+    <sheetView tabSelected="1" topLeftCell="A2953" workbookViewId="0">
+      <selection activeCell="A2975" sqref="A2975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41745,6 +41749,272 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2956">
+        <v>5</v>
+      </c>
+      <c r="B2956">
+        <v>0</v>
+      </c>
+      <c r="C2956">
+        <v>3</v>
+      </c>
+      <c r="D2956">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2957">
+        <v>4</v>
+      </c>
+      <c r="B2957">
+        <v>3</v>
+      </c>
+      <c r="C2957">
+        <v>3</v>
+      </c>
+      <c r="D2957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2958">
+        <v>3</v>
+      </c>
+      <c r="B2958">
+        <v>1</v>
+      </c>
+      <c r="C2958">
+        <v>3</v>
+      </c>
+      <c r="D2958">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2959">
+        <v>4</v>
+      </c>
+      <c r="B2959">
+        <v>0</v>
+      </c>
+      <c r="C2959">
+        <v>4</v>
+      </c>
+      <c r="D2959">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2960">
+        <v>3</v>
+      </c>
+      <c r="B2960">
+        <v>1</v>
+      </c>
+      <c r="C2960">
+        <v>7</v>
+      </c>
+      <c r="D2960">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2961">
+        <v>4</v>
+      </c>
+      <c r="B2961">
+        <v>1</v>
+      </c>
+      <c r="C2961">
+        <v>4</v>
+      </c>
+      <c r="D2961">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2962">
+        <v>5</v>
+      </c>
+      <c r="B2962">
+        <v>2</v>
+      </c>
+      <c r="C2962">
+        <v>6</v>
+      </c>
+      <c r="D2962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2963">
+        <v>3</v>
+      </c>
+      <c r="B2963">
+        <v>0</v>
+      </c>
+      <c r="C2963">
+        <v>3</v>
+      </c>
+      <c r="D2963">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2964">
+        <v>6</v>
+      </c>
+      <c r="B2964">
+        <v>0</v>
+      </c>
+      <c r="C2964">
+        <v>5</v>
+      </c>
+      <c r="D2964">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2965">
+        <v>5</v>
+      </c>
+      <c r="B2965">
+        <v>2</v>
+      </c>
+      <c r="C2965">
+        <v>5</v>
+      </c>
+      <c r="D2965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2966">
+        <v>4</v>
+      </c>
+      <c r="B2966">
+        <v>1</v>
+      </c>
+      <c r="C2966">
+        <v>4</v>
+      </c>
+      <c r="D2966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2967">
+        <v>5</v>
+      </c>
+      <c r="B2967">
+        <v>2</v>
+      </c>
+      <c r="C2967">
+        <v>5</v>
+      </c>
+      <c r="D2967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2968">
+        <v>5</v>
+      </c>
+      <c r="B2968">
+        <v>3</v>
+      </c>
+      <c r="C2968">
+        <v>2</v>
+      </c>
+      <c r="D2968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2969">
+        <v>4</v>
+      </c>
+      <c r="B2969">
+        <v>2</v>
+      </c>
+      <c r="C2969">
+        <v>5</v>
+      </c>
+      <c r="D2969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2970">
+        <v>5</v>
+      </c>
+      <c r="B2970">
+        <v>2</v>
+      </c>
+      <c r="C2970">
+        <v>3</v>
+      </c>
+      <c r="D2970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2971">
+        <v>2</v>
+      </c>
+      <c r="B2971">
+        <v>2</v>
+      </c>
+      <c r="C2971">
+        <v>3</v>
+      </c>
+      <c r="D2971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2972">
+        <v>5</v>
+      </c>
+      <c r="B2972">
+        <v>0</v>
+      </c>
+      <c r="C2972">
+        <v>7</v>
+      </c>
+      <c r="D2972">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2973">
+        <v>5</v>
+      </c>
+      <c r="B2973">
+        <v>2</v>
+      </c>
+      <c r="C2973">
+        <v>6</v>
+      </c>
+      <c r="D2973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2974">
+        <v>6</v>
+      </c>
+      <c r="B2974">
+        <v>3</v>
+      </c>
+      <c r="C2974">
+        <v>4</v>
+      </c>
+      <c r="D2974">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F7B019-89CA-4761-B74F-CF6B92B8F5BC}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9C95A15-4BD5-4B93-AD74-489A237F9313}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2974"/>
+  <dimension ref="A1:D2992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2953" workbookViewId="0">
-      <selection activeCell="A2975" sqref="A2975"/>
+    <sheetView tabSelected="1" topLeftCell="A2974" workbookViewId="0">
+      <selection activeCell="A2993" sqref="A2993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42015,6 +42015,258 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2975">
+        <v>7</v>
+      </c>
+      <c r="B2975">
+        <v>2</v>
+      </c>
+      <c r="C2975">
+        <v>7</v>
+      </c>
+      <c r="D2975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2976">
+        <v>5</v>
+      </c>
+      <c r="B2976">
+        <v>3</v>
+      </c>
+      <c r="C2976">
+        <v>4</v>
+      </c>
+      <c r="D2976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2977">
+        <v>5</v>
+      </c>
+      <c r="B2977">
+        <v>3</v>
+      </c>
+      <c r="C2977">
+        <v>3</v>
+      </c>
+      <c r="D2977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2978">
+        <v>4</v>
+      </c>
+      <c r="B2978">
+        <v>2</v>
+      </c>
+      <c r="C2978">
+        <v>4</v>
+      </c>
+      <c r="D2978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2979">
+        <v>3</v>
+      </c>
+      <c r="B2979">
+        <v>3</v>
+      </c>
+      <c r="C2979">
+        <v>3</v>
+      </c>
+      <c r="D2979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2980">
+        <v>7</v>
+      </c>
+      <c r="B2980">
+        <v>2</v>
+      </c>
+      <c r="C2980">
+        <v>5</v>
+      </c>
+      <c r="D2980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2981">
+        <v>6</v>
+      </c>
+      <c r="B2981">
+        <v>2</v>
+      </c>
+      <c r="C2981">
+        <v>6</v>
+      </c>
+      <c r="D2981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2982">
+        <v>3</v>
+      </c>
+      <c r="B2982">
+        <v>0</v>
+      </c>
+      <c r="C2982">
+        <v>3</v>
+      </c>
+      <c r="D2982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2983">
+        <v>5</v>
+      </c>
+      <c r="B2983">
+        <v>1</v>
+      </c>
+      <c r="C2983">
+        <v>5</v>
+      </c>
+      <c r="D2983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2984">
+        <v>6</v>
+      </c>
+      <c r="B2984">
+        <v>2</v>
+      </c>
+      <c r="C2984">
+        <v>6</v>
+      </c>
+      <c r="D2984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2985">
+        <v>3</v>
+      </c>
+      <c r="B2985">
+        <v>3</v>
+      </c>
+      <c r="C2985">
+        <v>3</v>
+      </c>
+      <c r="D2985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2986">
+        <v>5</v>
+      </c>
+      <c r="B2986">
+        <v>1</v>
+      </c>
+      <c r="C2986">
+        <v>5</v>
+      </c>
+      <c r="D2986">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2987">
+        <v>4</v>
+      </c>
+      <c r="B2987">
+        <v>2</v>
+      </c>
+      <c r="C2987">
+        <v>4</v>
+      </c>
+      <c r="D2987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2988">
+        <v>2</v>
+      </c>
+      <c r="B2988">
+        <v>0</v>
+      </c>
+      <c r="C2988">
+        <v>3</v>
+      </c>
+      <c r="D2988">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2989">
+        <v>5</v>
+      </c>
+      <c r="B2989">
+        <v>0</v>
+      </c>
+      <c r="C2989">
+        <v>5</v>
+      </c>
+      <c r="D2989">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2990">
+        <v>4</v>
+      </c>
+      <c r="B2990">
+        <v>2</v>
+      </c>
+      <c r="C2990">
+        <v>5</v>
+      </c>
+      <c r="D2990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2991">
+        <v>5</v>
+      </c>
+      <c r="B2991">
+        <v>0</v>
+      </c>
+      <c r="C2991">
+        <v>6</v>
+      </c>
+      <c r="D2991">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2992">
+        <v>5</v>
+      </c>
+      <c r="B2992">
+        <v>0</v>
+      </c>
+      <c r="C2992">
+        <v>3</v>
+      </c>
+      <c r="D2992">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9C95A15-4BD5-4B93-AD74-489A237F9313}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537C258F-6BC8-4A04-AC31-518653226293}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2992"/>
+  <dimension ref="A1:D3011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2974" workbookViewId="0">
-      <selection activeCell="A2993" sqref="A2993"/>
+    <sheetView tabSelected="1" topLeftCell="A2992" workbookViewId="0">
+      <selection activeCell="A3012" sqref="A3012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42267,6 +42267,272 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2993">
+        <v>3</v>
+      </c>
+      <c r="B2993">
+        <v>2</v>
+      </c>
+      <c r="C2993">
+        <v>3</v>
+      </c>
+      <c r="D2993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2994">
+        <v>5</v>
+      </c>
+      <c r="B2994">
+        <v>0</v>
+      </c>
+      <c r="C2994">
+        <v>5</v>
+      </c>
+      <c r="D2994">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2995">
+        <v>3</v>
+      </c>
+      <c r="B2995">
+        <v>3</v>
+      </c>
+      <c r="C2995">
+        <v>4</v>
+      </c>
+      <c r="D2995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2996">
+        <v>5</v>
+      </c>
+      <c r="B2996">
+        <v>2</v>
+      </c>
+      <c r="C2996">
+        <v>5</v>
+      </c>
+      <c r="D2996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2997">
+        <v>7</v>
+      </c>
+      <c r="B2997">
+        <v>0</v>
+      </c>
+      <c r="C2997">
+        <v>6</v>
+      </c>
+      <c r="D2997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2998">
+        <v>7</v>
+      </c>
+      <c r="B2998">
+        <v>2</v>
+      </c>
+      <c r="C2998">
+        <v>6</v>
+      </c>
+      <c r="D2998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2999">
+        <v>3</v>
+      </c>
+      <c r="B2999">
+        <v>2</v>
+      </c>
+      <c r="C2999">
+        <v>4</v>
+      </c>
+      <c r="D2999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3000">
+        <v>3</v>
+      </c>
+      <c r="B3000">
+        <v>3</v>
+      </c>
+      <c r="C3000">
+        <v>2</v>
+      </c>
+      <c r="D3000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3001">
+        <v>5</v>
+      </c>
+      <c r="B3001">
+        <v>0</v>
+      </c>
+      <c r="C3001">
+        <v>5</v>
+      </c>
+      <c r="D3001">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3002">
+        <v>4</v>
+      </c>
+      <c r="B3002">
+        <v>1</v>
+      </c>
+      <c r="C3002">
+        <v>4</v>
+      </c>
+      <c r="D3002">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3003">
+        <v>5</v>
+      </c>
+      <c r="B3003">
+        <v>2</v>
+      </c>
+      <c r="C3003">
+        <v>5</v>
+      </c>
+      <c r="D3003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3004">
+        <v>5</v>
+      </c>
+      <c r="B3004">
+        <v>2</v>
+      </c>
+      <c r="C3004">
+        <v>5</v>
+      </c>
+      <c r="D3004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3005">
+        <v>4</v>
+      </c>
+      <c r="B3005">
+        <v>0</v>
+      </c>
+      <c r="C3005">
+        <v>5</v>
+      </c>
+      <c r="D3005">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3006">
+        <v>3</v>
+      </c>
+      <c r="B3006">
+        <v>2</v>
+      </c>
+      <c r="C3006">
+        <v>6</v>
+      </c>
+      <c r="D3006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3007">
+        <v>3</v>
+      </c>
+      <c r="B3007">
+        <v>0</v>
+      </c>
+      <c r="C3007">
+        <v>3</v>
+      </c>
+      <c r="D3007">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3008">
+        <v>6</v>
+      </c>
+      <c r="B3008">
+        <v>3</v>
+      </c>
+      <c r="C3008">
+        <v>4</v>
+      </c>
+      <c r="D3008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3009">
+        <v>6</v>
+      </c>
+      <c r="B3009">
+        <v>2</v>
+      </c>
+      <c r="C3009">
+        <v>5</v>
+      </c>
+      <c r="D3009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3010">
+        <v>5</v>
+      </c>
+      <c r="B3010">
+        <v>3</v>
+      </c>
+      <c r="C3010">
+        <v>4</v>
+      </c>
+      <c r="D3010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3011">
+        <v>3</v>
+      </c>
+      <c r="B3011">
+        <v>0</v>
+      </c>
+      <c r="C3011">
+        <v>6</v>
+      </c>
+      <c r="D3011">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537C258F-6BC8-4A04-AC31-518653226293}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6106186-7233-4759-8E9F-BB8B5CA8F8F3}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3011"/>
+  <dimension ref="A1:D3031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2992" workbookViewId="0">
-      <selection activeCell="A3012" sqref="A3012"/>
+    <sheetView tabSelected="1" topLeftCell="A3010" workbookViewId="0">
+      <selection activeCell="A3032" sqref="A3032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42533,6 +42533,286 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3012">
+        <v>4</v>
+      </c>
+      <c r="B3012">
+        <v>2</v>
+      </c>
+      <c r="C3012">
+        <v>5</v>
+      </c>
+      <c r="D3012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3013">
+        <v>3</v>
+      </c>
+      <c r="B3013">
+        <v>0</v>
+      </c>
+      <c r="C3013">
+        <v>6</v>
+      </c>
+      <c r="D3013">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3014">
+        <v>5</v>
+      </c>
+      <c r="B3014">
+        <v>2</v>
+      </c>
+      <c r="C3014">
+        <v>5</v>
+      </c>
+      <c r="D3014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3015">
+        <v>6</v>
+      </c>
+      <c r="B3015">
+        <v>2</v>
+      </c>
+      <c r="C3015">
+        <v>3</v>
+      </c>
+      <c r="D3015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3016">
+        <v>5</v>
+      </c>
+      <c r="B3016">
+        <v>3</v>
+      </c>
+      <c r="C3016">
+        <v>3</v>
+      </c>
+      <c r="D3016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3017">
+        <v>6</v>
+      </c>
+      <c r="B3017">
+        <v>0</v>
+      </c>
+      <c r="C3017">
+        <v>7</v>
+      </c>
+      <c r="D3017">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3018">
+        <v>3</v>
+      </c>
+      <c r="B3018">
+        <v>1</v>
+      </c>
+      <c r="C3018">
+        <v>3</v>
+      </c>
+      <c r="D3018">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3019">
+        <v>4</v>
+      </c>
+      <c r="B3019">
+        <v>2</v>
+      </c>
+      <c r="C3019">
+        <v>5</v>
+      </c>
+      <c r="D3019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3020">
+        <v>5</v>
+      </c>
+      <c r="B3020">
+        <v>2</v>
+      </c>
+      <c r="C3020">
+        <v>4</v>
+      </c>
+      <c r="D3020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3021">
+        <v>4</v>
+      </c>
+      <c r="B3021">
+        <v>2</v>
+      </c>
+      <c r="C3021">
+        <v>4</v>
+      </c>
+      <c r="D3021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3022">
+        <v>2</v>
+      </c>
+      <c r="B3022">
+        <v>3</v>
+      </c>
+      <c r="C3022">
+        <v>4</v>
+      </c>
+      <c r="D3022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3023">
+        <v>5</v>
+      </c>
+      <c r="B3023">
+        <v>0</v>
+      </c>
+      <c r="C3023">
+        <v>5</v>
+      </c>
+      <c r="D3023">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3024">
+        <v>5</v>
+      </c>
+      <c r="B3024">
+        <v>0</v>
+      </c>
+      <c r="C3024">
+        <v>5</v>
+      </c>
+      <c r="D3024">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3025">
+        <v>6</v>
+      </c>
+      <c r="B3025">
+        <v>2</v>
+      </c>
+      <c r="C3025">
+        <v>6</v>
+      </c>
+      <c r="D3025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3026">
+        <v>5</v>
+      </c>
+      <c r="B3026">
+        <v>0</v>
+      </c>
+      <c r="C3026">
+        <v>3</v>
+      </c>
+      <c r="D3026">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3027">
+        <v>4</v>
+      </c>
+      <c r="B3027">
+        <v>1</v>
+      </c>
+      <c r="C3027">
+        <v>4</v>
+      </c>
+      <c r="D3027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3028">
+        <v>5</v>
+      </c>
+      <c r="B3028">
+        <v>3</v>
+      </c>
+      <c r="C3028">
+        <v>3</v>
+      </c>
+      <c r="D3028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3029">
+        <v>3</v>
+      </c>
+      <c r="B3029">
+        <v>1</v>
+      </c>
+      <c r="C3029">
+        <v>3</v>
+      </c>
+      <c r="D3029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3030">
+        <v>6</v>
+      </c>
+      <c r="B3030">
+        <v>2</v>
+      </c>
+      <c r="C3030">
+        <v>6</v>
+      </c>
+      <c r="D3030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3031">
+        <v>5</v>
+      </c>
+      <c r="B3031">
+        <v>0</v>
+      </c>
+      <c r="C3031">
+        <v>4</v>
+      </c>
+      <c r="D3031">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6106186-7233-4759-8E9F-BB8B5CA8F8F3}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2390FBA-60AD-45F6-94E6-5F27D388EB92}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3031"/>
+  <dimension ref="A1:D3050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3010" workbookViewId="0">
-      <selection activeCell="A3032" sqref="A3032"/>
+    <sheetView tabSelected="1" topLeftCell="A3025" workbookViewId="0">
+      <selection activeCell="A3051" sqref="A3051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42813,6 +42813,272 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3032">
+        <v>6</v>
+      </c>
+      <c r="B3032">
+        <v>0</v>
+      </c>
+      <c r="C3032">
+        <v>7</v>
+      </c>
+      <c r="D3032">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3033">
+        <v>3</v>
+      </c>
+      <c r="B3033">
+        <v>0</v>
+      </c>
+      <c r="C3033">
+        <v>5</v>
+      </c>
+      <c r="D3033">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3034">
+        <v>5</v>
+      </c>
+      <c r="B3034">
+        <v>3</v>
+      </c>
+      <c r="C3034">
+        <v>3</v>
+      </c>
+      <c r="D3034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3035">
+        <v>3</v>
+      </c>
+      <c r="B3035">
+        <v>0</v>
+      </c>
+      <c r="C3035">
+        <v>3</v>
+      </c>
+      <c r="D3035">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3036">
+        <v>5</v>
+      </c>
+      <c r="B3036">
+        <v>3</v>
+      </c>
+      <c r="C3036">
+        <v>3</v>
+      </c>
+      <c r="D3036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3037">
+        <v>2</v>
+      </c>
+      <c r="B3037">
+        <v>2</v>
+      </c>
+      <c r="C3037">
+        <v>3</v>
+      </c>
+      <c r="D3037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3038">
+        <v>5</v>
+      </c>
+      <c r="B3038">
+        <v>2</v>
+      </c>
+      <c r="C3038">
+        <v>5</v>
+      </c>
+      <c r="D3038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3039">
+        <v>5</v>
+      </c>
+      <c r="B3039">
+        <v>1</v>
+      </c>
+      <c r="C3039">
+        <v>5</v>
+      </c>
+      <c r="D3039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3040">
+        <v>6</v>
+      </c>
+      <c r="B3040">
+        <v>3</v>
+      </c>
+      <c r="C3040">
+        <v>5</v>
+      </c>
+      <c r="D3040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3041">
+        <v>3</v>
+      </c>
+      <c r="B3041">
+        <v>2</v>
+      </c>
+      <c r="C3041">
+        <v>4</v>
+      </c>
+      <c r="D3041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3042">
+        <v>4</v>
+      </c>
+      <c r="B3042">
+        <v>3</v>
+      </c>
+      <c r="C3042">
+        <v>3</v>
+      </c>
+      <c r="D3042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3043">
+        <v>5</v>
+      </c>
+      <c r="B3043">
+        <v>2</v>
+      </c>
+      <c r="C3043">
+        <v>5</v>
+      </c>
+      <c r="D3043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3044">
+        <v>3</v>
+      </c>
+      <c r="B3044">
+        <v>1</v>
+      </c>
+      <c r="C3044">
+        <v>5</v>
+      </c>
+      <c r="D3044">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3045">
+        <v>5</v>
+      </c>
+      <c r="B3045">
+        <v>3</v>
+      </c>
+      <c r="C3045">
+        <v>6</v>
+      </c>
+      <c r="D3045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3046">
+        <v>4</v>
+      </c>
+      <c r="B3046">
+        <v>3</v>
+      </c>
+      <c r="C3046">
+        <v>4</v>
+      </c>
+      <c r="D3046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3047">
+        <v>5</v>
+      </c>
+      <c r="B3047">
+        <v>1</v>
+      </c>
+      <c r="C3047">
+        <v>5</v>
+      </c>
+      <c r="D3047">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3048">
+        <v>3</v>
+      </c>
+      <c r="B3048">
+        <v>3</v>
+      </c>
+      <c r="C3048">
+        <v>3</v>
+      </c>
+      <c r="D3048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3049">
+        <v>6</v>
+      </c>
+      <c r="B3049">
+        <v>2</v>
+      </c>
+      <c r="C3049">
+        <v>7</v>
+      </c>
+      <c r="D3049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3050">
+        <v>5</v>
+      </c>
+      <c r="B3050">
+        <v>2</v>
+      </c>
+      <c r="C3050">
+        <v>4</v>
+      </c>
+      <c r="D3050">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2390FBA-60AD-45F6-94E6-5F27D388EB92}"/>
+  <xr:revisionPtr revIDLastSave="539" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92445EE4-9A5C-4A0E-82BB-97E464FB1F24}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3050"/>
+  <dimension ref="A1:D3069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3025" workbookViewId="0">
-      <selection activeCell="A3051" sqref="A3051"/>
+    <sheetView tabSelected="1" topLeftCell="A3049" workbookViewId="0">
+      <selection activeCell="A3070" sqref="A3070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43079,6 +43079,272 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3051">
+        <v>3</v>
+      </c>
+      <c r="B3051">
+        <v>3</v>
+      </c>
+      <c r="C3051">
+        <v>3</v>
+      </c>
+      <c r="D3051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3052">
+        <v>5</v>
+      </c>
+      <c r="B3052">
+        <v>1</v>
+      </c>
+      <c r="C3052">
+        <v>5</v>
+      </c>
+      <c r="D3052">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3053">
+        <v>4</v>
+      </c>
+      <c r="B3053">
+        <v>2</v>
+      </c>
+      <c r="C3053">
+        <v>5</v>
+      </c>
+      <c r="D3053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3054">
+        <v>7</v>
+      </c>
+      <c r="B3054">
+        <v>2</v>
+      </c>
+      <c r="C3054">
+        <v>6</v>
+      </c>
+      <c r="D3054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3055">
+        <v>7</v>
+      </c>
+      <c r="B3055">
+        <v>0</v>
+      </c>
+      <c r="C3055">
+        <v>6</v>
+      </c>
+      <c r="D3055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3056">
+        <v>3</v>
+      </c>
+      <c r="B3056">
+        <v>0</v>
+      </c>
+      <c r="C3056">
+        <v>4</v>
+      </c>
+      <c r="D3056">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3057">
+        <v>5</v>
+      </c>
+      <c r="B3057">
+        <v>2</v>
+      </c>
+      <c r="C3057">
+        <v>5</v>
+      </c>
+      <c r="D3057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3058">
+        <v>4</v>
+      </c>
+      <c r="B3058">
+        <v>0</v>
+      </c>
+      <c r="C3058">
+        <v>5</v>
+      </c>
+      <c r="D3058">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3059">
+        <v>3</v>
+      </c>
+      <c r="B3059">
+        <v>3</v>
+      </c>
+      <c r="C3059">
+        <v>3</v>
+      </c>
+      <c r="D3059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3060">
+        <v>4</v>
+      </c>
+      <c r="B3060">
+        <v>1</v>
+      </c>
+      <c r="C3060">
+        <v>4</v>
+      </c>
+      <c r="D3060">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3061">
+        <v>2</v>
+      </c>
+      <c r="B3061">
+        <v>2</v>
+      </c>
+      <c r="C3061">
+        <v>4</v>
+      </c>
+      <c r="D3061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3062">
+        <v>5</v>
+      </c>
+      <c r="B3062">
+        <v>0</v>
+      </c>
+      <c r="C3062">
+        <v>5</v>
+      </c>
+      <c r="D3062">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3063">
+        <v>3</v>
+      </c>
+      <c r="B3063">
+        <v>0</v>
+      </c>
+      <c r="C3063">
+        <v>3</v>
+      </c>
+      <c r="D3063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3064">
+        <v>6</v>
+      </c>
+      <c r="B3064">
+        <v>3</v>
+      </c>
+      <c r="C3064">
+        <v>6</v>
+      </c>
+      <c r="D3064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3065">
+        <v>4</v>
+      </c>
+      <c r="B3065">
+        <v>1</v>
+      </c>
+      <c r="C3065">
+        <v>4</v>
+      </c>
+      <c r="D3065">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3066">
+        <v>5</v>
+      </c>
+      <c r="B3066">
+        <v>2</v>
+      </c>
+      <c r="C3066">
+        <v>6</v>
+      </c>
+      <c r="D3066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3067">
+        <v>5</v>
+      </c>
+      <c r="B3067">
+        <v>0</v>
+      </c>
+      <c r="C3067">
+        <v>5</v>
+      </c>
+      <c r="D3067">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3068">
+        <v>3</v>
+      </c>
+      <c r="B3068">
+        <v>1</v>
+      </c>
+      <c r="C3068">
+        <v>3</v>
+      </c>
+      <c r="D3068">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3069">
+        <v>6</v>
+      </c>
+      <c r="B3069">
+        <v>2</v>
+      </c>
+      <c r="C3069">
+        <v>5</v>
+      </c>
+      <c r="D3069">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="539" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92445EE4-9A5C-4A0E-82BB-97E464FB1F24}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79891106-F1C3-49C7-94F3-046566C876AF}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3069"/>
+  <dimension ref="A1:D3089"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3049" workbookViewId="0">
-      <selection activeCell="A3070" sqref="A3070"/>
+    <sheetView tabSelected="1" topLeftCell="A3067" workbookViewId="0">
+      <selection activeCell="A3090" sqref="A3090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43345,6 +43345,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3070">
+        <v>3</v>
+      </c>
+      <c r="B3070">
+        <v>2</v>
+      </c>
+      <c r="C3070">
+        <v>4</v>
+      </c>
+      <c r="D3070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3071">
+        <v>4</v>
+      </c>
+      <c r="B3071">
+        <v>0</v>
+      </c>
+      <c r="C3071">
+        <v>5</v>
+      </c>
+      <c r="D3071">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3072">
+        <v>3</v>
+      </c>
+      <c r="B3072">
+        <v>3</v>
+      </c>
+      <c r="C3072">
+        <v>3</v>
+      </c>
+      <c r="D3072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3073">
+        <v>5</v>
+      </c>
+      <c r="B3073">
+        <v>0</v>
+      </c>
+      <c r="C3073">
+        <v>5</v>
+      </c>
+      <c r="D3073">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3074">
+        <v>6</v>
+      </c>
+      <c r="B3074">
+        <v>2</v>
+      </c>
+      <c r="C3074">
+        <v>6</v>
+      </c>
+      <c r="D3074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3075">
+        <v>5</v>
+      </c>
+      <c r="B3075">
+        <v>2</v>
+      </c>
+      <c r="C3075">
+        <v>5</v>
+      </c>
+      <c r="D3075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3076">
+        <v>5</v>
+      </c>
+      <c r="B3076">
+        <v>3</v>
+      </c>
+      <c r="C3076">
+        <v>4</v>
+      </c>
+      <c r="D3076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3077">
+        <v>4</v>
+      </c>
+      <c r="B3077">
+        <v>3</v>
+      </c>
+      <c r="C3077">
+        <v>5</v>
+      </c>
+      <c r="D3077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3078">
+        <v>6</v>
+      </c>
+      <c r="B3078">
+        <v>3</v>
+      </c>
+      <c r="C3078">
+        <v>4</v>
+      </c>
+      <c r="D3078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3079">
+        <v>3</v>
+      </c>
+      <c r="B3079">
+        <v>1</v>
+      </c>
+      <c r="C3079">
+        <v>4</v>
+      </c>
+      <c r="D3079">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3080">
+        <v>5</v>
+      </c>
+      <c r="B3080">
+        <v>0</v>
+      </c>
+      <c r="C3080">
+        <v>4</v>
+      </c>
+      <c r="D3080">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3081">
+        <v>3</v>
+      </c>
+      <c r="B3081">
+        <v>2</v>
+      </c>
+      <c r="C3081">
+        <v>3</v>
+      </c>
+      <c r="D3081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3082">
+        <v>5</v>
+      </c>
+      <c r="B3082">
+        <v>2</v>
+      </c>
+      <c r="C3082">
+        <v>5</v>
+      </c>
+      <c r="D3082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3083">
+        <v>5</v>
+      </c>
+      <c r="B3083">
+        <v>0</v>
+      </c>
+      <c r="C3083">
+        <v>3</v>
+      </c>
+      <c r="D3083">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3084">
+        <v>4</v>
+      </c>
+      <c r="B3084">
+        <v>0</v>
+      </c>
+      <c r="C3084">
+        <v>7</v>
+      </c>
+      <c r="D3084">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3085">
+        <v>3</v>
+      </c>
+      <c r="B3085">
+        <v>2</v>
+      </c>
+      <c r="C3085">
+        <v>4</v>
+      </c>
+      <c r="D3085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3086">
+        <v>3</v>
+      </c>
+      <c r="B3086">
+        <v>0</v>
+      </c>
+      <c r="C3086">
+        <v>4</v>
+      </c>
+      <c r="D3086">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3087">
+        <v>5</v>
+      </c>
+      <c r="B3087">
+        <v>0</v>
+      </c>
+      <c r="C3087">
+        <v>5</v>
+      </c>
+      <c r="D3087">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3088">
+        <v>6</v>
+      </c>
+      <c r="B3088">
+        <v>0</v>
+      </c>
+      <c r="C3088">
+        <v>7</v>
+      </c>
+      <c r="D3088">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3089">
+        <v>4</v>
+      </c>
+      <c r="B3089">
+        <v>2</v>
+      </c>
+      <c r="C3089">
+        <v>3</v>
+      </c>
+      <c r="D3089">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="619" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79891106-F1C3-49C7-94F3-046566C876AF}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DAD0848-5E29-4973-A222-43AEE2D618D5}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3089"/>
+  <dimension ref="A1:D3108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3067" workbookViewId="0">
-      <selection activeCell="A3090" sqref="A3090"/>
+    <sheetView tabSelected="1" topLeftCell="A3085" workbookViewId="0">
+      <selection activeCell="A3109" sqref="A3109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43625,6 +43625,272 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3090">
+        <v>5</v>
+      </c>
+      <c r="B3090">
+        <v>0</v>
+      </c>
+      <c r="C3090">
+        <v>4</v>
+      </c>
+      <c r="D3090">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3091">
+        <v>4</v>
+      </c>
+      <c r="B3091">
+        <v>1</v>
+      </c>
+      <c r="C3091">
+        <v>4</v>
+      </c>
+      <c r="D3091">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3092">
+        <v>5</v>
+      </c>
+      <c r="B3092">
+        <v>1</v>
+      </c>
+      <c r="C3092">
+        <v>6</v>
+      </c>
+      <c r="D3092">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3093">
+        <v>3</v>
+      </c>
+      <c r="B3093">
+        <v>2</v>
+      </c>
+      <c r="C3093">
+        <v>3</v>
+      </c>
+      <c r="D3093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3094">
+        <v>6</v>
+      </c>
+      <c r="B3094">
+        <v>3</v>
+      </c>
+      <c r="C3094">
+        <v>5</v>
+      </c>
+      <c r="D3094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3095">
+        <v>4</v>
+      </c>
+      <c r="B3095">
+        <v>0</v>
+      </c>
+      <c r="C3095">
+        <v>3</v>
+      </c>
+      <c r="D3095">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3096">
+        <v>4</v>
+      </c>
+      <c r="B3096">
+        <v>1</v>
+      </c>
+      <c r="C3096">
+        <v>5</v>
+      </c>
+      <c r="D3096">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3097">
+        <v>3</v>
+      </c>
+      <c r="B3097">
+        <v>2</v>
+      </c>
+      <c r="C3097">
+        <v>4</v>
+      </c>
+      <c r="D3097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3098">
+        <v>5</v>
+      </c>
+      <c r="B3098">
+        <v>2</v>
+      </c>
+      <c r="C3098">
+        <v>6</v>
+      </c>
+      <c r="D3098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3099">
+        <v>3</v>
+      </c>
+      <c r="B3099">
+        <v>1</v>
+      </c>
+      <c r="C3099">
+        <v>3</v>
+      </c>
+      <c r="D3099">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3100">
+        <v>4</v>
+      </c>
+      <c r="B3100">
+        <v>0</v>
+      </c>
+      <c r="C3100">
+        <v>5</v>
+      </c>
+      <c r="D3100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3101">
+        <v>3</v>
+      </c>
+      <c r="B3101">
+        <v>1</v>
+      </c>
+      <c r="C3101">
+        <v>3</v>
+      </c>
+      <c r="D3101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3102">
+        <v>7</v>
+      </c>
+      <c r="B3102">
+        <v>0</v>
+      </c>
+      <c r="C3102">
+        <v>5</v>
+      </c>
+      <c r="D3102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3103">
+        <v>6</v>
+      </c>
+      <c r="B3103">
+        <v>0</v>
+      </c>
+      <c r="C3103">
+        <v>6</v>
+      </c>
+      <c r="D3103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3104">
+        <v>3</v>
+      </c>
+      <c r="B3104">
+        <v>3</v>
+      </c>
+      <c r="C3104">
+        <v>3</v>
+      </c>
+      <c r="D3104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3105">
+        <v>5</v>
+      </c>
+      <c r="B3105">
+        <v>2</v>
+      </c>
+      <c r="C3105">
+        <v>5</v>
+      </c>
+      <c r="D3105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3106">
+        <v>3</v>
+      </c>
+      <c r="B3106">
+        <v>0</v>
+      </c>
+      <c r="C3106">
+        <v>4</v>
+      </c>
+      <c r="D3106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3107">
+        <v>7</v>
+      </c>
+      <c r="B3107">
+        <v>2</v>
+      </c>
+      <c r="C3107">
+        <v>6</v>
+      </c>
+      <c r="D3107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3108">
+        <v>4</v>
+      </c>
+      <c r="B3108">
+        <v>0</v>
+      </c>
+      <c r="C3108">
+        <v>5</v>
+      </c>
+      <c r="D3108">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DAD0848-5E29-4973-A222-43AEE2D618D5}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC49DF43-7FE6-4630-9156-685F8767A111}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3108"/>
+  <dimension ref="A1:D3122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3085" workbookViewId="0">
-      <selection activeCell="A3109" sqref="A3109"/>
+    <sheetView tabSelected="1" topLeftCell="A3118" workbookViewId="0">
+      <selection activeCell="A3123" sqref="A3123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43891,6 +43891,202 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3109">
+        <v>3</v>
+      </c>
+      <c r="B3109">
+        <v>2</v>
+      </c>
+      <c r="C3109">
+        <v>4</v>
+      </c>
+      <c r="D3109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3110">
+        <v>5</v>
+      </c>
+      <c r="B3110">
+        <v>2</v>
+      </c>
+      <c r="C3110">
+        <v>5</v>
+      </c>
+      <c r="D3110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3111">
+        <v>6</v>
+      </c>
+      <c r="B3111">
+        <v>0</v>
+      </c>
+      <c r="C3111">
+        <v>6</v>
+      </c>
+      <c r="D3111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3112">
+        <v>4</v>
+      </c>
+      <c r="B3112">
+        <v>3</v>
+      </c>
+      <c r="C3112">
+        <v>3</v>
+      </c>
+      <c r="D3112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3113">
+        <v>5</v>
+      </c>
+      <c r="B3113">
+        <v>0</v>
+      </c>
+      <c r="C3113">
+        <v>5</v>
+      </c>
+      <c r="D3113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3114">
+        <v>5</v>
+      </c>
+      <c r="B3114">
+        <v>0</v>
+      </c>
+      <c r="C3114">
+        <v>4</v>
+      </c>
+      <c r="D3114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3115">
+        <v>5</v>
+      </c>
+      <c r="B3115">
+        <v>3</v>
+      </c>
+      <c r="C3115">
+        <v>4</v>
+      </c>
+      <c r="D3115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3116">
+        <v>4</v>
+      </c>
+      <c r="B3116">
+        <v>1</v>
+      </c>
+      <c r="C3116">
+        <v>5</v>
+      </c>
+      <c r="D3116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3117">
+        <v>5</v>
+      </c>
+      <c r="B3117">
+        <v>2</v>
+      </c>
+      <c r="C3117">
+        <v>6</v>
+      </c>
+      <c r="D3117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3118">
+        <v>4</v>
+      </c>
+      <c r="B3118">
+        <v>0</v>
+      </c>
+      <c r="C3118">
+        <v>4</v>
+      </c>
+      <c r="D3118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3119">
+        <v>5</v>
+      </c>
+      <c r="B3119">
+        <v>2</v>
+      </c>
+      <c r="C3119">
+        <v>5</v>
+      </c>
+      <c r="D3119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3120">
+        <v>4</v>
+      </c>
+      <c r="B3120">
+        <v>2</v>
+      </c>
+      <c r="C3120">
+        <v>4</v>
+      </c>
+      <c r="D3120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3121">
+        <v>4</v>
+      </c>
+      <c r="B3121">
+        <v>1</v>
+      </c>
+      <c r="C3121">
+        <v>4</v>
+      </c>
+      <c r="D3121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3122">
+        <v>5</v>
+      </c>
+      <c r="B3122">
+        <v>2</v>
+      </c>
+      <c r="C3122">
+        <v>5</v>
+      </c>
+      <c r="D3122">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="752" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC49DF43-7FE6-4630-9156-685F8767A111}"/>
+  <xr:revisionPtr revIDLastSave="872" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C0BFDE-269F-42F0-803B-95A70745750F}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3122"/>
+  <dimension ref="A1:D3152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3118" workbookViewId="0">
-      <selection activeCell="A3123" sqref="A3123"/>
+      <selection activeCell="A3153" sqref="A3153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44087,6 +44087,426 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3123">
+        <v>3</v>
+      </c>
+      <c r="B3123">
+        <v>3</v>
+      </c>
+      <c r="C3123">
+        <v>6</v>
+      </c>
+      <c r="D3123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3124">
+        <v>5</v>
+      </c>
+      <c r="B3124">
+        <v>2</v>
+      </c>
+      <c r="C3124">
+        <v>2</v>
+      </c>
+      <c r="D3124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3125">
+        <v>5</v>
+      </c>
+      <c r="B3125">
+        <v>2</v>
+      </c>
+      <c r="C3125">
+        <v>4</v>
+      </c>
+      <c r="D3125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3126">
+        <v>7</v>
+      </c>
+      <c r="B3126">
+        <v>0</v>
+      </c>
+      <c r="C3126">
+        <v>6</v>
+      </c>
+      <c r="D3126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3127">
+        <v>3</v>
+      </c>
+      <c r="B3127">
+        <v>1</v>
+      </c>
+      <c r="C3127">
+        <v>3</v>
+      </c>
+      <c r="D3127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3128">
+        <v>3</v>
+      </c>
+      <c r="B3128">
+        <v>2</v>
+      </c>
+      <c r="C3128">
+        <v>4</v>
+      </c>
+      <c r="D3128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3129">
+        <v>5</v>
+      </c>
+      <c r="B3129">
+        <v>2</v>
+      </c>
+      <c r="C3129">
+        <v>5</v>
+      </c>
+      <c r="D3129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3130">
+        <v>6</v>
+      </c>
+      <c r="B3130">
+        <v>0</v>
+      </c>
+      <c r="C3130">
+        <v>4</v>
+      </c>
+      <c r="D3130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3131">
+        <v>6</v>
+      </c>
+      <c r="B3131">
+        <v>3</v>
+      </c>
+      <c r="C3131">
+        <v>6</v>
+      </c>
+      <c r="D3131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3132">
+        <v>3</v>
+      </c>
+      <c r="B3132">
+        <v>2</v>
+      </c>
+      <c r="C3132">
+        <v>4</v>
+      </c>
+      <c r="D3132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3133">
+        <v>6</v>
+      </c>
+      <c r="B3133">
+        <v>2</v>
+      </c>
+      <c r="C3133">
+        <v>6</v>
+      </c>
+      <c r="D3133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3134">
+        <v>3</v>
+      </c>
+      <c r="B3134">
+        <v>3</v>
+      </c>
+      <c r="C3134">
+        <v>5</v>
+      </c>
+      <c r="D3134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3135">
+        <v>7</v>
+      </c>
+      <c r="B3135">
+        <v>2</v>
+      </c>
+      <c r="C3135">
+        <v>3</v>
+      </c>
+      <c r="D3135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3136">
+        <v>3</v>
+      </c>
+      <c r="B3136">
+        <v>1</v>
+      </c>
+      <c r="C3136">
+        <v>4</v>
+      </c>
+      <c r="D3136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3137">
+        <v>3</v>
+      </c>
+      <c r="B3137">
+        <v>1</v>
+      </c>
+      <c r="C3137">
+        <v>3</v>
+      </c>
+      <c r="D3137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3138">
+        <v>5</v>
+      </c>
+      <c r="B3138">
+        <v>0</v>
+      </c>
+      <c r="C3138">
+        <v>5</v>
+      </c>
+      <c r="D3138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3139">
+        <v>7</v>
+      </c>
+      <c r="B3139">
+        <v>2</v>
+      </c>
+      <c r="C3139">
+        <v>6</v>
+      </c>
+      <c r="D3139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3140">
+        <v>4</v>
+      </c>
+      <c r="B3140">
+        <v>2</v>
+      </c>
+      <c r="C3140">
+        <v>4</v>
+      </c>
+      <c r="D3140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3141">
+        <v>3</v>
+      </c>
+      <c r="B3141">
+        <v>3</v>
+      </c>
+      <c r="C3141">
+        <v>3</v>
+      </c>
+      <c r="D3141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3142">
+        <v>4</v>
+      </c>
+      <c r="B3142">
+        <v>2</v>
+      </c>
+      <c r="C3142">
+        <v>5</v>
+      </c>
+      <c r="D3142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3143">
+        <v>4</v>
+      </c>
+      <c r="B3143">
+        <v>3</v>
+      </c>
+      <c r="C3143">
+        <v>4</v>
+      </c>
+      <c r="D3143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3144">
+        <v>3</v>
+      </c>
+      <c r="B3144">
+        <v>3</v>
+      </c>
+      <c r="C3144">
+        <v>2</v>
+      </c>
+      <c r="D3144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3145">
+        <v>3</v>
+      </c>
+      <c r="B3145">
+        <v>1</v>
+      </c>
+      <c r="C3145">
+        <v>3</v>
+      </c>
+      <c r="D3145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3146">
+        <v>6</v>
+      </c>
+      <c r="B3146">
+        <v>0</v>
+      </c>
+      <c r="C3146">
+        <v>6</v>
+      </c>
+      <c r="D3146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3147">
+        <v>5</v>
+      </c>
+      <c r="B3147">
+        <v>0</v>
+      </c>
+      <c r="C3147">
+        <v>7</v>
+      </c>
+      <c r="D3147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3148">
+        <v>3</v>
+      </c>
+      <c r="B3148">
+        <v>0</v>
+      </c>
+      <c r="C3148">
+        <v>3</v>
+      </c>
+      <c r="D3148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3149">
+        <v>4</v>
+      </c>
+      <c r="B3149">
+        <v>2</v>
+      </c>
+      <c r="C3149">
+        <v>3</v>
+      </c>
+      <c r="D3149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3150">
+        <v>5</v>
+      </c>
+      <c r="B3150">
+        <v>2</v>
+      </c>
+      <c r="C3150">
+        <v>3</v>
+      </c>
+      <c r="D3150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3151">
+        <v>6</v>
+      </c>
+      <c r="B3151">
+        <v>0</v>
+      </c>
+      <c r="C3151">
+        <v>6</v>
+      </c>
+      <c r="D3151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3152">
+        <v>3</v>
+      </c>
+      <c r="B3152">
+        <v>0</v>
+      </c>
+      <c r="C3152">
+        <v>3</v>
+      </c>
+      <c r="D3152">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="872" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C0BFDE-269F-42F0-803B-95A70745750F}"/>
+  <xr:revisionPtr revIDLastSave="932" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{910D6B62-ADDE-4B25-9B04-8833CA9660CA}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3152"/>
+  <dimension ref="A1:D3167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3118" workbookViewId="0">
-      <selection activeCell="A3153" sqref="A3153"/>
+    <sheetView tabSelected="1" topLeftCell="A3148" workbookViewId="0">
+      <selection activeCell="A3168" sqref="A3168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44507,6 +44507,216 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3153">
+        <v>4</v>
+      </c>
+      <c r="B3153">
+        <v>0</v>
+      </c>
+      <c r="C3153">
+        <v>4</v>
+      </c>
+      <c r="D3153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3154">
+        <v>3</v>
+      </c>
+      <c r="B3154">
+        <v>3</v>
+      </c>
+      <c r="C3154">
+        <v>4</v>
+      </c>
+      <c r="D3154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3155">
+        <v>5</v>
+      </c>
+      <c r="B3155">
+        <v>0</v>
+      </c>
+      <c r="C3155">
+        <v>5</v>
+      </c>
+      <c r="D3155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3156">
+        <v>2</v>
+      </c>
+      <c r="B3156">
+        <v>0</v>
+      </c>
+      <c r="C3156">
+        <v>4</v>
+      </c>
+      <c r="D3156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3157">
+        <v>6</v>
+      </c>
+      <c r="B3157">
+        <v>3</v>
+      </c>
+      <c r="C3157">
+        <v>5</v>
+      </c>
+      <c r="D3157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3158">
+        <v>3</v>
+      </c>
+      <c r="B3158">
+        <v>0</v>
+      </c>
+      <c r="C3158">
+        <v>3</v>
+      </c>
+      <c r="D3158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3159">
+        <v>3</v>
+      </c>
+      <c r="B3159">
+        <v>2</v>
+      </c>
+      <c r="C3159">
+        <v>5</v>
+      </c>
+      <c r="D3159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3160">
+        <v>6</v>
+      </c>
+      <c r="B3160">
+        <v>2</v>
+      </c>
+      <c r="C3160">
+        <v>6</v>
+      </c>
+      <c r="D3160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3161">
+        <v>2</v>
+      </c>
+      <c r="B3161">
+        <v>2</v>
+      </c>
+      <c r="C3161">
+        <v>3</v>
+      </c>
+      <c r="D3161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3162">
+        <v>3</v>
+      </c>
+      <c r="B3162">
+        <v>1</v>
+      </c>
+      <c r="C3162">
+        <v>5</v>
+      </c>
+      <c r="D3162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3163">
+        <v>3</v>
+      </c>
+      <c r="B3163">
+        <v>0</v>
+      </c>
+      <c r="C3163">
+        <v>4</v>
+      </c>
+      <c r="D3163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3164">
+        <v>6</v>
+      </c>
+      <c r="B3164">
+        <v>0</v>
+      </c>
+      <c r="C3164">
+        <v>7</v>
+      </c>
+      <c r="D3164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3165">
+        <v>5</v>
+      </c>
+      <c r="B3165">
+        <v>3</v>
+      </c>
+      <c r="C3165">
+        <v>4</v>
+      </c>
+      <c r="D3165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3166">
+        <v>6</v>
+      </c>
+      <c r="B3166">
+        <v>1</v>
+      </c>
+      <c r="C3166">
+        <v>6</v>
+      </c>
+      <c r="D3166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3167">
+        <v>3</v>
+      </c>
+      <c r="B3167">
+        <v>3</v>
+      </c>
+      <c r="C3167">
+        <v>2</v>
+      </c>
+      <c r="D3167">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="932" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{910D6B62-ADDE-4B25-9B04-8833CA9660CA}"/>
+  <xr:revisionPtr revIDLastSave="988" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC71ECC-9792-455B-B50D-EC49830DEC7F}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3167"/>
+  <dimension ref="A1:D3181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3148" workbookViewId="0">
-      <selection activeCell="A3168" sqref="A3168"/>
+    <sheetView tabSelected="1" topLeftCell="A3160" workbookViewId="0">
+      <selection activeCell="A3182" sqref="A3182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44717,6 +44717,202 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3168">
+        <v>5</v>
+      </c>
+      <c r="B3168">
+        <v>3</v>
+      </c>
+      <c r="C3168">
+        <v>3</v>
+      </c>
+      <c r="D3168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3169">
+        <v>4</v>
+      </c>
+      <c r="B3169">
+        <v>1</v>
+      </c>
+      <c r="C3169">
+        <v>5</v>
+      </c>
+      <c r="D3169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3170">
+        <v>5</v>
+      </c>
+      <c r="B3170">
+        <v>0</v>
+      </c>
+      <c r="C3170">
+        <v>7</v>
+      </c>
+      <c r="D3170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3171">
+        <v>5</v>
+      </c>
+      <c r="B3171">
+        <v>0</v>
+      </c>
+      <c r="C3171">
+        <v>5</v>
+      </c>
+      <c r="D3171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3172">
+        <v>3</v>
+      </c>
+      <c r="B3172">
+        <v>1</v>
+      </c>
+      <c r="C3172">
+        <v>4</v>
+      </c>
+      <c r="D3172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3173">
+        <v>6</v>
+      </c>
+      <c r="B3173">
+        <v>0</v>
+      </c>
+      <c r="C3173">
+        <v>3</v>
+      </c>
+      <c r="D3173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3174">
+        <v>4</v>
+      </c>
+      <c r="B3174">
+        <v>2</v>
+      </c>
+      <c r="C3174">
+        <v>3</v>
+      </c>
+      <c r="D3174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3175">
+        <v>3</v>
+      </c>
+      <c r="B3175">
+        <v>0</v>
+      </c>
+      <c r="C3175">
+        <v>6</v>
+      </c>
+      <c r="D3175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3176">
+        <v>7</v>
+      </c>
+      <c r="B3176">
+        <v>3</v>
+      </c>
+      <c r="C3176">
+        <v>3</v>
+      </c>
+      <c r="D3176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3177">
+        <v>4</v>
+      </c>
+      <c r="B3177">
+        <v>0</v>
+      </c>
+      <c r="C3177">
+        <v>4</v>
+      </c>
+      <c r="D3177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3178">
+        <v>5</v>
+      </c>
+      <c r="B3178">
+        <v>0</v>
+      </c>
+      <c r="C3178">
+        <v>5</v>
+      </c>
+      <c r="D3178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3179">
+        <v>2</v>
+      </c>
+      <c r="B3179">
+        <v>2</v>
+      </c>
+      <c r="C3179">
+        <v>3</v>
+      </c>
+      <c r="D3179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3180">
+        <v>5</v>
+      </c>
+      <c r="B3180">
+        <v>0</v>
+      </c>
+      <c r="C3180">
+        <v>5</v>
+      </c>
+      <c r="D3180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3181">
+        <v>6</v>
+      </c>
+      <c r="B3181">
+        <v>2</v>
+      </c>
+      <c r="C3181">
+        <v>6</v>
+      </c>
+      <c r="D3181">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="988" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC71ECC-9792-455B-B50D-EC49830DEC7F}"/>
+  <xr:revisionPtr revIDLastSave="1048" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7810471B-0D35-43A5-8BDE-843968C2FBA7}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3181"/>
+  <dimension ref="A1:D3196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3160" workbookViewId="0">
-      <selection activeCell="A3182" sqref="A3182"/>
+    <sheetView tabSelected="1" topLeftCell="A3181" workbookViewId="0">
+      <selection activeCell="A3197" sqref="A3197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44913,6 +44913,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3182">
+        <v>5</v>
+      </c>
+      <c r="B3182">
+        <v>3</v>
+      </c>
+      <c r="C3182">
+        <v>4</v>
+      </c>
+      <c r="D3182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3183">
+        <v>4</v>
+      </c>
+      <c r="B3183">
+        <v>0</v>
+      </c>
+      <c r="C3183">
+        <v>4</v>
+      </c>
+      <c r="D3183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3184">
+        <v>4</v>
+      </c>
+      <c r="B3184">
+        <v>0</v>
+      </c>
+      <c r="C3184">
+        <v>3</v>
+      </c>
+      <c r="D3184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3185">
+        <v>6</v>
+      </c>
+      <c r="B3185">
+        <v>2</v>
+      </c>
+      <c r="C3185">
+        <v>6</v>
+      </c>
+      <c r="D3185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3186">
+        <v>4</v>
+      </c>
+      <c r="B3186">
+        <v>3</v>
+      </c>
+      <c r="C3186">
+        <v>5</v>
+      </c>
+      <c r="D3186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3187">
+        <v>3</v>
+      </c>
+      <c r="B3187">
+        <v>0</v>
+      </c>
+      <c r="C3187">
+        <v>4</v>
+      </c>
+      <c r="D3187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3188">
+        <v>5</v>
+      </c>
+      <c r="B3188">
+        <v>2</v>
+      </c>
+      <c r="C3188">
+        <v>6</v>
+      </c>
+      <c r="D3188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3189">
+        <v>6</v>
+      </c>
+      <c r="B3189">
+        <v>0</v>
+      </c>
+      <c r="C3189">
+        <v>3</v>
+      </c>
+      <c r="D3189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3190">
+        <v>2</v>
+      </c>
+      <c r="B3190">
+        <v>0</v>
+      </c>
+      <c r="C3190">
+        <v>2</v>
+      </c>
+      <c r="D3190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3191">
+        <v>7</v>
+      </c>
+      <c r="B3191">
+        <v>2</v>
+      </c>
+      <c r="C3191">
+        <v>5</v>
+      </c>
+      <c r="D3191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3192">
+        <v>3</v>
+      </c>
+      <c r="B3192">
+        <v>2</v>
+      </c>
+      <c r="C3192">
+        <v>3</v>
+      </c>
+      <c r="D3192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3193">
+        <v>5</v>
+      </c>
+      <c r="B3193">
+        <v>1</v>
+      </c>
+      <c r="C3193">
+        <v>4</v>
+      </c>
+      <c r="D3193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3194">
+        <v>3</v>
+      </c>
+      <c r="B3194">
+        <v>3</v>
+      </c>
+      <c r="C3194">
+        <v>4</v>
+      </c>
+      <c r="D3194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3195">
+        <v>6</v>
+      </c>
+      <c r="B3195">
+        <v>0</v>
+      </c>
+      <c r="C3195">
+        <v>5</v>
+      </c>
+      <c r="D3195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3196">
+        <v>3</v>
+      </c>
+      <c r="B3196">
+        <v>0</v>
+      </c>
+      <c r="C3196">
+        <v>5</v>
+      </c>
+      <c r="D3196">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1048" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7810471B-0D35-43A5-8BDE-843968C2FBA7}"/>
+  <xr:revisionPtr revIDLastSave="1104" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54C1B9DE-B60E-4363-86CA-7BDBA5DFB52B}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3196"/>
+  <dimension ref="A1:D3210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3181" workbookViewId="0">
-      <selection activeCell="A3197" sqref="A3197"/>
+    <sheetView tabSelected="1" topLeftCell="A3196" workbookViewId="0">
+      <selection activeCell="A3211" sqref="A3211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45123,6 +45123,202 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3197">
+        <v>6</v>
+      </c>
+      <c r="B3197">
+        <v>2</v>
+      </c>
+      <c r="C3197">
+        <v>5</v>
+      </c>
+      <c r="D3197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3198">
+        <v>4</v>
+      </c>
+      <c r="B3198">
+        <v>1</v>
+      </c>
+      <c r="C3198">
+        <v>4</v>
+      </c>
+      <c r="D3198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3199">
+        <v>4</v>
+      </c>
+      <c r="B3199">
+        <v>2</v>
+      </c>
+      <c r="C3199">
+        <v>4</v>
+      </c>
+      <c r="D3199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3200">
+        <v>4</v>
+      </c>
+      <c r="B3200">
+        <v>3</v>
+      </c>
+      <c r="C3200">
+        <v>4</v>
+      </c>
+      <c r="D3200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3201">
+        <v>4</v>
+      </c>
+      <c r="B3201">
+        <v>3</v>
+      </c>
+      <c r="C3201">
+        <v>3</v>
+      </c>
+      <c r="D3201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3202">
+        <v>6</v>
+      </c>
+      <c r="B3202">
+        <v>2</v>
+      </c>
+      <c r="C3202">
+        <v>5</v>
+      </c>
+      <c r="D3202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3203">
+        <v>5</v>
+      </c>
+      <c r="B3203">
+        <v>0</v>
+      </c>
+      <c r="C3203">
+        <v>5</v>
+      </c>
+      <c r="D3203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3204">
+        <v>2</v>
+      </c>
+      <c r="B3204">
+        <v>1</v>
+      </c>
+      <c r="C3204">
+        <v>3</v>
+      </c>
+      <c r="D3204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3205">
+        <v>5</v>
+      </c>
+      <c r="B3205">
+        <v>2</v>
+      </c>
+      <c r="C3205">
+        <v>5</v>
+      </c>
+      <c r="D3205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3206">
+        <v>5</v>
+      </c>
+      <c r="B3206">
+        <v>2</v>
+      </c>
+      <c r="C3206">
+        <v>4</v>
+      </c>
+      <c r="D3206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3207">
+        <v>3</v>
+      </c>
+      <c r="B3207">
+        <v>1</v>
+      </c>
+      <c r="C3207">
+        <v>3</v>
+      </c>
+      <c r="D3207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3208">
+        <v>3</v>
+      </c>
+      <c r="B3208">
+        <v>3</v>
+      </c>
+      <c r="C3208">
+        <v>3</v>
+      </c>
+      <c r="D3208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3209">
+        <v>6</v>
+      </c>
+      <c r="B3209">
+        <v>0</v>
+      </c>
+      <c r="C3209">
+        <v>5</v>
+      </c>
+      <c r="D3209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3210">
+        <v>4</v>
+      </c>
+      <c r="B3210">
+        <v>2</v>
+      </c>
+      <c r="C3210">
+        <v>7</v>
+      </c>
+      <c r="D3210">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1104" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54C1B9DE-B60E-4363-86CA-7BDBA5DFB52B}"/>
+  <xr:revisionPtr revIDLastSave="1164" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425217C8-6257-45BD-8BC3-1CA185E00F52}"/>
   <bookViews>
     <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3210"/>
+  <dimension ref="A1:D3225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3196" workbookViewId="0">
-      <selection activeCell="A3211" sqref="A3211"/>
+      <selection activeCell="A3226" sqref="A3226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45319,6 +45319,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3211">
+        <v>4</v>
+      </c>
+      <c r="B3211">
+        <v>2</v>
+      </c>
+      <c r="C3211">
+        <v>5</v>
+      </c>
+      <c r="D3211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3212">
+        <v>5</v>
+      </c>
+      <c r="B3212">
+        <v>0</v>
+      </c>
+      <c r="C3212">
+        <v>6</v>
+      </c>
+      <c r="D3212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3213">
+        <v>3</v>
+      </c>
+      <c r="B3213">
+        <v>0</v>
+      </c>
+      <c r="C3213">
+        <v>4</v>
+      </c>
+      <c r="D3213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3214">
+        <v>6</v>
+      </c>
+      <c r="B3214">
+        <v>2</v>
+      </c>
+      <c r="C3214">
+        <v>4</v>
+      </c>
+      <c r="D3214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3215">
+        <v>5</v>
+      </c>
+      <c r="B3215">
+        <v>1</v>
+      </c>
+      <c r="C3215">
+        <v>4</v>
+      </c>
+      <c r="D3215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3216">
+        <v>3</v>
+      </c>
+      <c r="B3216">
+        <v>3</v>
+      </c>
+      <c r="C3216">
+        <v>3</v>
+      </c>
+      <c r="D3216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3217">
+        <v>4</v>
+      </c>
+      <c r="B3217">
+        <v>2</v>
+      </c>
+      <c r="C3217">
+        <v>4</v>
+      </c>
+      <c r="D3217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3218">
+        <v>5</v>
+      </c>
+      <c r="B3218">
+        <v>1</v>
+      </c>
+      <c r="C3218">
+        <v>6</v>
+      </c>
+      <c r="D3218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3219">
+        <v>3</v>
+      </c>
+      <c r="B3219">
+        <v>3</v>
+      </c>
+      <c r="C3219">
+        <v>2</v>
+      </c>
+      <c r="D3219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3220">
+        <v>7</v>
+      </c>
+      <c r="B3220">
+        <v>0</v>
+      </c>
+      <c r="C3220">
+        <v>7</v>
+      </c>
+      <c r="D3220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3221">
+        <v>3</v>
+      </c>
+      <c r="B3221">
+        <v>1</v>
+      </c>
+      <c r="C3221">
+        <v>3</v>
+      </c>
+      <c r="D3221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3222">
+        <v>6</v>
+      </c>
+      <c r="B3222">
+        <v>2</v>
+      </c>
+      <c r="C3222">
+        <v>6</v>
+      </c>
+      <c r="D3222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3223">
+        <v>5</v>
+      </c>
+      <c r="B3223">
+        <v>2</v>
+      </c>
+      <c r="C3223">
+        <v>5</v>
+      </c>
+      <c r="D3223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3224">
+        <v>5</v>
+      </c>
+      <c r="B3224">
+        <v>3</v>
+      </c>
+      <c r="C3224">
+        <v>5</v>
+      </c>
+      <c r="D3224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3225">
+        <v>4</v>
+      </c>
+      <c r="B3225">
+        <v>2</v>
+      </c>
+      <c r="C3225">
+        <v>3</v>
+      </c>
+      <c r="D3225">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1164" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425217C8-6257-45BD-8BC3-1CA185E00F52}"/>
+  <xr:revisionPtr revIDLastSave="1286" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70A6D3F7-D99C-420C-AE24-C33511EE2C88}"/>
   <bookViews>
     <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3225"/>
+  <dimension ref="A1:D3255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3196" workbookViewId="0">
-      <selection activeCell="A3226" sqref="A3226"/>
+    <sheetView tabSelected="1" topLeftCell="A3238" workbookViewId="0">
+      <selection activeCell="A3256" sqref="A3256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45529,6 +45529,426 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3226">
+        <v>7</v>
+      </c>
+      <c r="B3226">
+        <v>1</v>
+      </c>
+      <c r="C3226">
+        <v>7</v>
+      </c>
+      <c r="D3226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3227">
+        <v>3</v>
+      </c>
+      <c r="B3227">
+        <v>0</v>
+      </c>
+      <c r="C3227">
+        <v>4</v>
+      </c>
+      <c r="D3227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3228">
+        <v>3</v>
+      </c>
+      <c r="B3228">
+        <v>1</v>
+      </c>
+      <c r="C3228">
+        <v>4</v>
+      </c>
+      <c r="D3228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3229">
+        <v>3</v>
+      </c>
+      <c r="B3229">
+        <v>2</v>
+      </c>
+      <c r="C3229">
+        <v>3</v>
+      </c>
+      <c r="D3229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3230">
+        <v>6</v>
+      </c>
+      <c r="B3230">
+        <v>3</v>
+      </c>
+      <c r="C3230">
+        <v>5</v>
+      </c>
+      <c r="D3230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3231">
+        <v>3</v>
+      </c>
+      <c r="B3231">
+        <v>3</v>
+      </c>
+      <c r="C3231">
+        <v>3</v>
+      </c>
+      <c r="D3231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3232">
+        <v>4</v>
+      </c>
+      <c r="B3232">
+        <v>2</v>
+      </c>
+      <c r="C3232">
+        <v>4</v>
+      </c>
+      <c r="D3232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3233">
+        <v>6</v>
+      </c>
+      <c r="B3233">
+        <v>2</v>
+      </c>
+      <c r="C3233">
+        <v>6</v>
+      </c>
+      <c r="D3233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3234">
+        <v>4</v>
+      </c>
+      <c r="B3234">
+        <v>0</v>
+      </c>
+      <c r="C3234">
+        <v>5</v>
+      </c>
+      <c r="D3234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3235">
+        <v>5</v>
+      </c>
+      <c r="B3235">
+        <v>2</v>
+      </c>
+      <c r="C3235">
+        <v>5</v>
+      </c>
+      <c r="D3235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3236">
+        <v>6</v>
+      </c>
+      <c r="B3236">
+        <v>1</v>
+      </c>
+      <c r="C3236">
+        <v>5</v>
+      </c>
+      <c r="D3236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3237">
+        <v>4</v>
+      </c>
+      <c r="B3237">
+        <v>2</v>
+      </c>
+      <c r="C3237">
+        <v>6</v>
+      </c>
+      <c r="D3237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3238">
+        <v>4</v>
+      </c>
+      <c r="B3238">
+        <v>3</v>
+      </c>
+      <c r="C3238">
+        <v>4</v>
+      </c>
+      <c r="D3238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3239">
+        <v>2</v>
+      </c>
+      <c r="B3239">
+        <v>1</v>
+      </c>
+      <c r="C3239">
+        <v>6</v>
+      </c>
+      <c r="D3239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3240">
+        <v>6</v>
+      </c>
+      <c r="B3240">
+        <v>0</v>
+      </c>
+      <c r="C3240">
+        <v>2</v>
+      </c>
+      <c r="D3240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3241">
+        <v>5</v>
+      </c>
+      <c r="B3241">
+        <v>0</v>
+      </c>
+      <c r="C3241">
+        <v>4</v>
+      </c>
+      <c r="D3241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3242">
+        <v>4</v>
+      </c>
+      <c r="B3242">
+        <v>2</v>
+      </c>
+      <c r="C3242">
+        <v>2</v>
+      </c>
+      <c r="D3242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3243">
+        <v>4</v>
+      </c>
+      <c r="B3243">
+        <v>3</v>
+      </c>
+      <c r="C3243">
+        <v>3</v>
+      </c>
+      <c r="D3243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3244">
+        <v>6</v>
+      </c>
+      <c r="B3244">
+        <v>0</v>
+      </c>
+      <c r="C3244">
+        <v>7</v>
+      </c>
+      <c r="D3244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3245">
+        <v>4</v>
+      </c>
+      <c r="B3245">
+        <v>0</v>
+      </c>
+      <c r="C3245">
+        <v>5</v>
+      </c>
+      <c r="D3245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3246">
+        <v>4</v>
+      </c>
+      <c r="B3246">
+        <v>2</v>
+      </c>
+      <c r="C3246">
+        <v>5</v>
+      </c>
+      <c r="D3246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3247">
+        <v>3</v>
+      </c>
+      <c r="B3247">
+        <v>3</v>
+      </c>
+      <c r="C3247">
+        <v>2</v>
+      </c>
+      <c r="D3247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3248">
+        <v>5</v>
+      </c>
+      <c r="B3248">
+        <v>2</v>
+      </c>
+      <c r="C3248">
+        <v>6</v>
+      </c>
+      <c r="D3248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3249">
+        <v>5</v>
+      </c>
+      <c r="B3249">
+        <v>0</v>
+      </c>
+      <c r="C3249">
+        <v>4</v>
+      </c>
+      <c r="D3249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3250">
+        <v>3</v>
+      </c>
+      <c r="B3250">
+        <v>0</v>
+      </c>
+      <c r="C3250">
+        <v>4</v>
+      </c>
+      <c r="D3250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3251">
+        <v>4</v>
+      </c>
+      <c r="B3251">
+        <v>2</v>
+      </c>
+      <c r="C3251">
+        <v>4</v>
+      </c>
+      <c r="D3251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3252">
+        <v>4</v>
+      </c>
+      <c r="B3252">
+        <v>1</v>
+      </c>
+      <c r="C3252">
+        <v>4</v>
+      </c>
+      <c r="D3252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3253">
+        <v>5</v>
+      </c>
+      <c r="B3253">
+        <v>2</v>
+      </c>
+      <c r="C3253">
+        <v>5</v>
+      </c>
+      <c r="D3253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3254">
+        <v>7</v>
+      </c>
+      <c r="B3254">
+        <v>2</v>
+      </c>
+      <c r="C3254">
+        <v>6</v>
+      </c>
+      <c r="D3254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3255">
+        <v>3</v>
+      </c>
+      <c r="B3255">
+        <v>3</v>
+      </c>
+      <c r="C3255">
+        <v>2</v>
+      </c>
+      <c r="D3255">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1286" documentId="13_ncr:1_{EE0AEC25-547E-437B-98C6-C9992E9F088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70A6D3F7-D99C-420C-AE24-C33511EE2C88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D8138-48C8-445A-B4D3-AB167375D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3255"/>
+  <dimension ref="A1:D3299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3238" workbookViewId="0">
-      <selection activeCell="A3256" sqref="A3256"/>
+    <sheetView tabSelected="1" topLeftCell="A3268" workbookViewId="0">
+      <selection activeCell="A3300" sqref="A3300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45949,6 +45945,622 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3256">
+        <v>3</v>
+      </c>
+      <c r="B3256">
+        <v>2</v>
+      </c>
+      <c r="C3256">
+        <v>5</v>
+      </c>
+      <c r="D3256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3257">
+        <v>3</v>
+      </c>
+      <c r="B3257">
+        <v>2</v>
+      </c>
+      <c r="C3257">
+        <v>4</v>
+      </c>
+      <c r="D3257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3258">
+        <v>5</v>
+      </c>
+      <c r="B3258">
+        <v>0</v>
+      </c>
+      <c r="C3258">
+        <v>6</v>
+      </c>
+      <c r="D3258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3259">
+        <v>3</v>
+      </c>
+      <c r="B3259">
+        <v>2</v>
+      </c>
+      <c r="C3259">
+        <v>4</v>
+      </c>
+      <c r="D3259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3260">
+        <v>7</v>
+      </c>
+      <c r="B3260">
+        <v>3</v>
+      </c>
+      <c r="C3260">
+        <v>4</v>
+      </c>
+      <c r="D3260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3261">
+        <v>4</v>
+      </c>
+      <c r="B3261">
+        <v>2</v>
+      </c>
+      <c r="C3261">
+        <v>4</v>
+      </c>
+      <c r="D3261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3262">
+        <v>4</v>
+      </c>
+      <c r="B3262">
+        <v>2</v>
+      </c>
+      <c r="C3262">
+        <v>6</v>
+      </c>
+      <c r="D3262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3263">
+        <v>4</v>
+      </c>
+      <c r="B3263">
+        <v>2</v>
+      </c>
+      <c r="C3263">
+        <v>3</v>
+      </c>
+      <c r="D3263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3264">
+        <v>6</v>
+      </c>
+      <c r="B3264">
+        <v>2</v>
+      </c>
+      <c r="C3264">
+        <v>7</v>
+      </c>
+      <c r="D3264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3265">
+        <v>2</v>
+      </c>
+      <c r="B3265">
+        <v>2</v>
+      </c>
+      <c r="C3265">
+        <v>3</v>
+      </c>
+      <c r="D3265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3266">
+        <v>4</v>
+      </c>
+      <c r="B3266">
+        <v>1</v>
+      </c>
+      <c r="C3266">
+        <v>4</v>
+      </c>
+      <c r="D3266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3267">
+        <v>3</v>
+      </c>
+      <c r="B3267">
+        <v>0</v>
+      </c>
+      <c r="C3267">
+        <v>4</v>
+      </c>
+      <c r="D3267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3268">
+        <v>5</v>
+      </c>
+      <c r="B3268">
+        <v>2</v>
+      </c>
+      <c r="C3268">
+        <v>5</v>
+      </c>
+      <c r="D3268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3269">
+        <v>6</v>
+      </c>
+      <c r="B3269">
+        <v>3</v>
+      </c>
+      <c r="C3269">
+        <v>6</v>
+      </c>
+      <c r="D3269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3270">
+        <v>2</v>
+      </c>
+      <c r="B3270">
+        <v>3</v>
+      </c>
+      <c r="C3270">
+        <v>3</v>
+      </c>
+      <c r="D3270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3271">
+        <v>3</v>
+      </c>
+      <c r="B3271">
+        <v>1</v>
+      </c>
+      <c r="C3271">
+        <v>4</v>
+      </c>
+      <c r="D3271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3272">
+        <v>4</v>
+      </c>
+      <c r="B3272">
+        <v>2</v>
+      </c>
+      <c r="C3272">
+        <v>4</v>
+      </c>
+      <c r="D3272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3273">
+        <v>6</v>
+      </c>
+      <c r="B3273">
+        <v>3</v>
+      </c>
+      <c r="C3273">
+        <v>5</v>
+      </c>
+      <c r="D3273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3274">
+        <v>5</v>
+      </c>
+      <c r="B3274">
+        <v>2</v>
+      </c>
+      <c r="C3274">
+        <v>5</v>
+      </c>
+      <c r="D3274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3275">
+        <v>4</v>
+      </c>
+      <c r="B3275">
+        <v>2</v>
+      </c>
+      <c r="C3275">
+        <v>5</v>
+      </c>
+      <c r="D3275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3276">
+        <v>4</v>
+      </c>
+      <c r="B3276">
+        <v>2</v>
+      </c>
+      <c r="C3276">
+        <v>4</v>
+      </c>
+      <c r="D3276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3277">
+        <v>4</v>
+      </c>
+      <c r="B3277">
+        <v>2</v>
+      </c>
+      <c r="C3277">
+        <v>3</v>
+      </c>
+      <c r="D3277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3278">
+        <v>6</v>
+      </c>
+      <c r="B3278">
+        <v>2</v>
+      </c>
+      <c r="C3278">
+        <v>4</v>
+      </c>
+      <c r="D3278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3279">
+        <v>2</v>
+      </c>
+      <c r="B3279">
+        <v>2</v>
+      </c>
+      <c r="C3279">
+        <v>3</v>
+      </c>
+      <c r="D3279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3280">
+        <v>3</v>
+      </c>
+      <c r="B3280">
+        <v>1</v>
+      </c>
+      <c r="C3280">
+        <v>3</v>
+      </c>
+      <c r="D3280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3281">
+        <v>5</v>
+      </c>
+      <c r="B3281">
+        <v>2</v>
+      </c>
+      <c r="C3281">
+        <v>5</v>
+      </c>
+      <c r="D3281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3282">
+        <v>6</v>
+      </c>
+      <c r="B3282">
+        <v>0</v>
+      </c>
+      <c r="C3282">
+        <v>5</v>
+      </c>
+      <c r="D3282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3283">
+        <v>6</v>
+      </c>
+      <c r="B3283">
+        <v>0</v>
+      </c>
+      <c r="C3283">
+        <v>7</v>
+      </c>
+      <c r="D3283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3284">
+        <v>3</v>
+      </c>
+      <c r="B3284">
+        <v>3</v>
+      </c>
+      <c r="C3284">
+        <v>3</v>
+      </c>
+      <c r="D3284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3285">
+        <v>4</v>
+      </c>
+      <c r="B3285">
+        <v>2</v>
+      </c>
+      <c r="C3285">
+        <v>4</v>
+      </c>
+      <c r="D3285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3286">
+        <v>6</v>
+      </c>
+      <c r="B3286">
+        <v>2</v>
+      </c>
+      <c r="C3286">
+        <v>5</v>
+      </c>
+      <c r="D3286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3287">
+        <v>3</v>
+      </c>
+      <c r="B3287">
+        <v>1</v>
+      </c>
+      <c r="C3287">
+        <v>4</v>
+      </c>
+      <c r="D3287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3288">
+        <v>5</v>
+      </c>
+      <c r="B3288">
+        <v>0</v>
+      </c>
+      <c r="C3288">
+        <v>6</v>
+      </c>
+      <c r="D3288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3289">
+        <v>5</v>
+      </c>
+      <c r="B3289">
+        <v>2</v>
+      </c>
+      <c r="C3289">
+        <v>2</v>
+      </c>
+      <c r="D3289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3290">
+        <v>3</v>
+      </c>
+      <c r="B3290">
+        <v>3</v>
+      </c>
+      <c r="C3290">
+        <v>2</v>
+      </c>
+      <c r="D3290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3291">
+        <v>3</v>
+      </c>
+      <c r="B3291">
+        <v>2</v>
+      </c>
+      <c r="C3291">
+        <v>3</v>
+      </c>
+      <c r="D3291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3292">
+        <v>6</v>
+      </c>
+      <c r="B3292">
+        <v>2</v>
+      </c>
+      <c r="C3292">
+        <v>4</v>
+      </c>
+      <c r="D3292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3293">
+        <v>7</v>
+      </c>
+      <c r="B3293">
+        <v>2</v>
+      </c>
+      <c r="C3293">
+        <v>7</v>
+      </c>
+      <c r="D3293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3294">
+        <v>3</v>
+      </c>
+      <c r="B3294">
+        <v>1</v>
+      </c>
+      <c r="C3294">
+        <v>5</v>
+      </c>
+      <c r="D3294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3295">
+        <v>3</v>
+      </c>
+      <c r="B3295">
+        <v>3</v>
+      </c>
+      <c r="C3295">
+        <v>3</v>
+      </c>
+      <c r="D3295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3296">
+        <v>5</v>
+      </c>
+      <c r="B3296">
+        <v>1</v>
+      </c>
+      <c r="C3296">
+        <v>5</v>
+      </c>
+      <c r="D3296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3297">
+        <v>4</v>
+      </c>
+      <c r="B3297">
+        <v>1</v>
+      </c>
+      <c r="C3297">
+        <v>4</v>
+      </c>
+      <c r="D3297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3298">
+        <v>6</v>
+      </c>
+      <c r="B3298">
+        <v>0</v>
+      </c>
+      <c r="C3298">
+        <v>6</v>
+      </c>
+      <c r="D3298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3299">
+        <v>4</v>
+      </c>
+      <c r="B3299">
+        <v>2</v>
+      </c>
+      <c r="C3299">
+        <v>5</v>
+      </c>
+      <c r="D3299">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D8138-48C8-445A-B4D3-AB167375D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{504D8138-48C8-445A-B4D3-AB167375D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD00741-1DB6-4B39-A71F-3FB48B267B30}"/>
   <bookViews>
-    <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3299"/>
+  <dimension ref="A1:D3328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3268" workbookViewId="0">
-      <selection activeCell="A3300" sqref="A3300"/>
+    <sheetView tabSelected="1" topLeftCell="A3313" workbookViewId="0">
+      <selection activeCell="A3329" sqref="A3329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46561,6 +46561,412 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3300">
+        <v>3</v>
+      </c>
+      <c r="B3300">
+        <v>3</v>
+      </c>
+      <c r="C3300">
+        <v>3</v>
+      </c>
+      <c r="D3300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3301">
+        <v>4</v>
+      </c>
+      <c r="B3301">
+        <v>2</v>
+      </c>
+      <c r="C3301">
+        <v>5</v>
+      </c>
+      <c r="D3301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3302">
+        <v>4</v>
+      </c>
+      <c r="B3302">
+        <v>1</v>
+      </c>
+      <c r="C3302">
+        <v>4</v>
+      </c>
+      <c r="D3302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3303">
+        <v>5</v>
+      </c>
+      <c r="B3303">
+        <v>0</v>
+      </c>
+      <c r="C3303">
+        <v>6</v>
+      </c>
+      <c r="D3303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3304">
+        <v>6</v>
+      </c>
+      <c r="B3304">
+        <v>2</v>
+      </c>
+      <c r="C3304">
+        <v>5</v>
+      </c>
+      <c r="D3304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3305">
+        <v>3</v>
+      </c>
+      <c r="B3305">
+        <v>0</v>
+      </c>
+      <c r="C3305">
+        <v>4</v>
+      </c>
+      <c r="D3305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3306">
+        <v>6</v>
+      </c>
+      <c r="B3306">
+        <v>0</v>
+      </c>
+      <c r="C3306">
+        <v>7</v>
+      </c>
+      <c r="D3306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3307">
+        <v>4</v>
+      </c>
+      <c r="B3307">
+        <v>1</v>
+      </c>
+      <c r="C3307">
+        <v>4</v>
+      </c>
+      <c r="D3307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3308">
+        <v>4</v>
+      </c>
+      <c r="B3308">
+        <v>1</v>
+      </c>
+      <c r="C3308">
+        <v>3</v>
+      </c>
+      <c r="D3308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3309">
+        <v>5</v>
+      </c>
+      <c r="B3309">
+        <v>1</v>
+      </c>
+      <c r="C3309">
+        <v>5</v>
+      </c>
+      <c r="D3309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3310">
+        <v>5</v>
+      </c>
+      <c r="B3310">
+        <v>0</v>
+      </c>
+      <c r="C3310">
+        <v>3</v>
+      </c>
+      <c r="D3310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3311">
+        <v>6</v>
+      </c>
+      <c r="B3311">
+        <v>0</v>
+      </c>
+      <c r="C3311">
+        <v>6</v>
+      </c>
+      <c r="D3311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3312">
+        <v>4</v>
+      </c>
+      <c r="B3312">
+        <v>0</v>
+      </c>
+      <c r="C3312">
+        <v>3</v>
+      </c>
+      <c r="D3312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3313">
+        <v>5</v>
+      </c>
+      <c r="B3313">
+        <v>0</v>
+      </c>
+      <c r="C3313">
+        <v>5</v>
+      </c>
+      <c r="D3313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3314">
+        <v>2</v>
+      </c>
+      <c r="B3314">
+        <v>1</v>
+      </c>
+      <c r="C3314">
+        <v>3</v>
+      </c>
+      <c r="D3314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3315">
+        <v>4</v>
+      </c>
+      <c r="B3315">
+        <v>2</v>
+      </c>
+      <c r="C3315">
+        <v>3</v>
+      </c>
+      <c r="D3315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3316">
+        <v>4</v>
+      </c>
+      <c r="B3316">
+        <v>2</v>
+      </c>
+      <c r="C3316">
+        <v>4</v>
+      </c>
+      <c r="D3316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3317">
+        <v>6</v>
+      </c>
+      <c r="B3317">
+        <v>0</v>
+      </c>
+      <c r="C3317">
+        <v>5</v>
+      </c>
+      <c r="D3317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3318">
+        <v>5</v>
+      </c>
+      <c r="B3318">
+        <v>2</v>
+      </c>
+      <c r="C3318">
+        <v>6</v>
+      </c>
+      <c r="D3318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3319">
+        <v>7</v>
+      </c>
+      <c r="B3319">
+        <v>2</v>
+      </c>
+      <c r="C3319">
+        <v>6</v>
+      </c>
+      <c r="D3319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3320">
+        <v>3</v>
+      </c>
+      <c r="B3320">
+        <v>3</v>
+      </c>
+      <c r="C3320">
+        <v>4</v>
+      </c>
+      <c r="D3320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3321">
+        <v>5</v>
+      </c>
+      <c r="B3321">
+        <v>2</v>
+      </c>
+      <c r="C3321">
+        <v>4</v>
+      </c>
+      <c r="D3321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3322">
+        <v>2</v>
+      </c>
+      <c r="B3322">
+        <v>0</v>
+      </c>
+      <c r="C3322">
+        <v>3</v>
+      </c>
+      <c r="D3322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3323">
+        <v>6</v>
+      </c>
+      <c r="B3323">
+        <v>2</v>
+      </c>
+      <c r="C3323">
+        <v>5</v>
+      </c>
+      <c r="D3323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3324">
+        <v>3</v>
+      </c>
+      <c r="B3324">
+        <v>3</v>
+      </c>
+      <c r="C3324">
+        <v>2</v>
+      </c>
+      <c r="D3324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3325">
+        <v>5</v>
+      </c>
+      <c r="B3325">
+        <v>2</v>
+      </c>
+      <c r="C3325">
+        <v>6</v>
+      </c>
+      <c r="D3325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3326">
+        <v>3</v>
+      </c>
+      <c r="B3326">
+        <v>2</v>
+      </c>
+      <c r="C3326">
+        <v>3</v>
+      </c>
+      <c r="D3326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3327">
+        <v>5</v>
+      </c>
+      <c r="B3327">
+        <v>2</v>
+      </c>
+      <c r="C3327">
+        <v>5</v>
+      </c>
+      <c r="D3327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3328">
+        <v>7</v>
+      </c>
+      <c r="B3328">
+        <v>3</v>
+      </c>
+      <c r="C3328">
+        <v>5</v>
+      </c>
+      <c r="D3328">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SLMatchups.xlsx
+++ b/data/SLMatchups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{504D8138-48C8-445A-B4D3-AB167375D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD00741-1DB6-4B39-A71F-3FB48B267B30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0030578-693C-4807-BE0A-4CD7DF4B1D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3328"/>
+  <dimension ref="A1:D3343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3313" workbookViewId="0">
-      <selection activeCell="A3329" sqref="A3329"/>
+    <sheetView tabSelected="1" topLeftCell="A3322" workbookViewId="0">
+      <selection activeCell="A3344" sqref="A3344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46967,6 +46967,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3329">
+        <v>7</v>
+      </c>
+      <c r="B3329">
+        <v>0</v>
+      </c>
+      <c r="C3329">
+        <v>7</v>
+      </c>
+      <c r="D3329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3330">
+        <v>5</v>
+      </c>
+      <c r="B3330">
+        <v>2</v>
+      </c>
+      <c r="C3330">
+        <v>3</v>
+      </c>
+      <c r="D3330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3331">
+        <v>3</v>
+      </c>
+      <c r="B3331">
+        <v>3</v>
+      </c>
+      <c r="C3331">
+        <v>6</v>
+      </c>
+      <c r="D3331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3332">
+        <v>4</v>
+      </c>
+      <c r="B3332">
+        <v>1</v>
+      </c>
+      <c r="C3332">
+        <v>3</v>
+      </c>
+      <c r="D3332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3333">
+        <v>3</v>
+      </c>
+      <c r="B3333">
+        <v>3</v>
+      </c>
+      <c r="C3333">
+        <v>3</v>
+      </c>
+      <c r="D3333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3334">
+        <v>4</v>
+      </c>
+      <c r="B3334">
+        <v>0</v>
+      </c>
+      <c r="C3334">
+        <v>3</v>
+      </c>
+      <c r="D3334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3335">
+        <v>3</v>
+      </c>
+      <c r="B3335">
+        <v>0</v>
+      </c>
+      <c r="C3335">
+        <v>2</v>
+      </c>
+      <c r="D3335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3336">
+        <v>5</v>
+      </c>
+      <c r="B3336">
+        <v>2</v>
+      </c>
+      <c r="C3336">
+        <v>4</v>
+      </c>
+      <c r="D3336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3337">
+        <v>3</v>
+      </c>
+      <c r="B3337">
+        <v>3</v>
+      </c>
+      <c r="C3337">
+        <v>4</v>
+      </c>
+      <c r="D3337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3338">
+        <v>5</v>
+      </c>
+      <c r="B3338">
+        <v>0</v>
+      </c>
+      <c r="C3338">
+        <v>7</v>
+      </c>
+      <c r="D3338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3339">
+        <v>3</v>
+      </c>
+      <c r="B3339">
+        <v>2</v>
+      </c>
+      <c r="C3339">
+        <v>4</v>
+      </c>
+      <c r="D3339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3340">
+        <v>6</v>
+      </c>
+      <c r="B3340">
+        <v>2</v>
+      </c>
+      <c r="C3340">
+        <v>6</v>
+      </c>
+      <c r="D3340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3341">
+        <v>5</v>
+      </c>
+      <c r="B3341">
+        <v>1</v>
+      </c>
+      <c r="C3341">
+        <v>6</v>
+      </c>
+      <c r="D3341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3342">
+        <v>6</v>
+      </c>
+      <c r="B3342">
+        <v>1</v>
+      </c>
+      <c r="C3342">
+        <v>2</v>
+      </c>
+      <c r="D3342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3343">
+        <v>3</v>
+      </c>
+      <c r="B3343">
+        <v>1</v>
+      </c>
+      <c r="C3343">
+        <v>5</v>
+      </c>
+      <c r="D3343">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
